--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,11 +13,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="242" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="298" uniqueCount="210">
   <si>
     <t>crop</t>
   </si>
   <si>
+    <t>garlic- german extra hardy hardneck</t>
+  </si>
+  <si>
     <t>kale- lacinato</t>
   </si>
   <si>
@@ -72,22 +75,73 @@
     <t>pepper- pimenta puma</t>
   </si>
   <si>
+    <t>tomato- amish</t>
+  </si>
+  <si>
+    <t>tomato- cherry roma</t>
+  </si>
+  <si>
+    <t>tomato- roma</t>
+  </si>
+  <si>
+    <t>tomato- fresh salsa hybrid</t>
+  </si>
+  <si>
+    <t>broccoli- calabrese</t>
+  </si>
+  <si>
+    <t>basil- sweet</t>
+  </si>
+  <si>
+    <t>catnip</t>
+  </si>
+  <si>
+    <t>cilantro</t>
+  </si>
+  <si>
+    <t>cilantro- calypse</t>
+  </si>
+  <si>
+    <t>coleus- chocolate covered cherry</t>
+  </si>
+  <si>
+    <t>marigold- queen sophia</t>
+  </si>
+  <si>
+    <t>coreopsis- ruby kiss</t>
+  </si>
+  <si>
+    <t>salvia- victoria</t>
+  </si>
+  <si>
     <t>sow_type</t>
   </si>
   <si>
+    <t>outdoor seed</t>
+  </si>
+  <si>
     <t>indoor seed</t>
   </si>
   <si>
     <t>sow_date</t>
   </si>
   <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
     <t>2024-02-25</t>
   </si>
   <si>
-    <t>2023-03-12</t>
+    <t>2023-02-25</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
   </si>
   <si>
     <t>sow_med</t>
+  </si>
+  <si>
+    <t>raised bed- ground</t>
   </si>
   <si>
     <t>soilless</t>
@@ -634,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FN19"/>
+  <dimension ref="A1:FN33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -645,511 +699,511 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="AA1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="AE1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="AG1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="AH1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="AJ1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AK1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AL1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AM1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="AN1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="AO1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="AP1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AQ1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="AR1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="AS1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="AT1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="AU1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="AV1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="AW1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="AX1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="AY1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AZ1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="BA1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="BB1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="BC1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="BD1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="BE1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="BF1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="BG1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="BH1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="BI1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="BJ1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="BK1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="BL1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="BM1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="BN1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="BO1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="BP1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="BQ1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="BR1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="BS1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="BT1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="BU1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="BV1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="BW1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="BX1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="BY1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="BZ1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="CA1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="CB1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="CC1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="CD1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="CE1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="CF1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="CG1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="CH1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CI1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="CJ1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="CK1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="CL1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="CM1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="CN1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="CO1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="CP1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="CQ1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="CR1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="CS1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="CT1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="CU1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="CV1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="CW1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="CX1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="CY1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="CZ1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="DA1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="DB1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="DC1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="DD1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="DE1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="DF1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="DG1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="DH1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="DI1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="DJ1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="DK1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="DL1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="DM1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="DN1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="DO1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="DP1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="DQ1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="DR1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="DS1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="DT1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="DU1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="DV1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="DW1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="DX1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="DY1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="DZ1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="EA1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="EB1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="EC1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="ED1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="EE1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="EF1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="EG1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="EH1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="EI1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="EJ1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="EK1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="EL1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="EM1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="EN1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="EO1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="EP1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="EQ1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="ER1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="ES1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="ET1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="EU1" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="EV1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="EW1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="EX1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="EY1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="EZ1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="FA1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="FB1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="FC1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="FD1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="FE1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="FF1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="FG1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="FH1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="FI1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="FJ1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="FK1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="FL1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="FM1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="FN1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
@@ -1157,22 +1211,24 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>18</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1341,13 +1397,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1">
         <v>50</v>
@@ -1355,9 +1411,15 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1525,26 +1587,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
       <c r="I4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1713,13 +1777,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1">
         <v>50</v>
@@ -1730,9 +1794,11 @@
       <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1901,13 +1967,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -1918,9 +1984,11 @@
       <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
       <c r="I6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2089,13 +2157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -2106,9 +2174,11 @@
       <c r="G7" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
       <c r="I7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2277,25 +2347,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2463,25 +2537,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1">
         <v>32</v>
       </c>
       <c r="F9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2649,25 +2727,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1">
         <v>32</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>11</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2835,25 +2917,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>4</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>12</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -3021,25 +3107,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1">
         <v>32</v>
       </c>
       <c r="F12" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>12</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -3207,25 +3297,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1">
         <v>4</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3393,25 +3487,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
         <v>4</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3579,25 +3677,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1">
         <v>32</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3765,25 +3867,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1">
         <v>32</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
         <v>4</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>12</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3951,13 +4057,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1">
         <v>32</v>
@@ -3968,8 +4074,12 @@
       <c r="G17" s="1">
         <v>4</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>11</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4137,13 +4247,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1">
         <v>32</v>
@@ -4154,8 +4264,12 @@
       <c r="G18" s="1">
         <v>4</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>13</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4323,13 +4437,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1">
         <v>32</v>
@@ -4340,8 +4454,12 @@
       <c r="G19" s="1">
         <v>4</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>12</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -4504,6 +4622,2614 @@
       <c r="FM19" s="1"/>
       <c r="FN19" s="1"/>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
+      <c r="CL20" s="1"/>
+      <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="1"/>
+      <c r="CP20" s="1"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
+      <c r="CW20" s="1"/>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="1"/>
+      <c r="CZ20" s="1"/>
+      <c r="DA20" s="1"/>
+      <c r="DB20" s="1"/>
+      <c r="DC20" s="1"/>
+      <c r="DD20" s="1"/>
+      <c r="DE20" s="1"/>
+      <c r="DF20" s="1"/>
+      <c r="DG20" s="1"/>
+      <c r="DH20" s="1"/>
+      <c r="DI20" s="1"/>
+      <c r="DJ20" s="1"/>
+      <c r="DK20" s="1"/>
+      <c r="DL20" s="1"/>
+      <c r="DM20" s="1"/>
+      <c r="DN20" s="1"/>
+      <c r="DO20" s="1"/>
+      <c r="DP20" s="1"/>
+      <c r="DQ20" s="1"/>
+      <c r="DR20" s="1"/>
+      <c r="DS20" s="1"/>
+      <c r="DT20" s="1"/>
+      <c r="DU20" s="1"/>
+      <c r="DV20" s="1"/>
+      <c r="DW20" s="1"/>
+      <c r="DX20" s="1"/>
+      <c r="DY20" s="1"/>
+      <c r="DZ20" s="1"/>
+      <c r="EA20" s="1"/>
+      <c r="EB20" s="1"/>
+      <c r="EC20" s="1"/>
+      <c r="ED20" s="1"/>
+      <c r="EE20" s="1"/>
+      <c r="EF20" s="1"/>
+      <c r="EG20" s="1"/>
+      <c r="EH20" s="1"/>
+      <c r="EI20" s="1"/>
+      <c r="EJ20" s="1"/>
+      <c r="EK20" s="1"/>
+      <c r="EL20" s="1"/>
+      <c r="EM20" s="1"/>
+      <c r="EN20" s="1"/>
+      <c r="EO20" s="1"/>
+      <c r="EP20" s="1"/>
+      <c r="EQ20" s="1"/>
+      <c r="ER20" s="1"/>
+      <c r="ES20" s="1"/>
+      <c r="ET20" s="1"/>
+      <c r="EU20" s="1"/>
+      <c r="EV20" s="1"/>
+      <c r="EW20" s="1"/>
+      <c r="EX20" s="1"/>
+      <c r="EY20" s="1"/>
+      <c r="EZ20" s="1"/>
+      <c r="FA20" s="1"/>
+      <c r="FB20" s="1"/>
+      <c r="FC20" s="1"/>
+      <c r="FD20" s="1"/>
+      <c r="FE20" s="1"/>
+      <c r="FF20" s="1"/>
+      <c r="FG20" s="1"/>
+      <c r="FH20" s="1"/>
+      <c r="FI20" s="1"/>
+      <c r="FJ20" s="1"/>
+      <c r="FK20" s="1"/>
+      <c r="FL20" s="1"/>
+      <c r="FM20" s="1"/>
+      <c r="FN20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
+      <c r="CW21" s="1"/>
+      <c r="CX21" s="1"/>
+      <c r="CY21" s="1"/>
+      <c r="CZ21" s="1"/>
+      <c r="DA21" s="1"/>
+      <c r="DB21" s="1"/>
+      <c r="DC21" s="1"/>
+      <c r="DD21" s="1"/>
+      <c r="DE21" s="1"/>
+      <c r="DF21" s="1"/>
+      <c r="DG21" s="1"/>
+      <c r="DH21" s="1"/>
+      <c r="DI21" s="1"/>
+      <c r="DJ21" s="1"/>
+      <c r="DK21" s="1"/>
+      <c r="DL21" s="1"/>
+      <c r="DM21" s="1"/>
+      <c r="DN21" s="1"/>
+      <c r="DO21" s="1"/>
+      <c r="DP21" s="1"/>
+      <c r="DQ21" s="1"/>
+      <c r="DR21" s="1"/>
+      <c r="DS21" s="1"/>
+      <c r="DT21" s="1"/>
+      <c r="DU21" s="1"/>
+      <c r="DV21" s="1"/>
+      <c r="DW21" s="1"/>
+      <c r="DX21" s="1"/>
+      <c r="DY21" s="1"/>
+      <c r="DZ21" s="1"/>
+      <c r="EA21" s="1"/>
+      <c r="EB21" s="1"/>
+      <c r="EC21" s="1"/>
+      <c r="ED21" s="1"/>
+      <c r="EE21" s="1"/>
+      <c r="EF21" s="1"/>
+      <c r="EG21" s="1"/>
+      <c r="EH21" s="1"/>
+      <c r="EI21" s="1"/>
+      <c r="EJ21" s="1"/>
+      <c r="EK21" s="1"/>
+      <c r="EL21" s="1"/>
+      <c r="EM21" s="1"/>
+      <c r="EN21" s="1"/>
+      <c r="EO21" s="1"/>
+      <c r="EP21" s="1"/>
+      <c r="EQ21" s="1"/>
+      <c r="ER21" s="1"/>
+      <c r="ES21" s="1"/>
+      <c r="ET21" s="1"/>
+      <c r="EU21" s="1"/>
+      <c r="EV21" s="1"/>
+      <c r="EW21" s="1"/>
+      <c r="EX21" s="1"/>
+      <c r="EY21" s="1"/>
+      <c r="EZ21" s="1"/>
+      <c r="FA21" s="1"/>
+      <c r="FB21" s="1"/>
+      <c r="FC21" s="1"/>
+      <c r="FD21" s="1"/>
+      <c r="FE21" s="1"/>
+      <c r="FF21" s="1"/>
+      <c r="FG21" s="1"/>
+      <c r="FH21" s="1"/>
+      <c r="FI21" s="1"/>
+      <c r="FJ21" s="1"/>
+      <c r="FK21" s="1"/>
+      <c r="FL21" s="1"/>
+      <c r="FM21" s="1"/>
+      <c r="FN21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="1"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
+      <c r="CO22" s="1"/>
+      <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
+      <c r="CT22" s="1"/>
+      <c r="CU22" s="1"/>
+      <c r="CV22" s="1"/>
+      <c r="CW22" s="1"/>
+      <c r="CX22" s="1"/>
+      <c r="CY22" s="1"/>
+      <c r="CZ22" s="1"/>
+      <c r="DA22" s="1"/>
+      <c r="DB22" s="1"/>
+      <c r="DC22" s="1"/>
+      <c r="DD22" s="1"/>
+      <c r="DE22" s="1"/>
+      <c r="DF22" s="1"/>
+      <c r="DG22" s="1"/>
+      <c r="DH22" s="1"/>
+      <c r="DI22" s="1"/>
+      <c r="DJ22" s="1"/>
+      <c r="DK22" s="1"/>
+      <c r="DL22" s="1"/>
+      <c r="DM22" s="1"/>
+      <c r="DN22" s="1"/>
+      <c r="DO22" s="1"/>
+      <c r="DP22" s="1"/>
+      <c r="DQ22" s="1"/>
+      <c r="DR22" s="1"/>
+      <c r="DS22" s="1"/>
+      <c r="DT22" s="1"/>
+      <c r="DU22" s="1"/>
+      <c r="DV22" s="1"/>
+      <c r="DW22" s="1"/>
+      <c r="DX22" s="1"/>
+      <c r="DY22" s="1"/>
+      <c r="DZ22" s="1"/>
+      <c r="EA22" s="1"/>
+      <c r="EB22" s="1"/>
+      <c r="EC22" s="1"/>
+      <c r="ED22" s="1"/>
+      <c r="EE22" s="1"/>
+      <c r="EF22" s="1"/>
+      <c r="EG22" s="1"/>
+      <c r="EH22" s="1"/>
+      <c r="EI22" s="1"/>
+      <c r="EJ22" s="1"/>
+      <c r="EK22" s="1"/>
+      <c r="EL22" s="1"/>
+      <c r="EM22" s="1"/>
+      <c r="EN22" s="1"/>
+      <c r="EO22" s="1"/>
+      <c r="EP22" s="1"/>
+      <c r="EQ22" s="1"/>
+      <c r="ER22" s="1"/>
+      <c r="ES22" s="1"/>
+      <c r="ET22" s="1"/>
+      <c r="EU22" s="1"/>
+      <c r="EV22" s="1"/>
+      <c r="EW22" s="1"/>
+      <c r="EX22" s="1"/>
+      <c r="EY22" s="1"/>
+      <c r="EZ22" s="1"/>
+      <c r="FA22" s="1"/>
+      <c r="FB22" s="1"/>
+      <c r="FC22" s="1"/>
+      <c r="FD22" s="1"/>
+      <c r="FE22" s="1"/>
+      <c r="FF22" s="1"/>
+      <c r="FG22" s="1"/>
+      <c r="FH22" s="1"/>
+      <c r="FI22" s="1"/>
+      <c r="FJ22" s="1"/>
+      <c r="FK22" s="1"/>
+      <c r="FL22" s="1"/>
+      <c r="FM22" s="1"/>
+      <c r="FN22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="1"/>
+      <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
+      <c r="CT23" s="1"/>
+      <c r="CU23" s="1"/>
+      <c r="CV23" s="1"/>
+      <c r="CW23" s="1"/>
+      <c r="CX23" s="1"/>
+      <c r="CY23" s="1"/>
+      <c r="CZ23" s="1"/>
+      <c r="DA23" s="1"/>
+      <c r="DB23" s="1"/>
+      <c r="DC23" s="1"/>
+      <c r="DD23" s="1"/>
+      <c r="DE23" s="1"/>
+      <c r="DF23" s="1"/>
+      <c r="DG23" s="1"/>
+      <c r="DH23" s="1"/>
+      <c r="DI23" s="1"/>
+      <c r="DJ23" s="1"/>
+      <c r="DK23" s="1"/>
+      <c r="DL23" s="1"/>
+      <c r="DM23" s="1"/>
+      <c r="DN23" s="1"/>
+      <c r="DO23" s="1"/>
+      <c r="DP23" s="1"/>
+      <c r="DQ23" s="1"/>
+      <c r="DR23" s="1"/>
+      <c r="DS23" s="1"/>
+      <c r="DT23" s="1"/>
+      <c r="DU23" s="1"/>
+      <c r="DV23" s="1"/>
+      <c r="DW23" s="1"/>
+      <c r="DX23" s="1"/>
+      <c r="DY23" s="1"/>
+      <c r="DZ23" s="1"/>
+      <c r="EA23" s="1"/>
+      <c r="EB23" s="1"/>
+      <c r="EC23" s="1"/>
+      <c r="ED23" s="1"/>
+      <c r="EE23" s="1"/>
+      <c r="EF23" s="1"/>
+      <c r="EG23" s="1"/>
+      <c r="EH23" s="1"/>
+      <c r="EI23" s="1"/>
+      <c r="EJ23" s="1"/>
+      <c r="EK23" s="1"/>
+      <c r="EL23" s="1"/>
+      <c r="EM23" s="1"/>
+      <c r="EN23" s="1"/>
+      <c r="EO23" s="1"/>
+      <c r="EP23" s="1"/>
+      <c r="EQ23" s="1"/>
+      <c r="ER23" s="1"/>
+      <c r="ES23" s="1"/>
+      <c r="ET23" s="1"/>
+      <c r="EU23" s="1"/>
+      <c r="EV23" s="1"/>
+      <c r="EW23" s="1"/>
+      <c r="EX23" s="1"/>
+      <c r="EY23" s="1"/>
+      <c r="EZ23" s="1"/>
+      <c r="FA23" s="1"/>
+      <c r="FB23" s="1"/>
+      <c r="FC23" s="1"/>
+      <c r="FD23" s="1"/>
+      <c r="FE23" s="1"/>
+      <c r="FF23" s="1"/>
+      <c r="FG23" s="1"/>
+      <c r="FH23" s="1"/>
+      <c r="FI23" s="1"/>
+      <c r="FJ23" s="1"/>
+      <c r="FK23" s="1"/>
+      <c r="FL23" s="1"/>
+      <c r="FM23" s="1"/>
+      <c r="FN23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="CJ24" s="1"/>
+      <c r="CK24" s="1"/>
+      <c r="CL24" s="1"/>
+      <c r="CM24" s="1"/>
+      <c r="CN24" s="1"/>
+      <c r="CO24" s="1"/>
+      <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
+      <c r="CT24" s="1"/>
+      <c r="CU24" s="1"/>
+      <c r="CV24" s="1"/>
+      <c r="CW24" s="1"/>
+      <c r="CX24" s="1"/>
+      <c r="CY24" s="1"/>
+      <c r="CZ24" s="1"/>
+      <c r="DA24" s="1"/>
+      <c r="DB24" s="1"/>
+      <c r="DC24" s="1"/>
+      <c r="DD24" s="1"/>
+      <c r="DE24" s="1"/>
+      <c r="DF24" s="1"/>
+      <c r="DG24" s="1"/>
+      <c r="DH24" s="1"/>
+      <c r="DI24" s="1"/>
+      <c r="DJ24" s="1"/>
+      <c r="DK24" s="1"/>
+      <c r="DL24" s="1"/>
+      <c r="DM24" s="1"/>
+      <c r="DN24" s="1"/>
+      <c r="DO24" s="1"/>
+      <c r="DP24" s="1"/>
+      <c r="DQ24" s="1"/>
+      <c r="DR24" s="1"/>
+      <c r="DS24" s="1"/>
+      <c r="DT24" s="1"/>
+      <c r="DU24" s="1"/>
+      <c r="DV24" s="1"/>
+      <c r="DW24" s="1"/>
+      <c r="DX24" s="1"/>
+      <c r="DY24" s="1"/>
+      <c r="DZ24" s="1"/>
+      <c r="EA24" s="1"/>
+      <c r="EB24" s="1"/>
+      <c r="EC24" s="1"/>
+      <c r="ED24" s="1"/>
+      <c r="EE24" s="1"/>
+      <c r="EF24" s="1"/>
+      <c r="EG24" s="1"/>
+      <c r="EH24" s="1"/>
+      <c r="EI24" s="1"/>
+      <c r="EJ24" s="1"/>
+      <c r="EK24" s="1"/>
+      <c r="EL24" s="1"/>
+      <c r="EM24" s="1"/>
+      <c r="EN24" s="1"/>
+      <c r="EO24" s="1"/>
+      <c r="EP24" s="1"/>
+      <c r="EQ24" s="1"/>
+      <c r="ER24" s="1"/>
+      <c r="ES24" s="1"/>
+      <c r="ET24" s="1"/>
+      <c r="EU24" s="1"/>
+      <c r="EV24" s="1"/>
+      <c r="EW24" s="1"/>
+      <c r="EX24" s="1"/>
+      <c r="EY24" s="1"/>
+      <c r="EZ24" s="1"/>
+      <c r="FA24" s="1"/>
+      <c r="FB24" s="1"/>
+      <c r="FC24" s="1"/>
+      <c r="FD24" s="1"/>
+      <c r="FE24" s="1"/>
+      <c r="FF24" s="1"/>
+      <c r="FG24" s="1"/>
+      <c r="FH24" s="1"/>
+      <c r="FI24" s="1"/>
+      <c r="FJ24" s="1"/>
+      <c r="FK24" s="1"/>
+      <c r="FL24" s="1"/>
+      <c r="FM24" s="1"/>
+      <c r="FN24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="1"/>
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="1"/>
+      <c r="CV25" s="1"/>
+      <c r="CW25" s="1"/>
+      <c r="CX25" s="1"/>
+      <c r="CY25" s="1"/>
+      <c r="CZ25" s="1"/>
+      <c r="DA25" s="1"/>
+      <c r="DB25" s="1"/>
+      <c r="DC25" s="1"/>
+      <c r="DD25" s="1"/>
+      <c r="DE25" s="1"/>
+      <c r="DF25" s="1"/>
+      <c r="DG25" s="1"/>
+      <c r="DH25" s="1"/>
+      <c r="DI25" s="1"/>
+      <c r="DJ25" s="1"/>
+      <c r="DK25" s="1"/>
+      <c r="DL25" s="1"/>
+      <c r="DM25" s="1"/>
+      <c r="DN25" s="1"/>
+      <c r="DO25" s="1"/>
+      <c r="DP25" s="1"/>
+      <c r="DQ25" s="1"/>
+      <c r="DR25" s="1"/>
+      <c r="DS25" s="1"/>
+      <c r="DT25" s="1"/>
+      <c r="DU25" s="1"/>
+      <c r="DV25" s="1"/>
+      <c r="DW25" s="1"/>
+      <c r="DX25" s="1"/>
+      <c r="DY25" s="1"/>
+      <c r="DZ25" s="1"/>
+      <c r="EA25" s="1"/>
+      <c r="EB25" s="1"/>
+      <c r="EC25" s="1"/>
+      <c r="ED25" s="1"/>
+      <c r="EE25" s="1"/>
+      <c r="EF25" s="1"/>
+      <c r="EG25" s="1"/>
+      <c r="EH25" s="1"/>
+      <c r="EI25" s="1"/>
+      <c r="EJ25" s="1"/>
+      <c r="EK25" s="1"/>
+      <c r="EL25" s="1"/>
+      <c r="EM25" s="1"/>
+      <c r="EN25" s="1"/>
+      <c r="EO25" s="1"/>
+      <c r="EP25" s="1"/>
+      <c r="EQ25" s="1"/>
+      <c r="ER25" s="1"/>
+      <c r="ES25" s="1"/>
+      <c r="ET25" s="1"/>
+      <c r="EU25" s="1"/>
+      <c r="EV25" s="1"/>
+      <c r="EW25" s="1"/>
+      <c r="EX25" s="1"/>
+      <c r="EY25" s="1"/>
+      <c r="EZ25" s="1"/>
+      <c r="FA25" s="1"/>
+      <c r="FB25" s="1"/>
+      <c r="FC25" s="1"/>
+      <c r="FD25" s="1"/>
+      <c r="FE25" s="1"/>
+      <c r="FF25" s="1"/>
+      <c r="FG25" s="1"/>
+      <c r="FH25" s="1"/>
+      <c r="FI25" s="1"/>
+      <c r="FJ25" s="1"/>
+      <c r="FK25" s="1"/>
+      <c r="FL25" s="1"/>
+      <c r="FM25" s="1"/>
+      <c r="FN25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
+      <c r="CW26" s="1"/>
+      <c r="CX26" s="1"/>
+      <c r="CY26" s="1"/>
+      <c r="CZ26" s="1"/>
+      <c r="DA26" s="1"/>
+      <c r="DB26" s="1"/>
+      <c r="DC26" s="1"/>
+      <c r="DD26" s="1"/>
+      <c r="DE26" s="1"/>
+      <c r="DF26" s="1"/>
+      <c r="DG26" s="1"/>
+      <c r="DH26" s="1"/>
+      <c r="DI26" s="1"/>
+      <c r="DJ26" s="1"/>
+      <c r="DK26" s="1"/>
+      <c r="DL26" s="1"/>
+      <c r="DM26" s="1"/>
+      <c r="DN26" s="1"/>
+      <c r="DO26" s="1"/>
+      <c r="DP26" s="1"/>
+      <c r="DQ26" s="1"/>
+      <c r="DR26" s="1"/>
+      <c r="DS26" s="1"/>
+      <c r="DT26" s="1"/>
+      <c r="DU26" s="1"/>
+      <c r="DV26" s="1"/>
+      <c r="DW26" s="1"/>
+      <c r="DX26" s="1"/>
+      <c r="DY26" s="1"/>
+      <c r="DZ26" s="1"/>
+      <c r="EA26" s="1"/>
+      <c r="EB26" s="1"/>
+      <c r="EC26" s="1"/>
+      <c r="ED26" s="1"/>
+      <c r="EE26" s="1"/>
+      <c r="EF26" s="1"/>
+      <c r="EG26" s="1"/>
+      <c r="EH26" s="1"/>
+      <c r="EI26" s="1"/>
+      <c r="EJ26" s="1"/>
+      <c r="EK26" s="1"/>
+      <c r="EL26" s="1"/>
+      <c r="EM26" s="1"/>
+      <c r="EN26" s="1"/>
+      <c r="EO26" s="1"/>
+      <c r="EP26" s="1"/>
+      <c r="EQ26" s="1"/>
+      <c r="ER26" s="1"/>
+      <c r="ES26" s="1"/>
+      <c r="ET26" s="1"/>
+      <c r="EU26" s="1"/>
+      <c r="EV26" s="1"/>
+      <c r="EW26" s="1"/>
+      <c r="EX26" s="1"/>
+      <c r="EY26" s="1"/>
+      <c r="EZ26" s="1"/>
+      <c r="FA26" s="1"/>
+      <c r="FB26" s="1"/>
+      <c r="FC26" s="1"/>
+      <c r="FD26" s="1"/>
+      <c r="FE26" s="1"/>
+      <c r="FF26" s="1"/>
+      <c r="FG26" s="1"/>
+      <c r="FH26" s="1"/>
+      <c r="FI26" s="1"/>
+      <c r="FJ26" s="1"/>
+      <c r="FK26" s="1"/>
+      <c r="FL26" s="1"/>
+      <c r="FM26" s="1"/>
+      <c r="FN26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="1">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="1"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="1"/>
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="1"/>
+      <c r="CV27" s="1"/>
+      <c r="CW27" s="1"/>
+      <c r="CX27" s="1"/>
+      <c r="CY27" s="1"/>
+      <c r="CZ27" s="1"/>
+      <c r="DA27" s="1"/>
+      <c r="DB27" s="1"/>
+      <c r="DC27" s="1"/>
+      <c r="DD27" s="1"/>
+      <c r="DE27" s="1"/>
+      <c r="DF27" s="1"/>
+      <c r="DG27" s="1"/>
+      <c r="DH27" s="1"/>
+      <c r="DI27" s="1"/>
+      <c r="DJ27" s="1"/>
+      <c r="DK27" s="1"/>
+      <c r="DL27" s="1"/>
+      <c r="DM27" s="1"/>
+      <c r="DN27" s="1"/>
+      <c r="DO27" s="1"/>
+      <c r="DP27" s="1"/>
+      <c r="DQ27" s="1"/>
+      <c r="DR27" s="1"/>
+      <c r="DS27" s="1"/>
+      <c r="DT27" s="1"/>
+      <c r="DU27" s="1"/>
+      <c r="DV27" s="1"/>
+      <c r="DW27" s="1"/>
+      <c r="DX27" s="1"/>
+      <c r="DY27" s="1"/>
+      <c r="DZ27" s="1"/>
+      <c r="EA27" s="1"/>
+      <c r="EB27" s="1"/>
+      <c r="EC27" s="1"/>
+      <c r="ED27" s="1"/>
+      <c r="EE27" s="1"/>
+      <c r="EF27" s="1"/>
+      <c r="EG27" s="1"/>
+      <c r="EH27" s="1"/>
+      <c r="EI27" s="1"/>
+      <c r="EJ27" s="1"/>
+      <c r="EK27" s="1"/>
+      <c r="EL27" s="1"/>
+      <c r="EM27" s="1"/>
+      <c r="EN27" s="1"/>
+      <c r="EO27" s="1"/>
+      <c r="EP27" s="1"/>
+      <c r="EQ27" s="1"/>
+      <c r="ER27" s="1"/>
+      <c r="ES27" s="1"/>
+      <c r="ET27" s="1"/>
+      <c r="EU27" s="1"/>
+      <c r="EV27" s="1"/>
+      <c r="EW27" s="1"/>
+      <c r="EX27" s="1"/>
+      <c r="EY27" s="1"/>
+      <c r="EZ27" s="1"/>
+      <c r="FA27" s="1"/>
+      <c r="FB27" s="1"/>
+      <c r="FC27" s="1"/>
+      <c r="FD27" s="1"/>
+      <c r="FE27" s="1"/>
+      <c r="FF27" s="1"/>
+      <c r="FG27" s="1"/>
+      <c r="FH27" s="1"/>
+      <c r="FI27" s="1"/>
+      <c r="FJ27" s="1"/>
+      <c r="FK27" s="1"/>
+      <c r="FL27" s="1"/>
+      <c r="FM27" s="1"/>
+      <c r="FN27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="1"/>
+      <c r="CL28" s="1"/>
+      <c r="CM28" s="1"/>
+      <c r="CN28" s="1"/>
+      <c r="CO28" s="1"/>
+      <c r="CP28" s="1"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
+      <c r="CT28" s="1"/>
+      <c r="CU28" s="1"/>
+      <c r="CV28" s="1"/>
+      <c r="CW28" s="1"/>
+      <c r="CX28" s="1"/>
+      <c r="CY28" s="1"/>
+      <c r="CZ28" s="1"/>
+      <c r="DA28" s="1"/>
+      <c r="DB28" s="1"/>
+      <c r="DC28" s="1"/>
+      <c r="DD28" s="1"/>
+      <c r="DE28" s="1"/>
+      <c r="DF28" s="1"/>
+      <c r="DG28" s="1"/>
+      <c r="DH28" s="1"/>
+      <c r="DI28" s="1"/>
+      <c r="DJ28" s="1"/>
+      <c r="DK28" s="1"/>
+      <c r="DL28" s="1"/>
+      <c r="DM28" s="1"/>
+      <c r="DN28" s="1"/>
+      <c r="DO28" s="1"/>
+      <c r="DP28" s="1"/>
+      <c r="DQ28" s="1"/>
+      <c r="DR28" s="1"/>
+      <c r="DS28" s="1"/>
+      <c r="DT28" s="1"/>
+      <c r="DU28" s="1"/>
+      <c r="DV28" s="1"/>
+      <c r="DW28" s="1"/>
+      <c r="DX28" s="1"/>
+      <c r="DY28" s="1"/>
+      <c r="DZ28" s="1"/>
+      <c r="EA28" s="1"/>
+      <c r="EB28" s="1"/>
+      <c r="EC28" s="1"/>
+      <c r="ED28" s="1"/>
+      <c r="EE28" s="1"/>
+      <c r="EF28" s="1"/>
+      <c r="EG28" s="1"/>
+      <c r="EH28" s="1"/>
+      <c r="EI28" s="1"/>
+      <c r="EJ28" s="1"/>
+      <c r="EK28" s="1"/>
+      <c r="EL28" s="1"/>
+      <c r="EM28" s="1"/>
+      <c r="EN28" s="1"/>
+      <c r="EO28" s="1"/>
+      <c r="EP28" s="1"/>
+      <c r="EQ28" s="1"/>
+      <c r="ER28" s="1"/>
+      <c r="ES28" s="1"/>
+      <c r="ET28" s="1"/>
+      <c r="EU28" s="1"/>
+      <c r="EV28" s="1"/>
+      <c r="EW28" s="1"/>
+      <c r="EX28" s="1"/>
+      <c r="EY28" s="1"/>
+      <c r="EZ28" s="1"/>
+      <c r="FA28" s="1"/>
+      <c r="FB28" s="1"/>
+      <c r="FC28" s="1"/>
+      <c r="FD28" s="1"/>
+      <c r="FE28" s="1"/>
+      <c r="FF28" s="1"/>
+      <c r="FG28" s="1"/>
+      <c r="FH28" s="1"/>
+      <c r="FI28" s="1"/>
+      <c r="FJ28" s="1"/>
+      <c r="FK28" s="1"/>
+      <c r="FL28" s="1"/>
+      <c r="FM28" s="1"/>
+      <c r="FN28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="1">
+        <v>50</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+      <c r="CJ29" s="1"/>
+      <c r="CK29" s="1"/>
+      <c r="CL29" s="1"/>
+      <c r="CM29" s="1"/>
+      <c r="CN29" s="1"/>
+      <c r="CO29" s="1"/>
+      <c r="CP29" s="1"/>
+      <c r="CQ29" s="1"/>
+      <c r="CR29" s="1"/>
+      <c r="CS29" s="1"/>
+      <c r="CT29" s="1"/>
+      <c r="CU29" s="1"/>
+      <c r="CV29" s="1"/>
+      <c r="CW29" s="1"/>
+      <c r="CX29" s="1"/>
+      <c r="CY29" s="1"/>
+      <c r="CZ29" s="1"/>
+      <c r="DA29" s="1"/>
+      <c r="DB29" s="1"/>
+      <c r="DC29" s="1"/>
+      <c r="DD29" s="1"/>
+      <c r="DE29" s="1"/>
+      <c r="DF29" s="1"/>
+      <c r="DG29" s="1"/>
+      <c r="DH29" s="1"/>
+      <c r="DI29" s="1"/>
+      <c r="DJ29" s="1"/>
+      <c r="DK29" s="1"/>
+      <c r="DL29" s="1"/>
+      <c r="DM29" s="1"/>
+      <c r="DN29" s="1"/>
+      <c r="DO29" s="1"/>
+      <c r="DP29" s="1"/>
+      <c r="DQ29" s="1"/>
+      <c r="DR29" s="1"/>
+      <c r="DS29" s="1"/>
+      <c r="DT29" s="1"/>
+      <c r="DU29" s="1"/>
+      <c r="DV29" s="1"/>
+      <c r="DW29" s="1"/>
+      <c r="DX29" s="1"/>
+      <c r="DY29" s="1"/>
+      <c r="DZ29" s="1"/>
+      <c r="EA29" s="1"/>
+      <c r="EB29" s="1"/>
+      <c r="EC29" s="1"/>
+      <c r="ED29" s="1"/>
+      <c r="EE29" s="1"/>
+      <c r="EF29" s="1"/>
+      <c r="EG29" s="1"/>
+      <c r="EH29" s="1"/>
+      <c r="EI29" s="1"/>
+      <c r="EJ29" s="1"/>
+      <c r="EK29" s="1"/>
+      <c r="EL29" s="1"/>
+      <c r="EM29" s="1"/>
+      <c r="EN29" s="1"/>
+      <c r="EO29" s="1"/>
+      <c r="EP29" s="1"/>
+      <c r="EQ29" s="1"/>
+      <c r="ER29" s="1"/>
+      <c r="ES29" s="1"/>
+      <c r="ET29" s="1"/>
+      <c r="EU29" s="1"/>
+      <c r="EV29" s="1"/>
+      <c r="EW29" s="1"/>
+      <c r="EX29" s="1"/>
+      <c r="EY29" s="1"/>
+      <c r="EZ29" s="1"/>
+      <c r="FA29" s="1"/>
+      <c r="FB29" s="1"/>
+      <c r="FC29" s="1"/>
+      <c r="FD29" s="1"/>
+      <c r="FE29" s="1"/>
+      <c r="FF29" s="1"/>
+      <c r="FG29" s="1"/>
+      <c r="FH29" s="1"/>
+      <c r="FI29" s="1"/>
+      <c r="FJ29" s="1"/>
+      <c r="FK29" s="1"/>
+      <c r="FL29" s="1"/>
+      <c r="FM29" s="1"/>
+      <c r="FN29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1"/>
+      <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
+      <c r="CT30" s="1"/>
+      <c r="CU30" s="1"/>
+      <c r="CV30" s="1"/>
+      <c r="CW30" s="1"/>
+      <c r="CX30" s="1"/>
+      <c r="CY30" s="1"/>
+      <c r="CZ30" s="1"/>
+      <c r="DA30" s="1"/>
+      <c r="DB30" s="1"/>
+      <c r="DC30" s="1"/>
+      <c r="DD30" s="1"/>
+      <c r="DE30" s="1"/>
+      <c r="DF30" s="1"/>
+      <c r="DG30" s="1"/>
+      <c r="DH30" s="1"/>
+      <c r="DI30" s="1"/>
+      <c r="DJ30" s="1"/>
+      <c r="DK30" s="1"/>
+      <c r="DL30" s="1"/>
+      <c r="DM30" s="1"/>
+      <c r="DN30" s="1"/>
+      <c r="DO30" s="1"/>
+      <c r="DP30" s="1"/>
+      <c r="DQ30" s="1"/>
+      <c r="DR30" s="1"/>
+      <c r="DS30" s="1"/>
+      <c r="DT30" s="1"/>
+      <c r="DU30" s="1"/>
+      <c r="DV30" s="1"/>
+      <c r="DW30" s="1"/>
+      <c r="DX30" s="1"/>
+      <c r="DY30" s="1"/>
+      <c r="DZ30" s="1"/>
+      <c r="EA30" s="1"/>
+      <c r="EB30" s="1"/>
+      <c r="EC30" s="1"/>
+      <c r="ED30" s="1"/>
+      <c r="EE30" s="1"/>
+      <c r="EF30" s="1"/>
+      <c r="EG30" s="1"/>
+      <c r="EH30" s="1"/>
+      <c r="EI30" s="1"/>
+      <c r="EJ30" s="1"/>
+      <c r="EK30" s="1"/>
+      <c r="EL30" s="1"/>
+      <c r="EM30" s="1"/>
+      <c r="EN30" s="1"/>
+      <c r="EO30" s="1"/>
+      <c r="EP30" s="1"/>
+      <c r="EQ30" s="1"/>
+      <c r="ER30" s="1"/>
+      <c r="ES30" s="1"/>
+      <c r="ET30" s="1"/>
+      <c r="EU30" s="1"/>
+      <c r="EV30" s="1"/>
+      <c r="EW30" s="1"/>
+      <c r="EX30" s="1"/>
+      <c r="EY30" s="1"/>
+      <c r="EZ30" s="1"/>
+      <c r="FA30" s="1"/>
+      <c r="FB30" s="1"/>
+      <c r="FC30" s="1"/>
+      <c r="FD30" s="1"/>
+      <c r="FE30" s="1"/>
+      <c r="FF30" s="1"/>
+      <c r="FG30" s="1"/>
+      <c r="FH30" s="1"/>
+      <c r="FI30" s="1"/>
+      <c r="FJ30" s="1"/>
+      <c r="FK30" s="1"/>
+      <c r="FL30" s="1"/>
+      <c r="FM30" s="1"/>
+      <c r="FN30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="1"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="1"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="1"/>
+      <c r="CP31" s="1"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="1"/>
+      <c r="CV31" s="1"/>
+      <c r="CW31" s="1"/>
+      <c r="CX31" s="1"/>
+      <c r="CY31" s="1"/>
+      <c r="CZ31" s="1"/>
+      <c r="DA31" s="1"/>
+      <c r="DB31" s="1"/>
+      <c r="DC31" s="1"/>
+      <c r="DD31" s="1"/>
+      <c r="DE31" s="1"/>
+      <c r="DF31" s="1"/>
+      <c r="DG31" s="1"/>
+      <c r="DH31" s="1"/>
+      <c r="DI31" s="1"/>
+      <c r="DJ31" s="1"/>
+      <c r="DK31" s="1"/>
+      <c r="DL31" s="1"/>
+      <c r="DM31" s="1"/>
+      <c r="DN31" s="1"/>
+      <c r="DO31" s="1"/>
+      <c r="DP31" s="1"/>
+      <c r="DQ31" s="1"/>
+      <c r="DR31" s="1"/>
+      <c r="DS31" s="1"/>
+      <c r="DT31" s="1"/>
+      <c r="DU31" s="1"/>
+      <c r="DV31" s="1"/>
+      <c r="DW31" s="1"/>
+      <c r="DX31" s="1"/>
+      <c r="DY31" s="1"/>
+      <c r="DZ31" s="1"/>
+      <c r="EA31" s="1"/>
+      <c r="EB31" s="1"/>
+      <c r="EC31" s="1"/>
+      <c r="ED31" s="1"/>
+      <c r="EE31" s="1"/>
+      <c r="EF31" s="1"/>
+      <c r="EG31" s="1"/>
+      <c r="EH31" s="1"/>
+      <c r="EI31" s="1"/>
+      <c r="EJ31" s="1"/>
+      <c r="EK31" s="1"/>
+      <c r="EL31" s="1"/>
+      <c r="EM31" s="1"/>
+      <c r="EN31" s="1"/>
+      <c r="EO31" s="1"/>
+      <c r="EP31" s="1"/>
+      <c r="EQ31" s="1"/>
+      <c r="ER31" s="1"/>
+      <c r="ES31" s="1"/>
+      <c r="ET31" s="1"/>
+      <c r="EU31" s="1"/>
+      <c r="EV31" s="1"/>
+      <c r="EW31" s="1"/>
+      <c r="EX31" s="1"/>
+      <c r="EY31" s="1"/>
+      <c r="EZ31" s="1"/>
+      <c r="FA31" s="1"/>
+      <c r="FB31" s="1"/>
+      <c r="FC31" s="1"/>
+      <c r="FD31" s="1"/>
+      <c r="FE31" s="1"/>
+      <c r="FF31" s="1"/>
+      <c r="FG31" s="1"/>
+      <c r="FH31" s="1"/>
+      <c r="FI31" s="1"/>
+      <c r="FJ31" s="1"/>
+      <c r="FK31" s="1"/>
+      <c r="FL31" s="1"/>
+      <c r="FM31" s="1"/>
+      <c r="FN31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+      <c r="CH32" s="1"/>
+      <c r="CI32" s="1"/>
+      <c r="CJ32" s="1"/>
+      <c r="CK32" s="1"/>
+      <c r="CL32" s="1"/>
+      <c r="CM32" s="1"/>
+      <c r="CN32" s="1"/>
+      <c r="CO32" s="1"/>
+      <c r="CP32" s="1"/>
+      <c r="CQ32" s="1"/>
+      <c r="CR32" s="1"/>
+      <c r="CS32" s="1"/>
+      <c r="CT32" s="1"/>
+      <c r="CU32" s="1"/>
+      <c r="CV32" s="1"/>
+      <c r="CW32" s="1"/>
+      <c r="CX32" s="1"/>
+      <c r="CY32" s="1"/>
+      <c r="CZ32" s="1"/>
+      <c r="DA32" s="1"/>
+      <c r="DB32" s="1"/>
+      <c r="DC32" s="1"/>
+      <c r="DD32" s="1"/>
+      <c r="DE32" s="1"/>
+      <c r="DF32" s="1"/>
+      <c r="DG32" s="1"/>
+      <c r="DH32" s="1"/>
+      <c r="DI32" s="1"/>
+      <c r="DJ32" s="1"/>
+      <c r="DK32" s="1"/>
+      <c r="DL32" s="1"/>
+      <c r="DM32" s="1"/>
+      <c r="DN32" s="1"/>
+      <c r="DO32" s="1"/>
+      <c r="DP32" s="1"/>
+      <c r="DQ32" s="1"/>
+      <c r="DR32" s="1"/>
+      <c r="DS32" s="1"/>
+      <c r="DT32" s="1"/>
+      <c r="DU32" s="1"/>
+      <c r="DV32" s="1"/>
+      <c r="DW32" s="1"/>
+      <c r="DX32" s="1"/>
+      <c r="DY32" s="1"/>
+      <c r="DZ32" s="1"/>
+      <c r="EA32" s="1"/>
+      <c r="EB32" s="1"/>
+      <c r="EC32" s="1"/>
+      <c r="ED32" s="1"/>
+      <c r="EE32" s="1"/>
+      <c r="EF32" s="1"/>
+      <c r="EG32" s="1"/>
+      <c r="EH32" s="1"/>
+      <c r="EI32" s="1"/>
+      <c r="EJ32" s="1"/>
+      <c r="EK32" s="1"/>
+      <c r="EL32" s="1"/>
+      <c r="EM32" s="1"/>
+      <c r="EN32" s="1"/>
+      <c r="EO32" s="1"/>
+      <c r="EP32" s="1"/>
+      <c r="EQ32" s="1"/>
+      <c r="ER32" s="1"/>
+      <c r="ES32" s="1"/>
+      <c r="ET32" s="1"/>
+      <c r="EU32" s="1"/>
+      <c r="EV32" s="1"/>
+      <c r="EW32" s="1"/>
+      <c r="EX32" s="1"/>
+      <c r="EY32" s="1"/>
+      <c r="EZ32" s="1"/>
+      <c r="FA32" s="1"/>
+      <c r="FB32" s="1"/>
+      <c r="FC32" s="1"/>
+      <c r="FD32" s="1"/>
+      <c r="FE32" s="1"/>
+      <c r="FF32" s="1"/>
+      <c r="FG32" s="1"/>
+      <c r="FH32" s="1"/>
+      <c r="FI32" s="1"/>
+      <c r="FJ32" s="1"/>
+      <c r="FK32" s="1"/>
+      <c r="FL32" s="1"/>
+      <c r="FM32" s="1"/>
+      <c r="FN32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="1">
+        <v>50</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="1"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="1"/>
+      <c r="CN33" s="1"/>
+      <c r="CO33" s="1"/>
+      <c r="CP33" s="1"/>
+      <c r="CQ33" s="1"/>
+      <c r="CR33" s="1"/>
+      <c r="CS33" s="1"/>
+      <c r="CT33" s="1"/>
+      <c r="CU33" s="1"/>
+      <c r="CV33" s="1"/>
+      <c r="CW33" s="1"/>
+      <c r="CX33" s="1"/>
+      <c r="CY33" s="1"/>
+      <c r="CZ33" s="1"/>
+      <c r="DA33" s="1"/>
+      <c r="DB33" s="1"/>
+      <c r="DC33" s="1"/>
+      <c r="DD33" s="1"/>
+      <c r="DE33" s="1"/>
+      <c r="DF33" s="1"/>
+      <c r="DG33" s="1"/>
+      <c r="DH33" s="1"/>
+      <c r="DI33" s="1"/>
+      <c r="DJ33" s="1"/>
+      <c r="DK33" s="1"/>
+      <c r="DL33" s="1"/>
+      <c r="DM33" s="1"/>
+      <c r="DN33" s="1"/>
+      <c r="DO33" s="1"/>
+      <c r="DP33" s="1"/>
+      <c r="DQ33" s="1"/>
+      <c r="DR33" s="1"/>
+      <c r="DS33" s="1"/>
+      <c r="DT33" s="1"/>
+      <c r="DU33" s="1"/>
+      <c r="DV33" s="1"/>
+      <c r="DW33" s="1"/>
+      <c r="DX33" s="1"/>
+      <c r="DY33" s="1"/>
+      <c r="DZ33" s="1"/>
+      <c r="EA33" s="1"/>
+      <c r="EB33" s="1"/>
+      <c r="EC33" s="1"/>
+      <c r="ED33" s="1"/>
+      <c r="EE33" s="1"/>
+      <c r="EF33" s="1"/>
+      <c r="EG33" s="1"/>
+      <c r="EH33" s="1"/>
+      <c r="EI33" s="1"/>
+      <c r="EJ33" s="1"/>
+      <c r="EK33" s="1"/>
+      <c r="EL33" s="1"/>
+      <c r="EM33" s="1"/>
+      <c r="EN33" s="1"/>
+      <c r="EO33" s="1"/>
+      <c r="EP33" s="1"/>
+      <c r="EQ33" s="1"/>
+      <c r="ER33" s="1"/>
+      <c r="ES33" s="1"/>
+      <c r="ET33" s="1"/>
+      <c r="EU33" s="1"/>
+      <c r="EV33" s="1"/>
+      <c r="EW33" s="1"/>
+      <c r="EX33" s="1"/>
+      <c r="EY33" s="1"/>
+      <c r="EZ33" s="1"/>
+      <c r="FA33" s="1"/>
+      <c r="FB33" s="1"/>
+      <c r="FC33" s="1"/>
+      <c r="FD33" s="1"/>
+      <c r="FE33" s="1"/>
+      <c r="FF33" s="1"/>
+      <c r="FG33" s="1"/>
+      <c r="FH33" s="1"/>
+      <c r="FI33" s="1"/>
+      <c r="FJ33" s="1"/>
+      <c r="FK33" s="1"/>
+      <c r="FL33" s="1"/>
+      <c r="FM33" s="1"/>
+      <c r="FN33" s="1"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -156,10 +156,10 @@
     <t>sow_no_seed_per</t>
   </si>
   <si>
+    <t>sow_to_germ50_days</t>
+  </si>
+  <si>
     <t>sow_no_germ_per</t>
-  </si>
-  <si>
-    <t>sow_to_germ50_days</t>
   </si>
   <si>
     <t>sow_no_thin_per</t>
@@ -1226,10 +1226,10 @@
       <c r="G2" s="1">
         <v>20</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
         <v>18</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1415,10 +1415,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
         <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1605,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
         <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>7</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1795,10 +1795,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
         <v>4</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1985,10 +1985,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
         <v>4</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2175,10 +2175,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
         <v>4</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2365,10 +2365,10 @@
         <v>4</v>
       </c>
       <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
         <v>4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2745,10 +2745,10 @@
         <v>4</v>
       </c>
       <c r="H10" s="1">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1">
         <v>3</v>
-      </c>
-      <c r="I10" s="1">
-        <v>11</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2935,10 +2935,10 @@
         <v>4</v>
       </c>
       <c r="H11" s="1">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1">
         <v>3</v>
-      </c>
-      <c r="I11" s="1">
-        <v>12</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3125,10 +3125,10 @@
         <v>4</v>
       </c>
       <c r="H12" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
         <v>2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>12</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3315,10 +3315,10 @@
         <v>4</v>
       </c>
       <c r="H13" s="1">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
         <v>3</v>
-      </c>
-      <c r="I13" s="1">
-        <v>9</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3505,10 +3505,10 @@
         <v>4</v>
       </c>
       <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
         <v>2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>10</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3695,10 +3695,10 @@
         <v>4</v>
       </c>
       <c r="H15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
         <v>4</v>
-      </c>
-      <c r="I15" s="1">
-        <v>10</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3885,10 +3885,10 @@
         <v>4</v>
       </c>
       <c r="H16" s="1">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1">
         <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>12</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4075,10 +4075,10 @@
         <v>4</v>
       </c>
       <c r="H17" s="1">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
         <v>2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>11</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -4265,10 +4265,10 @@
         <v>4</v>
       </c>
       <c r="H18" s="1">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1">
         <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>13</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -4455,10 +4455,10 @@
         <v>4</v>
       </c>
       <c r="H19" s="1">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1">
         <v>2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>12</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -4645,10 +4645,10 @@
         <v>4</v>
       </c>
       <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
         <v>3</v>
-      </c>
-      <c r="I20" s="1">
-        <v>10</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -5578,7 +5578,9 @@
       <c r="G25" s="1">
         <v>4</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -6694,7 +6696,9 @@
       <c r="G31" s="1">
         <v>4</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="298" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="490" uniqueCount="218">
   <si>
     <t>crop</t>
   </si>
@@ -168,6 +168,15 @@
     <t>sow_heatmat</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>sow_heatmat_temp</t>
   </si>
   <si>
@@ -177,16 +186,31 @@
     <t>sow_light_type</t>
   </si>
   <si>
+    <t>45w led</t>
+  </si>
+  <si>
     <t>sow_fert_date_1</t>
   </si>
   <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
     <t>sow_fert_type_npk_1</t>
   </si>
   <si>
+    <t>2-2-2</t>
+  </si>
+  <si>
     <t>sow_fert_type_name_1</t>
   </si>
   <si>
+    <t>Espoma- Organic Grow!</t>
+  </si>
+  <si>
     <t>sow_fert_dose_1</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>sow_fert_date_2</t>
@@ -729,481 +753,481 @@
         <v>50</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="S1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="T1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="U1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="V1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="W1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="X1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Y1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Z1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AA1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AB1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AC1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AD1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AE1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AF1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AJ1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AK1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AL1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AM1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AN1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AO1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AP1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AQ1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AR1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AS1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AT1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AU1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AV1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AW1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AX1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AY1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AZ1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="BA1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="BB1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="BC1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="BD1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="BE1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="BF1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="BG1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="BH1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="BI1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="BJ1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="BK1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="BL1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="BM1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="BN1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="BO1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="BP1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="BQ1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="BR1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="BS1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="BT1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="BU1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="BV1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="BW1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="BX1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="BY1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="BZ1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="CA1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="CB1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="CC1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="CD1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="CE1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="CF1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="CG1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="CH1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="CI1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="CJ1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="CK1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="CL1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="CM1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="CN1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="CO1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="CP1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="CQ1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="CR1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="CS1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="CT1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="CU1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="CV1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="CW1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CX1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="CY1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="CZ1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="DA1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="DB1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="DC1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="DD1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="DE1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="DF1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="DG1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="DH1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="DI1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="DJ1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="DK1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="DL1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="DM1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="DN1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="DO1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="DP1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="DQ1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="DR1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="DS1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="DT1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="DU1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="DV1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="DW1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="DX1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="DY1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="DZ1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="EA1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="EB1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="EC1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="ED1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="EE1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="EF1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="EG1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="EH1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="EI1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="EJ1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="EK1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="EL1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="EM1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="EN1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="EO1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="EP1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="EQ1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="ER1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="ES1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="ET1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="EU1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="EV1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="EW1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="EX1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="EY1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="EZ1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="FA1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="FB1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="FC1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="FD1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="FE1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="FF1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="FG1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="FH1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="FI1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="FJ1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="FK1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="FL1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="FM1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="FN1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
@@ -1231,14 +1255,26 @@
         <v>18</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1421,14 +1457,28 @@
         <v>3</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="M3" s="1">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -1611,14 +1661,28 @@
         <v>3</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="M4" s="1">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -1801,14 +1865,28 @@
         <v>4</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="M5" s="1">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" t="s">
+        <v>65</v>
+      </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1991,14 +2069,28 @@
         <v>4</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="M6" s="1">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -2181,14 +2273,28 @@
         <v>4</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="M7" s="1">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" t="s">
+        <v>65</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -2371,14 +2477,28 @@
         <v>4</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="M8" s="1">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" t="s">
+        <v>65</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -2561,14 +2681,30 @@
         <v>4</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="1">
+        <v>73</v>
+      </c>
+      <c r="M9" s="1">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" t="s">
+        <v>65</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -2751,14 +2887,30 @@
         <v>3</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="1">
+        <v>73</v>
+      </c>
+      <c r="M10" s="1">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" t="s">
+        <v>65</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -2941,14 +3093,30 @@
         <v>3</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="1">
+        <v>73</v>
+      </c>
+      <c r="M11" s="1">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" t="s">
+        <v>65</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -3131,14 +3299,30 @@
         <v>2</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="1">
+        <v>73</v>
+      </c>
+      <c r="M12" s="1">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" t="s">
+        <v>65</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -3321,14 +3505,30 @@
         <v>3</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="1">
+        <v>73</v>
+      </c>
+      <c r="M13" s="1">
+        <v>16</v>
+      </c>
+      <c r="N13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" t="s">
+        <v>65</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -3511,14 +3711,30 @@
         <v>2</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="1">
+        <v>73</v>
+      </c>
+      <c r="M14" s="1">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" t="s">
+        <v>65</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -3701,14 +3917,30 @@
         <v>4</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="1">
+        <v>73</v>
+      </c>
+      <c r="M15" s="1">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>63</v>
+      </c>
+      <c r="R15" t="s">
+        <v>65</v>
+      </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -3891,14 +4123,30 @@
         <v>2</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="1">
+        <v>73</v>
+      </c>
+      <c r="M16" s="1">
+        <v>16</v>
+      </c>
+      <c r="N16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>63</v>
+      </c>
+      <c r="R16" t="s">
+        <v>65</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -4081,14 +4329,30 @@
         <v>2</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="1">
+        <v>73</v>
+      </c>
+      <c r="M17" s="1">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>63</v>
+      </c>
+      <c r="R17" t="s">
+        <v>65</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -4271,14 +4535,30 @@
         <v>1</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="1">
+        <v>73</v>
+      </c>
+      <c r="M18" s="1">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" t="s">
+        <v>65</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -4461,14 +4741,30 @@
         <v>2</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="1">
+        <v>73</v>
+      </c>
+      <c r="M19" s="1">
+        <v>16</v>
+      </c>
+      <c r="N19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19" t="s">
+        <v>65</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -4651,14 +4947,30 @@
         <v>3</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="1">
+        <v>73</v>
+      </c>
+      <c r="M20" s="1">
+        <v>16</v>
+      </c>
+      <c r="N20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>63</v>
+      </c>
+      <c r="R20" t="s">
+        <v>65</v>
+      </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -4834,17 +5146,37 @@
       <c r="G21" s="1">
         <v>3</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="1">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="1">
+        <v>75</v>
+      </c>
+      <c r="M21" s="1">
+        <v>16</v>
+      </c>
+      <c r="N21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" t="s">
+        <v>51</v>
+      </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -5020,17 +5352,37 @@
       <c r="G22" s="1">
         <v>3</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="K22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="1">
+        <v>75</v>
+      </c>
+      <c r="M22" s="1">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>51</v>
+      </c>
+      <c r="R22" t="s">
+        <v>51</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -5206,17 +5558,37 @@
       <c r="G23" s="1">
         <v>4</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="1">
+        <v>75</v>
+      </c>
+      <c r="M23" s="1">
+        <v>16</v>
+      </c>
+      <c r="N23" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" t="s">
+        <v>51</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -5392,17 +5764,37 @@
       <c r="G24" s="1">
         <v>4</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="1">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="K24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="1">
+        <v>75</v>
+      </c>
+      <c r="M24" s="1">
+        <v>16</v>
+      </c>
+      <c r="N24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" t="s">
+        <v>51</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -5581,16 +5973,34 @@
       <c r="H25" s="1">
         <v>3</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="1">
+        <v>75</v>
+      </c>
+      <c r="M25" s="1">
+        <v>16</v>
+      </c>
+      <c r="N25" t="s">
+        <v>57</v>
+      </c>
+      <c r="O25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" t="s">
+        <v>51</v>
+      </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -5766,17 +6176,37 @@
       <c r="G26" s="1">
         <v>3</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="1">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="K26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="1">
+        <v>72</v>
+      </c>
+      <c r="M26" s="1">
+        <v>16</v>
+      </c>
+      <c r="N26" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R26" t="s">
+        <v>51</v>
+      </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -5955,14 +6385,30 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="1">
+        <v>72</v>
+      </c>
+      <c r="M27" s="1">
+        <v>16</v>
+      </c>
+      <c r="N27" t="s">
+        <v>57</v>
+      </c>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" t="s">
+        <v>51</v>
+      </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -6138,17 +6584,37 @@
       <c r="G28" s="1">
         <v>3</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="1">
+        <v>9</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="K28" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="1">
+        <v>72</v>
+      </c>
+      <c r="M28" s="1">
+        <v>16</v>
+      </c>
+      <c r="N28" t="s">
+        <v>57</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" t="s">
+        <v>51</v>
+      </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -6324,17 +6790,37 @@
       <c r="G29" s="1">
         <v>3</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="1">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="1">
+        <v>72</v>
+      </c>
+      <c r="M29" s="1">
+        <v>16</v>
+      </c>
+      <c r="N29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>51</v>
+      </c>
+      <c r="R29" t="s">
+        <v>51</v>
+      </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -6510,17 +6996,37 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="1">
+        <v>9</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="1">
+        <v>72</v>
+      </c>
+      <c r="M30" s="1">
+        <v>16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R30" t="s">
+        <v>51</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -6699,16 +7205,34 @@
       <c r="H31" s="1">
         <v>3</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="K31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="1">
+        <v>72</v>
+      </c>
+      <c r="M31" s="1">
+        <v>16</v>
+      </c>
+      <c r="N31" t="s">
+        <v>57</v>
+      </c>
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>51</v>
+      </c>
+      <c r="R31" t="s">
+        <v>51</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -6884,17 +7408,37 @@
       <c r="G32" s="1">
         <v>4</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="1">
+        <v>8</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="K32" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="1">
+        <v>72</v>
+      </c>
+      <c r="M32" s="1">
+        <v>16</v>
+      </c>
+      <c r="N32" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>51</v>
+      </c>
+      <c r="R32" t="s">
+        <v>51</v>
+      </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -7070,17 +7614,37 @@
       <c r="G33" s="1">
         <v>4</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="1">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3</v>
+      </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="K33" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="1">
+        <v>72</v>
+      </c>
+      <c r="M33" s="1">
+        <v>16</v>
+      </c>
+      <c r="N33" t="s">
+        <v>57</v>
+      </c>
+      <c r="O33" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" t="s">
+        <v>51</v>
+      </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="490" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="618" uniqueCount="219">
   <si>
     <t>crop</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>2024-04-04</t>
   </si>
   <si>
     <t>sow_fert_type_npk_1</t>
@@ -765,469 +768,469 @@
         <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AQ1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AR1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AT1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AU1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AV1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AW1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AX1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AY1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AZ1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BA1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BB1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BC1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BD1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BE1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BF1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BG1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BH1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BI1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BJ1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BK1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BL1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BM1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BN1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BO1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BP1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BQ1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BR1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BS1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BT1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BU1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BV1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BW1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BX1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BY1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BZ1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CA1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CB1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CC1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CD1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CE1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CF1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CG1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CH1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CI1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="CJ1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CK1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CL1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CM1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CN1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CO1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CP1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CQ1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CR1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CS1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CT1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CU1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CW1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CX1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CY1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CZ1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DA1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DB1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DC1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DD1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="DE1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DF1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DG1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DH1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DI1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DJ1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DK1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DL1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DM1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DN1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DO1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DP1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DQ1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="DR1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DS1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DT1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DU1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DV1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DW1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="DX1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DY1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DZ1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EA1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="EB1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EC1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="ED1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EE1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EF1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EG1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="EH1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EI1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EJ1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="EK1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="EL1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EM1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EN1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EO1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EP1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EQ1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="ER1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="ES1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="ET1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="EU1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="EV1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EW1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="EX1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="EY1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EZ1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="FA1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="FB1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="FC1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="FD1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="FE1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="FF1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="FG1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="FH1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="FI1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="FJ1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="FK1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="FL1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="FM1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="FN1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
@@ -1275,10 +1278,18 @@
       <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -1471,18 +1482,26 @@
         <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>66</v>
+      </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -1675,18 +1694,26 @@
         <v>59</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>66</v>
+      </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -1879,18 +1906,26 @@
         <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>66</v>
+      </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -2083,18 +2118,26 @@
         <v>59</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>66</v>
+      </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -2287,18 +2330,26 @@
         <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>66</v>
+      </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -2491,18 +2542,26 @@
         <v>59</v>
       </c>
       <c r="P8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>66</v>
+      </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -2697,18 +2756,26 @@
         <v>59</v>
       </c>
       <c r="P9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R9" t="s">
-        <v>65</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" t="s">
+        <v>66</v>
+      </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -2903,18 +2970,26 @@
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R10" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>66</v>
+      </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -3109,18 +3184,26 @@
         <v>59</v>
       </c>
       <c r="P11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R11" t="s">
-        <v>65</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>66</v>
+      </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -3315,18 +3398,26 @@
         <v>59</v>
       </c>
       <c r="P12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R12" t="s">
-        <v>65</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" t="s">
+        <v>66</v>
+      </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -3521,18 +3612,26 @@
         <v>59</v>
       </c>
       <c r="P13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R13" t="s">
-        <v>65</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" t="s">
+        <v>66</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -3727,18 +3826,26 @@
         <v>59</v>
       </c>
       <c r="P14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R14" t="s">
-        <v>65</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S14" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" t="s">
+        <v>66</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -3933,18 +4040,26 @@
         <v>59</v>
       </c>
       <c r="P15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" t="s">
+        <v>66</v>
+      </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -4139,18 +4254,26 @@
         <v>59</v>
       </c>
       <c r="P16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R16" t="s">
-        <v>65</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S16" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" t="s">
+        <v>66</v>
+      </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -4345,18 +4468,26 @@
         <v>59</v>
       </c>
       <c r="P17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R17" t="s">
-        <v>65</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S17" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17" t="s">
+        <v>66</v>
+      </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -4551,18 +4682,26 @@
         <v>59</v>
       </c>
       <c r="P18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R18" t="s">
-        <v>65</v>
-      </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S18" t="s">
+        <v>60</v>
+      </c>
+      <c r="T18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U18" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" t="s">
+        <v>66</v>
+      </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -4757,18 +4896,26 @@
         <v>59</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R19" t="s">
-        <v>65</v>
-      </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S19" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" t="s">
+        <v>66</v>
+      </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -4963,18 +5110,26 @@
         <v>59</v>
       </c>
       <c r="P20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R20" t="s">
-        <v>65</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="S20" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" t="s">
+        <v>62</v>
+      </c>
+      <c r="U20" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" t="s">
+        <v>66</v>
+      </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -5166,21 +5321,29 @@
         <v>57</v>
       </c>
       <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" t="s">
         <v>51</v>
       </c>
-      <c r="P21" t="s">
+      <c r="T21" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="U21" t="s">
         <v>51</v>
       </c>
-      <c r="R21" t="s">
+      <c r="V21" t="s">
         <v>51</v>
       </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -5372,21 +5535,29 @@
         <v>57</v>
       </c>
       <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" t="s">
         <v>51</v>
       </c>
-      <c r="P22" t="s">
+      <c r="T22" t="s">
         <v>51</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="U22" t="s">
         <v>51</v>
       </c>
-      <c r="R22" t="s">
+      <c r="V22" t="s">
         <v>51</v>
       </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -5578,21 +5749,29 @@
         <v>57</v>
       </c>
       <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23" t="s">
         <v>51</v>
       </c>
-      <c r="P23" t="s">
+      <c r="T23" t="s">
         <v>51</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="U23" t="s">
         <v>51</v>
       </c>
-      <c r="R23" t="s">
+      <c r="V23" t="s">
         <v>51</v>
       </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -5784,21 +5963,29 @@
         <v>57</v>
       </c>
       <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" t="s">
         <v>51</v>
       </c>
-      <c r="P24" t="s">
+      <c r="T24" t="s">
         <v>51</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="U24" t="s">
         <v>51</v>
       </c>
-      <c r="R24" t="s">
+      <c r="V24" t="s">
         <v>51</v>
       </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -5990,21 +6177,29 @@
         <v>57</v>
       </c>
       <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>64</v>
+      </c>
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+      <c r="S25" t="s">
         <v>51</v>
       </c>
-      <c r="P25" t="s">
+      <c r="T25" t="s">
         <v>51</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="U25" t="s">
         <v>51</v>
       </c>
-      <c r="R25" t="s">
+      <c r="V25" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -6196,21 +6391,29 @@
         <v>57</v>
       </c>
       <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26" t="s">
+        <v>66</v>
+      </c>
+      <c r="S26" t="s">
         <v>51</v>
       </c>
-      <c r="P26" t="s">
+      <c r="T26" t="s">
         <v>51</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="U26" t="s">
         <v>51</v>
       </c>
-      <c r="R26" t="s">
+      <c r="V26" t="s">
         <v>51</v>
       </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -6398,21 +6601,29 @@
         <v>57</v>
       </c>
       <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>64</v>
+      </c>
+      <c r="R27" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" t="s">
         <v>51</v>
       </c>
-      <c r="P27" t="s">
+      <c r="T27" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="U27" t="s">
         <v>51</v>
       </c>
-      <c r="R27" t="s">
+      <c r="V27" t="s">
         <v>51</v>
       </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -6604,21 +6815,29 @@
         <v>57</v>
       </c>
       <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" t="s">
         <v>51</v>
       </c>
-      <c r="P28" t="s">
+      <c r="T28" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="U28" t="s">
         <v>51</v>
       </c>
-      <c r="R28" t="s">
+      <c r="V28" t="s">
         <v>51</v>
       </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -6810,21 +7029,29 @@
         <v>57</v>
       </c>
       <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>64</v>
+      </c>
+      <c r="R29" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" t="s">
         <v>51</v>
       </c>
-      <c r="P29" t="s">
+      <c r="T29" t="s">
         <v>51</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="U29" t="s">
         <v>51</v>
       </c>
-      <c r="R29" t="s">
+      <c r="V29" t="s">
         <v>51</v>
       </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -7016,21 +7243,29 @@
         <v>57</v>
       </c>
       <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" t="s">
         <v>51</v>
       </c>
-      <c r="P30" t="s">
+      <c r="T30" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="U30" t="s">
         <v>51</v>
       </c>
-      <c r="R30" t="s">
+      <c r="V30" t="s">
         <v>51</v>
       </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -7222,21 +7457,29 @@
         <v>57</v>
       </c>
       <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31" t="s">
+        <v>66</v>
+      </c>
+      <c r="S31" t="s">
         <v>51</v>
       </c>
-      <c r="P31" t="s">
+      <c r="T31" t="s">
         <v>51</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="U31" t="s">
         <v>51</v>
       </c>
-      <c r="R31" t="s">
+      <c r="V31" t="s">
         <v>51</v>
       </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -7428,21 +7671,29 @@
         <v>57</v>
       </c>
       <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32" t="s">
+        <v>66</v>
+      </c>
+      <c r="S32" t="s">
         <v>51</v>
       </c>
-      <c r="P32" t="s">
+      <c r="T32" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="U32" t="s">
         <v>51</v>
       </c>
-      <c r="R32" t="s">
+      <c r="V32" t="s">
         <v>51</v>
       </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -7634,21 +7885,29 @@
         <v>57</v>
       </c>
       <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33" t="s">
+        <v>66</v>
+      </c>
+      <c r="S33" t="s">
         <v>51</v>
       </c>
-      <c r="P33" t="s">
+      <c r="T33" t="s">
         <v>51</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="U33" t="s">
         <v>51</v>
       </c>
-      <c r="R33" t="s">
+      <c r="V33" t="s">
         <v>51</v>
       </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="618" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="778" uniqueCount="225">
   <si>
     <t>crop</t>
   </si>
@@ -192,6 +192,9 @@
     <t>sow_fert_date_1</t>
   </si>
   <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
     <t>2024-03-22</t>
   </si>
   <si>
@@ -201,24 +204,36 @@
     <t>sow_fert_type_npk_1</t>
   </si>
   <si>
+    <t>3-4-4</t>
+  </si>
+  <si>
     <t>2-2-2</t>
   </si>
   <si>
     <t>sow_fert_type_name_1</t>
   </si>
   <si>
+    <t>Espoma- Garden-tone</t>
+  </si>
+  <si>
     <t>Espoma- Organic Grow!</t>
   </si>
   <si>
     <t>sow_fert_dose_1</t>
   </si>
   <si>
+    <t>na</t>
+  </si>
+  <si>
     <t>half</t>
   </si>
   <si>
     <t>sow_fert_date_2</t>
   </si>
   <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
     <t>sow_fert_type_npk_2</t>
   </si>
   <si>
@@ -259,6 +274,9 @@
   </si>
   <si>
     <t>transp_date_1</t>
+  </si>
+  <si>
+    <t>2024-04-13</t>
   </si>
   <si>
     <t>transp_med_1</t>
@@ -768,469 +786,469 @@
         <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="U1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="X1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Y1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Z1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AC1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AD1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AE1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AF1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AH1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AJ1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AK1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AL1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AM1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AN1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AO1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AP1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AQ1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AR1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AS1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AT1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AV1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AW1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AX1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AY1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AZ1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="BA1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="BB1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="BC1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="BD1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="BE1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="BF1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="BG1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="BH1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="BI1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="BJ1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="BK1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="BL1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="BM1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="BN1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="BO1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="BP1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="BQ1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="BR1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="BS1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="BT1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BU1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="BV1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="BW1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="BX1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="BY1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="BZ1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="CA1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="CB1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="CC1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="CD1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="CE1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="CF1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="CG1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="CH1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="CI1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="CJ1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="CK1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="CL1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="CM1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="CN1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="CO1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="CP1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="CQ1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="CR1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="CS1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="CT1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="CU1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="CV1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="CW1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="CX1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="CY1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="CZ1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="DA1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="DB1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="DC1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DD1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="DE1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DF1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="DG1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="DH1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="DI1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="DJ1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="DK1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="DL1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="DM1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="DN1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="DO1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="DP1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="DQ1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="DR1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="DS1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="DT1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="DU1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="DV1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="DW1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="DX1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="DY1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="DZ1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="EA1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="EB1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="EC1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="ED1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="EE1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="EF1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="EG1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="EH1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="EI1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="EJ1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="EK1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="EL1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="EM1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="EN1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="EO1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="EP1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="EQ1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="ER1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="ES1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="ET1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="EU1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="EV1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="EW1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="EX1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="EY1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="EZ1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="FA1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="FB1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="FC1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="FD1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="FE1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="FF1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="FG1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="FH1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="FI1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="FJ1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="FK1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="FL1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="FM1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="FN1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
@@ -1257,7 +1275,9 @@
       <c r="I2" s="1">
         <v>18</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>18</v>
+      </c>
       <c r="K2" t="s">
         <v>51</v>
       </c>
@@ -1267,16 +1287,16 @@
         <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
         <v>51</v>
@@ -1290,17 +1310,27 @@
       <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
+      <c r="AG2" t="s">
+        <v>51</v>
+      </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -1467,7 +1497,9 @@
       <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
       <c r="K3" t="s">
         <v>52</v>
       </c>
@@ -1479,42 +1511,56 @@
         <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s">
         <v>64</v>
       </c>
-      <c r="R3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T3" t="s">
-        <v>62</v>
-      </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V3" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>51</v>
+      </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
+      <c r="AG3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>8</v>
+      </c>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -1679,7 +1725,9 @@
       <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
       <c r="K4" t="s">
         <v>52</v>
       </c>
@@ -1691,42 +1739,56 @@
         <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" t="s">
         <v>64</v>
       </c>
-      <c r="R4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" t="s">
-        <v>62</v>
-      </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V4" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>51</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
+      <c r="AG4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1</v>
+      </c>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
@@ -1891,7 +1953,9 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
       <c r="K5" t="s">
         <v>52</v>
       </c>
@@ -1903,42 +1967,56 @@
         <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" t="s">
         <v>64</v>
       </c>
-      <c r="R5" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" t="s">
-        <v>62</v>
-      </c>
       <c r="U5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>51</v>
+      </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
+      <c r="AG5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>19</v>
+      </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
@@ -2103,7 +2181,9 @@
       <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
       <c r="K6" t="s">
         <v>52</v>
       </c>
@@ -2115,42 +2195,56 @@
         <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" t="s">
         <v>64</v>
       </c>
-      <c r="R6" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" t="s">
-        <v>62</v>
-      </c>
       <c r="U6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V6" t="s">
-        <v>66</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>51</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
+      <c r="AG6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>18</v>
+      </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
@@ -2315,7 +2409,9 @@
       <c r="I7" s="1">
         <v>4</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
       <c r="K7" t="s">
         <v>52</v>
       </c>
@@ -2327,42 +2423,56 @@
         <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" t="s">
         <v>64</v>
       </c>
-      <c r="R7" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" t="s">
-        <v>62</v>
-      </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V7" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>51</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
+      <c r="AG7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>20</v>
+      </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
@@ -2527,7 +2637,9 @@
       <c r="I8" s="1">
         <v>4</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
       <c r="K8" t="s">
         <v>52</v>
       </c>
@@ -2539,42 +2651,56 @@
         <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" t="s">
         <v>64</v>
       </c>
-      <c r="R8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" t="s">
-        <v>62</v>
-      </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V8" t="s">
-        <v>66</v>
-      </c>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>51</v>
+      </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
+      <c r="AG8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>20</v>
+      </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
@@ -2739,7 +2865,9 @@
       <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
       <c r="K9" t="s">
         <v>53</v>
       </c>
@@ -2753,40 +2881,50 @@
         <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" t="s">
         <v>64</v>
       </c>
-      <c r="R9" t="s">
-        <v>66</v>
-      </c>
-      <c r="S9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" t="s">
-        <v>62</v>
-      </c>
       <c r="U9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+      <c r="W9" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" t="s">
         <v>64</v>
       </c>
-      <c r="V9" t="s">
-        <v>66</v>
-      </c>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="Y9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>70</v>
+      </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
+      <c r="AG9" t="s">
+        <v>51</v>
+      </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -2953,7 +3091,9 @@
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
       <c r="K10" t="s">
         <v>53</v>
       </c>
@@ -2967,40 +3107,50 @@
         <v>57</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" t="s">
         <v>64</v>
       </c>
-      <c r="R10" t="s">
-        <v>66</v>
-      </c>
-      <c r="S10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T10" t="s">
-        <v>62</v>
-      </c>
       <c r="U10" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" t="s">
+        <v>70</v>
+      </c>
+      <c r="W10" t="s">
+        <v>72</v>
+      </c>
+      <c r="X10" t="s">
         <v>64</v>
       </c>
-      <c r="V10" t="s">
-        <v>66</v>
-      </c>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="Y10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>70</v>
+      </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
+      <c r="AG10" t="s">
+        <v>51</v>
+      </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
@@ -3167,7 +3317,9 @@
       <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
       <c r="K11" t="s">
         <v>53</v>
       </c>
@@ -3181,40 +3333,50 @@
         <v>57</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" t="s">
         <v>64</v>
       </c>
-      <c r="R11" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T11" t="s">
-        <v>62</v>
-      </c>
       <c r="U11" t="s">
+        <v>67</v>
+      </c>
+      <c r="V11" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X11" t="s">
         <v>64</v>
       </c>
-      <c r="V11" t="s">
-        <v>66</v>
-      </c>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="Y11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>70</v>
+      </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
+      <c r="AG11" t="s">
+        <v>51</v>
+      </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -3381,7 +3543,9 @@
       <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
       <c r="K12" t="s">
         <v>53</v>
       </c>
@@ -3395,40 +3559,50 @@
         <v>57</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" t="s">
         <v>64</v>
       </c>
-      <c r="R12" t="s">
-        <v>66</v>
-      </c>
-      <c r="S12" t="s">
-        <v>60</v>
-      </c>
-      <c r="T12" t="s">
-        <v>62</v>
-      </c>
       <c r="U12" t="s">
+        <v>67</v>
+      </c>
+      <c r="V12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" t="s">
+        <v>72</v>
+      </c>
+      <c r="X12" t="s">
         <v>64</v>
       </c>
-      <c r="V12" t="s">
-        <v>66</v>
-      </c>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="Y12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>70</v>
+      </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
+      <c r="AG12" t="s">
+        <v>51</v>
+      </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -3595,7 +3769,9 @@
       <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
       <c r="K13" t="s">
         <v>53</v>
       </c>
@@ -3609,40 +3785,50 @@
         <v>57</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" t="s">
         <v>64</v>
       </c>
-      <c r="R13" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T13" t="s">
-        <v>62</v>
-      </c>
       <c r="U13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V13" t="s">
+        <v>70</v>
+      </c>
+      <c r="W13" t="s">
+        <v>72</v>
+      </c>
+      <c r="X13" t="s">
         <v>64</v>
       </c>
-      <c r="V13" t="s">
-        <v>66</v>
-      </c>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="Y13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>70</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
+      <c r="AG13" t="s">
+        <v>51</v>
+      </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
@@ -3809,7 +3995,9 @@
       <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
       <c r="K14" t="s">
         <v>53</v>
       </c>
@@ -3823,40 +4011,50 @@
         <v>57</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" t="s">
         <v>64</v>
       </c>
-      <c r="R14" t="s">
-        <v>66</v>
-      </c>
-      <c r="S14" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" t="s">
-        <v>62</v>
-      </c>
       <c r="U14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14" t="s">
         <v>64</v>
       </c>
-      <c r="V14" t="s">
-        <v>66</v>
-      </c>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="Y14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>70</v>
+      </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
+      <c r="AG14" t="s">
+        <v>51</v>
+      </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
@@ -4023,7 +4221,9 @@
       <c r="I15" s="1">
         <v>4</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
       <c r="K15" t="s">
         <v>53</v>
       </c>
@@ -4037,40 +4237,50 @@
         <v>57</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" t="s">
         <v>64</v>
       </c>
-      <c r="R15" t="s">
-        <v>66</v>
-      </c>
-      <c r="S15" t="s">
-        <v>60</v>
-      </c>
-      <c r="T15" t="s">
-        <v>62</v>
-      </c>
       <c r="U15" t="s">
+        <v>67</v>
+      </c>
+      <c r="V15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W15" t="s">
+        <v>72</v>
+      </c>
+      <c r="X15" t="s">
         <v>64</v>
       </c>
-      <c r="V15" t="s">
-        <v>66</v>
-      </c>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="Y15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>70</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
+      <c r="AG15" t="s">
+        <v>51</v>
+      </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
@@ -4235,9 +4445,11 @@
         <v>12</v>
       </c>
       <c r="I16" s="1">
-        <v>2</v>
-      </c>
-      <c r="J16" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
       <c r="K16" t="s">
         <v>53</v>
       </c>
@@ -4251,40 +4463,50 @@
         <v>57</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q16" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" t="s">
         <v>64</v>
       </c>
-      <c r="R16" t="s">
-        <v>66</v>
-      </c>
-      <c r="S16" t="s">
-        <v>60</v>
-      </c>
-      <c r="T16" t="s">
-        <v>62</v>
-      </c>
       <c r="U16" t="s">
+        <v>67</v>
+      </c>
+      <c r="V16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W16" t="s">
+        <v>72</v>
+      </c>
+      <c r="X16" t="s">
         <v>64</v>
       </c>
-      <c r="V16" t="s">
-        <v>66</v>
-      </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="Y16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>70</v>
+      </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
+      <c r="AG16" t="s">
+        <v>51</v>
+      </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -4451,7 +4673,9 @@
       <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
       <c r="K17" t="s">
         <v>53</v>
       </c>
@@ -4465,40 +4689,50 @@
         <v>57</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q17" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" t="s">
         <v>64</v>
       </c>
-      <c r="R17" t="s">
-        <v>66</v>
-      </c>
-      <c r="S17" t="s">
-        <v>60</v>
-      </c>
-      <c r="T17" t="s">
-        <v>62</v>
-      </c>
       <c r="U17" t="s">
+        <v>67</v>
+      </c>
+      <c r="V17" t="s">
+        <v>70</v>
+      </c>
+      <c r="W17" t="s">
+        <v>72</v>
+      </c>
+      <c r="X17" t="s">
         <v>64</v>
       </c>
-      <c r="V17" t="s">
-        <v>66</v>
-      </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="Y17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>70</v>
+      </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
+      <c r="AG17" t="s">
+        <v>51</v>
+      </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -4665,7 +4899,9 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
       <c r="K18" t="s">
         <v>53</v>
       </c>
@@ -4679,40 +4915,50 @@
         <v>57</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q18" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" t="s">
+        <v>70</v>
+      </c>
+      <c r="S18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" t="s">
         <v>64</v>
       </c>
-      <c r="R18" t="s">
-        <v>66</v>
-      </c>
-      <c r="S18" t="s">
-        <v>60</v>
-      </c>
-      <c r="T18" t="s">
-        <v>62</v>
-      </c>
       <c r="U18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W18" t="s">
+        <v>72</v>
+      </c>
+      <c r="X18" t="s">
         <v>64</v>
       </c>
-      <c r="V18" t="s">
-        <v>66</v>
-      </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="Y18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>70</v>
+      </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+      <c r="AG18" t="s">
+        <v>51</v>
+      </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -4879,7 +5125,9 @@
       <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
       <c r="K19" t="s">
         <v>53</v>
       </c>
@@ -4893,40 +5141,50 @@
         <v>57</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q19" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" t="s">
         <v>64</v>
       </c>
-      <c r="R19" t="s">
-        <v>66</v>
-      </c>
-      <c r="S19" t="s">
-        <v>60</v>
-      </c>
-      <c r="T19" t="s">
-        <v>62</v>
-      </c>
       <c r="U19" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" t="s">
+        <v>70</v>
+      </c>
+      <c r="W19" t="s">
+        <v>72</v>
+      </c>
+      <c r="X19" t="s">
         <v>64</v>
       </c>
-      <c r="V19" t="s">
-        <v>66</v>
-      </c>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="Y19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>70</v>
+      </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
+      <c r="AG19" t="s">
+        <v>51</v>
+      </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
@@ -5093,7 +5351,9 @@
       <c r="I20" s="1">
         <v>3</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
       <c r="K20" t="s">
         <v>53</v>
       </c>
@@ -5107,40 +5367,50 @@
         <v>57</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q20" t="s">
+        <v>67</v>
+      </c>
+      <c r="R20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" t="s">
         <v>64</v>
       </c>
-      <c r="R20" t="s">
-        <v>66</v>
-      </c>
-      <c r="S20" t="s">
-        <v>60</v>
-      </c>
-      <c r="T20" t="s">
-        <v>62</v>
-      </c>
       <c r="U20" t="s">
+        <v>67</v>
+      </c>
+      <c r="V20" t="s">
+        <v>70</v>
+      </c>
+      <c r="W20" t="s">
+        <v>72</v>
+      </c>
+      <c r="X20" t="s">
         <v>64</v>
       </c>
-      <c r="V20" t="s">
-        <v>66</v>
-      </c>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="Y20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>70</v>
+      </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
+      <c r="AG20" t="s">
+        <v>51</v>
+      </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
@@ -5307,7 +5577,9 @@
       <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
       <c r="K21" t="s">
         <v>53</v>
       </c>
@@ -5321,40 +5593,50 @@
         <v>57</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" t="s">
+        <v>70</v>
+      </c>
+      <c r="S21" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" t="s">
         <v>64</v>
       </c>
-      <c r="R21" t="s">
-        <v>66</v>
-      </c>
-      <c r="S21" t="s">
-        <v>51</v>
-      </c>
-      <c r="T21" t="s">
-        <v>51</v>
-      </c>
       <c r="U21" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V21" t="s">
-        <v>51</v>
-      </c>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W21" t="s">
+        <v>51</v>
+      </c>
+      <c r="X21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>51</v>
+      </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
+      <c r="AG21" t="s">
+        <v>51</v>
+      </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -5521,7 +5803,9 @@
       <c r="I22" s="1">
         <v>3</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
       <c r="K22" t="s">
         <v>53</v>
       </c>
@@ -5535,40 +5819,50 @@
         <v>57</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S22" t="s">
+        <v>72</v>
+      </c>
+      <c r="T22" t="s">
         <v>64</v>
       </c>
-      <c r="R22" t="s">
-        <v>66</v>
-      </c>
-      <c r="S22" t="s">
-        <v>51</v>
-      </c>
-      <c r="T22" t="s">
-        <v>51</v>
-      </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V22" t="s">
-        <v>51</v>
-      </c>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W22" t="s">
+        <v>51</v>
+      </c>
+      <c r="X22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>51</v>
+      </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
+      <c r="AG22" t="s">
+        <v>51</v>
+      </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
@@ -5735,7 +6029,9 @@
       <c r="I23" s="1">
         <v>3</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
       <c r="K23" t="s">
         <v>53</v>
       </c>
@@ -5749,40 +6045,50 @@
         <v>57</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q23" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" t="s">
+        <v>70</v>
+      </c>
+      <c r="S23" t="s">
+        <v>72</v>
+      </c>
+      <c r="T23" t="s">
         <v>64</v>
       </c>
-      <c r="R23" t="s">
-        <v>66</v>
-      </c>
-      <c r="S23" t="s">
-        <v>51</v>
-      </c>
-      <c r="T23" t="s">
-        <v>51</v>
-      </c>
       <c r="U23" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V23" t="s">
-        <v>51</v>
-      </c>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>51</v>
+      </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
+      <c r="AG23" t="s">
+        <v>51</v>
+      </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -5949,7 +6255,9 @@
       <c r="I24" s="1">
         <v>3</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
       <c r="K24" t="s">
         <v>53</v>
       </c>
@@ -5963,40 +6271,50 @@
         <v>57</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q24" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S24" t="s">
+        <v>72</v>
+      </c>
+      <c r="T24" t="s">
         <v>64</v>
       </c>
-      <c r="R24" t="s">
-        <v>66</v>
-      </c>
-      <c r="S24" t="s">
-        <v>51</v>
-      </c>
-      <c r="T24" t="s">
-        <v>51</v>
-      </c>
       <c r="U24" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V24" t="s">
-        <v>51</v>
-      </c>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W24" t="s">
+        <v>51</v>
+      </c>
+      <c r="X24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>51</v>
+      </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
+      <c r="AG24" t="s">
+        <v>51</v>
+      </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
@@ -6163,7 +6481,9 @@
       <c r="I25" s="1">
         <v>3</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
       <c r="K25" t="s">
         <v>53</v>
       </c>
@@ -6177,40 +6497,50 @@
         <v>57</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" t="s">
+        <v>70</v>
+      </c>
+      <c r="S25" t="s">
+        <v>72</v>
+      </c>
+      <c r="T25" t="s">
         <v>64</v>
       </c>
-      <c r="R25" t="s">
-        <v>66</v>
-      </c>
-      <c r="S25" t="s">
-        <v>51</v>
-      </c>
-      <c r="T25" t="s">
-        <v>51</v>
-      </c>
       <c r="U25" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V25" t="s">
-        <v>51</v>
-      </c>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W25" t="s">
+        <v>51</v>
+      </c>
+      <c r="X25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>51</v>
+      </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
+      <c r="AG25" t="s">
+        <v>51</v>
+      </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -6377,7 +6707,9 @@
       <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
       <c r="K26" t="s">
         <v>53</v>
       </c>
@@ -6391,40 +6723,50 @@
         <v>57</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q26" t="s">
+        <v>67</v>
+      </c>
+      <c r="R26" t="s">
+        <v>70</v>
+      </c>
+      <c r="S26" t="s">
+        <v>72</v>
+      </c>
+      <c r="T26" t="s">
         <v>64</v>
       </c>
-      <c r="R26" t="s">
-        <v>66</v>
-      </c>
-      <c r="S26" t="s">
-        <v>51</v>
-      </c>
-      <c r="T26" t="s">
-        <v>51</v>
-      </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V26" t="s">
-        <v>51</v>
-      </c>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W26" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>51</v>
+      </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
+      <c r="AG26" t="s">
+        <v>51</v>
+      </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -6585,9 +6927,15 @@
       <c r="G27" s="1">
         <v>3</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="H27" s="1">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
       <c r="K27" t="s">
         <v>53</v>
       </c>
@@ -6601,40 +6949,50 @@
         <v>57</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q27" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" t="s">
+        <v>70</v>
+      </c>
+      <c r="S27" t="s">
+        <v>72</v>
+      </c>
+      <c r="T27" t="s">
         <v>64</v>
       </c>
-      <c r="R27" t="s">
-        <v>66</v>
-      </c>
-      <c r="S27" t="s">
-        <v>51</v>
-      </c>
-      <c r="T27" t="s">
-        <v>51</v>
-      </c>
       <c r="U27" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V27" t="s">
-        <v>51</v>
-      </c>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W27" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>51</v>
+      </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
+      <c r="AG27" t="s">
+        <v>51</v>
+      </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -6801,7 +7159,9 @@
       <c r="I28" s="1">
         <v>3</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1">
+        <v>3</v>
+      </c>
       <c r="K28" t="s">
         <v>53</v>
       </c>
@@ -6815,40 +7175,50 @@
         <v>57</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q28" t="s">
+        <v>67</v>
+      </c>
+      <c r="R28" t="s">
+        <v>70</v>
+      </c>
+      <c r="S28" t="s">
+        <v>72</v>
+      </c>
+      <c r="T28" t="s">
         <v>64</v>
       </c>
-      <c r="R28" t="s">
-        <v>66</v>
-      </c>
-      <c r="S28" t="s">
-        <v>51</v>
-      </c>
-      <c r="T28" t="s">
-        <v>51</v>
-      </c>
       <c r="U28" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V28" t="s">
-        <v>51</v>
-      </c>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>51</v>
+      </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
+      <c r="AG28" t="s">
+        <v>51</v>
+      </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
@@ -7015,7 +7385,9 @@
       <c r="I29" s="1">
         <v>4</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1">
+        <v>3</v>
+      </c>
       <c r="K29" t="s">
         <v>53</v>
       </c>
@@ -7029,40 +7401,50 @@
         <v>57</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q29" t="s">
+        <v>67</v>
+      </c>
+      <c r="R29" t="s">
+        <v>70</v>
+      </c>
+      <c r="S29" t="s">
+        <v>72</v>
+      </c>
+      <c r="T29" t="s">
         <v>64</v>
       </c>
-      <c r="R29" t="s">
-        <v>66</v>
-      </c>
-      <c r="S29" t="s">
-        <v>51</v>
-      </c>
-      <c r="T29" t="s">
-        <v>51</v>
-      </c>
       <c r="U29" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V29" t="s">
-        <v>51</v>
-      </c>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W29" t="s">
+        <v>51</v>
+      </c>
+      <c r="X29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>51</v>
+      </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
+      <c r="AG29" t="s">
+        <v>51</v>
+      </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
@@ -7229,7 +7611,9 @@
       <c r="I30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
       <c r="K30" t="s">
         <v>53</v>
       </c>
@@ -7243,40 +7627,50 @@
         <v>57</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q30" t="s">
+        <v>67</v>
+      </c>
+      <c r="R30" t="s">
+        <v>70</v>
+      </c>
+      <c r="S30" t="s">
+        <v>72</v>
+      </c>
+      <c r="T30" t="s">
         <v>64</v>
       </c>
-      <c r="R30" t="s">
-        <v>66</v>
-      </c>
-      <c r="S30" t="s">
-        <v>51</v>
-      </c>
-      <c r="T30" t="s">
-        <v>51</v>
-      </c>
       <c r="U30" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V30" t="s">
-        <v>51</v>
-      </c>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W30" t="s">
+        <v>51</v>
+      </c>
+      <c r="X30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>51</v>
+      </c>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="AG30" t="s">
+        <v>51</v>
+      </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
@@ -7443,7 +7837,9 @@
       <c r="I31" s="1">
         <v>3</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1">
+        <v>3</v>
+      </c>
       <c r="K31" t="s">
         <v>53</v>
       </c>
@@ -7457,40 +7853,50 @@
         <v>57</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q31" t="s">
+        <v>67</v>
+      </c>
+      <c r="R31" t="s">
+        <v>70</v>
+      </c>
+      <c r="S31" t="s">
+        <v>72</v>
+      </c>
+      <c r="T31" t="s">
         <v>64</v>
       </c>
-      <c r="R31" t="s">
-        <v>66</v>
-      </c>
-      <c r="S31" t="s">
-        <v>51</v>
-      </c>
-      <c r="T31" t="s">
-        <v>51</v>
-      </c>
       <c r="U31" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V31" t="s">
-        <v>51</v>
-      </c>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W31" t="s">
+        <v>51</v>
+      </c>
+      <c r="X31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>51</v>
+      </c>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
+      <c r="AG31" t="s">
+        <v>51</v>
+      </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
@@ -7657,7 +8063,9 @@
       <c r="I32" s="1">
         <v>3</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1">
+        <v>3</v>
+      </c>
       <c r="K32" t="s">
         <v>53</v>
       </c>
@@ -7671,40 +8079,50 @@
         <v>57</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q32" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" t="s">
+        <v>70</v>
+      </c>
+      <c r="S32" t="s">
+        <v>72</v>
+      </c>
+      <c r="T32" t="s">
         <v>64</v>
       </c>
-      <c r="R32" t="s">
-        <v>66</v>
-      </c>
-      <c r="S32" t="s">
-        <v>51</v>
-      </c>
-      <c r="T32" t="s">
-        <v>51</v>
-      </c>
       <c r="U32" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V32" t="s">
-        <v>51</v>
-      </c>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W32" t="s">
+        <v>51</v>
+      </c>
+      <c r="X32" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>51</v>
+      </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
+      <c r="AG32" t="s">
+        <v>51</v>
+      </c>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
@@ -7871,7 +8289,9 @@
       <c r="I33" s="1">
         <v>3</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
       <c r="K33" t="s">
         <v>53</v>
       </c>
@@ -7885,40 +8305,50 @@
         <v>57</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q33" t="s">
+        <v>67</v>
+      </c>
+      <c r="R33" t="s">
+        <v>70</v>
+      </c>
+      <c r="S33" t="s">
+        <v>72</v>
+      </c>
+      <c r="T33" t="s">
         <v>64</v>
       </c>
-      <c r="R33" t="s">
-        <v>66</v>
-      </c>
-      <c r="S33" t="s">
-        <v>51</v>
-      </c>
-      <c r="T33" t="s">
-        <v>51</v>
-      </c>
       <c r="U33" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V33" t="s">
-        <v>51</v>
-      </c>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="W33" t="s">
+        <v>51</v>
+      </c>
+      <c r="X33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>51</v>
+      </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
+      <c r="AG33" t="s">
+        <v>51</v>
+      </c>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="778" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="906" uniqueCount="226">
   <si>
     <t>crop</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>sow_fert_date_3</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
   </si>
   <si>
     <t>sow_fert_type_npk_3</t>
@@ -810,445 +813,445 @@
         <v>76</v>
       </c>
       <c r="X1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AP1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AQ1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AR1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AS1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AT1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AU1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AV1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AW1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AX1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AY1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AZ1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BA1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BB1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BC1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BD1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BE1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BF1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BG1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BH1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BI1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BJ1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BK1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BL1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BM1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BN1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BO1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BP1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BQ1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BR1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BS1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BT1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BU1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BV1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BW1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BX1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BY1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BZ1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CA1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CB1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="CC1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CD1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CE1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CF1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CG1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CH1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CI1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CJ1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CK1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CL1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CM1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CN1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CO1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CP1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CQ1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CR1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CS1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CT1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CU1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CV1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CW1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CX1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CY1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CZ1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DA1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DB1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DC1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DD1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DE1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DF1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DG1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DH1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DI1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DJ1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="DK1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DL1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DM1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DN1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DO1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DP1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="DQ1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DR1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DS1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="DT1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="DU1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DV1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="DW1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DX1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DY1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DZ1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="EA1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EB1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EC1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="ED1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="EE1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EF1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EG1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EH1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EI1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EJ1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="EK1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="EL1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EM1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="EN1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="EO1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="EP1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="EQ1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="ER1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="ES1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="ET1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="EU1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="EV1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="EW1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="EX1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="EY1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="EZ1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="FA1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="FB1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="FC1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="FD1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="FE1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="FF1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="FG1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="FH1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="FI1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="FJ1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="FK1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="FL1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="FM1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="FN1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
@@ -1322,10 +1325,18 @@
       <c r="Z2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>51</v>
+      </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" t="s">
@@ -1546,14 +1557,22 @@
       <c r="Z3" t="s">
         <v>51</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>51</v>
+      </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH3" s="1">
         <v>3.25</v>
@@ -1774,14 +1793,22 @@
       <c r="Z4" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AA4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>51</v>
+      </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH4" s="1">
         <v>3.25</v>
@@ -2002,14 +2029,22 @@
       <c r="Z5" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="AA5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>51</v>
+      </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH5" s="1">
         <v>3.25</v>
@@ -2230,14 +2265,22 @@
       <c r="Z6" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="AA6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>51</v>
+      </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH6" s="1">
         <v>3.25</v>
@@ -2458,14 +2501,22 @@
       <c r="Z7" t="s">
         <v>51</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
+      <c r="AA7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>51</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH7" s="1">
         <v>3.25</v>
@@ -2686,14 +2737,22 @@
       <c r="Z8" t="s">
         <v>51</v>
       </c>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="AA8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>51</v>
+      </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH8" s="1">
         <v>3.25</v>
@@ -2916,10 +2975,18 @@
       <c r="Z9" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
+      <c r="AA9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>70</v>
+      </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" t="s">
@@ -3142,10 +3209,18 @@
       <c r="Z10" t="s">
         <v>70</v>
       </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="AA10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>70</v>
+      </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" t="s">
@@ -3368,10 +3443,18 @@
       <c r="Z11" t="s">
         <v>70</v>
       </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
+      <c r="AA11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>70</v>
+      </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" t="s">
@@ -3594,10 +3677,18 @@
       <c r="Z12" t="s">
         <v>70</v>
       </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
+      <c r="AA12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>70</v>
+      </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" t="s">
@@ -3820,10 +3911,18 @@
       <c r="Z13" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
+      <c r="AA13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>70</v>
+      </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" t="s">
@@ -4046,10 +4145,18 @@
       <c r="Z14" t="s">
         <v>70</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="AA14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>70</v>
+      </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" t="s">
@@ -4272,10 +4379,18 @@
       <c r="Z15" t="s">
         <v>70</v>
       </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AA15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>70</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" t="s">
@@ -4498,10 +4613,18 @@
       <c r="Z16" t="s">
         <v>70</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
+      <c r="AA16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>70</v>
+      </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" t="s">
@@ -4724,10 +4847,18 @@
       <c r="Z17" t="s">
         <v>70</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="AA17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>70</v>
+      </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" t="s">
@@ -4950,10 +5081,18 @@
       <c r="Z18" t="s">
         <v>70</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
+      <c r="AA18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>70</v>
+      </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" t="s">
@@ -5176,10 +5315,18 @@
       <c r="Z19" t="s">
         <v>70</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+      <c r="AA19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>70</v>
+      </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" t="s">
@@ -5402,10 +5549,18 @@
       <c r="Z20" t="s">
         <v>70</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
+      <c r="AA20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>70</v>
+      </c>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" t="s">
@@ -5617,21 +5772,29 @@
         <v>70</v>
       </c>
       <c r="W21" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y21" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>51</v>
+      </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" t="s">
@@ -5843,21 +6006,29 @@
         <v>70</v>
       </c>
       <c r="W22" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y22" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>51</v>
+      </c>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" t="s">
@@ -6069,21 +6240,29 @@
         <v>70</v>
       </c>
       <c r="W23" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y23" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>51</v>
+      </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" t="s">
@@ -6295,21 +6474,29 @@
         <v>70</v>
       </c>
       <c r="W24" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y24" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>51</v>
+      </c>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" t="s">
@@ -6521,21 +6708,29 @@
         <v>70</v>
       </c>
       <c r="W25" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y25" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>51</v>
+      </c>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" t="s">
@@ -6747,21 +6942,29 @@
         <v>70</v>
       </c>
       <c r="W26" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y26" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>51</v>
+      </c>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" t="s">
@@ -6973,21 +7176,29 @@
         <v>70</v>
       </c>
       <c r="W27" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y27" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>51</v>
+      </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" t="s">
@@ -7199,21 +7410,29 @@
         <v>70</v>
       </c>
       <c r="W28" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y28" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>51</v>
+      </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" t="s">
@@ -7425,21 +7644,29 @@
         <v>70</v>
       </c>
       <c r="W29" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y29" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>51</v>
+      </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" t="s">
@@ -7651,21 +7878,29 @@
         <v>70</v>
       </c>
       <c r="W30" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y30" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>51</v>
+      </c>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" t="s">
@@ -7877,21 +8112,29 @@
         <v>70</v>
       </c>
       <c r="W31" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y31" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>51</v>
+      </c>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" t="s">
@@ -8103,21 +8346,29 @@
         <v>70</v>
       </c>
       <c r="W32" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y32" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>51</v>
+      </c>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" t="s">
@@ -8329,21 +8580,29 @@
         <v>70</v>
       </c>
       <c r="W33" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Y33" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>51</v>
+      </c>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" t="s">

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="906" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1262" uniqueCount="241">
   <si>
     <t>crop</t>
   </si>
@@ -114,6 +114,18 @@
     <t>salvia- victoria</t>
   </si>
   <si>
+    <t>arrugula- rocket</t>
+  </si>
+  <si>
+    <t>dill- elephant</t>
+  </si>
+  <si>
+    <t>zinnia- california giant</t>
+  </si>
+  <si>
+    <t>zinnia- classic</t>
+  </si>
+  <si>
     <t>sow_type</t>
   </si>
   <si>
@@ -138,6 +150,12 @@
     <t>2024-03-11</t>
   </si>
   <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>2024-04-28</t>
+  </si>
+  <si>
     <t>sow_med</t>
   </si>
   <si>
@@ -147,6 +165,9 @@
     <t>soilless</t>
   </si>
   <si>
+    <t>rasied bed- frame</t>
+  </si>
+  <si>
     <t>sow_cell</t>
   </si>
   <si>
@@ -276,13 +297,37 @@
     <t>transp_harden_date_end</t>
   </si>
   <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
     <t>transp_date_1</t>
   </si>
   <si>
-    <t>2024-04-13</t>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
+    <t>2024-04-27</t>
   </si>
   <si>
     <t>transp_med_1</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>4.5.d</t>
   </si>
   <si>
     <t>transp_no_srt_1</t>
@@ -736,7 +781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FN33"/>
+  <dimension ref="A1:FN43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -747,511 +792,511 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Q1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="T1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="U1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="V1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="W1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="X1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Y1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Z1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AB1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AC1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AD1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AE1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AF1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AG1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AH1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="AI1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="AJ1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AK1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="AL1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AM1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AN1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AO1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AP1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AQ1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AR1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AS1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="AT1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="AU1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="AV1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AW1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AX1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AY1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AZ1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="BA1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="BB1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BC1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="BD1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="BE1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="BF1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="BG1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="BH1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="BI1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="BJ1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="BK1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="BL1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="BM1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="BN1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="BO1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="BP1" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="BQ1" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="BR1" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="BS1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="BT1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BU1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="BV1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="BW1" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="BX1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="BY1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="BZ1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="CA1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="CB1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="CC1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="CD1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="CE1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="CF1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="CG1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="CH1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="CI1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="CJ1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="CK1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="CL1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="CM1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="CN1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="CO1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="CP1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="CQ1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="CR1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="CS1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="CT1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="CU1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="CV1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CW1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="CX1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="CY1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="CZ1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="DA1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="DB1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="DC1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="DD1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="DE1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="DF1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="DG1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="DH1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="DI1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="DJ1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="DK1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="DL1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="DM1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="DN1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="DO1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="DP1" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="DQ1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="DR1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="DS1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="DT1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="DU1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="DV1" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="DW1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="DX1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="DY1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="DZ1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="EA1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="EB1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="EC1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="ED1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="EE1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="EF1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="EG1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="EH1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="EI1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="EJ1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="EK1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="EL1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="EM1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="EN1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="EO1" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="EP1" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="EQ1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="ER1" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="ES1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="ET1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="EU1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="EV1" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="EW1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="EX1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="EY1" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="EZ1" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="FA1" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="FB1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="FC1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="FD1" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="FE1" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="FF1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="FG1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="FH1" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="FI1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="FJ1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FK1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FL1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FM1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="FN1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
@@ -1259,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
@@ -1282,67 +1327,73 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
       <c r="AG2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>58</v>
+      </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
@@ -1485,13 +1536,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1">
         <v>50</v>
@@ -1512,70 +1563,74 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>58</v>
+      </c>
       <c r="AG3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>100</v>
       </c>
       <c r="AI3" s="1">
         <v>8</v>
@@ -1721,13 +1776,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -1748,70 +1803,74 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
         <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
       <c r="AG4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>100</v>
       </c>
       <c r="AI4" s="1">
         <v>1</v>
@@ -1957,13 +2016,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1">
         <v>50</v>
@@ -1984,70 +2043,74 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
         <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>94</v>
+      </c>
       <c r="AG5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>100</v>
       </c>
       <c r="AI5" s="1">
         <v>19</v>
@@ -2193,13 +2256,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -2220,70 +2283,74 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
         <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>94</v>
+      </c>
       <c r="AG6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>100</v>
       </c>
       <c r="AI6" s="1">
         <v>18</v>
@@ -2429,13 +2496,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -2456,70 +2523,74 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
         <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>94</v>
+      </c>
       <c r="AG7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>100</v>
       </c>
       <c r="AI7" s="1">
         <v>20</v>
@@ -2665,13 +2736,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -2692,70 +2763,74 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
         <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="X8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Y8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Z8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AA8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>94</v>
+      </c>
       <c r="AG8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>3.25</v>
+        <v>96</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>100</v>
       </c>
       <c r="AI8" s="1">
         <v>20</v>
@@ -2901,13 +2976,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>32</v>
@@ -2928,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L9" s="1">
         <v>73</v>
@@ -2937,63 +3012,71 @@
         <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" t="s">
         <v>77</v>
       </c>
-      <c r="AB9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
+      <c r="AE9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>58</v>
+      </c>
       <c r="AG9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>16</v>
+      </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
@@ -3135,13 +3218,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>32</v>
@@ -3162,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1">
         <v>73</v>
@@ -3171,63 +3254,71 @@
         <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" t="s">
         <v>77</v>
       </c>
-      <c r="AB10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
+      <c r="AE10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>58</v>
+      </c>
       <c r="AG10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>12</v>
+      </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
@@ -3369,13 +3460,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
@@ -3396,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L11" s="1">
         <v>73</v>
@@ -3405,63 +3496,71 @@
         <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD11" t="s">
         <v>77</v>
       </c>
-      <c r="AB11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
+      <c r="AE11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>58</v>
+      </c>
       <c r="AG11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
@@ -3603,13 +3702,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1">
         <v>32</v>
@@ -3630,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1">
         <v>73</v>
@@ -3639,63 +3738,71 @@
         <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s">
         <v>77</v>
       </c>
-      <c r="AB12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
+      <c r="AE12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>58</v>
+      </c>
       <c r="AG12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>4</v>
+      </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
@@ -3837,13 +3944,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
@@ -3864,7 +3971,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1">
         <v>73</v>
@@ -3873,63 +3980,71 @@
         <v>16</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s">
         <v>77</v>
       </c>
-      <c r="AB13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="AE13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>25</v>
+      </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
@@ -4071,13 +4186,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -4098,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L14" s="1">
         <v>73</v>
@@ -4107,63 +4222,71 @@
         <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s">
         <v>77</v>
       </c>
-      <c r="AB14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
+      <c r="AE14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>58</v>
+      </c>
       <c r="AG14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>5</v>
+      </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
@@ -4305,13 +4428,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
         <v>32</v>
@@ -4332,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L15" s="1">
         <v>73</v>
@@ -4341,63 +4464,71 @@
         <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s">
         <v>77</v>
       </c>
-      <c r="AB15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
+      <c r="AE15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>58</v>
+      </c>
       <c r="AG15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
@@ -4539,13 +4670,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1">
         <v>32</v>
@@ -4566,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L16" s="1">
         <v>73</v>
@@ -4575,63 +4706,71 @@
         <v>16</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s">
         <v>77</v>
       </c>
-      <c r="AB16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
+      <c r="AE16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>58</v>
+      </c>
       <c r="AG16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>6</v>
+      </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
@@ -4773,13 +4912,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1">
         <v>32</v>
@@ -4800,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L17" s="1">
         <v>73</v>
@@ -4809,63 +4948,71 @@
         <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s">
         <v>77</v>
       </c>
-      <c r="AB17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
+      <c r="AE17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>58</v>
+      </c>
       <c r="AG17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>2</v>
+      </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
@@ -5007,13 +5154,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1">
         <v>32</v>
@@ -5034,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L18" s="1">
         <v>73</v>
@@ -5043,63 +5190,71 @@
         <v>16</v>
       </c>
       <c r="N18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s">
         <v>77</v>
       </c>
-      <c r="AB18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
+      <c r="AE18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>58</v>
+      </c>
       <c r="AG18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>1</v>
+      </c>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
@@ -5241,13 +5396,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1">
         <v>32</v>
@@ -5268,7 +5423,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L19" s="1">
         <v>73</v>
@@ -5277,63 +5432,71 @@
         <v>16</v>
       </c>
       <c r="N19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s">
         <v>77</v>
       </c>
-      <c r="AB19" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
+      <c r="AE19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>58</v>
+      </c>
       <c r="AG19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>2</v>
+      </c>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
@@ -5475,13 +5638,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1">
         <v>32</v>
@@ -5502,7 +5665,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L20" s="1">
         <v>73</v>
@@ -5511,63 +5674,71 @@
         <v>16</v>
       </c>
       <c r="N20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="T20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Y20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s">
         <v>77</v>
       </c>
-      <c r="AB20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
+      <c r="AE20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>58</v>
+      </c>
       <c r="AG20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
@@ -5709,13 +5880,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1">
         <v>32</v>
@@ -5736,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L21" s="1">
         <v>75</v>
@@ -5745,63 +5916,71 @@
         <v>16</v>
       </c>
       <c r="N21" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s">
+        <v>84</v>
+      </c>
+      <c r="X21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z21" t="s">
         <v>77</v>
       </c>
-      <c r="X21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>70</v>
-      </c>
       <c r="AA21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
+      </c>
       <c r="AG21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>16</v>
+      </c>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
@@ -5943,13 +6122,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1">
         <v>32</v>
@@ -5970,7 +6149,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L22" s="1">
         <v>75</v>
@@ -5979,63 +6158,71 @@
         <v>16</v>
       </c>
       <c r="N22" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s">
+        <v>84</v>
+      </c>
+      <c r="X22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s">
         <v>77</v>
       </c>
-      <c r="X22" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>70</v>
-      </c>
       <c r="AA22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>58</v>
+      </c>
       <c r="AG22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>16</v>
+      </c>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
@@ -6177,13 +6364,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1">
         <v>32</v>
@@ -6204,7 +6391,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L23" s="1">
         <v>75</v>
@@ -6213,63 +6400,71 @@
         <v>16</v>
       </c>
       <c r="N23" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s">
+        <v>84</v>
+      </c>
+      <c r="X23" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="s">
         <v>77</v>
       </c>
-      <c r="X23" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>70</v>
-      </c>
       <c r="AA23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>58</v>
+      </c>
       <c r="AG23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>12</v>
+      </c>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
@@ -6411,13 +6606,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1">
         <v>32</v>
@@ -6438,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L24" s="1">
         <v>75</v>
@@ -6447,63 +6642,71 @@
         <v>16</v>
       </c>
       <c r="N24" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s">
+        <v>84</v>
+      </c>
+      <c r="X24" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z24" t="s">
         <v>77</v>
       </c>
-      <c r="X24" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>70</v>
-      </c>
       <c r="AA24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>58</v>
+      </c>
       <c r="AG24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>13</v>
+      </c>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
@@ -6645,13 +6848,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1">
         <v>32</v>
@@ -6672,7 +6875,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L25" s="1">
         <v>75</v>
@@ -6681,63 +6884,71 @@
         <v>16</v>
       </c>
       <c r="N25" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z25" t="s">
         <v>77</v>
       </c>
-      <c r="X25" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>70</v>
-      </c>
       <c r="AA25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>58</v>
+      </c>
       <c r="AG25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>8</v>
+      </c>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
@@ -6879,13 +7090,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -6906,7 +7117,7 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L26" s="1">
         <v>72</v>
@@ -6915,63 +7126,71 @@
         <v>16</v>
       </c>
       <c r="N26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P26" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s">
         <v>77</v>
       </c>
-      <c r="X26" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>70</v>
-      </c>
       <c r="AA26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>58</v>
+      </c>
       <c r="AG26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>21</v>
+      </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
@@ -7113,13 +7332,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -7140,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L27" s="1">
         <v>72</v>
@@ -7149,63 +7368,71 @@
         <v>16</v>
       </c>
       <c r="N27" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P27" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s">
+        <v>84</v>
+      </c>
+      <c r="X27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z27" t="s">
         <v>77</v>
       </c>
-      <c r="X27" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>70</v>
-      </c>
       <c r="AA27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>58</v>
+      </c>
       <c r="AG27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
@@ -7347,13 +7574,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -7374,7 +7601,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L28" s="1">
         <v>72</v>
@@ -7383,63 +7610,71 @@
         <v>16</v>
       </c>
       <c r="N28" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s">
+        <v>84</v>
+      </c>
+      <c r="X28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s">
         <v>77</v>
       </c>
-      <c r="X28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>70</v>
-      </c>
       <c r="AA28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>58</v>
+      </c>
       <c r="AG28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>3</v>
+      </c>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
@@ -7581,13 +7816,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1">
         <v>50</v>
@@ -7608,7 +7843,7 @@
         <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L29" s="1">
         <v>72</v>
@@ -7617,63 +7852,71 @@
         <v>16</v>
       </c>
       <c r="N29" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P29" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q29" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U29" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s">
         <v>77</v>
       </c>
-      <c r="X29" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>70</v>
-      </c>
       <c r="AA29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>58</v>
+      </c>
       <c r="AG29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>6</v>
+      </c>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
@@ -7815,13 +8058,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1">
         <v>50</v>
@@ -7842,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L30" s="1">
         <v>72</v>
@@ -7851,63 +8094,71 @@
         <v>16</v>
       </c>
       <c r="N30" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P30" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R30" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s">
+        <v>84</v>
+      </c>
+      <c r="X30" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s">
         <v>77</v>
       </c>
-      <c r="X30" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>70</v>
-      </c>
       <c r="AA30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>58</v>
+      </c>
       <c r="AG30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>12</v>
+      </c>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
@@ -8049,13 +8300,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1">
         <v>50</v>
@@ -8076,7 +8327,7 @@
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L31" s="1">
         <v>72</v>
@@ -8085,63 +8336,71 @@
         <v>16</v>
       </c>
       <c r="N31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P31" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q31" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U31" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s">
+        <v>84</v>
+      </c>
+      <c r="X31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z31" t="s">
         <v>77</v>
       </c>
-      <c r="X31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>70</v>
-      </c>
       <c r="AA31" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB31" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC31" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>58</v>
+      </c>
       <c r="AG31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>15</v>
+      </c>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
@@ -8283,13 +8542,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1">
         <v>50</v>
@@ -8310,7 +8569,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L32" s="1">
         <v>72</v>
@@ -8319,63 +8578,71 @@
         <v>16</v>
       </c>
       <c r="N32" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P32" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s">
+        <v>84</v>
+      </c>
+      <c r="X32" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z32" t="s">
         <v>77</v>
       </c>
-      <c r="X32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>70</v>
-      </c>
       <c r="AA32" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB32" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC32" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>58</v>
+      </c>
       <c r="AG32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>11</v>
+      </c>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
@@ -8517,13 +8784,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E33" s="1">
         <v>50</v>
@@ -8544,7 +8811,7 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L33" s="1">
         <v>72</v>
@@ -8553,63 +8820,71 @@
         <v>16</v>
       </c>
       <c r="N33" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P33" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="U33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s">
+        <v>84</v>
+      </c>
+      <c r="X33" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s">
         <v>77</v>
       </c>
-      <c r="X33" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>70</v>
-      </c>
       <c r="AA33" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AB33" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AC33" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AD33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>58</v>
+      </c>
       <c r="AG33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>15</v>
+      </c>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
@@ -8746,6 +9021,2306 @@
       <c r="FM33" s="1"/>
       <c r="FN33" s="1"/>
     </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>96</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" t="s">
+        <v>58</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>58</v>
+      </c>
+      <c r="R34" t="s">
+        <v>58</v>
+      </c>
+      <c r="S34" t="s">
+        <v>58</v>
+      </c>
+      <c r="T34" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" t="s">
+        <v>58</v>
+      </c>
+      <c r="W34" t="s">
+        <v>58</v>
+      </c>
+      <c r="X34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="1"/>
+      <c r="CV34" s="1"/>
+      <c r="CW34" s="1"/>
+      <c r="CX34" s="1"/>
+      <c r="CY34" s="1"/>
+      <c r="CZ34" s="1"/>
+      <c r="DA34" s="1"/>
+      <c r="DB34" s="1"/>
+      <c r="DC34" s="1"/>
+      <c r="DD34" s="1"/>
+      <c r="DE34" s="1"/>
+      <c r="DF34" s="1"/>
+      <c r="DG34" s="1"/>
+      <c r="DH34" s="1"/>
+      <c r="DI34" s="1"/>
+      <c r="DJ34" s="1"/>
+      <c r="DK34" s="1"/>
+      <c r="DL34" s="1"/>
+      <c r="DM34" s="1"/>
+      <c r="DN34" s="1"/>
+      <c r="DO34" s="1"/>
+      <c r="DP34" s="1"/>
+      <c r="DQ34" s="1"/>
+      <c r="DR34" s="1"/>
+      <c r="DS34" s="1"/>
+      <c r="DT34" s="1"/>
+      <c r="DU34" s="1"/>
+      <c r="DV34" s="1"/>
+      <c r="DW34" s="1"/>
+      <c r="DX34" s="1"/>
+      <c r="DY34" s="1"/>
+      <c r="DZ34" s="1"/>
+      <c r="EA34" s="1"/>
+      <c r="EB34" s="1"/>
+      <c r="EC34" s="1"/>
+      <c r="ED34" s="1"/>
+      <c r="EE34" s="1"/>
+      <c r="EF34" s="1"/>
+      <c r="EG34" s="1"/>
+      <c r="EH34" s="1"/>
+      <c r="EI34" s="1"/>
+      <c r="EJ34" s="1"/>
+      <c r="EK34" s="1"/>
+      <c r="EL34" s="1"/>
+      <c r="EM34" s="1"/>
+      <c r="EN34" s="1"/>
+      <c r="EO34" s="1"/>
+      <c r="EP34" s="1"/>
+      <c r="EQ34" s="1"/>
+      <c r="ER34" s="1"/>
+      <c r="ES34" s="1"/>
+      <c r="ET34" s="1"/>
+      <c r="EU34" s="1"/>
+      <c r="EV34" s="1"/>
+      <c r="EW34" s="1"/>
+      <c r="EX34" s="1"/>
+      <c r="EY34" s="1"/>
+      <c r="EZ34" s="1"/>
+      <c r="FA34" s="1"/>
+      <c r="FB34" s="1"/>
+      <c r="FC34" s="1"/>
+      <c r="FD34" s="1"/>
+      <c r="FE34" s="1"/>
+      <c r="FF34" s="1"/>
+      <c r="FG34" s="1"/>
+      <c r="FH34" s="1"/>
+      <c r="FI34" s="1"/>
+      <c r="FJ34" s="1"/>
+      <c r="FK34" s="1"/>
+      <c r="FL34" s="1"/>
+      <c r="FM34" s="1"/>
+      <c r="FN34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>96</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>58</v>
+      </c>
+      <c r="R35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S35" t="s">
+        <v>58</v>
+      </c>
+      <c r="T35" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" t="s">
+        <v>58</v>
+      </c>
+      <c r="W35" t="s">
+        <v>58</v>
+      </c>
+      <c r="X35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="1"/>
+      <c r="CL35" s="1"/>
+      <c r="CM35" s="1"/>
+      <c r="CN35" s="1"/>
+      <c r="CO35" s="1"/>
+      <c r="CP35" s="1"/>
+      <c r="CQ35" s="1"/>
+      <c r="CR35" s="1"/>
+      <c r="CS35" s="1"/>
+      <c r="CT35" s="1"/>
+      <c r="CU35" s="1"/>
+      <c r="CV35" s="1"/>
+      <c r="CW35" s="1"/>
+      <c r="CX35" s="1"/>
+      <c r="CY35" s="1"/>
+      <c r="CZ35" s="1"/>
+      <c r="DA35" s="1"/>
+      <c r="DB35" s="1"/>
+      <c r="DC35" s="1"/>
+      <c r="DD35" s="1"/>
+      <c r="DE35" s="1"/>
+      <c r="DF35" s="1"/>
+      <c r="DG35" s="1"/>
+      <c r="DH35" s="1"/>
+      <c r="DI35" s="1"/>
+      <c r="DJ35" s="1"/>
+      <c r="DK35" s="1"/>
+      <c r="DL35" s="1"/>
+      <c r="DM35" s="1"/>
+      <c r="DN35" s="1"/>
+      <c r="DO35" s="1"/>
+      <c r="DP35" s="1"/>
+      <c r="DQ35" s="1"/>
+      <c r="DR35" s="1"/>
+      <c r="DS35" s="1"/>
+      <c r="DT35" s="1"/>
+      <c r="DU35" s="1"/>
+      <c r="DV35" s="1"/>
+      <c r="DW35" s="1"/>
+      <c r="DX35" s="1"/>
+      <c r="DY35" s="1"/>
+      <c r="DZ35" s="1"/>
+      <c r="EA35" s="1"/>
+      <c r="EB35" s="1"/>
+      <c r="EC35" s="1"/>
+      <c r="ED35" s="1"/>
+      <c r="EE35" s="1"/>
+      <c r="EF35" s="1"/>
+      <c r="EG35" s="1"/>
+      <c r="EH35" s="1"/>
+      <c r="EI35" s="1"/>
+      <c r="EJ35" s="1"/>
+      <c r="EK35" s="1"/>
+      <c r="EL35" s="1"/>
+      <c r="EM35" s="1"/>
+      <c r="EN35" s="1"/>
+      <c r="EO35" s="1"/>
+      <c r="EP35" s="1"/>
+      <c r="EQ35" s="1"/>
+      <c r="ER35" s="1"/>
+      <c r="ES35" s="1"/>
+      <c r="ET35" s="1"/>
+      <c r="EU35" s="1"/>
+      <c r="EV35" s="1"/>
+      <c r="EW35" s="1"/>
+      <c r="EX35" s="1"/>
+      <c r="EY35" s="1"/>
+      <c r="EZ35" s="1"/>
+      <c r="FA35" s="1"/>
+      <c r="FB35" s="1"/>
+      <c r="FC35" s="1"/>
+      <c r="FD35" s="1"/>
+      <c r="FE35" s="1"/>
+      <c r="FF35" s="1"/>
+      <c r="FG35" s="1"/>
+      <c r="FH35" s="1"/>
+      <c r="FI35" s="1"/>
+      <c r="FJ35" s="1"/>
+      <c r="FK35" s="1"/>
+      <c r="FL35" s="1"/>
+      <c r="FM35" s="1"/>
+      <c r="FN35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.16666666669999999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>96</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" t="s">
+        <v>58</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>58</v>
+      </c>
+      <c r="R36" t="s">
+        <v>58</v>
+      </c>
+      <c r="S36" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" t="s">
+        <v>58</v>
+      </c>
+      <c r="W36" t="s">
+        <v>58</v>
+      </c>
+      <c r="X36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1"/>
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="1"/>
+      <c r="CV36" s="1"/>
+      <c r="CW36" s="1"/>
+      <c r="CX36" s="1"/>
+      <c r="CY36" s="1"/>
+      <c r="CZ36" s="1"/>
+      <c r="DA36" s="1"/>
+      <c r="DB36" s="1"/>
+      <c r="DC36" s="1"/>
+      <c r="DD36" s="1"/>
+      <c r="DE36" s="1"/>
+      <c r="DF36" s="1"/>
+      <c r="DG36" s="1"/>
+      <c r="DH36" s="1"/>
+      <c r="DI36" s="1"/>
+      <c r="DJ36" s="1"/>
+      <c r="DK36" s="1"/>
+      <c r="DL36" s="1"/>
+      <c r="DM36" s="1"/>
+      <c r="DN36" s="1"/>
+      <c r="DO36" s="1"/>
+      <c r="DP36" s="1"/>
+      <c r="DQ36" s="1"/>
+      <c r="DR36" s="1"/>
+      <c r="DS36" s="1"/>
+      <c r="DT36" s="1"/>
+      <c r="DU36" s="1"/>
+      <c r="DV36" s="1"/>
+      <c r="DW36" s="1"/>
+      <c r="DX36" s="1"/>
+      <c r="DY36" s="1"/>
+      <c r="DZ36" s="1"/>
+      <c r="EA36" s="1"/>
+      <c r="EB36" s="1"/>
+      <c r="EC36" s="1"/>
+      <c r="ED36" s="1"/>
+      <c r="EE36" s="1"/>
+      <c r="EF36" s="1"/>
+      <c r="EG36" s="1"/>
+      <c r="EH36" s="1"/>
+      <c r="EI36" s="1"/>
+      <c r="EJ36" s="1"/>
+      <c r="EK36" s="1"/>
+      <c r="EL36" s="1"/>
+      <c r="EM36" s="1"/>
+      <c r="EN36" s="1"/>
+      <c r="EO36" s="1"/>
+      <c r="EP36" s="1"/>
+      <c r="EQ36" s="1"/>
+      <c r="ER36" s="1"/>
+      <c r="ES36" s="1"/>
+      <c r="ET36" s="1"/>
+      <c r="EU36" s="1"/>
+      <c r="EV36" s="1"/>
+      <c r="EW36" s="1"/>
+      <c r="EX36" s="1"/>
+      <c r="EY36" s="1"/>
+      <c r="EZ36" s="1"/>
+      <c r="FA36" s="1"/>
+      <c r="FB36" s="1"/>
+      <c r="FC36" s="1"/>
+      <c r="FD36" s="1"/>
+      <c r="FE36" s="1"/>
+      <c r="FF36" s="1"/>
+      <c r="FG36" s="1"/>
+      <c r="FH36" s="1"/>
+      <c r="FI36" s="1"/>
+      <c r="FJ36" s="1"/>
+      <c r="FK36" s="1"/>
+      <c r="FL36" s="1"/>
+      <c r="FM36" s="1"/>
+      <c r="FN36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>96</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" t="s">
+        <v>58</v>
+      </c>
+      <c r="O37" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>58</v>
+      </c>
+      <c r="R37" t="s">
+        <v>58</v>
+      </c>
+      <c r="S37" t="s">
+        <v>58</v>
+      </c>
+      <c r="T37" t="s">
+        <v>58</v>
+      </c>
+      <c r="U37" t="s">
+        <v>58</v>
+      </c>
+      <c r="V37" t="s">
+        <v>58</v>
+      </c>
+      <c r="W37" t="s">
+        <v>58</v>
+      </c>
+      <c r="X37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="1"/>
+      <c r="CJ37" s="1"/>
+      <c r="CK37" s="1"/>
+      <c r="CL37" s="1"/>
+      <c r="CM37" s="1"/>
+      <c r="CN37" s="1"/>
+      <c r="CO37" s="1"/>
+      <c r="CP37" s="1"/>
+      <c r="CQ37" s="1"/>
+      <c r="CR37" s="1"/>
+      <c r="CS37" s="1"/>
+      <c r="CT37" s="1"/>
+      <c r="CU37" s="1"/>
+      <c r="CV37" s="1"/>
+      <c r="CW37" s="1"/>
+      <c r="CX37" s="1"/>
+      <c r="CY37" s="1"/>
+      <c r="CZ37" s="1"/>
+      <c r="DA37" s="1"/>
+      <c r="DB37" s="1"/>
+      <c r="DC37" s="1"/>
+      <c r="DD37" s="1"/>
+      <c r="DE37" s="1"/>
+      <c r="DF37" s="1"/>
+      <c r="DG37" s="1"/>
+      <c r="DH37" s="1"/>
+      <c r="DI37" s="1"/>
+      <c r="DJ37" s="1"/>
+      <c r="DK37" s="1"/>
+      <c r="DL37" s="1"/>
+      <c r="DM37" s="1"/>
+      <c r="DN37" s="1"/>
+      <c r="DO37" s="1"/>
+      <c r="DP37" s="1"/>
+      <c r="DQ37" s="1"/>
+      <c r="DR37" s="1"/>
+      <c r="DS37" s="1"/>
+      <c r="DT37" s="1"/>
+      <c r="DU37" s="1"/>
+      <c r="DV37" s="1"/>
+      <c r="DW37" s="1"/>
+      <c r="DX37" s="1"/>
+      <c r="DY37" s="1"/>
+      <c r="DZ37" s="1"/>
+      <c r="EA37" s="1"/>
+      <c r="EB37" s="1"/>
+      <c r="EC37" s="1"/>
+      <c r="ED37" s="1"/>
+      <c r="EE37" s="1"/>
+      <c r="EF37" s="1"/>
+      <c r="EG37" s="1"/>
+      <c r="EH37" s="1"/>
+      <c r="EI37" s="1"/>
+      <c r="EJ37" s="1"/>
+      <c r="EK37" s="1"/>
+      <c r="EL37" s="1"/>
+      <c r="EM37" s="1"/>
+      <c r="EN37" s="1"/>
+      <c r="EO37" s="1"/>
+      <c r="EP37" s="1"/>
+      <c r="EQ37" s="1"/>
+      <c r="ER37" s="1"/>
+      <c r="ES37" s="1"/>
+      <c r="ET37" s="1"/>
+      <c r="EU37" s="1"/>
+      <c r="EV37" s="1"/>
+      <c r="EW37" s="1"/>
+      <c r="EX37" s="1"/>
+      <c r="EY37" s="1"/>
+      <c r="EZ37" s="1"/>
+      <c r="FA37" s="1"/>
+      <c r="FB37" s="1"/>
+      <c r="FC37" s="1"/>
+      <c r="FD37" s="1"/>
+      <c r="FE37" s="1"/>
+      <c r="FF37" s="1"/>
+      <c r="FG37" s="1"/>
+      <c r="FH37" s="1"/>
+      <c r="FI37" s="1"/>
+      <c r="FJ37" s="1"/>
+      <c r="FK37" s="1"/>
+      <c r="FL37" s="1"/>
+      <c r="FM37" s="1"/>
+      <c r="FN37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>96</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" t="s">
+        <v>58</v>
+      </c>
+      <c r="O38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>58</v>
+      </c>
+      <c r="R38" t="s">
+        <v>58</v>
+      </c>
+      <c r="S38" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" t="s">
+        <v>58</v>
+      </c>
+      <c r="V38" t="s">
+        <v>58</v>
+      </c>
+      <c r="W38" t="s">
+        <v>58</v>
+      </c>
+      <c r="X38" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1"/>
+      <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+      <c r="CT38" s="1"/>
+      <c r="CU38" s="1"/>
+      <c r="CV38" s="1"/>
+      <c r="CW38" s="1"/>
+      <c r="CX38" s="1"/>
+      <c r="CY38" s="1"/>
+      <c r="CZ38" s="1"/>
+      <c r="DA38" s="1"/>
+      <c r="DB38" s="1"/>
+      <c r="DC38" s="1"/>
+      <c r="DD38" s="1"/>
+      <c r="DE38" s="1"/>
+      <c r="DF38" s="1"/>
+      <c r="DG38" s="1"/>
+      <c r="DH38" s="1"/>
+      <c r="DI38" s="1"/>
+      <c r="DJ38" s="1"/>
+      <c r="DK38" s="1"/>
+      <c r="DL38" s="1"/>
+      <c r="DM38" s="1"/>
+      <c r="DN38" s="1"/>
+      <c r="DO38" s="1"/>
+      <c r="DP38" s="1"/>
+      <c r="DQ38" s="1"/>
+      <c r="DR38" s="1"/>
+      <c r="DS38" s="1"/>
+      <c r="DT38" s="1"/>
+      <c r="DU38" s="1"/>
+      <c r="DV38" s="1"/>
+      <c r="DW38" s="1"/>
+      <c r="DX38" s="1"/>
+      <c r="DY38" s="1"/>
+      <c r="DZ38" s="1"/>
+      <c r="EA38" s="1"/>
+      <c r="EB38" s="1"/>
+      <c r="EC38" s="1"/>
+      <c r="ED38" s="1"/>
+      <c r="EE38" s="1"/>
+      <c r="EF38" s="1"/>
+      <c r="EG38" s="1"/>
+      <c r="EH38" s="1"/>
+      <c r="EI38" s="1"/>
+      <c r="EJ38" s="1"/>
+      <c r="EK38" s="1"/>
+      <c r="EL38" s="1"/>
+      <c r="EM38" s="1"/>
+      <c r="EN38" s="1"/>
+      <c r="EO38" s="1"/>
+      <c r="EP38" s="1"/>
+      <c r="EQ38" s="1"/>
+      <c r="ER38" s="1"/>
+      <c r="ES38" s="1"/>
+      <c r="ET38" s="1"/>
+      <c r="EU38" s="1"/>
+      <c r="EV38" s="1"/>
+      <c r="EW38" s="1"/>
+      <c r="EX38" s="1"/>
+      <c r="EY38" s="1"/>
+      <c r="EZ38" s="1"/>
+      <c r="FA38" s="1"/>
+      <c r="FB38" s="1"/>
+      <c r="FC38" s="1"/>
+      <c r="FD38" s="1"/>
+      <c r="FE38" s="1"/>
+      <c r="FF38" s="1"/>
+      <c r="FG38" s="1"/>
+      <c r="FH38" s="1"/>
+      <c r="FI38" s="1"/>
+      <c r="FJ38" s="1"/>
+      <c r="FK38" s="1"/>
+      <c r="FL38" s="1"/>
+      <c r="FM38" s="1"/>
+      <c r="FN38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="1">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" t="s">
+        <v>58</v>
+      </c>
+      <c r="O39" t="s">
+        <v>58</v>
+      </c>
+      <c r="P39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>58</v>
+      </c>
+      <c r="R39" t="s">
+        <v>58</v>
+      </c>
+      <c r="S39" t="s">
+        <v>58</v>
+      </c>
+      <c r="T39" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" t="s">
+        <v>58</v>
+      </c>
+      <c r="W39" t="s">
+        <v>58</v>
+      </c>
+      <c r="X39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1"/>
+      <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="1"/>
+      <c r="CV39" s="1"/>
+      <c r="CW39" s="1"/>
+      <c r="CX39" s="1"/>
+      <c r="CY39" s="1"/>
+      <c r="CZ39" s="1"/>
+      <c r="DA39" s="1"/>
+      <c r="DB39" s="1"/>
+      <c r="DC39" s="1"/>
+      <c r="DD39" s="1"/>
+      <c r="DE39" s="1"/>
+      <c r="DF39" s="1"/>
+      <c r="DG39" s="1"/>
+      <c r="DH39" s="1"/>
+      <c r="DI39" s="1"/>
+      <c r="DJ39" s="1"/>
+      <c r="DK39" s="1"/>
+      <c r="DL39" s="1"/>
+      <c r="DM39" s="1"/>
+      <c r="DN39" s="1"/>
+      <c r="DO39" s="1"/>
+      <c r="DP39" s="1"/>
+      <c r="DQ39" s="1"/>
+      <c r="DR39" s="1"/>
+      <c r="DS39" s="1"/>
+      <c r="DT39" s="1"/>
+      <c r="DU39" s="1"/>
+      <c r="DV39" s="1"/>
+      <c r="DW39" s="1"/>
+      <c r="DX39" s="1"/>
+      <c r="DY39" s="1"/>
+      <c r="DZ39" s="1"/>
+      <c r="EA39" s="1"/>
+      <c r="EB39" s="1"/>
+      <c r="EC39" s="1"/>
+      <c r="ED39" s="1"/>
+      <c r="EE39" s="1"/>
+      <c r="EF39" s="1"/>
+      <c r="EG39" s="1"/>
+      <c r="EH39" s="1"/>
+      <c r="EI39" s="1"/>
+      <c r="EJ39" s="1"/>
+      <c r="EK39" s="1"/>
+      <c r="EL39" s="1"/>
+      <c r="EM39" s="1"/>
+      <c r="EN39" s="1"/>
+      <c r="EO39" s="1"/>
+      <c r="EP39" s="1"/>
+      <c r="EQ39" s="1"/>
+      <c r="ER39" s="1"/>
+      <c r="ES39" s="1"/>
+      <c r="ET39" s="1"/>
+      <c r="EU39" s="1"/>
+      <c r="EV39" s="1"/>
+      <c r="EW39" s="1"/>
+      <c r="EX39" s="1"/>
+      <c r="EY39" s="1"/>
+      <c r="EZ39" s="1"/>
+      <c r="FA39" s="1"/>
+      <c r="FB39" s="1"/>
+      <c r="FC39" s="1"/>
+      <c r="FD39" s="1"/>
+      <c r="FE39" s="1"/>
+      <c r="FF39" s="1"/>
+      <c r="FG39" s="1"/>
+      <c r="FH39" s="1"/>
+      <c r="FI39" s="1"/>
+      <c r="FJ39" s="1"/>
+      <c r="FK39" s="1"/>
+      <c r="FL39" s="1"/>
+      <c r="FM39" s="1"/>
+      <c r="FN39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="1">
+        <v>50</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" t="s">
+        <v>58</v>
+      </c>
+      <c r="O40" t="s">
+        <v>58</v>
+      </c>
+      <c r="P40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>58</v>
+      </c>
+      <c r="R40" t="s">
+        <v>58</v>
+      </c>
+      <c r="S40" t="s">
+        <v>58</v>
+      </c>
+      <c r="T40" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" t="s">
+        <v>58</v>
+      </c>
+      <c r="V40" t="s">
+        <v>58</v>
+      </c>
+      <c r="W40" t="s">
+        <v>58</v>
+      </c>
+      <c r="X40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+      <c r="CH40" s="1"/>
+      <c r="CI40" s="1"/>
+      <c r="CJ40" s="1"/>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
+      <c r="CO40" s="1"/>
+      <c r="CP40" s="1"/>
+      <c r="CQ40" s="1"/>
+      <c r="CR40" s="1"/>
+      <c r="CS40" s="1"/>
+      <c r="CT40" s="1"/>
+      <c r="CU40" s="1"/>
+      <c r="CV40" s="1"/>
+      <c r="CW40" s="1"/>
+      <c r="CX40" s="1"/>
+      <c r="CY40" s="1"/>
+      <c r="CZ40" s="1"/>
+      <c r="DA40" s="1"/>
+      <c r="DB40" s="1"/>
+      <c r="DC40" s="1"/>
+      <c r="DD40" s="1"/>
+      <c r="DE40" s="1"/>
+      <c r="DF40" s="1"/>
+      <c r="DG40" s="1"/>
+      <c r="DH40" s="1"/>
+      <c r="DI40" s="1"/>
+      <c r="DJ40" s="1"/>
+      <c r="DK40" s="1"/>
+      <c r="DL40" s="1"/>
+      <c r="DM40" s="1"/>
+      <c r="DN40" s="1"/>
+      <c r="DO40" s="1"/>
+      <c r="DP40" s="1"/>
+      <c r="DQ40" s="1"/>
+      <c r="DR40" s="1"/>
+      <c r="DS40" s="1"/>
+      <c r="DT40" s="1"/>
+      <c r="DU40" s="1"/>
+      <c r="DV40" s="1"/>
+      <c r="DW40" s="1"/>
+      <c r="DX40" s="1"/>
+      <c r="DY40" s="1"/>
+      <c r="DZ40" s="1"/>
+      <c r="EA40" s="1"/>
+      <c r="EB40" s="1"/>
+      <c r="EC40" s="1"/>
+      <c r="ED40" s="1"/>
+      <c r="EE40" s="1"/>
+      <c r="EF40" s="1"/>
+      <c r="EG40" s="1"/>
+      <c r="EH40" s="1"/>
+      <c r="EI40" s="1"/>
+      <c r="EJ40" s="1"/>
+      <c r="EK40" s="1"/>
+      <c r="EL40" s="1"/>
+      <c r="EM40" s="1"/>
+      <c r="EN40" s="1"/>
+      <c r="EO40" s="1"/>
+      <c r="EP40" s="1"/>
+      <c r="EQ40" s="1"/>
+      <c r="ER40" s="1"/>
+      <c r="ES40" s="1"/>
+      <c r="ET40" s="1"/>
+      <c r="EU40" s="1"/>
+      <c r="EV40" s="1"/>
+      <c r="EW40" s="1"/>
+      <c r="EX40" s="1"/>
+      <c r="EY40" s="1"/>
+      <c r="EZ40" s="1"/>
+      <c r="FA40" s="1"/>
+      <c r="FB40" s="1"/>
+      <c r="FC40" s="1"/>
+      <c r="FD40" s="1"/>
+      <c r="FE40" s="1"/>
+      <c r="FF40" s="1"/>
+      <c r="FG40" s="1"/>
+      <c r="FH40" s="1"/>
+      <c r="FI40" s="1"/>
+      <c r="FJ40" s="1"/>
+      <c r="FK40" s="1"/>
+      <c r="FL40" s="1"/>
+      <c r="FM40" s="1"/>
+      <c r="FN40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="1">
+        <v>50</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" t="s">
+        <v>58</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>58</v>
+      </c>
+      <c r="R41" t="s">
+        <v>58</v>
+      </c>
+      <c r="S41" t="s">
+        <v>58</v>
+      </c>
+      <c r="T41" t="s">
+        <v>58</v>
+      </c>
+      <c r="U41" t="s">
+        <v>58</v>
+      </c>
+      <c r="V41" t="s">
+        <v>58</v>
+      </c>
+      <c r="W41" t="s">
+        <v>58</v>
+      </c>
+      <c r="X41" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="1"/>
+      <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
+      <c r="CT41" s="1"/>
+      <c r="CU41" s="1"/>
+      <c r="CV41" s="1"/>
+      <c r="CW41" s="1"/>
+      <c r="CX41" s="1"/>
+      <c r="CY41" s="1"/>
+      <c r="CZ41" s="1"/>
+      <c r="DA41" s="1"/>
+      <c r="DB41" s="1"/>
+      <c r="DC41" s="1"/>
+      <c r="DD41" s="1"/>
+      <c r="DE41" s="1"/>
+      <c r="DF41" s="1"/>
+      <c r="DG41" s="1"/>
+      <c r="DH41" s="1"/>
+      <c r="DI41" s="1"/>
+      <c r="DJ41" s="1"/>
+      <c r="DK41" s="1"/>
+      <c r="DL41" s="1"/>
+      <c r="DM41" s="1"/>
+      <c r="DN41" s="1"/>
+      <c r="DO41" s="1"/>
+      <c r="DP41" s="1"/>
+      <c r="DQ41" s="1"/>
+      <c r="DR41" s="1"/>
+      <c r="DS41" s="1"/>
+      <c r="DT41" s="1"/>
+      <c r="DU41" s="1"/>
+      <c r="DV41" s="1"/>
+      <c r="DW41" s="1"/>
+      <c r="DX41" s="1"/>
+      <c r="DY41" s="1"/>
+      <c r="DZ41" s="1"/>
+      <c r="EA41" s="1"/>
+      <c r="EB41" s="1"/>
+      <c r="EC41" s="1"/>
+      <c r="ED41" s="1"/>
+      <c r="EE41" s="1"/>
+      <c r="EF41" s="1"/>
+      <c r="EG41" s="1"/>
+      <c r="EH41" s="1"/>
+      <c r="EI41" s="1"/>
+      <c r="EJ41" s="1"/>
+      <c r="EK41" s="1"/>
+      <c r="EL41" s="1"/>
+      <c r="EM41" s="1"/>
+      <c r="EN41" s="1"/>
+      <c r="EO41" s="1"/>
+      <c r="EP41" s="1"/>
+      <c r="EQ41" s="1"/>
+      <c r="ER41" s="1"/>
+      <c r="ES41" s="1"/>
+      <c r="ET41" s="1"/>
+      <c r="EU41" s="1"/>
+      <c r="EV41" s="1"/>
+      <c r="EW41" s="1"/>
+      <c r="EX41" s="1"/>
+      <c r="EY41" s="1"/>
+      <c r="EZ41" s="1"/>
+      <c r="FA41" s="1"/>
+      <c r="FB41" s="1"/>
+      <c r="FC41" s="1"/>
+      <c r="FD41" s="1"/>
+      <c r="FE41" s="1"/>
+      <c r="FF41" s="1"/>
+      <c r="FG41" s="1"/>
+      <c r="FH41" s="1"/>
+      <c r="FI41" s="1"/>
+      <c r="FJ41" s="1"/>
+      <c r="FK41" s="1"/>
+      <c r="FL41" s="1"/>
+      <c r="FM41" s="1"/>
+      <c r="FN41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="1">
+        <v>50</v>
+      </c>
+      <c r="F42" s="1">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" t="s">
+        <v>58</v>
+      </c>
+      <c r="O42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>58</v>
+      </c>
+      <c r="R42" t="s">
+        <v>58</v>
+      </c>
+      <c r="S42" t="s">
+        <v>58</v>
+      </c>
+      <c r="T42" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" t="s">
+        <v>58</v>
+      </c>
+      <c r="V42" t="s">
+        <v>58</v>
+      </c>
+      <c r="W42" t="s">
+        <v>58</v>
+      </c>
+      <c r="X42" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1"/>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1"/>
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
+      <c r="CJ42" s="1"/>
+      <c r="CK42" s="1"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
+      <c r="CO42" s="1"/>
+      <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
+      <c r="CT42" s="1"/>
+      <c r="CU42" s="1"/>
+      <c r="CV42" s="1"/>
+      <c r="CW42" s="1"/>
+      <c r="CX42" s="1"/>
+      <c r="CY42" s="1"/>
+      <c r="CZ42" s="1"/>
+      <c r="DA42" s="1"/>
+      <c r="DB42" s="1"/>
+      <c r="DC42" s="1"/>
+      <c r="DD42" s="1"/>
+      <c r="DE42" s="1"/>
+      <c r="DF42" s="1"/>
+      <c r="DG42" s="1"/>
+      <c r="DH42" s="1"/>
+      <c r="DI42" s="1"/>
+      <c r="DJ42" s="1"/>
+      <c r="DK42" s="1"/>
+      <c r="DL42" s="1"/>
+      <c r="DM42" s="1"/>
+      <c r="DN42" s="1"/>
+      <c r="DO42" s="1"/>
+      <c r="DP42" s="1"/>
+      <c r="DQ42" s="1"/>
+      <c r="DR42" s="1"/>
+      <c r="DS42" s="1"/>
+      <c r="DT42" s="1"/>
+      <c r="DU42" s="1"/>
+      <c r="DV42" s="1"/>
+      <c r="DW42" s="1"/>
+      <c r="DX42" s="1"/>
+      <c r="DY42" s="1"/>
+      <c r="DZ42" s="1"/>
+      <c r="EA42" s="1"/>
+      <c r="EB42" s="1"/>
+      <c r="EC42" s="1"/>
+      <c r="ED42" s="1"/>
+      <c r="EE42" s="1"/>
+      <c r="EF42" s="1"/>
+      <c r="EG42" s="1"/>
+      <c r="EH42" s="1"/>
+      <c r="EI42" s="1"/>
+      <c r="EJ42" s="1"/>
+      <c r="EK42" s="1"/>
+      <c r="EL42" s="1"/>
+      <c r="EM42" s="1"/>
+      <c r="EN42" s="1"/>
+      <c r="EO42" s="1"/>
+      <c r="EP42" s="1"/>
+      <c r="EQ42" s="1"/>
+      <c r="ER42" s="1"/>
+      <c r="ES42" s="1"/>
+      <c r="ET42" s="1"/>
+      <c r="EU42" s="1"/>
+      <c r="EV42" s="1"/>
+      <c r="EW42" s="1"/>
+      <c r="EX42" s="1"/>
+      <c r="EY42" s="1"/>
+      <c r="EZ42" s="1"/>
+      <c r="FA42" s="1"/>
+      <c r="FB42" s="1"/>
+      <c r="FC42" s="1"/>
+      <c r="FD42" s="1"/>
+      <c r="FE42" s="1"/>
+      <c r="FF42" s="1"/>
+      <c r="FG42" s="1"/>
+      <c r="FH42" s="1"/>
+      <c r="FI42" s="1"/>
+      <c r="FJ42" s="1"/>
+      <c r="FK42" s="1"/>
+      <c r="FL42" s="1"/>
+      <c r="FM42" s="1"/>
+      <c r="FN42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="1">
+        <v>50</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" t="s">
+        <v>58</v>
+      </c>
+      <c r="P43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>58</v>
+      </c>
+      <c r="R43" t="s">
+        <v>58</v>
+      </c>
+      <c r="S43" t="s">
+        <v>58</v>
+      </c>
+      <c r="T43" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" t="s">
+        <v>58</v>
+      </c>
+      <c r="W43" t="s">
+        <v>58</v>
+      </c>
+      <c r="X43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="1"/>
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
+      <c r="CT43" s="1"/>
+      <c r="CU43" s="1"/>
+      <c r="CV43" s="1"/>
+      <c r="CW43" s="1"/>
+      <c r="CX43" s="1"/>
+      <c r="CY43" s="1"/>
+      <c r="CZ43" s="1"/>
+      <c r="DA43" s="1"/>
+      <c r="DB43" s="1"/>
+      <c r="DC43" s="1"/>
+      <c r="DD43" s="1"/>
+      <c r="DE43" s="1"/>
+      <c r="DF43" s="1"/>
+      <c r="DG43" s="1"/>
+      <c r="DH43" s="1"/>
+      <c r="DI43" s="1"/>
+      <c r="DJ43" s="1"/>
+      <c r="DK43" s="1"/>
+      <c r="DL43" s="1"/>
+      <c r="DM43" s="1"/>
+      <c r="DN43" s="1"/>
+      <c r="DO43" s="1"/>
+      <c r="DP43" s="1"/>
+      <c r="DQ43" s="1"/>
+      <c r="DR43" s="1"/>
+      <c r="DS43" s="1"/>
+      <c r="DT43" s="1"/>
+      <c r="DU43" s="1"/>
+      <c r="DV43" s="1"/>
+      <c r="DW43" s="1"/>
+      <c r="DX43" s="1"/>
+      <c r="DY43" s="1"/>
+      <c r="DZ43" s="1"/>
+      <c r="EA43" s="1"/>
+      <c r="EB43" s="1"/>
+      <c r="EC43" s="1"/>
+      <c r="ED43" s="1"/>
+      <c r="EE43" s="1"/>
+      <c r="EF43" s="1"/>
+      <c r="EG43" s="1"/>
+      <c r="EH43" s="1"/>
+      <c r="EI43" s="1"/>
+      <c r="EJ43" s="1"/>
+      <c r="EK43" s="1"/>
+      <c r="EL43" s="1"/>
+      <c r="EM43" s="1"/>
+      <c r="EN43" s="1"/>
+      <c r="EO43" s="1"/>
+      <c r="EP43" s="1"/>
+      <c r="EQ43" s="1"/>
+      <c r="ER43" s="1"/>
+      <c r="ES43" s="1"/>
+      <c r="ET43" s="1"/>
+      <c r="EU43" s="1"/>
+      <c r="EV43" s="1"/>
+      <c r="EW43" s="1"/>
+      <c r="EX43" s="1"/>
+      <c r="EY43" s="1"/>
+      <c r="EZ43" s="1"/>
+      <c r="FA43" s="1"/>
+      <c r="FB43" s="1"/>
+      <c r="FC43" s="1"/>
+      <c r="FD43" s="1"/>
+      <c r="FE43" s="1"/>
+      <c r="FF43" s="1"/>
+      <c r="FG43" s="1"/>
+      <c r="FH43" s="1"/>
+      <c r="FI43" s="1"/>
+      <c r="FJ43" s="1"/>
+      <c r="FK43" s="1"/>
+      <c r="FL43" s="1"/>
+      <c r="FM43" s="1"/>
+      <c r="FN43" s="1"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1262" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1475" uniqueCount="249">
   <si>
     <t>crop</t>
   </si>
@@ -126,6 +126,15 @@
     <t>zinnia- classic</t>
   </si>
   <si>
+    <t>carrot- kaleidoscope blend</t>
+  </si>
+  <si>
+    <t>carrot- short n sweet</t>
+  </si>
+  <si>
+    <t>beet- detroit red</t>
+  </si>
+  <si>
     <t>sow_type</t>
   </si>
   <si>
@@ -156,6 +165,9 @@
     <t>2024-04-28</t>
   </si>
   <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
     <t>sow_med</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>sow_fert_date_3</t>
   </si>
   <si>
+    <t>2024-05-05</t>
+  </si>
+  <si>
     <t>2024-04-23</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>transp_harden_date_end</t>
   </si>
   <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
     <t>2024-04-30</t>
   </si>
   <si>
@@ -342,6 +360,9 @@
     <t>transp_med_2</t>
   </si>
   <si>
+    <t>raised bed- frame</t>
+  </si>
+  <si>
     <t>transp_no_srt_2</t>
   </si>
   <si>
@@ -736,6 +757,9 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>P1: 6.25 ft</t>
   </si>
 </sst>
 </file>
@@ -756,7 +780,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -765,13 +789,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FN43"/>
+  <dimension ref="A1:FN46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -792,511 +818,511 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Z1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AA1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AB1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AC1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AD1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AF1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AG1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AH1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AI1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AJ1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AK1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AL1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AM1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AN1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AO1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AP1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AQ1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AR1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AS1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AT1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AU1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AV1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AW1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AX1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AY1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AZ1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="BA1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BB1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BC1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BD1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="BE1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="BF1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="BG1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BH1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="BI1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="BJ1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="BK1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="BL1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="BM1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="BN1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="BO1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="BP1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="BQ1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="BR1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="BS1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="BT1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="BU1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="BV1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="BW1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="BX1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="BY1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="BZ1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="CA1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="CB1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="CC1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="CD1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="CE1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="CF1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="CG1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="CH1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="CI1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="CJ1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="CK1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="CL1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="CM1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="CN1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="CO1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="CP1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="CQ1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="CR1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="CS1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="CT1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="CU1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="CV1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="CW1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="CX1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="CY1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CZ1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="DA1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="DB1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="DC1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="DD1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="DE1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="DF1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="DG1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="DH1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="DI1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="DJ1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="DK1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="DL1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="DM1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="DN1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="DO1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="DP1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="DQ1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="DR1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="DS1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="DT1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="DU1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="DV1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="DW1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="DX1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="DY1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="DZ1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="EA1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="EB1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="EC1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="ED1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="EE1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="EF1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="EG1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="EH1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="EI1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="EJ1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EK1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="EL1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="EM1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="EN1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="EO1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="EP1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="EQ1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="ER1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="ES1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="ET1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="EU1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="EV1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="EW1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="EX1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="EY1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="EZ1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="FA1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="FB1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="FC1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="FD1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="FE1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="FF1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="FG1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="FH1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="FI1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="FJ1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="FK1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="FL1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="FM1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="FN1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
@@ -1304,13 +1330,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
@@ -1327,77 +1353,81 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>62</v>
+      </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
@@ -1529,20 +1559,22 @@
       <c r="FK2" s="1"/>
       <c r="FL2" s="1"/>
       <c r="FM2" s="1"/>
-      <c r="FN2" s="1"/>
+      <c r="FN2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1">
         <v>50</v>
@@ -1563,81 +1595,85 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="X3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI3" s="1">
         <v>8</v>
       </c>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>62</v>
+      </c>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -1769,20 +1805,22 @@
       <c r="FK3" s="1"/>
       <c r="FL3" s="1"/>
       <c r="FM3" s="1"/>
-      <c r="FN3" s="1"/>
+      <c r="FN3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -1803,81 +1841,85 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
         <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="X4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI4" s="1">
         <v>1</v>
       </c>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>62</v>
+      </c>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
@@ -2009,20 +2051,22 @@
       <c r="FK4" s="1"/>
       <c r="FL4" s="1"/>
       <c r="FM4" s="1"/>
-      <c r="FN4" s="1"/>
+      <c r="FN4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1">
         <v>50</v>
@@ -2043,81 +2087,87 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
         <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI5" s="1">
         <v>19</v>
       </c>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
+      <c r="AJ5" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>52</v>
+      </c>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
@@ -2249,20 +2299,22 @@
       <c r="FK5" s="1"/>
       <c r="FL5" s="1"/>
       <c r="FM5" s="1"/>
-      <c r="FN5" s="1"/>
+      <c r="FN5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -2283,81 +2335,87 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
         <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI6" s="1">
         <v>18</v>
       </c>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
+      <c r="AJ6" s="2">
+        <v>18</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>52</v>
+      </c>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
@@ -2489,20 +2547,22 @@
       <c r="FK6" s="1"/>
       <c r="FL6" s="1"/>
       <c r="FM6" s="1"/>
-      <c r="FN6" s="1"/>
+      <c r="FN6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -2523,82 +2583,90 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
         <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI7" s="1">
         <v>20</v>
       </c>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
+      <c r="AJ7" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>20</v>
+      </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
@@ -2729,20 +2797,22 @@
       <c r="FK7" s="1"/>
       <c r="FL7" s="1"/>
       <c r="FM7" s="1"/>
-      <c r="FN7" s="1"/>
+      <c r="FN7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -2763,82 +2833,90 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
         <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI8" s="1">
         <v>20</v>
       </c>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
+      <c r="AJ8" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>20</v>
+      </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
@@ -2969,20 +3047,22 @@
       <c r="FK8" s="1"/>
       <c r="FL8" s="1"/>
       <c r="FM8" s="1"/>
-      <c r="FN8" s="1"/>
+      <c r="FN8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1">
         <v>32</v>
@@ -3003,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L9" s="1">
         <v>73</v>
@@ -3012,74 +3092,78 @@
         <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI9" s="1">
         <v>16</v>
       </c>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>62</v>
+      </c>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
@@ -3211,20 +3295,22 @@
       <c r="FK9" s="1"/>
       <c r="FL9" s="1"/>
       <c r="FM9" s="1"/>
-      <c r="FN9" s="1"/>
+      <c r="FN9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1">
         <v>32</v>
@@ -3245,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1">
         <v>73</v>
@@ -3254,74 +3340,78 @@
         <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI10" s="1">
         <v>12</v>
       </c>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>62</v>
+      </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -3453,20 +3543,22 @@
       <c r="FK10" s="1"/>
       <c r="FL10" s="1"/>
       <c r="FM10" s="1"/>
-      <c r="FN10" s="1"/>
+      <c r="FN10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
@@ -3487,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1">
         <v>73</v>
@@ -3496,74 +3588,78 @@
         <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI11" s="1">
         <v>3</v>
       </c>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>62</v>
+      </c>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
@@ -3695,20 +3791,22 @@
       <c r="FK11" s="1"/>
       <c r="FL11" s="1"/>
       <c r="FM11" s="1"/>
-      <c r="FN11" s="1"/>
+      <c r="FN11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1">
         <v>32</v>
@@ -3729,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1">
         <v>73</v>
@@ -3738,74 +3836,78 @@
         <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI12" s="1">
         <v>4</v>
       </c>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>62</v>
+      </c>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
@@ -3937,20 +4039,22 @@
       <c r="FK12" s="1"/>
       <c r="FL12" s="1"/>
       <c r="FM12" s="1"/>
-      <c r="FN12" s="1"/>
+      <c r="FN12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
@@ -3971,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L13" s="1">
         <v>73</v>
@@ -3980,74 +4084,78 @@
         <v>16</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI13" s="1">
         <v>25</v>
       </c>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>62</v>
+      </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
@@ -4179,20 +4287,22 @@
       <c r="FK13" s="1"/>
       <c r="FL13" s="1"/>
       <c r="FM13" s="1"/>
-      <c r="FN13" s="1"/>
+      <c r="FN13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -4213,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L14" s="1">
         <v>73</v>
@@ -4222,74 +4332,78 @@
         <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI14" s="1">
         <v>5</v>
       </c>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>62</v>
+      </c>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
@@ -4421,20 +4535,22 @@
       <c r="FK14" s="1"/>
       <c r="FL14" s="1"/>
       <c r="FM14" s="1"/>
-      <c r="FN14" s="1"/>
+      <c r="FN14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1">
         <v>32</v>
@@ -4455,7 +4571,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L15" s="1">
         <v>73</v>
@@ -4464,74 +4580,78 @@
         <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH15" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI15" s="1">
         <v>3</v>
       </c>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>62</v>
+      </c>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
@@ -4663,20 +4783,22 @@
       <c r="FK15" s="1"/>
       <c r="FL15" s="1"/>
       <c r="FM15" s="1"/>
-      <c r="FN15" s="1"/>
+      <c r="FN15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1">
         <v>32</v>
@@ -4697,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L16" s="1">
         <v>73</v>
@@ -4706,74 +4828,78 @@
         <v>16</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI16" s="1">
         <v>6</v>
       </c>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>62</v>
+      </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -4905,20 +5031,22 @@
       <c r="FK16" s="1"/>
       <c r="FL16" s="1"/>
       <c r="FM16" s="1"/>
-      <c r="FN16" s="1"/>
+      <c r="FN16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1">
         <v>32</v>
@@ -4939,7 +5067,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L17" s="1">
         <v>73</v>
@@ -4948,74 +5076,78 @@
         <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG17" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH17" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI17" s="1">
         <v>2</v>
       </c>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>62</v>
+      </c>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
@@ -5147,20 +5279,22 @@
       <c r="FK17" s="1"/>
       <c r="FL17" s="1"/>
       <c r="FM17" s="1"/>
-      <c r="FN17" s="1"/>
+      <c r="FN17" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1">
         <v>32</v>
@@ -5181,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L18" s="1">
         <v>73</v>
@@ -5190,74 +5324,78 @@
         <v>16</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI18" s="1">
         <v>1</v>
       </c>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>62</v>
+      </c>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
@@ -5389,20 +5527,22 @@
       <c r="FK18" s="1"/>
       <c r="FL18" s="1"/>
       <c r="FM18" s="1"/>
-      <c r="FN18" s="1"/>
+      <c r="FN18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1">
         <v>32</v>
@@ -5423,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L19" s="1">
         <v>73</v>
@@ -5432,74 +5572,78 @@
         <v>16</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH19" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI19" s="1">
         <v>2</v>
       </c>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>62</v>
+      </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
@@ -5631,20 +5775,22 @@
       <c r="FK19" s="1"/>
       <c r="FL19" s="1"/>
       <c r="FM19" s="1"/>
-      <c r="FN19" s="1"/>
+      <c r="FN19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1">
         <v>32</v>
@@ -5665,7 +5811,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L20" s="1">
         <v>73</v>
@@ -5674,74 +5820,78 @@
         <v>16</v>
       </c>
       <c r="N20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AB20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AH20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AI20" s="1">
         <v>3</v>
       </c>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>62</v>
+      </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
@@ -5873,20 +6023,22 @@
       <c r="FK20" s="1"/>
       <c r="FL20" s="1"/>
       <c r="FM20" s="1"/>
-      <c r="FN20" s="1"/>
+      <c r="FN20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1">
         <v>32</v>
@@ -5907,7 +6059,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L21" s="1">
         <v>75</v>
@@ -5916,74 +6068,78 @@
         <v>16</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG21" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI21" s="1">
         <v>16</v>
       </c>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>62</v>
+      </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -6115,20 +6271,22 @@
       <c r="FK21" s="1"/>
       <c r="FL21" s="1"/>
       <c r="FM21" s="1"/>
-      <c r="FN21" s="1"/>
+      <c r="FN21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1">
         <v>32</v>
@@ -6149,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L22" s="1">
         <v>75</v>
@@ -6158,74 +6316,78 @@
         <v>16</v>
       </c>
       <c r="N22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG22" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH22" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI22" s="1">
         <v>16</v>
       </c>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>62</v>
+      </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
@@ -6357,20 +6519,22 @@
       <c r="FK22" s="1"/>
       <c r="FL22" s="1"/>
       <c r="FM22" s="1"/>
-      <c r="FN22" s="1"/>
+      <c r="FN22" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1">
         <v>32</v>
@@ -6391,7 +6555,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L23" s="1">
         <v>75</v>
@@ -6400,74 +6564,78 @@
         <v>16</v>
       </c>
       <c r="N23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG23" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH23" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI23" s="1">
         <v>12</v>
       </c>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>62</v>
+      </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -6599,20 +6767,22 @@
       <c r="FK23" s="1"/>
       <c r="FL23" s="1"/>
       <c r="FM23" s="1"/>
-      <c r="FN23" s="1"/>
+      <c r="FN23" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1">
         <v>32</v>
@@ -6633,7 +6803,7 @@
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L24" s="1">
         <v>75</v>
@@ -6642,74 +6812,78 @@
         <v>16</v>
       </c>
       <c r="N24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG24" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH24" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI24" s="1">
         <v>13</v>
       </c>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>62</v>
+      </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
@@ -6841,20 +7015,22 @@
       <c r="FK24" s="1"/>
       <c r="FL24" s="1"/>
       <c r="FM24" s="1"/>
-      <c r="FN24" s="1"/>
+      <c r="FN24" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1">
         <v>32</v>
@@ -6875,7 +7051,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L25" s="1">
         <v>75</v>
@@ -6884,74 +7060,78 @@
         <v>16</v>
       </c>
       <c r="N25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="AB25" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AI25" s="1">
         <v>8</v>
       </c>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>62</v>
+      </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
@@ -7083,20 +7263,22 @@
       <c r="FK25" s="1"/>
       <c r="FL25" s="1"/>
       <c r="FM25" s="1"/>
-      <c r="FN25" s="1"/>
+      <c r="FN25" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -7117,7 +7299,7 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L26" s="1">
         <v>72</v>
@@ -7126,74 +7308,78 @@
         <v>16</v>
       </c>
       <c r="N26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG26" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH26" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AI26" s="1">
         <v>21</v>
       </c>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>62</v>
+      </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
@@ -7325,20 +7511,22 @@
       <c r="FK26" s="1"/>
       <c r="FL26" s="1"/>
       <c r="FM26" s="1"/>
-      <c r="FN26" s="1"/>
+      <c r="FN26" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -7359,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L27" s="1">
         <v>72</v>
@@ -7368,74 +7556,78 @@
         <v>16</v>
       </c>
       <c r="N27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG27" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH27" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AI27" s="1">
         <v>3</v>
       </c>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>62</v>
+      </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -7567,20 +7759,22 @@
       <c r="FK27" s="1"/>
       <c r="FL27" s="1"/>
       <c r="FM27" s="1"/>
-      <c r="FN27" s="1"/>
+      <c r="FN27" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -7601,7 +7795,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L28" s="1">
         <v>72</v>
@@ -7610,74 +7804,78 @@
         <v>16</v>
       </c>
       <c r="N28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG28" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH28" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AI28" s="1">
         <v>3</v>
       </c>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>62</v>
+      </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -7809,20 +8007,22 @@
       <c r="FK28" s="1"/>
       <c r="FL28" s="1"/>
       <c r="FM28" s="1"/>
-      <c r="FN28" s="1"/>
+      <c r="FN28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1">
         <v>50</v>
@@ -7843,7 +8043,7 @@
         <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L29" s="1">
         <v>72</v>
@@ -7852,74 +8052,78 @@
         <v>16</v>
       </c>
       <c r="N29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG29" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH29" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AI29" s="1">
         <v>6</v>
       </c>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>62</v>
+      </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
@@ -8051,20 +8255,22 @@
       <c r="FK29" s="1"/>
       <c r="FL29" s="1"/>
       <c r="FM29" s="1"/>
-      <c r="FN29" s="1"/>
+      <c r="FN29" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E30" s="1">
         <v>50</v>
@@ -8085,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L30" s="1">
         <v>72</v>
@@ -8094,74 +8300,78 @@
         <v>16</v>
       </c>
       <c r="N30" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH30" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI30" s="1">
         <v>12</v>
       </c>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>62</v>
+      </c>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
@@ -8293,20 +8503,22 @@
       <c r="FK30" s="1"/>
       <c r="FL30" s="1"/>
       <c r="FM30" s="1"/>
-      <c r="FN30" s="1"/>
+      <c r="FN30" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1">
         <v>50</v>
@@ -8327,7 +8539,7 @@
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L31" s="1">
         <v>72</v>
@@ -8336,74 +8548,78 @@
         <v>16</v>
       </c>
       <c r="N31" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH31" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI31" s="1">
         <v>15</v>
       </c>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>62</v>
+      </c>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
@@ -8535,20 +8751,22 @@
       <c r="FK31" s="1"/>
       <c r="FL31" s="1"/>
       <c r="FM31" s="1"/>
-      <c r="FN31" s="1"/>
+      <c r="FN31" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1">
         <v>50</v>
@@ -8569,7 +8787,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L32" s="1">
         <v>72</v>
@@ -8578,74 +8796,78 @@
         <v>16</v>
       </c>
       <c r="N32" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG32" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI32" s="1">
         <v>11</v>
       </c>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>62</v>
+      </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
@@ -8777,20 +8999,22 @@
       <c r="FK32" s="1"/>
       <c r="FL32" s="1"/>
       <c r="FM32" s="1"/>
-      <c r="FN32" s="1"/>
+      <c r="FN32" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1">
         <v>50</v>
@@ -8811,7 +9035,7 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L33" s="1">
         <v>72</v>
@@ -8820,74 +9044,78 @@
         <v>16</v>
       </c>
       <c r="N33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG33" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH33" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AI33" s="1">
         <v>15</v>
       </c>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>62</v>
+      </c>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
@@ -9019,20 +9247,22 @@
       <c r="FK33" s="1"/>
       <c r="FL33" s="1"/>
       <c r="FM33" s="1"/>
-      <c r="FN33" s="1"/>
+      <c r="FN33" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E34" s="1">
         <v>0.25</v>
@@ -9043,81 +9273,87 @@
       <c r="G34" s="1">
         <v>96</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>62</v>
+      </c>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
@@ -9249,20 +9485,22 @@
       <c r="FK34" s="1"/>
       <c r="FL34" s="1"/>
       <c r="FM34" s="1"/>
-      <c r="FN34" s="1"/>
+      <c r="FN34" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E35" s="1">
         <v>0.25</v>
@@ -9273,81 +9511,87 @@
       <c r="G35" s="1">
         <v>96</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>62</v>
+      </c>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
@@ -9479,20 +9723,22 @@
       <c r="FK35" s="1"/>
       <c r="FL35" s="1"/>
       <c r="FM35" s="1"/>
-      <c r="FN35" s="1"/>
+      <c r="FN35" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E36" s="1">
         <v>0.16666666669999999</v>
@@ -9503,81 +9749,87 @@
       <c r="G36" s="1">
         <v>96</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>9</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>62</v>
+      </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
@@ -9709,20 +9961,22 @@
       <c r="FK36" s="1"/>
       <c r="FL36" s="1"/>
       <c r="FM36" s="1"/>
-      <c r="FN36" s="1"/>
+      <c r="FN36" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E37" s="1">
         <v>0.25</v>
@@ -9737,77 +9991,81 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>62</v>
+      </c>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
@@ -9939,20 +10197,22 @@
       <c r="FK37" s="1"/>
       <c r="FL37" s="1"/>
       <c r="FM37" s="1"/>
-      <c r="FN37" s="1"/>
+      <c r="FN37" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E38" s="1">
         <v>0.25</v>
@@ -9967,77 +10227,81 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>62</v>
+      </c>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
@@ -10169,20 +10433,22 @@
       <c r="FK38" s="1"/>
       <c r="FL38" s="1"/>
       <c r="FM38" s="1"/>
-      <c r="FN38" s="1"/>
+      <c r="FN38" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1">
         <v>50</v>
@@ -10193,81 +10459,87 @@
       <c r="G39" s="1">
         <v>3</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>62</v>
+      </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
@@ -10399,20 +10671,22 @@
       <c r="FK39" s="1"/>
       <c r="FL39" s="1"/>
       <c r="FM39" s="1"/>
-      <c r="FN39" s="1"/>
+      <c r="FN39" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1">
         <v>50</v>
@@ -10423,81 +10697,87 @@
       <c r="G40" s="1">
         <v>3</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>4</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>62</v>
+      </c>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
@@ -10629,20 +10909,22 @@
       <c r="FK40" s="1"/>
       <c r="FL40" s="1"/>
       <c r="FM40" s="1"/>
-      <c r="FN40" s="1"/>
+      <c r="FN40" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E41" s="1">
         <v>50</v>
@@ -10653,81 +10935,87 @@
       <c r="G41" s="1">
         <v>3</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>62</v>
+      </c>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
@@ -10859,20 +11147,22 @@
       <c r="FK41" s="1"/>
       <c r="FL41" s="1"/>
       <c r="FM41" s="1"/>
-      <c r="FN41" s="1"/>
+      <c r="FN41" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E42" s="1">
         <v>50</v>
@@ -10883,81 +11173,87 @@
       <c r="G42" s="1">
         <v>3</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>3</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>62</v>
+      </c>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
       <c r="AO42" s="1"/>
@@ -11089,20 +11385,22 @@
       <c r="FK42" s="1"/>
       <c r="FL42" s="1"/>
       <c r="FM42" s="1"/>
-      <c r="FN42" s="1"/>
+      <c r="FN42" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E43" s="1">
         <v>50</v>
@@ -11113,81 +11411,87 @@
       <c r="G43" s="1">
         <v>3</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AC43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AF43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AG43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AH43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>62</v>
+      </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
       <c r="AO43" s="1"/>
@@ -11319,7 +11623,711 @@
       <c r="FK43" s="1"/>
       <c r="FL43" s="1"/>
       <c r="FM43" s="1"/>
-      <c r="FN43" s="1"/>
+      <c r="FN43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1">
+        <v>100</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" t="s">
+        <v>62</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" t="s">
+        <v>62</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>62</v>
+      </c>
+      <c r="R44" t="s">
+        <v>62</v>
+      </c>
+      <c r="S44" t="s">
+        <v>62</v>
+      </c>
+      <c r="T44" t="s">
+        <v>62</v>
+      </c>
+      <c r="U44" t="s">
+        <v>62</v>
+      </c>
+      <c r="V44" t="s">
+        <v>62</v>
+      </c>
+      <c r="W44" t="s">
+        <v>62</v>
+      </c>
+      <c r="X44" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+      <c r="CH44" s="1"/>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="1"/>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+      <c r="CO44" s="1"/>
+      <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="1"/>
+      <c r="CU44" s="1"/>
+      <c r="CV44" s="1"/>
+      <c r="CW44" s="1"/>
+      <c r="CX44" s="1"/>
+      <c r="CY44" s="1"/>
+      <c r="CZ44" s="1"/>
+      <c r="DA44" s="1"/>
+      <c r="DB44" s="1"/>
+      <c r="DC44" s="1"/>
+      <c r="DD44" s="1"/>
+      <c r="DE44" s="1"/>
+      <c r="DF44" s="1"/>
+      <c r="DG44" s="1"/>
+      <c r="DH44" s="1"/>
+      <c r="DI44" s="1"/>
+      <c r="DJ44" s="1"/>
+      <c r="DK44" s="1"/>
+      <c r="DL44" s="1"/>
+      <c r="DM44" s="1"/>
+      <c r="DN44" s="1"/>
+      <c r="DO44" s="1"/>
+      <c r="DP44" s="1"/>
+      <c r="DQ44" s="1"/>
+      <c r="DR44" s="1"/>
+      <c r="DS44" s="1"/>
+      <c r="DT44" s="1"/>
+      <c r="DU44" s="1"/>
+      <c r="DV44" s="1"/>
+      <c r="DW44" s="1"/>
+      <c r="DX44" s="1"/>
+      <c r="DY44" s="1"/>
+      <c r="DZ44" s="1"/>
+      <c r="EA44" s="1"/>
+      <c r="EB44" s="1"/>
+      <c r="EC44" s="1"/>
+      <c r="ED44" s="1"/>
+      <c r="EE44" s="1"/>
+      <c r="EF44" s="1"/>
+      <c r="EG44" s="1"/>
+      <c r="EH44" s="1"/>
+      <c r="EI44" s="1"/>
+      <c r="EJ44" s="1"/>
+      <c r="EK44" s="1"/>
+      <c r="EL44" s="1"/>
+      <c r="EM44" s="1"/>
+      <c r="EN44" s="1"/>
+      <c r="EO44" s="1"/>
+      <c r="EP44" s="1"/>
+      <c r="EQ44" s="1"/>
+      <c r="ER44" s="1"/>
+      <c r="ES44" s="1"/>
+      <c r="ET44" s="1"/>
+      <c r="EU44" s="1"/>
+      <c r="EV44" s="1"/>
+      <c r="EW44" s="1"/>
+      <c r="EX44" s="1"/>
+      <c r="EY44" s="1"/>
+      <c r="EZ44" s="1"/>
+      <c r="FA44" s="1"/>
+      <c r="FB44" s="1"/>
+      <c r="FC44" s="1"/>
+      <c r="FD44" s="1"/>
+      <c r="FE44" s="1"/>
+      <c r="FF44" s="1"/>
+      <c r="FG44" s="1"/>
+      <c r="FH44" s="1"/>
+      <c r="FI44" s="1"/>
+      <c r="FJ44" s="1"/>
+      <c r="FK44" s="1"/>
+      <c r="FL44" s="1"/>
+      <c r="FM44" s="1"/>
+      <c r="FN44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>100</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" t="s">
+        <v>62</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>62</v>
+      </c>
+      <c r="R45" t="s">
+        <v>62</v>
+      </c>
+      <c r="S45" t="s">
+        <v>62</v>
+      </c>
+      <c r="T45" t="s">
+        <v>62</v>
+      </c>
+      <c r="U45" t="s">
+        <v>62</v>
+      </c>
+      <c r="V45" t="s">
+        <v>62</v>
+      </c>
+      <c r="W45" t="s">
+        <v>62</v>
+      </c>
+      <c r="X45" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1"/>
+      <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="1"/>
+      <c r="CT45" s="1"/>
+      <c r="CU45" s="1"/>
+      <c r="CV45" s="1"/>
+      <c r="CW45" s="1"/>
+      <c r="CX45" s="1"/>
+      <c r="CY45" s="1"/>
+      <c r="CZ45" s="1"/>
+      <c r="DA45" s="1"/>
+      <c r="DB45" s="1"/>
+      <c r="DC45" s="1"/>
+      <c r="DD45" s="1"/>
+      <c r="DE45" s="1"/>
+      <c r="DF45" s="1"/>
+      <c r="DG45" s="1"/>
+      <c r="DH45" s="1"/>
+      <c r="DI45" s="1"/>
+      <c r="DJ45" s="1"/>
+      <c r="DK45" s="1"/>
+      <c r="DL45" s="1"/>
+      <c r="DM45" s="1"/>
+      <c r="DN45" s="1"/>
+      <c r="DO45" s="1"/>
+      <c r="DP45" s="1"/>
+      <c r="DQ45" s="1"/>
+      <c r="DR45" s="1"/>
+      <c r="DS45" s="1"/>
+      <c r="DT45" s="1"/>
+      <c r="DU45" s="1"/>
+      <c r="DV45" s="1"/>
+      <c r="DW45" s="1"/>
+      <c r="DX45" s="1"/>
+      <c r="DY45" s="1"/>
+      <c r="DZ45" s="1"/>
+      <c r="EA45" s="1"/>
+      <c r="EB45" s="1"/>
+      <c r="EC45" s="1"/>
+      <c r="ED45" s="1"/>
+      <c r="EE45" s="1"/>
+      <c r="EF45" s="1"/>
+      <c r="EG45" s="1"/>
+      <c r="EH45" s="1"/>
+      <c r="EI45" s="1"/>
+      <c r="EJ45" s="1"/>
+      <c r="EK45" s="1"/>
+      <c r="EL45" s="1"/>
+      <c r="EM45" s="1"/>
+      <c r="EN45" s="1"/>
+      <c r="EO45" s="1"/>
+      <c r="EP45" s="1"/>
+      <c r="EQ45" s="1"/>
+      <c r="ER45" s="1"/>
+      <c r="ES45" s="1"/>
+      <c r="ET45" s="1"/>
+      <c r="EU45" s="1"/>
+      <c r="EV45" s="1"/>
+      <c r="EW45" s="1"/>
+      <c r="EX45" s="1"/>
+      <c r="EY45" s="1"/>
+      <c r="EZ45" s="1"/>
+      <c r="FA45" s="1"/>
+      <c r="FB45" s="1"/>
+      <c r="FC45" s="1"/>
+      <c r="FD45" s="1"/>
+      <c r="FE45" s="1"/>
+      <c r="FF45" s="1"/>
+      <c r="FG45" s="1"/>
+      <c r="FH45" s="1"/>
+      <c r="FI45" s="1"/>
+      <c r="FJ45" s="1"/>
+      <c r="FK45" s="1"/>
+      <c r="FL45" s="1"/>
+      <c r="FM45" s="1"/>
+      <c r="FN45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>100</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" t="s">
+        <v>62</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>62</v>
+      </c>
+      <c r="R46" t="s">
+        <v>62</v>
+      </c>
+      <c r="S46" t="s">
+        <v>62</v>
+      </c>
+      <c r="T46" t="s">
+        <v>62</v>
+      </c>
+      <c r="U46" t="s">
+        <v>62</v>
+      </c>
+      <c r="V46" t="s">
+        <v>62</v>
+      </c>
+      <c r="W46" t="s">
+        <v>62</v>
+      </c>
+      <c r="X46" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="1"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="1"/>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="1"/>
+      <c r="BX46" s="1"/>
+      <c r="BY46" s="1"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+      <c r="CG46" s="1"/>
+      <c r="CH46" s="1"/>
+      <c r="CI46" s="1"/>
+      <c r="CJ46" s="1"/>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+      <c r="CO46" s="1"/>
+      <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
+      <c r="CT46" s="1"/>
+      <c r="CU46" s="1"/>
+      <c r="CV46" s="1"/>
+      <c r="CW46" s="1"/>
+      <c r="CX46" s="1"/>
+      <c r="CY46" s="1"/>
+      <c r="CZ46" s="1"/>
+      <c r="DA46" s="1"/>
+      <c r="DB46" s="1"/>
+      <c r="DC46" s="1"/>
+      <c r="DD46" s="1"/>
+      <c r="DE46" s="1"/>
+      <c r="DF46" s="1"/>
+      <c r="DG46" s="1"/>
+      <c r="DH46" s="1"/>
+      <c r="DI46" s="1"/>
+      <c r="DJ46" s="1"/>
+      <c r="DK46" s="1"/>
+      <c r="DL46" s="1"/>
+      <c r="DM46" s="1"/>
+      <c r="DN46" s="1"/>
+      <c r="DO46" s="1"/>
+      <c r="DP46" s="1"/>
+      <c r="DQ46" s="1"/>
+      <c r="DR46" s="1"/>
+      <c r="DS46" s="1"/>
+      <c r="DT46" s="1"/>
+      <c r="DU46" s="1"/>
+      <c r="DV46" s="1"/>
+      <c r="DW46" s="1"/>
+      <c r="DX46" s="1"/>
+      <c r="DY46" s="1"/>
+      <c r="DZ46" s="1"/>
+      <c r="EA46" s="1"/>
+      <c r="EB46" s="1"/>
+      <c r="EC46" s="1"/>
+      <c r="ED46" s="1"/>
+      <c r="EE46" s="1"/>
+      <c r="EF46" s="1"/>
+      <c r="EG46" s="1"/>
+      <c r="EH46" s="1"/>
+      <c r="EI46" s="1"/>
+      <c r="EJ46" s="1"/>
+      <c r="EK46" s="1"/>
+      <c r="EL46" s="1"/>
+      <c r="EM46" s="1"/>
+      <c r="EN46" s="1"/>
+      <c r="EO46" s="1"/>
+      <c r="EP46" s="1"/>
+      <c r="EQ46" s="1"/>
+      <c r="ER46" s="1"/>
+      <c r="ES46" s="1"/>
+      <c r="ET46" s="1"/>
+      <c r="EU46" s="1"/>
+      <c r="EV46" s="1"/>
+      <c r="EW46" s="1"/>
+      <c r="EX46" s="1"/>
+      <c r="EY46" s="1"/>
+      <c r="EZ46" s="1"/>
+      <c r="FA46" s="1"/>
+      <c r="FB46" s="1"/>
+      <c r="FC46" s="1"/>
+      <c r="FD46" s="1"/>
+      <c r="FE46" s="1"/>
+      <c r="FF46" s="1"/>
+      <c r="FG46" s="1"/>
+      <c r="FH46" s="1"/>
+      <c r="FI46" s="1"/>
+      <c r="FJ46" s="1"/>
+      <c r="FK46" s="1"/>
+      <c r="FL46" s="1"/>
+      <c r="FM46" s="1"/>
+      <c r="FN46" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1475" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1659" uniqueCount="259">
   <si>
     <t>crop</t>
   </si>
@@ -234,6 +234,9 @@
     <t>2024-04-04</t>
   </si>
   <si>
+    <t>2024-05-11</t>
+  </si>
+  <si>
     <t>sow_fert_type_npk_1</t>
   </si>
   <si>
@@ -306,6 +309,21 @@
     <t>sow_fert_dose_4</t>
   </si>
   <si>
+    <t>sow_fert_date_5</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>sow_fert_type_npk_5</t>
+  </si>
+  <si>
+    <t>sow_fert_type_name_5</t>
+  </si>
+  <si>
+    <t>sow_fert_dose_5</t>
+  </si>
+  <si>
     <t>transp_harden_date_srt</t>
   </si>
   <si>
@@ -357,6 +375,9 @@
     <t>transp_date_2</t>
   </si>
   <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
     <t>transp_med_2</t>
   </si>
   <si>
@@ -757,6 +778,15 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>1 was potted as gift during second transplant</t>
+  </si>
+  <si>
+    <t>3 were potted as gift during second transplant</t>
+  </si>
+  <si>
+    <t>2 were potted as gift during second transplant</t>
   </si>
   <si>
     <t>P1: 6.25 ft</t>
@@ -780,7 +810,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -789,15 +819,13 @@
       <diagonal/>
     </border>
     <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,7 +835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FN46"/>
+  <dimension ref="A1:FR46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -860,469 +888,481 @@
         <v>69</v>
       </c>
       <c r="P1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG1" t="s">
         <v>101</v>
       </c>
       <c r="AH1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AI1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" t="s">
         <v>111</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>114</v>
-      </c>
       <c r="AM1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AP1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AQ1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AR1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AS1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AT1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AU1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AV1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AW1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AX1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AY1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AZ1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BA1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="BB1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BC1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BD1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BE1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BF1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BG1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BH1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BI1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BJ1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BK1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BL1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BM1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BN1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BO1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BP1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="BQ1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="BR1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BS1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BT1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BU1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BV1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="BW1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BX1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="BY1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="BZ1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="CA1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="CB1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="CC1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="CD1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="CE1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="CF1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="CG1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="CH1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="CI1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="CJ1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="CK1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="CL1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CM1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="CN1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="CO1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="CP1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="CQ1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="CR1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="CS1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="CT1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="CU1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="CV1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="CW1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="CX1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="CY1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="CZ1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="DA1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DB1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DC1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="DD1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="DE1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="DF1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="DG1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DH1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DI1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="DJ1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="DK1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="DL1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="DM1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="DN1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="DO1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="DP1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="DQ1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="DR1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="DS1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="DT1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="DU1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="DV1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="DW1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="DX1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DY1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="DZ1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="EA1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="EB1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="EC1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="ED1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="EE1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="EF1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EG1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="EH1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="EI1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="EJ1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="EK1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="EL1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="EM1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="EN1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="EO1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="EP1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="EQ1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="ER1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="ES1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="ET1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="EU1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="EV1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="EW1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="EX1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="EY1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="EZ1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="FA1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="FB1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="FC1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="FD1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="FE1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="FF1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="FG1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="FH1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="FI1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="FJ1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="FK1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="FL1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="FM1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="FN1" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>251</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>252</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>253</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2">
@@ -1364,13 +1404,13 @@
         <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
         <v>62</v>
@@ -1420,8 +1460,12 @@
       <c r="AH2" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="2"/>
+      <c r="AI2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>62</v>
+      </c>
       <c r="AK2" t="s">
         <v>62</v>
       </c>
@@ -1430,8 +1474,12 @@
       </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
+      <c r="AO2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
@@ -1559,7 +1607,11 @@
       <c r="FK2" s="1"/>
       <c r="FL2" s="1"/>
       <c r="FM2" s="1"/>
-      <c r="FN2" t="s">
+      <c r="FN2" s="1"/>
+      <c r="FO2" s="1"/>
+      <c r="FP2" s="1"/>
+      <c r="FQ2" s="1"/>
+      <c r="FR2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1608,37 +1660,37 @@
         <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s">
         <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s">
         <v>62</v>
@@ -1659,25 +1711,33 @@
         <v>62</v>
       </c>
       <c r="AG3" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AH3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI3" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM3" s="1">
         <v>8</v>
       </c>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
+      <c r="AO3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
@@ -1805,7 +1865,11 @@
       <c r="FK3" s="1"/>
       <c r="FL3" s="1"/>
       <c r="FM3" s="1"/>
-      <c r="FN3" t="s">
+      <c r="FN3" s="1"/>
+      <c r="FO3" s="1"/>
+      <c r="FP3" s="1"/>
+      <c r="FQ3" s="1"/>
+      <c r="FR3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1854,37 +1918,37 @@
         <v>71</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s">
         <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s">
         <v>62</v>
@@ -1905,25 +1969,33 @@
         <v>62</v>
       </c>
       <c r="AG4" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AH4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI4" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM4" s="1">
         <v>1</v>
       </c>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
+      <c r="AO4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
@@ -2051,7 +2123,11 @@
       <c r="FK4" s="1"/>
       <c r="FL4" s="1"/>
       <c r="FM4" s="1"/>
-      <c r="FN4" t="s">
+      <c r="FN4" s="1"/>
+      <c r="FO4" s="1"/>
+      <c r="FP4" s="1"/>
+      <c r="FQ4" s="1"/>
+      <c r="FR4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2100,25 +2176,25 @@
         <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s">
         <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s">
         <v>62</v>
@@ -2145,33 +2221,41 @@
         <v>62</v>
       </c>
       <c r="AE5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI5" t="s">
         <v>48</v>
       </c>
-      <c r="AF5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM5" s="1">
         <v>19</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AN5" s="1">
         <v>19</v>
       </c>
-      <c r="AK5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AO5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP5" t="s">
         <v>52</v>
       </c>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
@@ -2299,7 +2383,11 @@
       <c r="FK5" s="1"/>
       <c r="FL5" s="1"/>
       <c r="FM5" s="1"/>
-      <c r="FN5" t="s">
+      <c r="FN5" s="1"/>
+      <c r="FO5" s="1"/>
+      <c r="FP5" s="1"/>
+      <c r="FQ5" s="1"/>
+      <c r="FR5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2348,25 +2436,25 @@
         <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s">
         <v>72</v>
       </c>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s">
         <v>62</v>
@@ -2393,33 +2481,41 @@
         <v>62</v>
       </c>
       <c r="AE6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI6" t="s">
         <v>48</v>
       </c>
-      <c r="AF6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AJ6" t="s">
         <v>106</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AK6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM6" s="1">
         <v>18</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AN6" s="1">
         <v>18</v>
       </c>
-      <c r="AK6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AO6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP6" t="s">
         <v>52</v>
       </c>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
@@ -2547,7 +2643,11 @@
       <c r="FK6" s="1"/>
       <c r="FL6" s="1"/>
       <c r="FM6" s="1"/>
-      <c r="FN6" t="s">
+      <c r="FN6" s="1"/>
+      <c r="FO6" s="1"/>
+      <c r="FP6" s="1"/>
+      <c r="FQ6" s="1"/>
+      <c r="FR6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2596,25 +2696,25 @@
         <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s">
         <v>72</v>
       </c>
       <c r="T7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s">
         <v>62</v>
@@ -2641,36 +2741,44 @@
         <v>62</v>
       </c>
       <c r="AE7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI7" t="s">
         <v>48</v>
       </c>
-      <c r="AF7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AJ7" t="s">
         <v>106</v>
       </c>
-      <c r="AI7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>20</v>
-      </c>
       <c r="AK7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AL7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AM7" s="1">
         <v>20</v>
       </c>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
+      <c r="AN7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>20</v>
+      </c>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
@@ -2797,7 +2905,11 @@
       <c r="FK7" s="1"/>
       <c r="FL7" s="1"/>
       <c r="FM7" s="1"/>
-      <c r="FN7" t="s">
+      <c r="FN7" s="1"/>
+      <c r="FO7" s="1"/>
+      <c r="FP7" s="1"/>
+      <c r="FQ7" s="1"/>
+      <c r="FR7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2846,25 +2958,25 @@
         <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
         <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s">
         <v>62</v>
@@ -2891,36 +3003,44 @@
         <v>62</v>
       </c>
       <c r="AE8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI8" t="s">
         <v>48</v>
       </c>
-      <c r="AF8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="AJ8" t="s">
         <v>106</v>
       </c>
-      <c r="AI8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>20</v>
-      </c>
       <c r="AK8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AL8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AM8" s="1">
         <v>20</v>
       </c>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
+      <c r="AN8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>20</v>
+      </c>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
@@ -3047,7 +3167,11 @@
       <c r="FK8" s="1"/>
       <c r="FL8" s="1"/>
       <c r="FM8" s="1"/>
-      <c r="FN8" t="s">
+      <c r="FN8" s="1"/>
+      <c r="FO8" s="1"/>
+      <c r="FP8" s="1"/>
+      <c r="FQ8" s="1"/>
+      <c r="FR8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3098,76 +3222,84 @@
         <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
         <v>72</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI9" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM9" s="1">
         <v>16</v>
       </c>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
+      <c r="AO9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
@@ -3295,7 +3427,11 @@
       <c r="FK9" s="1"/>
       <c r="FL9" s="1"/>
       <c r="FM9" s="1"/>
-      <c r="FN9" t="s">
+      <c r="FN9" s="1"/>
+      <c r="FO9" s="1"/>
+      <c r="FP9" s="1"/>
+      <c r="FQ9" s="1"/>
+      <c r="FR9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3346,76 +3482,84 @@
         <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s">
         <v>72</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE10" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF10" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI10" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM10" s="1">
         <v>12</v>
       </c>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
+      <c r="AO10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
@@ -3543,7 +3687,11 @@
       <c r="FK10" s="1"/>
       <c r="FL10" s="1"/>
       <c r="FM10" s="1"/>
-      <c r="FN10" t="s">
+      <c r="FN10" s="1"/>
+      <c r="FO10" s="1"/>
+      <c r="FP10" s="1"/>
+      <c r="FQ10" s="1"/>
+      <c r="FR10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3594,76 +3742,84 @@
         <v>71</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
         <v>72</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE11" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF11" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI11" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM11" s="1">
         <v>3</v>
       </c>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
+      <c r="AO11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
@@ -3791,7 +3947,11 @@
       <c r="FK11" s="1"/>
       <c r="FL11" s="1"/>
       <c r="FM11" s="1"/>
-      <c r="FN11" t="s">
+      <c r="FN11" s="1"/>
+      <c r="FO11" s="1"/>
+      <c r="FP11" s="1"/>
+      <c r="FQ11" s="1"/>
+      <c r="FR11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3842,76 +4002,84 @@
         <v>71</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
         <v>72</v>
       </c>
       <c r="T12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE12" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF12" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI12" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM12" s="1">
         <v>4</v>
       </c>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
+      <c r="AO12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
@@ -4039,7 +4207,11 @@
       <c r="FK12" s="1"/>
       <c r="FL12" s="1"/>
       <c r="FM12" s="1"/>
-      <c r="FN12" t="s">
+      <c r="FN12" s="1"/>
+      <c r="FO12" s="1"/>
+      <c r="FP12" s="1"/>
+      <c r="FQ12" s="1"/>
+      <c r="FR12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4090,76 +4262,84 @@
         <v>71</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
         <v>72</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE13" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF13" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI13" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM13" s="1">
         <v>25</v>
       </c>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
+      <c r="AO13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
@@ -4287,7 +4467,11 @@
       <c r="FK13" s="1"/>
       <c r="FL13" s="1"/>
       <c r="FM13" s="1"/>
-      <c r="FN13" t="s">
+      <c r="FN13" s="1"/>
+      <c r="FO13" s="1"/>
+      <c r="FP13" s="1"/>
+      <c r="FQ13" s="1"/>
+      <c r="FR13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4338,76 +4522,84 @@
         <v>71</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
         <v>72</v>
       </c>
       <c r="T14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI14" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM14" s="1">
         <v>5</v>
       </c>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
+      <c r="AO14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
@@ -4535,7 +4727,11 @@
       <c r="FK14" s="1"/>
       <c r="FL14" s="1"/>
       <c r="FM14" s="1"/>
-      <c r="FN14" t="s">
+      <c r="FN14" s="1"/>
+      <c r="FO14" s="1"/>
+      <c r="FP14" s="1"/>
+      <c r="FQ14" s="1"/>
+      <c r="FR14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4586,76 +4782,84 @@
         <v>71</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S15" t="s">
         <v>72</v>
       </c>
       <c r="T15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI15" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM15" s="1">
         <v>3</v>
       </c>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
+      <c r="AO15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
@@ -4783,7 +4987,11 @@
       <c r="FK15" s="1"/>
       <c r="FL15" s="1"/>
       <c r="FM15" s="1"/>
-      <c r="FN15" t="s">
+      <c r="FN15" s="1"/>
+      <c r="FO15" s="1"/>
+      <c r="FP15" s="1"/>
+      <c r="FQ15" s="1"/>
+      <c r="FR15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4834,76 +5042,84 @@
         <v>71</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S16" t="s">
         <v>72</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE16" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI16" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM16" s="1">
         <v>6</v>
       </c>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
+      <c r="AO16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
@@ -5031,7 +5247,11 @@
       <c r="FK16" s="1"/>
       <c r="FL16" s="1"/>
       <c r="FM16" s="1"/>
-      <c r="FN16" t="s">
+      <c r="FN16" s="1"/>
+      <c r="FO16" s="1"/>
+      <c r="FP16" s="1"/>
+      <c r="FQ16" s="1"/>
+      <c r="FR16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5082,76 +5302,84 @@
         <v>71</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s">
         <v>72</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF17" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI17" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM17" s="1">
         <v>2</v>
       </c>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
+      <c r="AO17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
@@ -5279,7 +5507,11 @@
       <c r="FK17" s="1"/>
       <c r="FL17" s="1"/>
       <c r="FM17" s="1"/>
-      <c r="FN17" t="s">
+      <c r="FN17" s="1"/>
+      <c r="FO17" s="1"/>
+      <c r="FP17" s="1"/>
+      <c r="FQ17" s="1"/>
+      <c r="FR17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5330,76 +5562,84 @@
         <v>71</v>
       </c>
       <c r="P18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s">
         <v>72</v>
       </c>
       <c r="T18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF18" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI18" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM18" s="1">
         <v>1</v>
       </c>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
+      <c r="AO18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
@@ -5527,7 +5767,11 @@
       <c r="FK18" s="1"/>
       <c r="FL18" s="1"/>
       <c r="FM18" s="1"/>
-      <c r="FN18" t="s">
+      <c r="FN18" s="1"/>
+      <c r="FO18" s="1"/>
+      <c r="FP18" s="1"/>
+      <c r="FQ18" s="1"/>
+      <c r="FR18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5578,76 +5822,84 @@
         <v>71</v>
       </c>
       <c r="P19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s">
         <v>72</v>
       </c>
       <c r="T19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE19" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF19" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI19" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM19" s="1">
         <v>2</v>
       </c>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
+      <c r="AO19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
@@ -5775,7 +6027,11 @@
       <c r="FK19" s="1"/>
       <c r="FL19" s="1"/>
       <c r="FM19" s="1"/>
-      <c r="FN19" t="s">
+      <c r="FN19" s="1"/>
+      <c r="FO19" s="1"/>
+      <c r="FP19" s="1"/>
+      <c r="FQ19" s="1"/>
+      <c r="FR19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5826,76 +6082,84 @@
         <v>71</v>
       </c>
       <c r="P20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s">
         <v>72</v>
       </c>
       <c r="T20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE20" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="AF20" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI20" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM20" s="1">
         <v>3</v>
       </c>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
+      <c r="AO20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
@@ -6023,7 +6287,11 @@
       <c r="FK20" s="1"/>
       <c r="FL20" s="1"/>
       <c r="FM20" s="1"/>
-      <c r="FN20" t="s">
+      <c r="FN20" s="1"/>
+      <c r="FO20" s="1"/>
+      <c r="FP20" s="1"/>
+      <c r="FQ20" s="1"/>
+      <c r="FR20" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6074,76 +6342,84 @@
         <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AE21" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI21" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM21" s="1">
         <v>16</v>
       </c>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
+      <c r="AO21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
@@ -6271,7 +6547,11 @@
       <c r="FK21" s="1"/>
       <c r="FL21" s="1"/>
       <c r="FM21" s="1"/>
-      <c r="FN21" t="s">
+      <c r="FN21" s="1"/>
+      <c r="FO21" s="1"/>
+      <c r="FP21" s="1"/>
+      <c r="FQ21" s="1"/>
+      <c r="FR21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6322,76 +6602,84 @@
         <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AE22" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI22" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM22" s="1">
         <v>16</v>
       </c>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
+      <c r="AO22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
@@ -6519,7 +6807,11 @@
       <c r="FK22" s="1"/>
       <c r="FL22" s="1"/>
       <c r="FM22" s="1"/>
-      <c r="FN22" t="s">
+      <c r="FN22" s="1"/>
+      <c r="FO22" s="1"/>
+      <c r="FP22" s="1"/>
+      <c r="FQ22" s="1"/>
+      <c r="FR22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6570,76 +6862,84 @@
         <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AE23" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI23" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM23" s="1">
         <v>12</v>
       </c>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
+      <c r="AO23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
@@ -6767,7 +7067,11 @@
       <c r="FK23" s="1"/>
       <c r="FL23" s="1"/>
       <c r="FM23" s="1"/>
-      <c r="FN23" t="s">
+      <c r="FN23" s="1"/>
+      <c r="FO23" s="1"/>
+      <c r="FP23" s="1"/>
+      <c r="FQ23" s="1"/>
+      <c r="FR23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6818,76 +7122,84 @@
         <v>72</v>
       </c>
       <c r="P24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AE24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI24" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM24" s="1">
         <v>13</v>
       </c>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
+      <c r="AO24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
@@ -7015,7 +7327,11 @@
       <c r="FK24" s="1"/>
       <c r="FL24" s="1"/>
       <c r="FM24" s="1"/>
-      <c r="FN24" t="s">
+      <c r="FN24" s="1"/>
+      <c r="FO24" s="1"/>
+      <c r="FP24" s="1"/>
+      <c r="FQ24" s="1"/>
+      <c r="FR24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7066,49 +7382,49 @@
         <v>72</v>
       </c>
       <c r="P25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W25" t="s">
+        <v>90</v>
+      </c>
+      <c r="X25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA25" t="s">
         <v>89</v>
       </c>
-      <c r="X25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>88</v>
-      </c>
       <c r="AB25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE25" t="s">
         <v>62</v>
@@ -7117,25 +7433,33 @@
         <v>62</v>
       </c>
       <c r="AG25" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI25" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM25" s="1">
         <v>8</v>
       </c>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
+      <c r="AO25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
@@ -7263,7 +7587,11 @@
       <c r="FK25" s="1"/>
       <c r="FL25" s="1"/>
       <c r="FM25" s="1"/>
-      <c r="FN25" t="s">
+      <c r="FN25" s="1"/>
+      <c r="FO25" s="1"/>
+      <c r="FP25" s="1"/>
+      <c r="FQ25" s="1"/>
+      <c r="FR25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7314,37 +7642,37 @@
         <v>72</v>
       </c>
       <c r="P26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s">
         <v>62</v>
@@ -7365,26 +7693,38 @@
         <v>62</v>
       </c>
       <c r="AG26" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH26" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI26" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM26" s="1">
         <v>21</v>
       </c>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
+      <c r="AN26" s="1">
+        <v>21</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>20</v>
+      </c>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
@@ -7511,8 +7851,12 @@
       <c r="FK26" s="1"/>
       <c r="FL26" s="1"/>
       <c r="FM26" s="1"/>
-      <c r="FN26" t="s">
-        <v>62</v>
+      <c r="FN26" s="1"/>
+      <c r="FO26" s="1"/>
+      <c r="FP26" s="1"/>
+      <c r="FQ26" s="1"/>
+      <c r="FR26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="27">
@@ -7562,37 +7906,37 @@
         <v>72</v>
       </c>
       <c r="P27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s">
         <v>62</v>
@@ -7613,25 +7957,33 @@
         <v>62</v>
       </c>
       <c r="AG27" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK27" t="s">
         <v>109</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AL27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM27" s="1">
         <v>3</v>
       </c>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
+      <c r="AO27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
@@ -7759,7 +8111,11 @@
       <c r="FK27" s="1"/>
       <c r="FL27" s="1"/>
       <c r="FM27" s="1"/>
-      <c r="FN27" t="s">
+      <c r="FN27" s="1"/>
+      <c r="FO27" s="1"/>
+      <c r="FP27" s="1"/>
+      <c r="FQ27" s="1"/>
+      <c r="FR27" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7810,37 +8166,37 @@
         <v>72</v>
       </c>
       <c r="P28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s">
         <v>62</v>
@@ -7861,25 +8217,33 @@
         <v>62</v>
       </c>
       <c r="AG28" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH28" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI28" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM28" s="1">
         <v>3</v>
       </c>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
+      <c r="AO28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
@@ -8007,7 +8371,11 @@
       <c r="FK28" s="1"/>
       <c r="FL28" s="1"/>
       <c r="FM28" s="1"/>
-      <c r="FN28" t="s">
+      <c r="FN28" s="1"/>
+      <c r="FO28" s="1"/>
+      <c r="FP28" s="1"/>
+      <c r="FQ28" s="1"/>
+      <c r="FR28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8058,37 +8426,37 @@
         <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s">
         <v>62</v>
@@ -8109,25 +8477,33 @@
         <v>62</v>
       </c>
       <c r="AG29" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI29" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM29" s="1">
         <v>6</v>
       </c>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
+      <c r="AO29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
@@ -8255,7 +8631,11 @@
       <c r="FK29" s="1"/>
       <c r="FL29" s="1"/>
       <c r="FM29" s="1"/>
-      <c r="FN29" t="s">
+      <c r="FN29" s="1"/>
+      <c r="FO29" s="1"/>
+      <c r="FP29" s="1"/>
+      <c r="FQ29" s="1"/>
+      <c r="FR29" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8306,37 +8686,37 @@
         <v>72</v>
       </c>
       <c r="P30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s">
         <v>62</v>
@@ -8357,25 +8737,33 @@
         <v>62</v>
       </c>
       <c r="AG30" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH30" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI30" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM30" s="1">
         <v>12</v>
       </c>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
+      <c r="AO30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
@@ -8503,7 +8891,11 @@
       <c r="FK30" s="1"/>
       <c r="FL30" s="1"/>
       <c r="FM30" s="1"/>
-      <c r="FN30" t="s">
+      <c r="FN30" s="1"/>
+      <c r="FO30" s="1"/>
+      <c r="FP30" s="1"/>
+      <c r="FQ30" s="1"/>
+      <c r="FR30" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8554,37 +8946,37 @@
         <v>72</v>
       </c>
       <c r="P31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s">
         <v>62</v>
@@ -8605,25 +8997,33 @@
         <v>62</v>
       </c>
       <c r="AG31" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH31" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI31" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM31" s="1">
         <v>15</v>
       </c>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
+      <c r="AO31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
@@ -8751,8 +9151,12 @@
       <c r="FK31" s="1"/>
       <c r="FL31" s="1"/>
       <c r="FM31" s="1"/>
-      <c r="FN31" t="s">
-        <v>62</v>
+      <c r="FN31" s="1"/>
+      <c r="FO31" s="1"/>
+      <c r="FP31" s="1"/>
+      <c r="FQ31" s="1"/>
+      <c r="FR31" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="32">
@@ -8802,37 +9206,37 @@
         <v>72</v>
       </c>
       <c r="P32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s">
         <v>62</v>
@@ -8853,25 +9257,33 @@
         <v>62</v>
       </c>
       <c r="AG32" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH32" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI32" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM32" s="1">
         <v>11</v>
       </c>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
+      <c r="AO32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
@@ -8999,8 +9411,12 @@
       <c r="FK32" s="1"/>
       <c r="FL32" s="1"/>
       <c r="FM32" s="1"/>
-      <c r="FN32" t="s">
-        <v>62</v>
+      <c r="FN32" s="1"/>
+      <c r="FO32" s="1"/>
+      <c r="FP32" s="1"/>
+      <c r="FQ32" s="1"/>
+      <c r="FR32" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="33">
@@ -9050,37 +9466,37 @@
         <v>72</v>
       </c>
       <c r="P33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s">
         <v>62</v>
@@ -9101,25 +9517,33 @@
         <v>62</v>
       </c>
       <c r="AG33" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AH33" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI33" s="1">
+        <v>62</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM33" s="1">
         <v>15</v>
       </c>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
+      <c r="AO33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
@@ -9247,8 +9671,12 @@
       <c r="FK33" s="1"/>
       <c r="FL33" s="1"/>
       <c r="FM33" s="1"/>
-      <c r="FN33" t="s">
-        <v>62</v>
+      <c r="FN33" s="1"/>
+      <c r="FO33" s="1"/>
+      <c r="FP33" s="1"/>
+      <c r="FQ33" s="1"/>
+      <c r="FR33" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="34">
@@ -9276,8 +9704,12 @@
       <c r="H34" s="1">
         <v>3</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="I34" s="1">
+        <v>96</v>
+      </c>
+      <c r="J34" s="1">
+        <v>96</v>
+      </c>
       <c r="K34" t="s">
         <v>62</v>
       </c>
@@ -9346,8 +9778,12 @@
       <c r="AH34" t="s">
         <v>62</v>
       </c>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="2"/>
+      <c r="AI34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>62</v>
+      </c>
       <c r="AK34" t="s">
         <v>62</v>
       </c>
@@ -9356,8 +9792,12 @@
       </c>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
+      <c r="AO34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
@@ -9485,7 +9925,11 @@
       <c r="FK34" s="1"/>
       <c r="FL34" s="1"/>
       <c r="FM34" s="1"/>
-      <c r="FN34" t="s">
+      <c r="FN34" s="1"/>
+      <c r="FO34" s="1"/>
+      <c r="FP34" s="1"/>
+      <c r="FQ34" s="1"/>
+      <c r="FR34" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9514,8 +9958,12 @@
       <c r="H35" s="1">
         <v>4</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="I35" s="1">
+        <v>96</v>
+      </c>
+      <c r="J35" s="1">
+        <v>96</v>
+      </c>
       <c r="K35" t="s">
         <v>62</v>
       </c>
@@ -9584,8 +10032,12 @@
       <c r="AH35" t="s">
         <v>62</v>
       </c>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="2"/>
+      <c r="AI35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>62</v>
+      </c>
       <c r="AK35" t="s">
         <v>62</v>
       </c>
@@ -9594,8 +10046,12 @@
       </c>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
+      <c r="AO35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
@@ -9723,7 +10179,11 @@
       <c r="FK35" s="1"/>
       <c r="FL35" s="1"/>
       <c r="FM35" s="1"/>
-      <c r="FN35" t="s">
+      <c r="FN35" s="1"/>
+      <c r="FO35" s="1"/>
+      <c r="FP35" s="1"/>
+      <c r="FQ35" s="1"/>
+      <c r="FR35" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9752,8 +10212,12 @@
       <c r="H36" s="1">
         <v>9</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="I36" s="1">
+        <v>96</v>
+      </c>
+      <c r="J36" s="1">
+        <v>96</v>
+      </c>
       <c r="K36" t="s">
         <v>62</v>
       </c>
@@ -9822,8 +10286,12 @@
       <c r="AH36" t="s">
         <v>62</v>
       </c>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="2"/>
+      <c r="AI36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>62</v>
+      </c>
       <c r="AK36" t="s">
         <v>62</v>
       </c>
@@ -9832,8 +10300,12 @@
       </c>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
+      <c r="AO36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
@@ -9961,7 +10433,11 @@
       <c r="FK36" s="1"/>
       <c r="FL36" s="1"/>
       <c r="FM36" s="1"/>
-      <c r="FN36" t="s">
+      <c r="FN36" s="1"/>
+      <c r="FO36" s="1"/>
+      <c r="FP36" s="1"/>
+      <c r="FQ36" s="1"/>
+      <c r="FR36" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9987,9 +10463,15 @@
       <c r="G37" s="1">
         <v>96</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H37" s="1">
+        <v>9</v>
+      </c>
+      <c r="I37" s="1">
+        <v>96</v>
+      </c>
+      <c r="J37" s="1">
+        <v>96</v>
+      </c>
       <c r="K37" t="s">
         <v>62</v>
       </c>
@@ -10058,8 +10540,12 @@
       <c r="AH37" t="s">
         <v>62</v>
       </c>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="2"/>
+      <c r="AI37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>62</v>
+      </c>
       <c r="AK37" t="s">
         <v>62</v>
       </c>
@@ -10068,8 +10554,12 @@
       </c>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
+      <c r="AO37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
@@ -10197,7 +10687,11 @@
       <c r="FK37" s="1"/>
       <c r="FL37" s="1"/>
       <c r="FM37" s="1"/>
-      <c r="FN37" t="s">
+      <c r="FN37" s="1"/>
+      <c r="FO37" s="1"/>
+      <c r="FP37" s="1"/>
+      <c r="FQ37" s="1"/>
+      <c r="FR37" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10223,9 +10717,15 @@
       <c r="G38" s="1">
         <v>96</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="H38" s="1">
+        <v>9</v>
+      </c>
+      <c r="I38" s="1">
+        <v>96</v>
+      </c>
+      <c r="J38" s="1">
+        <v>96</v>
+      </c>
       <c r="K38" t="s">
         <v>62</v>
       </c>
@@ -10294,8 +10794,12 @@
       <c r="AH38" t="s">
         <v>62</v>
       </c>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="2"/>
+      <c r="AI38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>62</v>
+      </c>
       <c r="AK38" t="s">
         <v>62</v>
       </c>
@@ -10304,8 +10808,12 @@
       </c>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
+      <c r="AO38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
@@ -10433,7 +10941,11 @@
       <c r="FK38" s="1"/>
       <c r="FL38" s="1"/>
       <c r="FM38" s="1"/>
-      <c r="FN38" t="s">
+      <c r="FN38" s="1"/>
+      <c r="FO38" s="1"/>
+      <c r="FP38" s="1"/>
+      <c r="FQ38" s="1"/>
+      <c r="FR38" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10462,27 +10974,29 @@
       <c r="H39" s="1">
         <v>4</v>
       </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="1">
+        <v>3</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P39" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q39" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R39" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="S39" t="s">
         <v>62</v>
@@ -10532,8 +11046,12 @@
       <c r="AH39" t="s">
         <v>62</v>
       </c>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="2"/>
+      <c r="AI39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>62</v>
+      </c>
       <c r="AK39" t="s">
         <v>62</v>
       </c>
@@ -10542,8 +11060,12 @@
       </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
+      <c r="AO39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
@@ -10671,7 +11193,11 @@
       <c r="FK39" s="1"/>
       <c r="FL39" s="1"/>
       <c r="FM39" s="1"/>
-      <c r="FN39" t="s">
+      <c r="FN39" s="1"/>
+      <c r="FO39" s="1"/>
+      <c r="FP39" s="1"/>
+      <c r="FQ39" s="1"/>
+      <c r="FR39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10700,27 +11226,29 @@
       <c r="H40" s="1">
         <v>4</v>
       </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P40" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q40" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R40" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="S40" t="s">
         <v>62</v>
@@ -10770,8 +11298,12 @@
       <c r="AH40" t="s">
         <v>62</v>
       </c>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="2"/>
+      <c r="AI40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>62</v>
+      </c>
       <c r="AK40" t="s">
         <v>62</v>
       </c>
@@ -10780,8 +11312,12 @@
       </c>
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
+      <c r="AO40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
@@ -10909,7 +11445,11 @@
       <c r="FK40" s="1"/>
       <c r="FL40" s="1"/>
       <c r="FM40" s="1"/>
-      <c r="FN40" t="s">
+      <c r="FN40" s="1"/>
+      <c r="FO40" s="1"/>
+      <c r="FP40" s="1"/>
+      <c r="FQ40" s="1"/>
+      <c r="FR40" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10938,27 +11478,29 @@
       <c r="H41" s="1">
         <v>5</v>
       </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P41" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q41" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R41" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="S41" t="s">
         <v>62</v>
@@ -11008,8 +11550,12 @@
       <c r="AH41" t="s">
         <v>62</v>
       </c>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="2"/>
+      <c r="AI41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>62</v>
+      </c>
       <c r="AK41" t="s">
         <v>62</v>
       </c>
@@ -11018,8 +11564,12 @@
       </c>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
+      <c r="AO41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
@@ -11147,7 +11697,11 @@
       <c r="FK41" s="1"/>
       <c r="FL41" s="1"/>
       <c r="FM41" s="1"/>
-      <c r="FN41" t="s">
+      <c r="FN41" s="1"/>
+      <c r="FO41" s="1"/>
+      <c r="FP41" s="1"/>
+      <c r="FQ41" s="1"/>
+      <c r="FR41" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11176,27 +11730,29 @@
       <c r="H42" s="1">
         <v>3</v>
       </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P42" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q42" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R42" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="S42" t="s">
         <v>62</v>
@@ -11246,8 +11802,12 @@
       <c r="AH42" t="s">
         <v>62</v>
       </c>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="2"/>
+      <c r="AI42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>62</v>
+      </c>
       <c r="AK42" t="s">
         <v>62</v>
       </c>
@@ -11256,8 +11816,12 @@
       </c>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1"/>
+      <c r="AO42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
@@ -11385,7 +11949,11 @@
       <c r="FK42" s="1"/>
       <c r="FL42" s="1"/>
       <c r="FM42" s="1"/>
-      <c r="FN42" t="s">
+      <c r="FN42" s="1"/>
+      <c r="FO42" s="1"/>
+      <c r="FP42" s="1"/>
+      <c r="FQ42" s="1"/>
+      <c r="FR42" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11414,27 +11982,29 @@
       <c r="H43" s="1">
         <v>3</v>
       </c>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1">
+        <v>3</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="P43" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q43" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="R43" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="S43" t="s">
         <v>62</v>
@@ -11484,8 +12054,12 @@
       <c r="AH43" t="s">
         <v>62</v>
       </c>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="2"/>
+      <c r="AI43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>62</v>
+      </c>
       <c r="AK43" t="s">
         <v>62</v>
       </c>
@@ -11494,8 +12068,12 @@
       </c>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
+      <c r="AO43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
@@ -11623,7 +12201,11 @@
       <c r="FK43" s="1"/>
       <c r="FL43" s="1"/>
       <c r="FM43" s="1"/>
-      <c r="FN43" t="s">
+      <c r="FN43" s="1"/>
+      <c r="FO43" s="1"/>
+      <c r="FP43" s="1"/>
+      <c r="FQ43" s="1"/>
+      <c r="FR43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11718,8 +12300,12 @@
       <c r="AH44" t="s">
         <v>62</v>
       </c>
-      <c r="AI44" s="1"/>
-      <c r="AJ44" s="2"/>
+      <c r="AI44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>62</v>
+      </c>
       <c r="AK44" t="s">
         <v>62</v>
       </c>
@@ -11728,8 +12314,12 @@
       </c>
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
-      <c r="AO44" s="1"/>
-      <c r="AP44" s="1"/>
+      <c r="AO44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
@@ -11857,8 +12447,12 @@
       <c r="FK44" s="1"/>
       <c r="FL44" s="1"/>
       <c r="FM44" s="1"/>
-      <c r="FN44" t="s">
-        <v>248</v>
+      <c r="FN44" s="1"/>
+      <c r="FO44" s="1"/>
+      <c r="FP44" s="1"/>
+      <c r="FQ44" s="1"/>
+      <c r="FR44" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="45">
@@ -11952,8 +12546,12 @@
       <c r="AH45" t="s">
         <v>62</v>
       </c>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="2"/>
+      <c r="AI45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>62</v>
+      </c>
       <c r="AK45" t="s">
         <v>62</v>
       </c>
@@ -11962,8 +12560,12 @@
       </c>
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
-      <c r="AO45" s="1"/>
-      <c r="AP45" s="1"/>
+      <c r="AO45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
@@ -12091,8 +12693,12 @@
       <c r="FK45" s="1"/>
       <c r="FL45" s="1"/>
       <c r="FM45" s="1"/>
-      <c r="FN45" t="s">
-        <v>248</v>
+      <c r="FN45" s="1"/>
+      <c r="FO45" s="1"/>
+      <c r="FP45" s="1"/>
+      <c r="FQ45" s="1"/>
+      <c r="FR45" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="46">
@@ -12186,8 +12792,12 @@
       <c r="AH46" t="s">
         <v>62</v>
       </c>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="2"/>
+      <c r="AI46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>62</v>
+      </c>
       <c r="AK46" t="s">
         <v>62</v>
       </c>
@@ -12196,8 +12806,12 @@
       </c>
       <c r="AM46" s="1"/>
       <c r="AN46" s="1"/>
-      <c r="AO46" s="1"/>
-      <c r="AP46" s="1"/>
+      <c r="AO46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
@@ -12325,7 +12939,11 @@
       <c r="FK46" s="1"/>
       <c r="FL46" s="1"/>
       <c r="FM46" s="1"/>
-      <c r="FN46" t="s">
+      <c r="FN46" s="1"/>
+      <c r="FO46" s="1"/>
+      <c r="FP46" s="1"/>
+      <c r="FQ46" s="1"/>
+      <c r="FR46" t="s">
         <v>62</v>
       </c>
     </row>

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1659" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1659" uniqueCount="262">
   <si>
     <t>crop</t>
   </si>
@@ -327,6 +327,9 @@
     <t>transp_harden_date_srt</t>
   </si>
   <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
     <t>transp_harden_date_end</t>
   </si>
   <si>
@@ -336,15 +339,15 @@
     <t>2024-04-30</t>
   </si>
   <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
     <t>transp_date_1</t>
   </si>
   <si>
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
     <t>2024-04-27</t>
   </si>
   <si>
@@ -381,6 +384,9 @@
     <t>transp_med_2</t>
   </si>
   <si>
+    <t>container</t>
+  </si>
+  <si>
     <t>raised bed- frame</t>
   </si>
   <si>
@@ -781,6 +787,9 @@
   </si>
   <si>
     <t>1 was potted as gift during second transplant</t>
+  </si>
+  <si>
+    <t>1 was potted as gift during second transplant; 4 of 20 transplanted to catio were in a large container</t>
   </si>
   <si>
     <t>3 were potted as gift during second transplant</t>
@@ -948,421 +957,421 @@
         <v>103</v>
       </c>
       <c r="AJ1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AL1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AO1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AQ1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AR1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AS1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AT1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AU1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AV1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AW1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AX1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AY1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AZ1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BA1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BB1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BC1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BD1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BE1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BF1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BG1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BH1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BI1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BJ1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BK1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="BL1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BM1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="BN1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BO1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BP1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BQ1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BR1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BS1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="BT1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="BU1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BV1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BW1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BX1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BY1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BZ1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="CA1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="CB1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="CC1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="CD1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="CE1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="CF1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CG1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="CH1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="CI1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="CJ1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="CK1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CL1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="CM1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CN1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="CO1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="CP1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="CQ1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="CR1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CS1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="CT1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CU1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="CV1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="CW1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CX1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="CY1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CZ1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DA1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="DB1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="DC1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="DD1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DE1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="DF1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DG1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="DH1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="DI1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="DJ1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="DK1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="DL1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="DM1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="DN1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="DO1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="DP1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="DQ1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="DR1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="DS1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DT1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="DU1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="DV1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="DW1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="DX1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="DY1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="DZ1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="EA1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="EB1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="EC1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="ED1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="EE1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="EF1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="EG1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="EH1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="EI1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="EJ1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="EK1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="EL1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="EM1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="EN1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="EO1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="EP1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="EQ1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="ER1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="ES1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="ET1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="EU1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="EV1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="EW1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="EX1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="EY1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="EZ1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="FA1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="FB1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="FC1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="FD1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="FE1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="FF1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="FG1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="FH1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="FI1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="FJ1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="FK1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="FL1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="FM1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FN1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FO1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FP1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FQ1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="FR1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2">
@@ -1717,29 +1726,35 @@
         <v>62</v>
       </c>
       <c r="AI3" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM3" s="1">
         <v>8</v>
       </c>
-      <c r="AN3" s="1"/>
+      <c r="AN3" s="1">
+        <v>8</v>
+      </c>
       <c r="AO3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AP3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>8</v>
+      </c>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
@@ -1981,10 +1996,10 @@
         <v>62</v>
       </c>
       <c r="AK4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM4" s="1">
         <v>1</v>
@@ -2236,13 +2251,13 @@
         <v>48</v>
       </c>
       <c r="AJ5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM5" s="1">
         <v>19</v>
@@ -2251,7 +2266,7 @@
         <v>19</v>
       </c>
       <c r="AO5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AP5" t="s">
         <v>52</v>
@@ -2496,13 +2511,13 @@
         <v>48</v>
       </c>
       <c r="AJ6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM6" s="1">
         <v>18</v>
@@ -2511,7 +2526,7 @@
         <v>18</v>
       </c>
       <c r="AO6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AP6" t="s">
         <v>52</v>
@@ -2756,13 +2771,13 @@
         <v>48</v>
       </c>
       <c r="AJ7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM7" s="1">
         <v>20</v>
@@ -2771,10 +2786,10 @@
         <v>20</v>
       </c>
       <c r="AO7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AQ7" s="1">
         <v>20</v>
@@ -3018,13 +3033,13 @@
         <v>48</v>
       </c>
       <c r="AJ8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM8" s="1">
         <v>20</v>
@@ -3033,10 +3048,10 @@
         <v>20</v>
       </c>
       <c r="AO8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AQ8" s="1">
         <v>20</v>
@@ -3285,15 +3300,17 @@
         <v>62</v>
       </c>
       <c r="AK9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM9" s="1">
         <v>16</v>
       </c>
-      <c r="AN9" s="1"/>
+      <c r="AN9" s="1">
+        <v>16</v>
+      </c>
       <c r="AO9" t="s">
         <v>62</v>
       </c>
@@ -3432,7 +3449,7 @@
       <c r="FP9" s="1"/>
       <c r="FQ9" s="1"/>
       <c r="FR9" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
@@ -3545,10 +3562,10 @@
         <v>62</v>
       </c>
       <c r="AK10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM10" s="1">
         <v>12</v>
@@ -3805,10 +3822,10 @@
         <v>62</v>
       </c>
       <c r="AK11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM11" s="1">
         <v>3</v>
@@ -4065,10 +4082,10 @@
         <v>62</v>
       </c>
       <c r="AK12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM12" s="1">
         <v>4</v>
@@ -4325,10 +4342,10 @@
         <v>62</v>
       </c>
       <c r="AK13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM13" s="1">
         <v>25</v>
@@ -4585,10 +4602,10 @@
         <v>62</v>
       </c>
       <c r="AK14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM14" s="1">
         <v>5</v>
@@ -4845,10 +4862,10 @@
         <v>62</v>
       </c>
       <c r="AK15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM15" s="1">
         <v>3</v>
@@ -5105,10 +5122,10 @@
         <v>62</v>
       </c>
       <c r="AK16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM16" s="1">
         <v>6</v>
@@ -5365,10 +5382,10 @@
         <v>62</v>
       </c>
       <c r="AK17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM17" s="1">
         <v>2</v>
@@ -5625,10 +5642,10 @@
         <v>62</v>
       </c>
       <c r="AK18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM18" s="1">
         <v>1</v>
@@ -5885,10 +5902,10 @@
         <v>62</v>
       </c>
       <c r="AK19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM19" s="1">
         <v>2</v>
@@ -6145,10 +6162,10 @@
         <v>62</v>
       </c>
       <c r="AK20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM20" s="1">
         <v>3</v>
@@ -6399,28 +6416,32 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ21" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AK21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM21" s="1">
         <v>16</v>
       </c>
-      <c r="AN21" s="1"/>
+      <c r="AN21" s="1">
+        <v>15</v>
+      </c>
       <c r="AO21" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AP21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ21" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>9</v>
+      </c>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
@@ -6659,28 +6680,32 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ22" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AK22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM22" s="1">
         <v>16</v>
       </c>
-      <c r="AN22" s="1"/>
+      <c r="AN22" s="1">
+        <v>15</v>
+      </c>
       <c r="AO22" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AP22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ22" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>9</v>
+      </c>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
@@ -6919,28 +6944,32 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ23" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AK23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM23" s="1">
         <v>12</v>
       </c>
-      <c r="AN23" s="1"/>
+      <c r="AN23" s="1">
+        <v>12</v>
+      </c>
       <c r="AO23" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AP23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ23" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>8</v>
+      </c>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
@@ -7179,28 +7208,32 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ24" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AK24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM24" s="1">
         <v>13</v>
       </c>
-      <c r="AN24" s="1"/>
+      <c r="AN24" s="1">
+        <v>12</v>
+      </c>
       <c r="AO24" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AP24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ24" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>8</v>
+      </c>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
@@ -7439,29 +7472,35 @@
         <v>62</v>
       </c>
       <c r="AI25" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ25" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM25" s="1">
         <v>8</v>
       </c>
-      <c r="AN25" s="1"/>
+      <c r="AN25" s="1">
+        <v>8</v>
+      </c>
       <c r="AO25" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AP25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>8</v>
+      </c>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
@@ -7705,10 +7744,10 @@
         <v>62</v>
       </c>
       <c r="AK26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM26" s="1">
         <v>21</v>
@@ -7717,10 +7756,10 @@
         <v>21</v>
       </c>
       <c r="AO26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AP26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AQ26" s="1">
         <v>20</v>
@@ -7856,7 +7895,7 @@
       <c r="FP26" s="1"/>
       <c r="FQ26" s="1"/>
       <c r="FR26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
@@ -7969,10 +8008,10 @@
         <v>62</v>
       </c>
       <c r="AK27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM27" s="1">
         <v>3</v>
@@ -8229,10 +8268,10 @@
         <v>62</v>
       </c>
       <c r="AK28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM28" s="1">
         <v>3</v>
@@ -8489,10 +8528,10 @@
         <v>62</v>
       </c>
       <c r="AK29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM29" s="1">
         <v>6</v>
@@ -8749,10 +8788,10 @@
         <v>62</v>
       </c>
       <c r="AK30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM30" s="1">
         <v>12</v>
@@ -9009,10 +9048,10 @@
         <v>62</v>
       </c>
       <c r="AK31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM31" s="1">
         <v>15</v>
@@ -9156,7 +9195,7 @@
       <c r="FP31" s="1"/>
       <c r="FQ31" s="1"/>
       <c r="FR31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
@@ -9269,10 +9308,10 @@
         <v>62</v>
       </c>
       <c r="AK32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM32" s="1">
         <v>11</v>
@@ -9416,7 +9455,7 @@
       <c r="FP32" s="1"/>
       <c r="FQ32" s="1"/>
       <c r="FR32" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
@@ -9529,10 +9568,10 @@
         <v>62</v>
       </c>
       <c r="AK33" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AL33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM33" s="1">
         <v>15</v>
@@ -9676,7 +9715,7 @@
       <c r="FP33" s="1"/>
       <c r="FQ33" s="1"/>
       <c r="FR33" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
@@ -12452,7 +12491,7 @@
       <c r="FP44" s="1"/>
       <c r="FQ44" s="1"/>
       <c r="FR44" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45">
@@ -12698,7 +12737,7 @@
       <c r="FP45" s="1"/>
       <c r="FQ45" s="1"/>
       <c r="FR45" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46">

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1659" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1659" uniqueCount="267">
   <si>
     <t>crop</t>
   </si>
@@ -330,6 +330,12 @@
     <t>2024-04-24</t>
   </si>
   <si>
+    <t>11may2024</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>transp_harden_date_end</t>
   </si>
   <si>
@@ -342,6 +348,9 @@
     <t>2024-05-13</t>
   </si>
   <si>
+    <t>08may2024</t>
+  </si>
+  <si>
     <t>transp_date_1</t>
   </si>
   <si>
@@ -363,7 +372,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>p</t>
+    <t>container- indoor</t>
   </si>
   <si>
     <t>4.5.d</t>
@@ -390,6 +399,9 @@
     <t>raised bed- frame</t>
   </si>
   <si>
+    <t>container- outdoor</t>
+  </si>
+  <si>
     <t>transp_no_srt_2</t>
   </si>
   <si>
@@ -790,6 +802,9 @@
   </si>
   <si>
     <t>1 was potted as gift during second transplant; 4 of 20 transplanted to catio were in a large container</t>
+  </si>
+  <si>
+    <t>These stayed in the 4.5.d pots indefinitely in the catio after transplant 1</t>
   </si>
   <si>
     <t>3 were potted as gift during second transplant</t>
@@ -957,421 +972,421 @@
         <v>103</v>
       </c>
       <c r="AJ1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AL1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AM1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AN1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AQ1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AR1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AS1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AT1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AU1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AV1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AW1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AX1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AY1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AZ1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="BA1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="BB1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BC1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BD1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BE1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BF1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BG1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BH1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BI1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BJ1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BK1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="BL1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="BM1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="BN1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="BO1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="BP1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="BQ1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="BR1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="BS1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="BT1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="BU1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BV1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="BW1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BX1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BY1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BZ1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="CA1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="CB1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="CC1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="CD1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="CE1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="CF1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="CG1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="CH1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="CI1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="CJ1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="CK1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="CL1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="CM1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="CN1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="CO1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="CP1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CQ1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="CR1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="CS1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="CT1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CU1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CV1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="CW1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="CX1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CY1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="CZ1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="DA1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="DB1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DC1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DD1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="DE1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="DF1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="DG1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="DH1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="DI1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="DJ1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="DK1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="DL1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="DM1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="DN1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="DO1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="DP1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="DQ1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="DR1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="DS1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="DT1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="DU1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="DV1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="DW1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="DX1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="DY1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="DZ1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="EA1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="EB1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="EC1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="ED1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="EE1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="EF1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="EG1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="EH1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="EI1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="EJ1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="EK1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="EL1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="EM1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="EN1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="EO1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="EP1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="EQ1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="ER1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="ES1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="ET1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="EU1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="EV1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="EW1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="EX1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="EY1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="EZ1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="FA1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="FB1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="FC1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="FD1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="FE1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="FF1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="FG1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="FH1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="FI1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="FJ1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="FK1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="FL1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="FM1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="FN1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="FO1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="FP1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="FQ1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="FR1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2">
@@ -1732,10 +1747,10 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM3" s="1">
         <v>8</v>
@@ -1747,7 +1762,7 @@
         <v>73</v>
       </c>
       <c r="AP3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AQ3" s="1">
         <v>8</v>
@@ -1996,10 +2011,10 @@
         <v>62</v>
       </c>
       <c r="AK4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM4" s="1">
         <v>1</v>
@@ -2251,13 +2266,13 @@
         <v>48</v>
       </c>
       <c r="AJ5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM5" s="1">
         <v>19</v>
@@ -2266,13 +2281,17 @@
         <v>19</v>
       </c>
       <c r="AO5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AP5" t="s">
         <v>52</v>
       </c>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
+      <c r="AQ5" s="1">
+        <v>19</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>19</v>
+      </c>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
@@ -2511,13 +2530,13 @@
         <v>48</v>
       </c>
       <c r="AJ6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM6" s="1">
         <v>18</v>
@@ -2526,13 +2545,17 @@
         <v>18</v>
       </c>
       <c r="AO6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AP6" t="s">
         <v>52</v>
       </c>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
+      <c r="AQ6" s="1">
+        <v>18</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>17</v>
+      </c>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
@@ -2771,13 +2794,13 @@
         <v>48</v>
       </c>
       <c r="AJ7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM7" s="1">
         <v>20</v>
@@ -2786,15 +2809,17 @@
         <v>20</v>
       </c>
       <c r="AO7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AP7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AQ7" s="1">
         <v>20</v>
       </c>
-      <c r="AR7" s="1"/>
+      <c r="AR7" s="1">
+        <v>20</v>
+      </c>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
@@ -3033,13 +3058,13 @@
         <v>48</v>
       </c>
       <c r="AJ8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM8" s="1">
         <v>20</v>
@@ -3048,15 +3073,17 @@
         <v>20</v>
       </c>
       <c r="AO8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AP8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AQ8" s="1">
         <v>20</v>
       </c>
-      <c r="AR8" s="1"/>
+      <c r="AR8" s="1">
+        <v>20</v>
+      </c>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
@@ -3294,7 +3321,7 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s">
         <v>62</v>
@@ -3303,7 +3330,7 @@
         <v>104</v>
       </c>
       <c r="AL9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM9" s="1">
         <v>16</v>
@@ -3449,7 +3476,7 @@
       <c r="FP9" s="1"/>
       <c r="FQ9" s="1"/>
       <c r="FR9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10">
@@ -3556,16 +3583,16 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s">
         <v>62</v>
       </c>
       <c r="AK10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM10" s="1">
         <v>12</v>
@@ -3816,16 +3843,16 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s">
         <v>62</v>
       </c>
       <c r="AK11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM11" s="1">
         <v>3</v>
@@ -4076,16 +4103,16 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s">
         <v>62</v>
       </c>
       <c r="AK12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM12" s="1">
         <v>4</v>
@@ -4336,16 +4363,16 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s">
         <v>62</v>
       </c>
       <c r="AK13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM13" s="1">
         <v>25</v>
@@ -4596,16 +4623,16 @@
         <v>82</v>
       </c>
       <c r="AI14" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s">
         <v>62</v>
       </c>
       <c r="AK14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM14" s="1">
         <v>5</v>
@@ -4856,16 +4883,16 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="AJ15" t="s">
         <v>62</v>
       </c>
       <c r="AK15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM15" s="1">
         <v>3</v>
@@ -5116,16 +5143,16 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="AJ16" t="s">
         <v>62</v>
       </c>
       <c r="AK16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM16" s="1">
         <v>6</v>
@@ -5376,16 +5403,16 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="AJ17" t="s">
         <v>62</v>
       </c>
       <c r="AK17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM17" s="1">
         <v>2</v>
@@ -5636,16 +5663,16 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s">
         <v>62</v>
       </c>
       <c r="AK18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM18" s="1">
         <v>1</v>
@@ -5896,16 +5923,16 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s">
         <v>62</v>
       </c>
       <c r="AK19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM19" s="1">
         <v>2</v>
@@ -6156,16 +6183,16 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s">
         <v>62</v>
       </c>
       <c r="AK20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM20" s="1">
         <v>3</v>
@@ -6419,13 +6446,13 @@
         <v>104</v>
       </c>
       <c r="AJ21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK21" t="s">
         <v>104</v>
       </c>
       <c r="AL21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM21" s="1">
         <v>16</v>
@@ -6434,7 +6461,7 @@
         <v>15</v>
       </c>
       <c r="AO21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP21" t="s">
         <v>52</v>
@@ -6683,13 +6710,13 @@
         <v>104</v>
       </c>
       <c r="AJ22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK22" t="s">
         <v>104</v>
       </c>
       <c r="AL22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM22" s="1">
         <v>16</v>
@@ -6698,7 +6725,7 @@
         <v>15</v>
       </c>
       <c r="AO22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP22" t="s">
         <v>52</v>
@@ -6947,13 +6974,13 @@
         <v>104</v>
       </c>
       <c r="AJ23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK23" t="s">
         <v>104</v>
       </c>
       <c r="AL23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM23" s="1">
         <v>12</v>
@@ -6962,7 +6989,7 @@
         <v>12</v>
       </c>
       <c r="AO23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP23" t="s">
         <v>52</v>
@@ -7211,13 +7238,13 @@
         <v>104</v>
       </c>
       <c r="AJ24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AK24" t="s">
         <v>104</v>
       </c>
       <c r="AL24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM24" s="1">
         <v>13</v>
@@ -7226,7 +7253,7 @@
         <v>12</v>
       </c>
       <c r="AO24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AP24" t="s">
         <v>52</v>
@@ -7481,7 +7508,7 @@
         <v>104</v>
       </c>
       <c r="AL25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AM25" s="1">
         <v>8</v>
@@ -7493,7 +7520,7 @@
         <v>73</v>
       </c>
       <c r="AP25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AQ25" s="1">
         <v>8</v>
@@ -7738,16 +7765,16 @@
         <v>62</v>
       </c>
       <c r="AI26" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ26" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="AK26" t="s">
         <v>104</v>
       </c>
       <c r="AL26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AM26" s="1">
         <v>21</v>
@@ -7756,15 +7783,17 @@
         <v>21</v>
       </c>
       <c r="AO26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AP26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AQ26" s="1">
         <v>20</v>
       </c>
-      <c r="AR26" s="1"/>
+      <c r="AR26" s="1">
+        <v>19</v>
+      </c>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
@@ -7895,7 +7924,7 @@
       <c r="FP26" s="1"/>
       <c r="FQ26" s="1"/>
       <c r="FR26" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
@@ -8002,16 +8031,16 @@
         <v>62</v>
       </c>
       <c r="AI27" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AJ27" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK27" t="s">
         <v>104</v>
       </c>
       <c r="AL27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AM27" s="1">
         <v>3</v>
@@ -8262,16 +8291,16 @@
         <v>62</v>
       </c>
       <c r="AI28" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ28" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK28" t="s">
         <v>104</v>
       </c>
       <c r="AL28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AM28" s="1">
         <v>3</v>
@@ -8415,7 +8444,7 @@
       <c r="FP28" s="1"/>
       <c r="FQ28" s="1"/>
       <c r="FR28" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
@@ -8522,16 +8551,16 @@
         <v>62</v>
       </c>
       <c r="AI29" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ29" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK29" t="s">
         <v>104</v>
       </c>
       <c r="AL29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AM29" s="1">
         <v>6</v>
@@ -8675,7 +8704,7 @@
       <c r="FP29" s="1"/>
       <c r="FQ29" s="1"/>
       <c r="FR29" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
@@ -8782,7 +8811,7 @@
         <v>62</v>
       </c>
       <c r="AI30" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ30" t="s">
         <v>62</v>
@@ -8791,7 +8820,7 @@
         <v>104</v>
       </c>
       <c r="AL30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM30" s="1">
         <v>12</v>
@@ -9042,7 +9071,7 @@
         <v>62</v>
       </c>
       <c r="AI31" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ31" t="s">
         <v>62</v>
@@ -9051,7 +9080,7 @@
         <v>104</v>
       </c>
       <c r="AL31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM31" s="1">
         <v>15</v>
@@ -9195,7 +9224,7 @@
       <c r="FP31" s="1"/>
       <c r="FQ31" s="1"/>
       <c r="FR31" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
@@ -9302,7 +9331,7 @@
         <v>62</v>
       </c>
       <c r="AI32" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ32" t="s">
         <v>62</v>
@@ -9311,7 +9340,7 @@
         <v>104</v>
       </c>
       <c r="AL32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM32" s="1">
         <v>11</v>
@@ -9455,7 +9484,7 @@
       <c r="FP32" s="1"/>
       <c r="FQ32" s="1"/>
       <c r="FR32" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
@@ -9562,7 +9591,7 @@
         <v>62</v>
       </c>
       <c r="AI33" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AJ33" t="s">
         <v>62</v>
@@ -9571,7 +9600,7 @@
         <v>104</v>
       </c>
       <c r="AL33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM33" s="1">
         <v>15</v>
@@ -9715,7 +9744,7 @@
       <c r="FP33" s="1"/>
       <c r="FQ33" s="1"/>
       <c r="FR33" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
@@ -11016,7 +11045,9 @@
       <c r="I39" s="1">
         <v>3</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1">
+        <v>3</v>
+      </c>
       <c r="K39" t="s">
         <v>64</v>
       </c>
@@ -11268,7 +11299,9 @@
       <c r="I40" s="1">
         <v>2</v>
       </c>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
       <c r="K40" t="s">
         <v>64</v>
       </c>
@@ -11520,7 +11553,9 @@
       <c r="I41" s="1">
         <v>2</v>
       </c>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
       <c r="K41" t="s">
         <v>64</v>
       </c>
@@ -11772,7 +11807,9 @@
       <c r="I42" s="1">
         <v>3</v>
       </c>
-      <c r="J42" s="1"/>
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
       <c r="K42" t="s">
         <v>64</v>
       </c>
@@ -12024,7 +12061,9 @@
       <c r="I43" s="1">
         <v>3</v>
       </c>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1">
+        <v>3</v>
+      </c>
       <c r="K43" t="s">
         <v>64</v>
       </c>
@@ -12491,7 +12530,7 @@
       <c r="FP44" s="1"/>
       <c r="FQ44" s="1"/>
       <c r="FR44" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45">
@@ -12737,7 +12776,7 @@
       <c r="FP45" s="1"/>
       <c r="FQ45" s="1"/>
       <c r="FR45" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46">

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1659" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1843" uniqueCount="272">
   <si>
     <t>crop</t>
   </si>
@@ -270,6 +270,9 @@
     <t>2024-04-15</t>
   </si>
   <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
     <t>sow_fert_type_npk_2</t>
   </si>
   <si>
@@ -322,6 +325,18 @@
   </si>
   <si>
     <t>sow_fert_dose_5</t>
+  </si>
+  <si>
+    <t>sow_fert_date_6</t>
+  </si>
+  <si>
+    <t>sow_fert_type_npk_6</t>
+  </si>
+  <si>
+    <t>sow_fert_type_name_6</t>
+  </si>
+  <si>
+    <t>sow_fert_dose_6</t>
   </si>
   <si>
     <t>transp_harden_date_srt</t>
@@ -859,7 +874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FR46"/>
+  <dimension ref="A1:FV46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -924,469 +939,481 @@
         <v>83</v>
       </c>
       <c r="T1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AH1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL1" t="s">
         <v>107</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN1" t="s">
         <v>112</v>
       </c>
-      <c r="AL1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>122</v>
-      </c>
       <c r="AO1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AP1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AQ1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AR1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT1" t="s">
         <v>130</v>
       </c>
-      <c r="AS1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>132</v>
-      </c>
       <c r="AU1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AV1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AW1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AX1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AY1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AZ1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BA1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BB1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BC1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BD1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BE1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BF1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BG1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BH1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BI1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BJ1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BK1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BL1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BM1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BN1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BO1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BP1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BQ1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BR1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BS1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BT1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BU1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BV1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BW1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BX1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BY1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BZ1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="CA1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CB1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="CC1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CD1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="CE1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CF1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CG1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="CH1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="CI1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="CJ1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CK1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CL1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CM1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CN1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CO1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CP1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CQ1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CR1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CS1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CT1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CU1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CV1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CW1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CX1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CY1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CZ1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DA1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DB1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DC1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DD1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="DE1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="DF1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DG1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="DH1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="DI1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DJ1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="DK1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DL1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DM1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DN1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="DO1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DP1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="DQ1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="DR1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="DS1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DT1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DU1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="DV1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="DW1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DX1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="DY1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DZ1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="EA1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="EB1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="EC1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="ED1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="EE1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="EF1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="EG1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="EH1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="EI1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="EJ1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="EK1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="EL1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="EM1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="EN1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="EO1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="EP1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="EQ1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="ER1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="ES1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="ET1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="EU1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="EV1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="EW1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="EX1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="EY1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EZ1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="FA1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="FB1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="FC1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="FD1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="FE1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="FF1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="FG1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="FH1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="FI1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="FJ1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="FK1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="FL1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="FM1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="FN1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="FO1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="FP1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FQ1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FR1" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>262</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>263</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>264</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2">
@@ -1496,8 +1523,12 @@
       <c r="AL2" t="s">
         <v>62</v>
       </c>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
+      <c r="AM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>62</v>
+      </c>
       <c r="AO2" t="s">
         <v>62</v>
       </c>
@@ -1506,8 +1537,12 @@
       </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
+      <c r="AS2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>62</v>
+      </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
@@ -1635,7 +1670,11 @@
       <c r="FO2" s="1"/>
       <c r="FP2" s="1"/>
       <c r="FQ2" s="1"/>
-      <c r="FR2" t="s">
+      <c r="FR2" s="1"/>
+      <c r="FS2" s="1"/>
+      <c r="FT2" s="1"/>
+      <c r="FU2" s="1"/>
+      <c r="FV2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1705,7 +1744,7 @@
         <v>82</v>
       </c>
       <c r="W3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X3" t="s">
         <v>76</v>
@@ -1741,28 +1780,28 @@
         <v>62</v>
       </c>
       <c r="AI3" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN3" t="s">
         <v>73</v>
       </c>
-      <c r="AK3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>8</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>8</v>
-      </c>
       <c r="AO3" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="AP3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AQ3" s="1">
         <v>8</v>
@@ -1770,10 +1809,18 @@
       <c r="AR3" s="1">
         <v>8</v>
       </c>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
+      <c r="AS3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>8</v>
+      </c>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
@@ -1899,7 +1946,11 @@
       <c r="FO3" s="1"/>
       <c r="FP3" s="1"/>
       <c r="FQ3" s="1"/>
-      <c r="FR3" t="s">
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1969,7 +2020,7 @@
         <v>82</v>
       </c>
       <c r="W4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X4" t="s">
         <v>76</v>
@@ -2011,25 +2062,33 @@
         <v>62</v>
       </c>
       <c r="AK4" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="AL4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM4" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ4" s="1">
         <v>1</v>
       </c>
-      <c r="AN4" s="1"/>
-      <c r="AO4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
+      <c r="AS4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>62</v>
+      </c>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
@@ -2157,7 +2216,11 @@
       <c r="FO4" s="1"/>
       <c r="FP4" s="1"/>
       <c r="FQ4" s="1"/>
-      <c r="FR4" t="s">
+      <c r="FR4" s="1"/>
+      <c r="FS4" s="1"/>
+      <c r="FT4" s="1"/>
+      <c r="FU4" s="1"/>
+      <c r="FV4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2263,28 +2326,28 @@
         <v>62</v>
       </c>
       <c r="AI5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM5" t="s">
         <v>48</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK5" t="s">
+      <c r="AN5" t="s">
         <v>113</v>
       </c>
-      <c r="AL5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>19</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>19</v>
-      </c>
       <c r="AO5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AP5" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AQ5" s="1">
         <v>19</v>
@@ -2292,10 +2355,18 @@
       <c r="AR5" s="1">
         <v>19</v>
       </c>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
+      <c r="AS5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>19</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>19</v>
+      </c>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
@@ -2421,7 +2492,11 @@
       <c r="FO5" s="1"/>
       <c r="FP5" s="1"/>
       <c r="FQ5" s="1"/>
-      <c r="FR5" t="s">
+      <c r="FR5" s="1"/>
+      <c r="FS5" s="1"/>
+      <c r="FT5" s="1"/>
+      <c r="FU5" s="1"/>
+      <c r="FV5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2527,39 +2602,47 @@
         <v>62</v>
       </c>
       <c r="AI6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM6" t="s">
         <v>48</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>18</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>18</v>
+      <c r="AN6" t="s">
+        <v>114</v>
       </c>
       <c r="AO6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AP6" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AQ6" s="1">
         <v>18</v>
       </c>
       <c r="AR6" s="1">
+        <v>18</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>18</v>
+      </c>
+      <c r="AV6" s="1">
         <v>17</v>
       </c>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
@@ -2685,7 +2768,11 @@
       <c r="FO6" s="1"/>
       <c r="FP6" s="1"/>
       <c r="FQ6" s="1"/>
-      <c r="FR6" t="s">
+      <c r="FR6" s="1"/>
+      <c r="FS6" s="1"/>
+      <c r="FT6" s="1"/>
+      <c r="FU6" s="1"/>
+      <c r="FV6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2791,28 +2878,28 @@
         <v>62</v>
       </c>
       <c r="AI7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM7" t="s">
         <v>48</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>20</v>
+      <c r="AN7" t="s">
+        <v>114</v>
       </c>
       <c r="AO7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AP7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AQ7" s="1">
         <v>20</v>
@@ -2820,10 +2907,18 @@
       <c r="AR7" s="1">
         <v>20</v>
       </c>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
+      <c r="AS7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>20</v>
+      </c>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
@@ -2949,7 +3044,11 @@
       <c r="FO7" s="1"/>
       <c r="FP7" s="1"/>
       <c r="FQ7" s="1"/>
-      <c r="FR7" t="s">
+      <c r="FR7" s="1"/>
+      <c r="FS7" s="1"/>
+      <c r="FT7" s="1"/>
+      <c r="FU7" s="1"/>
+      <c r="FV7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3055,28 +3154,28 @@
         <v>62</v>
       </c>
       <c r="AI8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM8" t="s">
         <v>48</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>20</v>
+      <c r="AN8" t="s">
+        <v>114</v>
       </c>
       <c r="AO8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AP8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AQ8" s="1">
         <v>20</v>
@@ -3084,10 +3183,18 @@
       <c r="AR8" s="1">
         <v>20</v>
       </c>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
+      <c r="AS8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>20</v>
+      </c>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
@@ -3213,7 +3320,11 @@
       <c r="FO8" s="1"/>
       <c r="FP8" s="1"/>
       <c r="FQ8" s="1"/>
-      <c r="FR8" t="s">
+      <c r="FR8" s="1"/>
+      <c r="FS8" s="1"/>
+      <c r="FT8" s="1"/>
+      <c r="FU8" s="1"/>
+      <c r="FV8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3297,7 +3408,7 @@
         <v>82</v>
       </c>
       <c r="AA9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB9" t="s">
         <v>76</v>
@@ -3321,33 +3432,41 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM9" t="s">
         <v>73</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM9" s="1">
+      <c r="AN9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ9" s="1">
         <v>16</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AR9" s="1">
         <v>16</v>
       </c>
-      <c r="AO9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
+      <c r="AS9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>62</v>
+      </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
@@ -3475,8 +3594,12 @@
       <c r="FO9" s="1"/>
       <c r="FP9" s="1"/>
       <c r="FQ9" s="1"/>
-      <c r="FR9" t="s">
-        <v>261</v>
+      <c r="FR9" s="1"/>
+      <c r="FS9" s="1"/>
+      <c r="FT9" s="1"/>
+      <c r="FU9" s="1"/>
+      <c r="FV9" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10">
@@ -3559,7 +3682,7 @@
         <v>82</v>
       </c>
       <c r="AA10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB10" t="s">
         <v>76</v>
@@ -3571,7 +3694,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s">
         <v>76</v>
@@ -3583,31 +3706,39 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM10" t="s">
         <v>73</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM10" s="1">
+      <c r="AN10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ10" s="1">
         <v>12</v>
       </c>
-      <c r="AN10" s="1"/>
-      <c r="AO10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
+      <c r="AS10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>62</v>
+      </c>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
@@ -3735,7 +3866,11 @@
       <c r="FO10" s="1"/>
       <c r="FP10" s="1"/>
       <c r="FQ10" s="1"/>
-      <c r="FR10" t="s">
+      <c r="FR10" s="1"/>
+      <c r="FS10" s="1"/>
+      <c r="FT10" s="1"/>
+      <c r="FU10" s="1"/>
+      <c r="FV10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3819,7 +3954,7 @@
         <v>82</v>
       </c>
       <c r="AA11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB11" t="s">
         <v>76</v>
@@ -3831,7 +3966,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="s">
         <v>76</v>
@@ -3843,31 +3978,39 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM11" t="s">
         <v>73</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM11" s="1">
+      <c r="AN11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ11" s="1">
         <v>3</v>
       </c>
-      <c r="AN11" s="1"/>
-      <c r="AO11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
+      <c r="AS11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>62</v>
+      </c>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
@@ -3995,7 +4138,11 @@
       <c r="FO11" s="1"/>
       <c r="FP11" s="1"/>
       <c r="FQ11" s="1"/>
-      <c r="FR11" t="s">
+      <c r="FR11" s="1"/>
+      <c r="FS11" s="1"/>
+      <c r="FT11" s="1"/>
+      <c r="FU11" s="1"/>
+      <c r="FV11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4079,7 +4226,7 @@
         <v>82</v>
       </c>
       <c r="AA12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB12" t="s">
         <v>76</v>
@@ -4091,7 +4238,7 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="s">
         <v>76</v>
@@ -4103,31 +4250,39 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM12" t="s">
         <v>73</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM12" s="1">
+      <c r="AN12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ12" s="1">
         <v>4</v>
       </c>
-      <c r="AN12" s="1"/>
-      <c r="AO12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
+      <c r="AS12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>62</v>
+      </c>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
@@ -4255,7 +4410,11 @@
       <c r="FO12" s="1"/>
       <c r="FP12" s="1"/>
       <c r="FQ12" s="1"/>
-      <c r="FR12" t="s">
+      <c r="FR12" s="1"/>
+      <c r="FS12" s="1"/>
+      <c r="FT12" s="1"/>
+      <c r="FU12" s="1"/>
+      <c r="FV12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4339,7 +4498,7 @@
         <v>82</v>
       </c>
       <c r="AA13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB13" t="s">
         <v>76</v>
@@ -4351,7 +4510,7 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="s">
         <v>76</v>
@@ -4363,31 +4522,39 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="s">
         <v>73</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM13" s="1">
+      <c r="AN13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ13" s="1">
         <v>25</v>
       </c>
-      <c r="AN13" s="1"/>
-      <c r="AO13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
+      <c r="AS13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>62</v>
+      </c>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
@@ -4515,7 +4682,11 @@
       <c r="FO13" s="1"/>
       <c r="FP13" s="1"/>
       <c r="FQ13" s="1"/>
-      <c r="FR13" t="s">
+      <c r="FR13" s="1"/>
+      <c r="FS13" s="1"/>
+      <c r="FT13" s="1"/>
+      <c r="FU13" s="1"/>
+      <c r="FV13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4599,7 +4770,7 @@
         <v>82</v>
       </c>
       <c r="AA14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB14" t="s">
         <v>76</v>
@@ -4611,7 +4782,7 @@
         <v>82</v>
       </c>
       <c r="AE14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="s">
         <v>76</v>
@@ -4623,31 +4794,39 @@
         <v>82</v>
       </c>
       <c r="AI14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM14" t="s">
         <v>73</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM14" s="1">
+      <c r="AN14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ14" s="1">
         <v>5</v>
       </c>
-      <c r="AN14" s="1"/>
-      <c r="AO14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
+      <c r="AS14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>62</v>
+      </c>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
@@ -4775,7 +4954,11 @@
       <c r="FO14" s="1"/>
       <c r="FP14" s="1"/>
       <c r="FQ14" s="1"/>
-      <c r="FR14" t="s">
+      <c r="FR14" s="1"/>
+      <c r="FS14" s="1"/>
+      <c r="FT14" s="1"/>
+      <c r="FU14" s="1"/>
+      <c r="FV14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4859,7 +5042,7 @@
         <v>82</v>
       </c>
       <c r="AA15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB15" t="s">
         <v>76</v>
@@ -4871,7 +5054,7 @@
         <v>82</v>
       </c>
       <c r="AE15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s">
         <v>76</v>
@@ -4883,31 +5066,39 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM15" s="1">
+        <v>82</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ15" s="1">
         <v>3</v>
       </c>
-      <c r="AN15" s="1"/>
-      <c r="AO15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
+      <c r="AS15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>62</v>
+      </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
@@ -5035,7 +5226,11 @@
       <c r="FO15" s="1"/>
       <c r="FP15" s="1"/>
       <c r="FQ15" s="1"/>
-      <c r="FR15" t="s">
+      <c r="FR15" s="1"/>
+      <c r="FS15" s="1"/>
+      <c r="FT15" s="1"/>
+      <c r="FU15" s="1"/>
+      <c r="FV15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5119,7 +5314,7 @@
         <v>82</v>
       </c>
       <c r="AA16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB16" t="s">
         <v>76</v>
@@ -5131,7 +5326,7 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="s">
         <v>76</v>
@@ -5143,31 +5338,39 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AJ16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM16" s="1">
+        <v>82</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ16" s="1">
         <v>6</v>
       </c>
-      <c r="AN16" s="1"/>
-      <c r="AO16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
+      <c r="AS16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>62</v>
+      </c>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
@@ -5295,7 +5498,11 @@
       <c r="FO16" s="1"/>
       <c r="FP16" s="1"/>
       <c r="FQ16" s="1"/>
-      <c r="FR16" t="s">
+      <c r="FR16" s="1"/>
+      <c r="FS16" s="1"/>
+      <c r="FT16" s="1"/>
+      <c r="FU16" s="1"/>
+      <c r="FV16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5379,7 +5586,7 @@
         <v>82</v>
       </c>
       <c r="AA17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB17" t="s">
         <v>76</v>
@@ -5391,7 +5598,7 @@
         <v>82</v>
       </c>
       <c r="AE17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="s">
         <v>76</v>
@@ -5403,31 +5610,39 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM17" s="1">
+        <v>82</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ17" s="1">
         <v>2</v>
       </c>
-      <c r="AN17" s="1"/>
-      <c r="AO17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
+      <c r="AS17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>62</v>
+      </c>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
@@ -5555,7 +5770,11 @@
       <c r="FO17" s="1"/>
       <c r="FP17" s="1"/>
       <c r="FQ17" s="1"/>
-      <c r="FR17" t="s">
+      <c r="FR17" s="1"/>
+      <c r="FS17" s="1"/>
+      <c r="FT17" s="1"/>
+      <c r="FU17" s="1"/>
+      <c r="FV17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5639,7 +5858,7 @@
         <v>82</v>
       </c>
       <c r="AA18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB18" t="s">
         <v>76</v>
@@ -5651,7 +5870,7 @@
         <v>82</v>
       </c>
       <c r="AE18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF18" t="s">
         <v>76</v>
@@ -5663,31 +5882,39 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM18" t="s">
         <v>73</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM18" s="1">
+      <c r="AN18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ18" s="1">
         <v>1</v>
       </c>
-      <c r="AN18" s="1"/>
-      <c r="AO18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
+      <c r="AS18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>62</v>
+      </c>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
@@ -5815,7 +6042,11 @@
       <c r="FO18" s="1"/>
       <c r="FP18" s="1"/>
       <c r="FQ18" s="1"/>
-      <c r="FR18" t="s">
+      <c r="FR18" s="1"/>
+      <c r="FS18" s="1"/>
+      <c r="FT18" s="1"/>
+      <c r="FU18" s="1"/>
+      <c r="FV18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5899,7 +6130,7 @@
         <v>82</v>
       </c>
       <c r="AA19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB19" t="s">
         <v>76</v>
@@ -5911,7 +6142,7 @@
         <v>82</v>
       </c>
       <c r="AE19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF19" t="s">
         <v>76</v>
@@ -5923,31 +6154,39 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM19" t="s">
         <v>73</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM19" s="1">
+      <c r="AN19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ19" s="1">
         <v>2</v>
       </c>
-      <c r="AN19" s="1"/>
-      <c r="AO19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
+      <c r="AS19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>62</v>
+      </c>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
@@ -6075,7 +6314,11 @@
       <c r="FO19" s="1"/>
       <c r="FP19" s="1"/>
       <c r="FQ19" s="1"/>
-      <c r="FR19" t="s">
+      <c r="FR19" s="1"/>
+      <c r="FS19" s="1"/>
+      <c r="FT19" s="1"/>
+      <c r="FU19" s="1"/>
+      <c r="FV19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6159,7 +6402,7 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB20" t="s">
         <v>76</v>
@@ -6171,7 +6414,7 @@
         <v>82</v>
       </c>
       <c r="AE20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF20" t="s">
         <v>76</v>
@@ -6183,31 +6426,39 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM20" t="s">
         <v>73</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM20" s="1">
+      <c r="AN20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ20" s="1">
         <v>3</v>
       </c>
-      <c r="AN20" s="1"/>
-      <c r="AO20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
+      <c r="AS20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>62</v>
+      </c>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
@@ -6335,7 +6586,11 @@
       <c r="FO20" s="1"/>
       <c r="FP20" s="1"/>
       <c r="FQ20" s="1"/>
-      <c r="FR20" t="s">
+      <c r="FR20" s="1"/>
+      <c r="FS20" s="1"/>
+      <c r="FT20" s="1"/>
+      <c r="FU20" s="1"/>
+      <c r="FV20" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6407,7 +6662,7 @@
         <v>82</v>
       </c>
       <c r="W21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X21" t="s">
         <v>76</v>
@@ -6443,36 +6698,44 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM21" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ21" s="1">
         <v>16</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AR21" s="1">
         <v>15</v>
       </c>
-      <c r="AO21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP21" t="s">
+      <c r="AS21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT21" t="s">
         <v>52</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AU21" s="1">
         <v>9</v>
       </c>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
@@ -6599,7 +6862,11 @@
       <c r="FO21" s="1"/>
       <c r="FP21" s="1"/>
       <c r="FQ21" s="1"/>
-      <c r="FR21" t="s">
+      <c r="FR21" s="1"/>
+      <c r="FS21" s="1"/>
+      <c r="FT21" s="1"/>
+      <c r="FU21" s="1"/>
+      <c r="FV21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6671,7 +6938,7 @@
         <v>82</v>
       </c>
       <c r="W22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X22" t="s">
         <v>76</v>
@@ -6707,36 +6974,44 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM22" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ22" s="1">
         <v>16</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AR22" s="1">
         <v>15</v>
       </c>
-      <c r="AO22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP22" t="s">
+      <c r="AS22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT22" t="s">
         <v>52</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AU22" s="1">
         <v>9</v>
       </c>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
@@ -6863,7 +7138,11 @@
       <c r="FO22" s="1"/>
       <c r="FP22" s="1"/>
       <c r="FQ22" s="1"/>
-      <c r="FR22" t="s">
+      <c r="FR22" s="1"/>
+      <c r="FS22" s="1"/>
+      <c r="FT22" s="1"/>
+      <c r="FU22" s="1"/>
+      <c r="FV22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6935,7 +7214,7 @@
         <v>82</v>
       </c>
       <c r="W23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X23" t="s">
         <v>76</v>
@@ -6971,36 +7250,44 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM23" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ23" s="1">
         <v>12</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AR23" s="1">
         <v>12</v>
       </c>
-      <c r="AO23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP23" t="s">
+      <c r="AS23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT23" t="s">
         <v>52</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AU23" s="1">
         <v>8</v>
       </c>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
@@ -7127,7 +7414,11 @@
       <c r="FO23" s="1"/>
       <c r="FP23" s="1"/>
       <c r="FQ23" s="1"/>
-      <c r="FR23" t="s">
+      <c r="FR23" s="1"/>
+      <c r="FS23" s="1"/>
+      <c r="FT23" s="1"/>
+      <c r="FU23" s="1"/>
+      <c r="FV23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7199,7 +7490,7 @@
         <v>82</v>
       </c>
       <c r="W24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X24" t="s">
         <v>76</v>
@@ -7235,36 +7526,44 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM24" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ24" s="1">
         <v>13</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AR24" s="1">
         <v>12</v>
       </c>
-      <c r="AO24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP24" t="s">
+      <c r="AS24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT24" t="s">
         <v>52</v>
       </c>
-      <c r="AQ24" s="1">
+      <c r="AU24" s="1">
         <v>8</v>
       </c>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
@@ -7391,7 +7690,11 @@
       <c r="FO24" s="1"/>
       <c r="FP24" s="1"/>
       <c r="FQ24" s="1"/>
-      <c r="FR24" t="s">
+      <c r="FR24" s="1"/>
+      <c r="FS24" s="1"/>
+      <c r="FT24" s="1"/>
+      <c r="FU24" s="1"/>
+      <c r="FV24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7463,20 +7766,20 @@
         <v>82</v>
       </c>
       <c r="W25" t="s">
+        <v>91</v>
+      </c>
+      <c r="X25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA25" t="s">
         <v>90</v>
       </c>
-      <c r="X25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>89</v>
-      </c>
       <c r="AB25" t="s">
         <v>76</v>
       </c>
@@ -7499,28 +7802,28 @@
         <v>62</v>
       </c>
       <c r="AI25" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN25" t="s">
         <v>73</v>
       </c>
-      <c r="AK25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM25" s="1">
-        <v>8</v>
-      </c>
-      <c r="AN25" s="1">
-        <v>8</v>
-      </c>
       <c r="AO25" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="AP25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AQ25" s="1">
         <v>8</v>
@@ -7528,10 +7831,18 @@
       <c r="AR25" s="1">
         <v>8</v>
       </c>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
+      <c r="AS25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>8</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>8</v>
+      </c>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1"/>
@@ -7657,7 +7968,11 @@
       <c r="FO25" s="1"/>
       <c r="FP25" s="1"/>
       <c r="FQ25" s="1"/>
-      <c r="FR25" t="s">
+      <c r="FR25" s="1"/>
+      <c r="FS25" s="1"/>
+      <c r="FT25" s="1"/>
+      <c r="FU25" s="1"/>
+      <c r="FV25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7729,7 +8044,7 @@
         <v>82</v>
       </c>
       <c r="W26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X26" t="s">
         <v>76</v>
@@ -7765,39 +8080,47 @@
         <v>62</v>
       </c>
       <c r="AI26" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ26" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM26" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ26" s="1">
         <v>21</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AR26" s="1">
         <v>21</v>
       </c>
-      <c r="AO26" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ26" s="1">
+      <c r="AS26" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU26" s="1">
         <v>20</v>
       </c>
-      <c r="AR26" s="1">
+      <c r="AV26" s="1">
         <v>19</v>
       </c>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
-      <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1"/>
@@ -7923,8 +8246,12 @@
       <c r="FO26" s="1"/>
       <c r="FP26" s="1"/>
       <c r="FQ26" s="1"/>
-      <c r="FR26" t="s">
-        <v>262</v>
+      <c r="FR26" s="1"/>
+      <c r="FS26" s="1"/>
+      <c r="FT26" s="1"/>
+      <c r="FU26" s="1"/>
+      <c r="FV26" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="27">
@@ -7995,7 +8322,7 @@
         <v>82</v>
       </c>
       <c r="W27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X27" t="s">
         <v>76</v>
@@ -8031,31 +8358,39 @@
         <v>62</v>
       </c>
       <c r="AI27" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AJ27" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM27" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ27" s="1">
         <v>3</v>
       </c>
-      <c r="AN27" s="1"/>
-      <c r="AO27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
+      <c r="AS27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>62</v>
+      </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
@@ -8183,7 +8518,11 @@
       <c r="FO27" s="1"/>
       <c r="FP27" s="1"/>
       <c r="FQ27" s="1"/>
-      <c r="FR27" t="s">
+      <c r="FR27" s="1"/>
+      <c r="FS27" s="1"/>
+      <c r="FT27" s="1"/>
+      <c r="FU27" s="1"/>
+      <c r="FV27" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8255,7 +8594,7 @@
         <v>82</v>
       </c>
       <c r="W28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X28" t="s">
         <v>76</v>
@@ -8291,31 +8630,39 @@
         <v>62</v>
       </c>
       <c r="AI28" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ28" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM28" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ28" s="1">
         <v>3</v>
       </c>
-      <c r="AN28" s="1"/>
-      <c r="AO28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
+      <c r="AS28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>62</v>
+      </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
@@ -8443,8 +8790,12 @@
       <c r="FO28" s="1"/>
       <c r="FP28" s="1"/>
       <c r="FQ28" s="1"/>
-      <c r="FR28" t="s">
-        <v>263</v>
+      <c r="FR28" s="1"/>
+      <c r="FS28" s="1"/>
+      <c r="FT28" s="1"/>
+      <c r="FU28" s="1"/>
+      <c r="FV28" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -8515,7 +8866,7 @@
         <v>82</v>
       </c>
       <c r="W29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X29" t="s">
         <v>76</v>
@@ -8551,31 +8902,39 @@
         <v>62</v>
       </c>
       <c r="AI29" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ29" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM29" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ29" s="1">
         <v>6</v>
       </c>
-      <c r="AN29" s="1"/>
-      <c r="AO29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
-      <c r="AT29" s="1"/>
+      <c r="AS29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>62</v>
+      </c>
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
@@ -8703,8 +9062,12 @@
       <c r="FO29" s="1"/>
       <c r="FP29" s="1"/>
       <c r="FQ29" s="1"/>
-      <c r="FR29" t="s">
-        <v>263</v>
+      <c r="FR29" s="1"/>
+      <c r="FS29" s="1"/>
+      <c r="FT29" s="1"/>
+      <c r="FU29" s="1"/>
+      <c r="FV29" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="30">
@@ -8775,7 +9138,7 @@
         <v>82</v>
       </c>
       <c r="W30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X30" t="s">
         <v>76</v>
@@ -8811,31 +9174,39 @@
         <v>62</v>
       </c>
       <c r="AI30" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ30" t="s">
         <v>62</v>
       </c>
       <c r="AK30" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL30" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM30" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ30" s="1">
         <v>12</v>
       </c>
-      <c r="AN30" s="1"/>
-      <c r="AO30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
+      <c r="AS30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>62</v>
+      </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
@@ -8963,7 +9334,11 @@
       <c r="FO30" s="1"/>
       <c r="FP30" s="1"/>
       <c r="FQ30" s="1"/>
-      <c r="FR30" t="s">
+      <c r="FR30" s="1"/>
+      <c r="FS30" s="1"/>
+      <c r="FT30" s="1"/>
+      <c r="FU30" s="1"/>
+      <c r="FV30" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9035,7 +9410,7 @@
         <v>82</v>
       </c>
       <c r="W31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X31" t="s">
         <v>76</v>
@@ -9071,31 +9446,39 @@
         <v>62</v>
       </c>
       <c r="AI31" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ31" t="s">
         <v>62</v>
       </c>
       <c r="AK31" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM31" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ31" s="1">
         <v>15</v>
       </c>
-      <c r="AN31" s="1"/>
-      <c r="AO31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
+      <c r="AS31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>62</v>
+      </c>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
@@ -9223,8 +9606,12 @@
       <c r="FO31" s="1"/>
       <c r="FP31" s="1"/>
       <c r="FQ31" s="1"/>
-      <c r="FR31" t="s">
-        <v>264</v>
+      <c r="FR31" s="1"/>
+      <c r="FS31" s="1"/>
+      <c r="FT31" s="1"/>
+      <c r="FU31" s="1"/>
+      <c r="FV31" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="32">
@@ -9295,7 +9682,7 @@
         <v>82</v>
       </c>
       <c r="W32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X32" t="s">
         <v>76</v>
@@ -9331,31 +9718,39 @@
         <v>62</v>
       </c>
       <c r="AI32" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ32" t="s">
         <v>62</v>
       </c>
       <c r="AK32" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM32" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ32" s="1">
         <v>11</v>
       </c>
-      <c r="AN32" s="1"/>
-      <c r="AO32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
+      <c r="AS32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>62</v>
+      </c>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
@@ -9483,8 +9878,12 @@
       <c r="FO32" s="1"/>
       <c r="FP32" s="1"/>
       <c r="FQ32" s="1"/>
-      <c r="FR32" t="s">
-        <v>265</v>
+      <c r="FR32" s="1"/>
+      <c r="FS32" s="1"/>
+      <c r="FT32" s="1"/>
+      <c r="FU32" s="1"/>
+      <c r="FV32" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="33">
@@ -9555,7 +9954,7 @@
         <v>82</v>
       </c>
       <c r="W33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X33" t="s">
         <v>76</v>
@@ -9591,31 +9990,39 @@
         <v>62</v>
       </c>
       <c r="AI33" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AJ33" t="s">
         <v>62</v>
       </c>
       <c r="AK33" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AL33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM33" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ33" s="1">
         <v>15</v>
       </c>
-      <c r="AN33" s="1"/>
-      <c r="AO33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
+      <c r="AS33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>62</v>
+      </c>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
@@ -9743,8 +10150,12 @@
       <c r="FO33" s="1"/>
       <c r="FP33" s="1"/>
       <c r="FQ33" s="1"/>
-      <c r="FR33" t="s">
-        <v>264</v>
+      <c r="FR33" s="1"/>
+      <c r="FS33" s="1"/>
+      <c r="FT33" s="1"/>
+      <c r="FU33" s="1"/>
+      <c r="FV33" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="34">
@@ -9858,8 +10269,12 @@
       <c r="AL34" t="s">
         <v>62</v>
       </c>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
+      <c r="AM34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>62</v>
+      </c>
       <c r="AO34" t="s">
         <v>62</v>
       </c>
@@ -9868,8 +10283,12 @@
       </c>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
+      <c r="AS34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>62</v>
+      </c>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
@@ -9997,7 +10416,11 @@
       <c r="FO34" s="1"/>
       <c r="FP34" s="1"/>
       <c r="FQ34" s="1"/>
-      <c r="FR34" t="s">
+      <c r="FR34" s="1"/>
+      <c r="FS34" s="1"/>
+      <c r="FT34" s="1"/>
+      <c r="FU34" s="1"/>
+      <c r="FV34" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10112,8 +10535,12 @@
       <c r="AL35" t="s">
         <v>62</v>
       </c>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
+      <c r="AM35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>62</v>
+      </c>
       <c r="AO35" t="s">
         <v>62</v>
       </c>
@@ -10122,8 +10549,12 @@
       </c>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
+      <c r="AS35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>62</v>
+      </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
@@ -10251,7 +10682,11 @@
       <c r="FO35" s="1"/>
       <c r="FP35" s="1"/>
       <c r="FQ35" s="1"/>
-      <c r="FR35" t="s">
+      <c r="FR35" s="1"/>
+      <c r="FS35" s="1"/>
+      <c r="FT35" s="1"/>
+      <c r="FU35" s="1"/>
+      <c r="FV35" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10366,8 +10801,12 @@
       <c r="AL36" t="s">
         <v>62</v>
       </c>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
+      <c r="AM36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>62</v>
+      </c>
       <c r="AO36" t="s">
         <v>62</v>
       </c>
@@ -10376,8 +10815,12 @@
       </c>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
+      <c r="AS36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>62</v>
+      </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
@@ -10505,7 +10948,11 @@
       <c r="FO36" s="1"/>
       <c r="FP36" s="1"/>
       <c r="FQ36" s="1"/>
-      <c r="FR36" t="s">
+      <c r="FR36" s="1"/>
+      <c r="FS36" s="1"/>
+      <c r="FT36" s="1"/>
+      <c r="FU36" s="1"/>
+      <c r="FV36" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10620,8 +11067,12 @@
       <c r="AL37" t="s">
         <v>62</v>
       </c>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
+      <c r="AM37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>62</v>
+      </c>
       <c r="AO37" t="s">
         <v>62</v>
       </c>
@@ -10630,8 +11081,12 @@
       </c>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
+      <c r="AS37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>62</v>
+      </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
@@ -10759,7 +11214,11 @@
       <c r="FO37" s="1"/>
       <c r="FP37" s="1"/>
       <c r="FQ37" s="1"/>
-      <c r="FR37" t="s">
+      <c r="FR37" s="1"/>
+      <c r="FS37" s="1"/>
+      <c r="FT37" s="1"/>
+      <c r="FU37" s="1"/>
+      <c r="FV37" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10874,8 +11333,12 @@
       <c r="AL38" t="s">
         <v>62</v>
       </c>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
+      <c r="AM38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>62</v>
+      </c>
       <c r="AO38" t="s">
         <v>62</v>
       </c>
@@ -10884,8 +11347,12 @@
       </c>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
+      <c r="AS38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>62</v>
+      </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
@@ -11013,7 +11480,11 @@
       <c r="FO38" s="1"/>
       <c r="FP38" s="1"/>
       <c r="FQ38" s="1"/>
-      <c r="FR38" t="s">
+      <c r="FR38" s="1"/>
+      <c r="FS38" s="1"/>
+      <c r="FT38" s="1"/>
+      <c r="FU38" s="1"/>
+      <c r="FV38" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11069,16 +11540,16 @@
         <v>82</v>
       </c>
       <c r="S39" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="T39" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="W39" t="s">
         <v>62</v>
@@ -11128,8 +11599,12 @@
       <c r="AL39" t="s">
         <v>62</v>
       </c>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
+      <c r="AM39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>62</v>
+      </c>
       <c r="AO39" t="s">
         <v>62</v>
       </c>
@@ -11138,8 +11613,12 @@
       </c>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
+      <c r="AS39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>62</v>
+      </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
       <c r="AW39" s="1"/>
@@ -11267,7 +11746,11 @@
       <c r="FO39" s="1"/>
       <c r="FP39" s="1"/>
       <c r="FQ39" s="1"/>
-      <c r="FR39" t="s">
+      <c r="FR39" s="1"/>
+      <c r="FS39" s="1"/>
+      <c r="FT39" s="1"/>
+      <c r="FU39" s="1"/>
+      <c r="FV39" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11323,16 +11806,16 @@
         <v>82</v>
       </c>
       <c r="S40" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="T40" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="W40" t="s">
         <v>62</v>
@@ -11382,8 +11865,12 @@
       <c r="AL40" t="s">
         <v>62</v>
       </c>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
+      <c r="AM40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>62</v>
+      </c>
       <c r="AO40" t="s">
         <v>62</v>
       </c>
@@ -11392,8 +11879,12 @@
       </c>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
+      <c r="AS40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>62</v>
+      </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
@@ -11521,7 +12012,11 @@
       <c r="FO40" s="1"/>
       <c r="FP40" s="1"/>
       <c r="FQ40" s="1"/>
-      <c r="FR40" t="s">
+      <c r="FR40" s="1"/>
+      <c r="FS40" s="1"/>
+      <c r="FT40" s="1"/>
+      <c r="FU40" s="1"/>
+      <c r="FV40" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11577,16 +12072,16 @@
         <v>82</v>
       </c>
       <c r="S41" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="T41" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="U41" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="W41" t="s">
         <v>62</v>
@@ -11636,8 +12131,12 @@
       <c r="AL41" t="s">
         <v>62</v>
       </c>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
+      <c r="AM41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>62</v>
+      </c>
       <c r="AO41" t="s">
         <v>62</v>
       </c>
@@ -11646,8 +12145,12 @@
       </c>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
+      <c r="AS41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>62</v>
+      </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
@@ -11775,7 +12278,11 @@
       <c r="FO41" s="1"/>
       <c r="FP41" s="1"/>
       <c r="FQ41" s="1"/>
-      <c r="FR41" t="s">
+      <c r="FR41" s="1"/>
+      <c r="FS41" s="1"/>
+      <c r="FT41" s="1"/>
+      <c r="FU41" s="1"/>
+      <c r="FV41" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11831,16 +12338,16 @@
         <v>82</v>
       </c>
       <c r="S42" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="T42" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="W42" t="s">
         <v>62</v>
@@ -11890,8 +12397,12 @@
       <c r="AL42" t="s">
         <v>62</v>
       </c>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
+      <c r="AM42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>62</v>
+      </c>
       <c r="AO42" t="s">
         <v>62</v>
       </c>
@@ -11900,8 +12411,12 @@
       </c>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
+      <c r="AS42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>62</v>
+      </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
@@ -12029,7 +12544,11 @@
       <c r="FO42" s="1"/>
       <c r="FP42" s="1"/>
       <c r="FQ42" s="1"/>
-      <c r="FR42" t="s">
+      <c r="FR42" s="1"/>
+      <c r="FS42" s="1"/>
+      <c r="FT42" s="1"/>
+      <c r="FU42" s="1"/>
+      <c r="FV42" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12085,16 +12604,16 @@
         <v>82</v>
       </c>
       <c r="S43" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="T43" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="W43" t="s">
         <v>62</v>
@@ -12144,8 +12663,12 @@
       <c r="AL43" t="s">
         <v>62</v>
       </c>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
+      <c r="AM43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>62</v>
+      </c>
       <c r="AO43" t="s">
         <v>62</v>
       </c>
@@ -12154,8 +12677,12 @@
       </c>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
+      <c r="AS43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>62</v>
+      </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
@@ -12283,7 +12810,11 @@
       <c r="FO43" s="1"/>
       <c r="FP43" s="1"/>
       <c r="FQ43" s="1"/>
-      <c r="FR43" t="s">
+      <c r="FR43" s="1"/>
+      <c r="FS43" s="1"/>
+      <c r="FT43" s="1"/>
+      <c r="FU43" s="1"/>
+      <c r="FV43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12390,8 +12921,12 @@
       <c r="AL44" t="s">
         <v>62</v>
       </c>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="1"/>
+      <c r="AM44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>62</v>
+      </c>
       <c r="AO44" t="s">
         <v>62</v>
       </c>
@@ -12400,8 +12935,12 @@
       </c>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
-      <c r="AS44" s="1"/>
-      <c r="AT44" s="1"/>
+      <c r="AS44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>62</v>
+      </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
@@ -12529,8 +13068,12 @@
       <c r="FO44" s="1"/>
       <c r="FP44" s="1"/>
       <c r="FQ44" s="1"/>
-      <c r="FR44" t="s">
-        <v>266</v>
+      <c r="FR44" s="1"/>
+      <c r="FS44" s="1"/>
+      <c r="FT44" s="1"/>
+      <c r="FU44" s="1"/>
+      <c r="FV44" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="45">
@@ -12636,8 +13179,12 @@
       <c r="AL45" t="s">
         <v>62</v>
       </c>
-      <c r="AM45" s="1"/>
-      <c r="AN45" s="1"/>
+      <c r="AM45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>62</v>
+      </c>
       <c r="AO45" t="s">
         <v>62</v>
       </c>
@@ -12646,8 +13193,12 @@
       </c>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
-      <c r="AS45" s="1"/>
-      <c r="AT45" s="1"/>
+      <c r="AS45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>62</v>
+      </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="1"/>
@@ -12775,8 +13326,12 @@
       <c r="FO45" s="1"/>
       <c r="FP45" s="1"/>
       <c r="FQ45" s="1"/>
-      <c r="FR45" t="s">
-        <v>266</v>
+      <c r="FR45" s="1"/>
+      <c r="FS45" s="1"/>
+      <c r="FT45" s="1"/>
+      <c r="FU45" s="1"/>
+      <c r="FV45" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="46">
@@ -12882,8 +13437,12 @@
       <c r="AL46" t="s">
         <v>62</v>
       </c>
-      <c r="AM46" s="1"/>
-      <c r="AN46" s="1"/>
+      <c r="AM46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>62</v>
+      </c>
       <c r="AO46" t="s">
         <v>62</v>
       </c>
@@ -12892,8 +13451,12 @@
       </c>
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
-      <c r="AS46" s="1"/>
-      <c r="AT46" s="1"/>
+      <c r="AS46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>62</v>
+      </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
@@ -13021,7 +13584,11 @@
       <c r="FO46" s="1"/>
       <c r="FP46" s="1"/>
       <c r="FQ46" s="1"/>
-      <c r="FR46" t="s">
+      <c r="FR46" s="1"/>
+      <c r="FS46" s="1"/>
+      <c r="FT46" s="1"/>
+      <c r="FU46" s="1"/>
+      <c r="FV46" t="s">
         <v>62</v>
       </c>
     </row>

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4988" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5284" uniqueCount="351">
   <si>
     <t>crop</t>
   </si>
@@ -549,6 +549,9 @@
     <t>1-3-1</t>
   </si>
   <si>
+    <t>0-0-17</t>
+  </si>
+  <si>
     <t>fert_type_name_2</t>
   </si>
   <si>
@@ -558,6 +561,9 @@
     <t>Espoma- Organic Tomato! (liquid)</t>
   </si>
   <si>
+    <t>MaxiCrop Soluble Seaweed</t>
+  </si>
+  <si>
     <t>fert_date_2</t>
   </si>
   <si>
@@ -570,12 +576,18 @@
     <t>09jul2024</t>
   </si>
   <si>
+    <t>2024-07-28</t>
+  </si>
+  <si>
     <t>fert_amnt_per_2</t>
   </si>
   <si>
     <t>fert_unit_2</t>
   </si>
   <si>
+    <t>gallon</t>
+  </si>
+  <si>
     <t>fert_type_npk_3</t>
   </si>
   <si>
@@ -717,6 +729,9 @@
     <t>2024-06-15</t>
   </si>
   <si>
+    <t>2024-07-27</t>
+  </si>
+  <si>
     <t>2024-06-29</t>
   </si>
   <si>
@@ -744,6 +759,9 @@
     <t>2024-06-22</t>
   </si>
   <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
     <t>harvest_amnt_2</t>
   </si>
   <si>
@@ -769,9 +787,6 @@
   </si>
   <si>
     <t>harvest_date_5</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
   </si>
   <si>
     <t>harvest_amnt_5</t>
@@ -1268,376 +1283,376 @@
         <v>175</v>
       </c>
       <c r="BC1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BD1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BE1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BF1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BG1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="BH1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="BI1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="BJ1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="BK1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="BL1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BM1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="BN1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="BO1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BP1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BQ1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="BR1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="BS1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BT1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="BU1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="BV1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BW1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BX1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="BY1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="BZ1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="CA1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="CB1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="CC1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="CD1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="CE1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="CF1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="CG1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="CH1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="CI1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="CJ1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="CK1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="CL1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="CM1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="CN1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="CO1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="CP1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="CQ1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="CR1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="CS1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="CT1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="CU1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="CV1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="CW1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="CX1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CY1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="CZ1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="DA1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="DB1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="DC1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="DD1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="DE1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="DF1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="DG1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="DH1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="DI1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="DJ1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="DK1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="DL1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="DM1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="DN1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="DO1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="DP1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="DQ1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="DR1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="DS1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="DT1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="DU1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="DV1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="DW1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="DX1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="DY1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="DZ1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="EA1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="EB1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="EC1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="ED1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="EE1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="EF1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="EG1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="EH1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="EI1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="EJ1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="EK1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="EL1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="EM1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="EN1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="EO1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="EP1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="EQ1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="ER1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="ES1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="ET1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="EU1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="EV1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="EW1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="EX1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="EY1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="EZ1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="FA1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="FB1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="FC1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="FD1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="FE1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="FF1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="FG1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="FH1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="FI1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="FJ1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="FK1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="FL1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="FM1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="FN1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="FO1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="FP1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="FQ1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="FR1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="FS1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="FT1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="FU1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="FV1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
@@ -1851,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="CL2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CM2" t="s">
         <v>63</v>
@@ -1860,7 +1875,7 @@
         <v>29</v>
       </c>
       <c r="CO2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CP2" t="s">
         <v>77</v>
@@ -1883,12 +1898,20 @@
       <c r="CX2" t="s">
         <v>77</v>
       </c>
-      <c r="CY2" s="1"/>
+      <c r="CY2" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
-      <c r="DB2" s="1"/>
+      <c r="DA2" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>77</v>
+      </c>
       <c r="DC2" s="1"/>
-      <c r="DD2" s="1"/>
+      <c r="DD2" t="s">
+        <v>77</v>
+      </c>
       <c r="DE2" s="1"/>
       <c r="DF2" s="1"/>
       <c r="DG2" s="1"/>
@@ -2127,7 +2150,7 @@
         <v>94</v>
       </c>
       <c r="BD3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BE3" s="1">
         <v>1</v>
@@ -2217,12 +2240,20 @@
       <c r="CX3" t="s">
         <v>77</v>
       </c>
-      <c r="CY3" s="1"/>
+      <c r="CY3" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ3" s="1"/>
-      <c r="DA3" s="1"/>
-      <c r="DB3" s="1"/>
+      <c r="DA3" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>77</v>
+      </c>
       <c r="DC3" s="1"/>
-      <c r="DD3" s="1"/>
+      <c r="DD3" t="s">
+        <v>77</v>
+      </c>
       <c r="DE3" s="1"/>
       <c r="DF3" s="1"/>
       <c r="DG3" s="1"/>
@@ -2543,12 +2574,20 @@
       <c r="CX4" t="s">
         <v>77</v>
       </c>
-      <c r="CY4" s="1"/>
+      <c r="CY4" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ4" s="1"/>
-      <c r="DA4" s="1"/>
-      <c r="DB4" s="1"/>
+      <c r="DA4" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>77</v>
+      </c>
       <c r="DC4" s="1"/>
-      <c r="DD4" s="1"/>
+      <c r="DD4" t="s">
+        <v>77</v>
+      </c>
       <c r="DE4" s="1"/>
       <c r="DF4" s="1"/>
       <c r="DG4" s="1"/>
@@ -2875,12 +2914,20 @@
       <c r="CX5" t="s">
         <v>77</v>
       </c>
-      <c r="CY5" s="1"/>
+      <c r="CY5" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ5" s="1"/>
-      <c r="DA5" s="1"/>
-      <c r="DB5" s="1"/>
+      <c r="DA5" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>77</v>
+      </c>
       <c r="DC5" s="1"/>
-      <c r="DD5" s="1"/>
+      <c r="DD5" t="s">
+        <v>77</v>
+      </c>
       <c r="DE5" s="1"/>
       <c r="DF5" s="1"/>
       <c r="DG5" s="1"/>
@@ -3207,12 +3254,20 @@
       <c r="CX6" t="s">
         <v>77</v>
       </c>
-      <c r="CY6" s="1"/>
+      <c r="CY6" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ6" s="1"/>
-      <c r="DA6" s="1"/>
-      <c r="DB6" s="1"/>
+      <c r="DA6" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>77</v>
+      </c>
       <c r="DC6" s="1"/>
-      <c r="DD6" s="1"/>
+      <c r="DD6" t="s">
+        <v>77</v>
+      </c>
       <c r="DE6" s="1"/>
       <c r="DF6" s="1"/>
       <c r="DG6" s="1"/>
@@ -3539,12 +3594,20 @@
       <c r="CX7" t="s">
         <v>77</v>
       </c>
-      <c r="CY7" s="1"/>
+      <c r="CY7" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ7" s="1"/>
-      <c r="DA7" s="1"/>
-      <c r="DB7" s="1"/>
+      <c r="DA7" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>77</v>
+      </c>
       <c r="DC7" s="1"/>
-      <c r="DD7" s="1"/>
+      <c r="DD7" t="s">
+        <v>77</v>
+      </c>
       <c r="DE7" s="1"/>
       <c r="DF7" s="1"/>
       <c r="DG7" s="1"/>
@@ -3871,12 +3934,20 @@
       <c r="CX8" t="s">
         <v>77</v>
       </c>
-      <c r="CY8" s="1"/>
+      <c r="CY8" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ8" s="1"/>
-      <c r="DA8" s="1"/>
-      <c r="DB8" s="1"/>
+      <c r="DA8" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>77</v>
+      </c>
       <c r="DC8" s="1"/>
-      <c r="DD8" s="1"/>
+      <c r="DD8" t="s">
+        <v>77</v>
+      </c>
       <c r="DE8" s="1"/>
       <c r="DF8" s="1"/>
       <c r="DG8" s="1"/>
@@ -4135,13 +4206,13 @@
         <v>77</v>
       </c>
       <c r="BL9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="BM9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="BN9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BO9" s="2"/>
       <c r="BP9" s="1"/>
@@ -4149,13 +4220,13 @@
       <c r="BR9" s="1"/>
       <c r="BS9" s="1"/>
       <c r="BT9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="BU9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BV9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BW9" s="2"/>
       <c r="BX9" s="1"/>
@@ -4177,14 +4248,16 @@
         <v>5</v>
       </c>
       <c r="CL9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CM9" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN9" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>5</v>
+      </c>
       <c r="CO9" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="CP9" t="s">
         <v>77</v>
@@ -4207,12 +4280,20 @@
       <c r="CX9" t="s">
         <v>77</v>
       </c>
-      <c r="CY9" s="1"/>
+      <c r="CY9" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ9" s="1"/>
-      <c r="DA9" s="1"/>
-      <c r="DB9" s="1"/>
+      <c r="DA9" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>77</v>
+      </c>
       <c r="DC9" s="1"/>
-      <c r="DD9" s="1"/>
+      <c r="DD9" t="s">
+        <v>77</v>
+      </c>
       <c r="DE9" s="1"/>
       <c r="DF9" s="1"/>
       <c r="DG9" s="1"/>
@@ -4283,7 +4364,7 @@
       <c r="FT9" s="1"/>
       <c r="FU9" s="1"/>
       <c r="FV9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
@@ -4450,10 +4531,10 @@
         <v>176</v>
       </c>
       <c r="BC10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE10" s="1">
         <v>3</v>
@@ -4509,31 +4590,31 @@
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
       <c r="CJ10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="CK10" s="1">
         <v>4</v>
       </c>
       <c r="CL10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CM10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CN10" s="1">
         <v>2</v>
       </c>
       <c r="CO10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CP10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="CQ10" s="1">
         <v>6</v>
       </c>
       <c r="CR10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CS10" t="s">
         <v>77</v>
@@ -4549,12 +4630,20 @@
       <c r="CX10" t="s">
         <v>77</v>
       </c>
-      <c r="CY10" s="1"/>
+      <c r="CY10" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ10" s="1"/>
-      <c r="DA10" s="1"/>
-      <c r="DB10" s="1"/>
+      <c r="DA10" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>77</v>
+      </c>
       <c r="DC10" s="1"/>
-      <c r="DD10" s="1"/>
+      <c r="DD10" t="s">
+        <v>77</v>
+      </c>
       <c r="DE10" s="1"/>
       <c r="DF10" s="1"/>
       <c r="DG10" s="1"/>
@@ -4625,7 +4714,7 @@
       <c r="FT10" s="1"/>
       <c r="FU10" s="1"/>
       <c r="FV10" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11">
@@ -4792,10 +4881,10 @@
         <v>176</v>
       </c>
       <c r="BC11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE11" s="1">
         <v>3</v>
@@ -4885,12 +4974,20 @@
       <c r="CX11" t="s">
         <v>77</v>
       </c>
-      <c r="CY11" s="1"/>
+      <c r="CY11" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ11" s="1"/>
-      <c r="DA11" s="1"/>
-      <c r="DB11" s="1"/>
+      <c r="DA11" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>77</v>
+      </c>
       <c r="DC11" s="1"/>
-      <c r="DD11" s="1"/>
+      <c r="DD11" t="s">
+        <v>77</v>
+      </c>
       <c r="DE11" s="1"/>
       <c r="DF11" s="1"/>
       <c r="DG11" s="1"/>
@@ -4961,7 +5058,7 @@
       <c r="FT11" s="1"/>
       <c r="FU11" s="1"/>
       <c r="FV11" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12">
@@ -5128,10 +5225,10 @@
         <v>176</v>
       </c>
       <c r="BC12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE12" s="1">
         <v>3</v>
@@ -5187,13 +5284,13 @@
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
       <c r="CJ12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CK12" s="1">
         <v>4</v>
       </c>
       <c r="CL12" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM12" t="s">
         <v>165</v>
@@ -5202,16 +5299,16 @@
         <v>4</v>
       </c>
       <c r="CO12" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CP12" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="CQ12" s="1">
         <v>7</v>
       </c>
       <c r="CR12" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CS12" t="s">
         <v>77</v>
@@ -5227,12 +5324,20 @@
       <c r="CX12" t="s">
         <v>77</v>
       </c>
-      <c r="CY12" s="1"/>
+      <c r="CY12" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ12" s="1"/>
-      <c r="DA12" s="1"/>
-      <c r="DB12" s="1"/>
+      <c r="DA12" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>77</v>
+      </c>
       <c r="DC12" s="1"/>
-      <c r="DD12" s="1"/>
+      <c r="DD12" t="s">
+        <v>77</v>
+      </c>
       <c r="DE12" s="1"/>
       <c r="DF12" s="1"/>
       <c r="DG12" s="1"/>
@@ -5303,7 +5408,7 @@
       <c r="FT12" s="1"/>
       <c r="FU12" s="1"/>
       <c r="FV12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13">
@@ -5470,10 +5575,10 @@
         <v>176</v>
       </c>
       <c r="BC13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE13" s="1">
         <v>3</v>
@@ -5529,13 +5634,13 @@
       <c r="CH13" s="1"/>
       <c r="CI13" s="1"/>
       <c r="CJ13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CK13" s="1">
         <v>12</v>
       </c>
       <c r="CL13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM13" t="s">
         <v>165</v>
@@ -5544,23 +5649,23 @@
         <v>8</v>
       </c>
       <c r="CO13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>246</v>
+      </c>
+      <c r="CQ13" s="1">
+        <v>10</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS13" t="s">
         <v>238</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>241</v>
-      </c>
-      <c r="CQ13" s="1">
-        <v>16</v>
-      </c>
-      <c r="CR13" t="s">
-        <v>238</v>
-      </c>
-      <c r="CS13" t="s">
-        <v>77</v>
       </c>
       <c r="CT13" s="1"/>
       <c r="CU13" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CV13" t="s">
         <v>77</v>
@@ -5569,12 +5674,20 @@
       <c r="CX13" t="s">
         <v>77</v>
       </c>
-      <c r="CY13" s="1"/>
+      <c r="CY13" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ13" s="1"/>
-      <c r="DA13" s="1"/>
-      <c r="DB13" s="1"/>
+      <c r="DA13" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>77</v>
+      </c>
       <c r="DC13" s="1"/>
-      <c r="DD13" s="1"/>
+      <c r="DD13" t="s">
+        <v>77</v>
+      </c>
       <c r="DE13" s="1"/>
       <c r="DF13" s="1"/>
       <c r="DG13" s="1"/>
@@ -5645,7 +5758,7 @@
       <c r="FT13" s="1"/>
       <c r="FU13" s="1"/>
       <c r="FV13" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14">
@@ -5812,10 +5925,10 @@
         <v>176</v>
       </c>
       <c r="BC14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE14" s="1">
         <v>3</v>
@@ -5871,13 +5984,13 @@
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
       <c r="CJ14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CK14" s="1">
         <v>1</v>
       </c>
       <c r="CL14" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CM14" t="s">
         <v>165</v>
@@ -5886,16 +5999,16 @@
         <v>8</v>
       </c>
       <c r="CO14" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CP14" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="CQ14" s="1">
         <v>5</v>
       </c>
       <c r="CR14" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CS14" t="s">
         <v>77</v>
@@ -5911,12 +6024,20 @@
       <c r="CX14" t="s">
         <v>77</v>
       </c>
-      <c r="CY14" s="1"/>
+      <c r="CY14" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ14" s="1"/>
-      <c r="DA14" s="1"/>
-      <c r="DB14" s="1"/>
+      <c r="DA14" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>77</v>
+      </c>
       <c r="DC14" s="1"/>
-      <c r="DD14" s="1"/>
+      <c r="DD14" t="s">
+        <v>77</v>
+      </c>
       <c r="DE14" s="1"/>
       <c r="DF14" s="1"/>
       <c r="DG14" s="1"/>
@@ -5987,7 +6108,7 @@
       <c r="FT14" s="1"/>
       <c r="FU14" s="1"/>
       <c r="FV14" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15">
@@ -6154,10 +6275,10 @@
         <v>176</v>
       </c>
       <c r="BC15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE15" s="1">
         <v>3</v>
@@ -6219,16 +6340,16 @@
         <v>2</v>
       </c>
       <c r="CL15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM15" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="CN15" s="1">
         <v>3</v>
       </c>
       <c r="CO15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CP15" t="s">
         <v>77</v>
@@ -6251,12 +6372,20 @@
       <c r="CX15" t="s">
         <v>77</v>
       </c>
-      <c r="CY15" s="1"/>
+      <c r="CY15" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ15" s="1"/>
-      <c r="DA15" s="1"/>
-      <c r="DB15" s="1"/>
+      <c r="DA15" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>77</v>
+      </c>
       <c r="DC15" s="1"/>
-      <c r="DD15" s="1"/>
+      <c r="DD15" t="s">
+        <v>77</v>
+      </c>
       <c r="DE15" s="1"/>
       <c r="DF15" s="1"/>
       <c r="DG15" s="1"/>
@@ -6327,7 +6456,7 @@
       <c r="FT15" s="1"/>
       <c r="FU15" s="1"/>
       <c r="FV15" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16">
@@ -6494,10 +6623,10 @@
         <v>176</v>
       </c>
       <c r="BC16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE16" s="1">
         <v>3</v>
@@ -6587,12 +6716,20 @@
       <c r="CX16" t="s">
         <v>77</v>
       </c>
-      <c r="CY16" s="1"/>
+      <c r="CY16" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ16" s="1"/>
-      <c r="DA16" s="1"/>
-      <c r="DB16" s="1"/>
+      <c r="DA16" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>77</v>
+      </c>
       <c r="DC16" s="1"/>
-      <c r="DD16" s="1"/>
+      <c r="DD16" t="s">
+        <v>77</v>
+      </c>
       <c r="DE16" s="1"/>
       <c r="DF16" s="1"/>
       <c r="DG16" s="1"/>
@@ -6663,7 +6800,7 @@
       <c r="FT16" s="1"/>
       <c r="FU16" s="1"/>
       <c r="FV16" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17">
@@ -6830,10 +6967,10 @@
         <v>176</v>
       </c>
       <c r="BC17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE17" s="1">
         <v>3</v>
@@ -6923,12 +7060,20 @@
       <c r="CX17" t="s">
         <v>77</v>
       </c>
-      <c r="CY17" s="1"/>
+      <c r="CY17" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ17" s="1"/>
-      <c r="DA17" s="1"/>
-      <c r="DB17" s="1"/>
+      <c r="DA17" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>77</v>
+      </c>
       <c r="DC17" s="1"/>
-      <c r="DD17" s="1"/>
+      <c r="DD17" t="s">
+        <v>77</v>
+      </c>
       <c r="DE17" s="1"/>
       <c r="DF17" s="1"/>
       <c r="DG17" s="1"/>
@@ -6999,7 +7144,7 @@
       <c r="FT17" s="1"/>
       <c r="FU17" s="1"/>
       <c r="FV17" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18">
@@ -7166,10 +7311,10 @@
         <v>176</v>
       </c>
       <c r="BC18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE18" s="1">
         <v>3</v>
@@ -7259,12 +7404,20 @@
       <c r="CX18" t="s">
         <v>77</v>
       </c>
-      <c r="CY18" s="1"/>
+      <c r="CY18" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ18" s="1"/>
-      <c r="DA18" s="1"/>
-      <c r="DB18" s="1"/>
+      <c r="DA18" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>77</v>
+      </c>
       <c r="DC18" s="1"/>
-      <c r="DD18" s="1"/>
+      <c r="DD18" t="s">
+        <v>77</v>
+      </c>
       <c r="DE18" s="1"/>
       <c r="DF18" s="1"/>
       <c r="DG18" s="1"/>
@@ -7335,7 +7488,7 @@
       <c r="FT18" s="1"/>
       <c r="FU18" s="1"/>
       <c r="FV18" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19">
@@ -7502,10 +7655,10 @@
         <v>176</v>
       </c>
       <c r="BC19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE19" s="1">
         <v>3</v>
@@ -7595,12 +7748,20 @@
       <c r="CX19" t="s">
         <v>77</v>
       </c>
-      <c r="CY19" s="1"/>
+      <c r="CY19" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ19" s="1"/>
-      <c r="DA19" s="1"/>
-      <c r="DB19" s="1"/>
+      <c r="DA19" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>77</v>
+      </c>
       <c r="DC19" s="1"/>
-      <c r="DD19" s="1"/>
+      <c r="DD19" t="s">
+        <v>77</v>
+      </c>
       <c r="DE19" s="1"/>
       <c r="DF19" s="1"/>
       <c r="DG19" s="1"/>
@@ -7671,7 +7832,7 @@
       <c r="FT19" s="1"/>
       <c r="FU19" s="1"/>
       <c r="FV19" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20">
@@ -7838,10 +7999,10 @@
         <v>176</v>
       </c>
       <c r="BC20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BD20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BE20" s="1">
         <v>3</v>
@@ -7931,12 +8092,20 @@
       <c r="CX20" t="s">
         <v>77</v>
       </c>
-      <c r="CY20" s="1"/>
+      <c r="CY20" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ20" s="1"/>
-      <c r="DA20" s="1"/>
-      <c r="DB20" s="1"/>
+      <c r="DA20" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB20" t="s">
+        <v>77</v>
+      </c>
       <c r="DC20" s="1"/>
-      <c r="DD20" s="1"/>
+      <c r="DD20" t="s">
+        <v>77</v>
+      </c>
       <c r="DE20" s="1"/>
       <c r="DF20" s="1"/>
       <c r="DG20" s="1"/>
@@ -8007,7 +8176,7 @@
       <c r="FT20" s="1"/>
       <c r="FU20" s="1"/>
       <c r="FV20" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21">
@@ -8174,10 +8343,10 @@
         <v>177</v>
       </c>
       <c r="BC21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BD21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BE21" s="1">
         <v>1</v>
@@ -8189,7 +8358,7 @@
         <v>177</v>
       </c>
       <c r="BH21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BI21" s="2">
         <v>45491</v>
@@ -8201,13 +8370,13 @@
         <v>173</v>
       </c>
       <c r="BL21" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="BM21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="BN21" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BO21" s="2">
         <v>45474</v>
@@ -8217,13 +8386,13 @@
       <c r="BR21" s="1"/>
       <c r="BS21" s="1"/>
       <c r="BT21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BU21" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="BV21" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="BW21" s="2">
         <v>45498</v>
@@ -8247,25 +8416,25 @@
         <v>8</v>
       </c>
       <c r="CL21" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM21" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="CN21" s="1">
         <v>3</v>
       </c>
       <c r="CO21" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CP21" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CQ21" s="1">
         <v>1</v>
       </c>
       <c r="CR21" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CS21" t="s">
         <v>77</v>
@@ -8281,12 +8450,20 @@
       <c r="CX21" t="s">
         <v>77</v>
       </c>
-      <c r="CY21" s="1"/>
+      <c r="CY21" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ21" s="1"/>
-      <c r="DA21" s="1"/>
-      <c r="DB21" s="1"/>
+      <c r="DA21" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB21" t="s">
+        <v>77</v>
+      </c>
       <c r="DC21" s="1"/>
-      <c r="DD21" s="1"/>
+      <c r="DD21" t="s">
+        <v>77</v>
+      </c>
       <c r="DE21" s="1"/>
       <c r="DF21" s="1"/>
       <c r="DG21" s="1"/>
@@ -8524,10 +8701,10 @@
         <v>177</v>
       </c>
       <c r="BC22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BD22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BE22" s="1">
         <v>1</v>
@@ -8539,7 +8716,7 @@
         <v>177</v>
       </c>
       <c r="BH22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BI22" s="2">
         <v>45491</v>
@@ -8587,13 +8764,13 @@
       <c r="CH22" s="1"/>
       <c r="CI22" s="1"/>
       <c r="CJ22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CK22" s="1">
         <v>7</v>
       </c>
       <c r="CL22" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CM22" t="s">
         <v>165</v>
@@ -8602,41 +8779,53 @@
         <v>22</v>
       </c>
       <c r="CO22" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CP22" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="CQ22" s="1">
         <v>59</v>
       </c>
       <c r="CR22" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CS22" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CT22" s="1">
         <v>26</v>
       </c>
       <c r="CU22" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="CV22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="CW22" s="1">
         <v>28</v>
       </c>
       <c r="CX22" t="s">
+        <v>243</v>
+      </c>
+      <c r="CY22" t="s">
         <v>238</v>
       </c>
-      <c r="CY22" s="1"/>
-      <c r="CZ22" s="1"/>
-      <c r="DA22" s="1"/>
-      <c r="DB22" s="1"/>
-      <c r="DC22" s="1"/>
-      <c r="DD22" s="1"/>
+      <c r="CZ22" s="1">
+        <v>51</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>243</v>
+      </c>
+      <c r="DB22" t="s">
+        <v>187</v>
+      </c>
+      <c r="DC22" s="1">
+        <v>15</v>
+      </c>
+      <c r="DD22" t="s">
+        <v>243</v>
+      </c>
       <c r="DE22" s="1"/>
       <c r="DF22" s="1"/>
       <c r="DG22" s="1"/>
@@ -8874,10 +9063,10 @@
         <v>177</v>
       </c>
       <c r="BC23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BD23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BE23" s="1">
         <v>1</v>
@@ -8889,7 +9078,7 @@
         <v>176</v>
       </c>
       <c r="BH23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BI23" s="2">
         <v>45497</v>
@@ -8937,27 +9126,31 @@
       <c r="CH23" s="1"/>
       <c r="CI23" s="1"/>
       <c r="CJ23" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="CK23" s="1">
         <v>8</v>
       </c>
       <c r="CL23" t="s">
+        <v>243</v>
+      </c>
+      <c r="CM23" t="s">
         <v>238</v>
       </c>
-      <c r="CM23" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN23" s="1"/>
+      <c r="CN23" s="1">
+        <v>38</v>
+      </c>
       <c r="CO23" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CP23" t="s">
-        <v>77</v>
-      </c>
-      <c r="CQ23" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="CQ23" s="1">
+        <v>55</v>
+      </c>
       <c r="CR23" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CS23" t="s">
         <v>77</v>
@@ -8973,12 +9166,20 @@
       <c r="CX23" t="s">
         <v>77</v>
       </c>
-      <c r="CY23" s="1"/>
+      <c r="CY23" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ23" s="1"/>
-      <c r="DA23" s="1"/>
-      <c r="DB23" s="1"/>
+      <c r="DA23" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB23" t="s">
+        <v>77</v>
+      </c>
       <c r="DC23" s="1"/>
-      <c r="DD23" s="1"/>
+      <c r="DD23" t="s">
+        <v>77</v>
+      </c>
       <c r="DE23" s="1"/>
       <c r="DF23" s="1"/>
       <c r="DG23" s="1"/>
@@ -9049,7 +9250,7 @@
       <c r="FT23" s="1"/>
       <c r="FU23" s="1"/>
       <c r="FV23" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24">
@@ -9216,10 +9417,10 @@
         <v>177</v>
       </c>
       <c r="BC24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BD24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BE24" s="1">
         <v>1</v>
@@ -9231,7 +9432,7 @@
         <v>177</v>
       </c>
       <c r="BH24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BI24" s="2">
         <v>45497</v>
@@ -9279,11 +9480,13 @@
       <c r="CH24" s="1"/>
       <c r="CI24" s="1"/>
       <c r="CJ24" t="s">
-        <v>77</v>
-      </c>
-      <c r="CK24" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="CK24" s="1">
+        <v>104</v>
+      </c>
       <c r="CL24" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CM24" t="s">
         <v>77</v>
@@ -9313,12 +9516,20 @@
       <c r="CX24" t="s">
         <v>77</v>
       </c>
-      <c r="CY24" s="1"/>
+      <c r="CY24" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ24" s="1"/>
-      <c r="DA24" s="1"/>
-      <c r="DB24" s="1"/>
+      <c r="DA24" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB24" t="s">
+        <v>77</v>
+      </c>
       <c r="DC24" s="1"/>
-      <c r="DD24" s="1"/>
+      <c r="DD24" t="s">
+        <v>77</v>
+      </c>
       <c r="DE24" s="1"/>
       <c r="DF24" s="1"/>
       <c r="DG24" s="1"/>
@@ -9559,7 +9770,7 @@
         <v>94</v>
       </c>
       <c r="BD25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BE25" s="1">
         <v>1</v>
@@ -9649,12 +9860,20 @@
       <c r="CX25" t="s">
         <v>77</v>
       </c>
-      <c r="CY25" s="1"/>
+      <c r="CY25" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ25" s="1"/>
-      <c r="DA25" s="1"/>
-      <c r="DB25" s="1"/>
+      <c r="DA25" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB25" t="s">
+        <v>77</v>
+      </c>
       <c r="DC25" s="1"/>
-      <c r="DD25" s="1"/>
+      <c r="DD25" t="s">
+        <v>77</v>
+      </c>
       <c r="DE25" s="1"/>
       <c r="DF25" s="1"/>
       <c r="DG25" s="1"/>
@@ -9983,12 +10202,20 @@
       <c r="CX26" t="s">
         <v>77</v>
       </c>
-      <c r="CY26" s="1"/>
+      <c r="CY26" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ26" s="1"/>
-      <c r="DA26" s="1"/>
-      <c r="DB26" s="1"/>
+      <c r="DA26" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB26" t="s">
+        <v>77</v>
+      </c>
       <c r="DC26" s="1"/>
-      <c r="DD26" s="1"/>
+      <c r="DD26" t="s">
+        <v>77</v>
+      </c>
       <c r="DE26" s="1"/>
       <c r="DF26" s="1"/>
       <c r="DG26" s="1"/>
@@ -10059,7 +10286,7 @@
       <c r="FT26" s="1"/>
       <c r="FU26" s="1"/>
       <c r="FV26" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27">
@@ -10313,12 +10540,20 @@
       <c r="CX27" t="s">
         <v>77</v>
       </c>
-      <c r="CY27" s="1"/>
+      <c r="CY27" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ27" s="1"/>
-      <c r="DA27" s="1"/>
-      <c r="DB27" s="1"/>
+      <c r="DA27" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB27" t="s">
+        <v>77</v>
+      </c>
       <c r="DC27" s="1"/>
-      <c r="DD27" s="1"/>
+      <c r="DD27" t="s">
+        <v>77</v>
+      </c>
       <c r="DE27" s="1"/>
       <c r="DF27" s="1"/>
       <c r="DG27" s="1"/>
@@ -10643,12 +10878,20 @@
       <c r="CX28" t="s">
         <v>77</v>
       </c>
-      <c r="CY28" s="1"/>
+      <c r="CY28" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ28" s="1"/>
-      <c r="DA28" s="1"/>
-      <c r="DB28" s="1"/>
+      <c r="DA28" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB28" t="s">
+        <v>77</v>
+      </c>
       <c r="DC28" s="1"/>
-      <c r="DD28" s="1"/>
+      <c r="DD28" t="s">
+        <v>77</v>
+      </c>
       <c r="DE28" s="1"/>
       <c r="DF28" s="1"/>
       <c r="DG28" s="1"/>
@@ -10719,7 +10962,7 @@
       <c r="FT28" s="1"/>
       <c r="FU28" s="1"/>
       <c r="FV28" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29">
@@ -10973,12 +11216,20 @@
       <c r="CX29" t="s">
         <v>77</v>
       </c>
-      <c r="CY29" s="1"/>
+      <c r="CY29" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ29" s="1"/>
-      <c r="DA29" s="1"/>
-      <c r="DB29" s="1"/>
+      <c r="DA29" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB29" t="s">
+        <v>77</v>
+      </c>
       <c r="DC29" s="1"/>
-      <c r="DD29" s="1"/>
+      <c r="DD29" t="s">
+        <v>77</v>
+      </c>
       <c r="DE29" s="1"/>
       <c r="DF29" s="1"/>
       <c r="DG29" s="1"/>
@@ -11049,7 +11300,7 @@
       <c r="FT29" s="1"/>
       <c r="FU29" s="1"/>
       <c r="FV29" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30">
@@ -11307,12 +11558,20 @@
       <c r="CX30" t="s">
         <v>77</v>
       </c>
-      <c r="CY30" s="1"/>
+      <c r="CY30" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ30" s="1"/>
-      <c r="DA30" s="1"/>
-      <c r="DB30" s="1"/>
+      <c r="DA30" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB30" t="s">
+        <v>77</v>
+      </c>
       <c r="DC30" s="1"/>
-      <c r="DD30" s="1"/>
+      <c r="DD30" t="s">
+        <v>77</v>
+      </c>
       <c r="DE30" s="1"/>
       <c r="DF30" s="1"/>
       <c r="DG30" s="1"/>
@@ -11383,7 +11642,7 @@
       <c r="FT30" s="1"/>
       <c r="FU30" s="1"/>
       <c r="FV30" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31">
@@ -11641,12 +11900,20 @@
       <c r="CX31" t="s">
         <v>77</v>
       </c>
-      <c r="CY31" s="1"/>
+      <c r="CY31" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ31" s="1"/>
-      <c r="DA31" s="1"/>
-      <c r="DB31" s="1"/>
+      <c r="DA31" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB31" t="s">
+        <v>77</v>
+      </c>
       <c r="DC31" s="1"/>
-      <c r="DD31" s="1"/>
+      <c r="DD31" t="s">
+        <v>77</v>
+      </c>
       <c r="DE31" s="1"/>
       <c r="DF31" s="1"/>
       <c r="DG31" s="1"/>
@@ -11717,7 +11984,7 @@
       <c r="FT31" s="1"/>
       <c r="FU31" s="1"/>
       <c r="FV31" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32">
@@ -11975,12 +12242,20 @@
       <c r="CX32" t="s">
         <v>77</v>
       </c>
-      <c r="CY32" s="1"/>
+      <c r="CY32" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ32" s="1"/>
-      <c r="DA32" s="1"/>
-      <c r="DB32" s="1"/>
+      <c r="DA32" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>77</v>
+      </c>
       <c r="DC32" s="1"/>
-      <c r="DD32" s="1"/>
+      <c r="DD32" t="s">
+        <v>77</v>
+      </c>
       <c r="DE32" s="1"/>
       <c r="DF32" s="1"/>
       <c r="DG32" s="1"/>
@@ -12051,7 +12326,7 @@
       <c r="FT32" s="1"/>
       <c r="FU32" s="1"/>
       <c r="FV32" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33">
@@ -12309,12 +12584,20 @@
       <c r="CX33" t="s">
         <v>77</v>
       </c>
-      <c r="CY33" s="1"/>
+      <c r="CY33" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ33" s="1"/>
-      <c r="DA33" s="1"/>
-      <c r="DB33" s="1"/>
+      <c r="DA33" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>77</v>
+      </c>
       <c r="DC33" s="1"/>
-      <c r="DD33" s="1"/>
+      <c r="DD33" t="s">
+        <v>77</v>
+      </c>
       <c r="DE33" s="1"/>
       <c r="DF33" s="1"/>
       <c r="DG33" s="1"/>
@@ -12385,7 +12668,7 @@
       <c r="FT33" s="1"/>
       <c r="FU33" s="1"/>
       <c r="FV33" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34">
@@ -12629,12 +12912,20 @@
       <c r="CX34" t="s">
         <v>77</v>
       </c>
-      <c r="CY34" s="1"/>
+      <c r="CY34" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ34" s="1"/>
-      <c r="DA34" s="1"/>
-      <c r="DB34" s="1"/>
+      <c r="DA34" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>77</v>
+      </c>
       <c r="DC34" s="1"/>
-      <c r="DD34" s="1"/>
+      <c r="DD34" t="s">
+        <v>77</v>
+      </c>
       <c r="DE34" s="1"/>
       <c r="DF34" s="1"/>
       <c r="DG34" s="1"/>
@@ -12705,7 +12996,7 @@
       <c r="FT34" s="1"/>
       <c r="FU34" s="1"/>
       <c r="FV34" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35">
@@ -12949,12 +13240,20 @@
       <c r="CX35" t="s">
         <v>77</v>
       </c>
-      <c r="CY35" s="1"/>
+      <c r="CY35" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ35" s="1"/>
-      <c r="DA35" s="1"/>
-      <c r="DB35" s="1"/>
+      <c r="DA35" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB35" t="s">
+        <v>77</v>
+      </c>
       <c r="DC35" s="1"/>
-      <c r="DD35" s="1"/>
+      <c r="DD35" t="s">
+        <v>77</v>
+      </c>
       <c r="DE35" s="1"/>
       <c r="DF35" s="1"/>
       <c r="DG35" s="1"/>
@@ -13025,7 +13324,7 @@
       <c r="FT35" s="1"/>
       <c r="FU35" s="1"/>
       <c r="FV35" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36">
@@ -13269,12 +13568,20 @@
       <c r="CX36" t="s">
         <v>77</v>
       </c>
-      <c r="CY36" s="1"/>
+      <c r="CY36" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ36" s="1"/>
-      <c r="DA36" s="1"/>
-      <c r="DB36" s="1"/>
+      <c r="DA36" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB36" t="s">
+        <v>77</v>
+      </c>
       <c r="DC36" s="1"/>
-      <c r="DD36" s="1"/>
+      <c r="DD36" t="s">
+        <v>77</v>
+      </c>
       <c r="DE36" s="1"/>
       <c r="DF36" s="1"/>
       <c r="DG36" s="1"/>
@@ -13345,7 +13652,7 @@
       <c r="FT36" s="1"/>
       <c r="FU36" s="1"/>
       <c r="FV36" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37">
@@ -13589,12 +13896,20 @@
       <c r="CX37" t="s">
         <v>77</v>
       </c>
-      <c r="CY37" s="1"/>
+      <c r="CY37" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ37" s="1"/>
-      <c r="DA37" s="1"/>
-      <c r="DB37" s="1"/>
+      <c r="DA37" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB37" t="s">
+        <v>77</v>
+      </c>
       <c r="DC37" s="1"/>
-      <c r="DD37" s="1"/>
+      <c r="DD37" t="s">
+        <v>77</v>
+      </c>
       <c r="DE37" s="1"/>
       <c r="DF37" s="1"/>
       <c r="DG37" s="1"/>
@@ -13665,7 +13980,7 @@
       <c r="FT37" s="1"/>
       <c r="FU37" s="1"/>
       <c r="FV37" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38">
@@ -13909,12 +14224,20 @@
       <c r="CX38" t="s">
         <v>77</v>
       </c>
-      <c r="CY38" s="1"/>
+      <c r="CY38" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ38" s="1"/>
-      <c r="DA38" s="1"/>
-      <c r="DB38" s="1"/>
+      <c r="DA38" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB38" t="s">
+        <v>77</v>
+      </c>
       <c r="DC38" s="1"/>
-      <c r="DD38" s="1"/>
+      <c r="DD38" t="s">
+        <v>77</v>
+      </c>
       <c r="DE38" s="1"/>
       <c r="DF38" s="1"/>
       <c r="DG38" s="1"/>
@@ -13985,7 +14308,7 @@
       <c r="FT38" s="1"/>
       <c r="FU38" s="1"/>
       <c r="FV38" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
@@ -14231,12 +14554,20 @@
       <c r="CX39" t="s">
         <v>77</v>
       </c>
-      <c r="CY39" s="1"/>
+      <c r="CY39" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ39" s="1"/>
-      <c r="DA39" s="1"/>
-      <c r="DB39" s="1"/>
+      <c r="DA39" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB39" t="s">
+        <v>77</v>
+      </c>
       <c r="DC39" s="1"/>
-      <c r="DD39" s="1"/>
+      <c r="DD39" t="s">
+        <v>77</v>
+      </c>
       <c r="DE39" s="1"/>
       <c r="DF39" s="1"/>
       <c r="DG39" s="1"/>
@@ -14553,12 +14884,20 @@
       <c r="CX40" t="s">
         <v>77</v>
       </c>
-      <c r="CY40" s="1"/>
+      <c r="CY40" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ40" s="1"/>
-      <c r="DA40" s="1"/>
-      <c r="DB40" s="1"/>
+      <c r="DA40" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB40" t="s">
+        <v>77</v>
+      </c>
       <c r="DC40" s="1"/>
-      <c r="DD40" s="1"/>
+      <c r="DD40" t="s">
+        <v>77</v>
+      </c>
       <c r="DE40" s="1"/>
       <c r="DF40" s="1"/>
       <c r="DG40" s="1"/>
@@ -14875,12 +15214,20 @@
       <c r="CX41" t="s">
         <v>77</v>
       </c>
-      <c r="CY41" s="1"/>
+      <c r="CY41" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ41" s="1"/>
-      <c r="DA41" s="1"/>
-      <c r="DB41" s="1"/>
+      <c r="DA41" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB41" t="s">
+        <v>77</v>
+      </c>
       <c r="DC41" s="1"/>
-      <c r="DD41" s="1"/>
+      <c r="DD41" t="s">
+        <v>77</v>
+      </c>
       <c r="DE41" s="1"/>
       <c r="DF41" s="1"/>
       <c r="DG41" s="1"/>
@@ -15197,12 +15544,20 @@
       <c r="CX42" t="s">
         <v>77</v>
       </c>
-      <c r="CY42" s="1"/>
+      <c r="CY42" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ42" s="1"/>
-      <c r="DA42" s="1"/>
-      <c r="DB42" s="1"/>
+      <c r="DA42" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB42" t="s">
+        <v>77</v>
+      </c>
       <c r="DC42" s="1"/>
-      <c r="DD42" s="1"/>
+      <c r="DD42" t="s">
+        <v>77</v>
+      </c>
       <c r="DE42" s="1"/>
       <c r="DF42" s="1"/>
       <c r="DG42" s="1"/>
@@ -15519,12 +15874,20 @@
       <c r="CX43" t="s">
         <v>77</v>
       </c>
-      <c r="CY43" s="1"/>
+      <c r="CY43" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ43" s="1"/>
-      <c r="DA43" s="1"/>
-      <c r="DB43" s="1"/>
+      <c r="DA43" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB43" t="s">
+        <v>77</v>
+      </c>
       <c r="DC43" s="1"/>
-      <c r="DD43" s="1"/>
+      <c r="DD43" t="s">
+        <v>77</v>
+      </c>
       <c r="DE43" s="1"/>
       <c r="DF43" s="1"/>
       <c r="DG43" s="1"/>
@@ -15805,20 +16168,20 @@
       <c r="CH44" s="1"/>
       <c r="CI44" s="1"/>
       <c r="CJ44" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="CK44" s="1">
         <v>12</v>
       </c>
       <c r="CL44" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CM44" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CN44" s="1"/>
       <c r="CO44" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CP44" t="s">
         <v>166</v>
@@ -15827,7 +16190,7 @@
         <v>9</v>
       </c>
       <c r="CR44" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CS44" t="s">
         <v>77</v>
@@ -15843,12 +16206,20 @@
       <c r="CX44" t="s">
         <v>77</v>
       </c>
-      <c r="CY44" s="1"/>
+      <c r="CY44" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ44" s="1"/>
-      <c r="DA44" s="1"/>
-      <c r="DB44" s="1"/>
+      <c r="DA44" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB44" t="s">
+        <v>77</v>
+      </c>
       <c r="DC44" s="1"/>
-      <c r="DD44" s="1"/>
+      <c r="DD44" t="s">
+        <v>77</v>
+      </c>
       <c r="DE44" s="1"/>
       <c r="DF44" s="1"/>
       <c r="DG44" s="1"/>
@@ -15919,7 +16290,7 @@
       <c r="FT44" s="1"/>
       <c r="FU44" s="1"/>
       <c r="FV44" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45">
@@ -16129,20 +16500,20 @@
       <c r="CH45" s="1"/>
       <c r="CI45" s="1"/>
       <c r="CJ45" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="CK45" s="1">
         <v>26</v>
       </c>
       <c r="CL45" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CM45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CN45" s="1"/>
       <c r="CO45" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CP45" t="s">
         <v>166</v>
@@ -16151,7 +16522,7 @@
         <v>26</v>
       </c>
       <c r="CR45" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CS45" t="s">
         <v>77</v>
@@ -16167,12 +16538,20 @@
       <c r="CX45" t="s">
         <v>77</v>
       </c>
-      <c r="CY45" s="1"/>
+      <c r="CY45" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ45" s="1"/>
-      <c r="DA45" s="1"/>
-      <c r="DB45" s="1"/>
+      <c r="DA45" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB45" t="s">
+        <v>77</v>
+      </c>
       <c r="DC45" s="1"/>
-      <c r="DD45" s="1"/>
+      <c r="DD45" t="s">
+        <v>77</v>
+      </c>
       <c r="DE45" s="1"/>
       <c r="DF45" s="1"/>
       <c r="DG45" s="1"/>
@@ -16243,7 +16622,7 @@
       <c r="FT45" s="1"/>
       <c r="FU45" s="1"/>
       <c r="FV45" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46">
@@ -16453,31 +16832,31 @@
       <c r="CH46" s="1"/>
       <c r="CI46" s="1"/>
       <c r="CJ46" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="CK46" s="1">
         <v>6</v>
       </c>
       <c r="CL46" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CM46" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="CN46" s="1">
         <v>17</v>
       </c>
       <c r="CO46" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CP46" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="CQ46" s="1">
         <v>12</v>
       </c>
       <c r="CR46" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CS46" t="s">
         <v>77</v>
@@ -16493,12 +16872,20 @@
       <c r="CX46" t="s">
         <v>77</v>
       </c>
-      <c r="CY46" s="1"/>
+      <c r="CY46" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ46" s="1"/>
-      <c r="DA46" s="1"/>
-      <c r="DB46" s="1"/>
+      <c r="DA46" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB46" t="s">
+        <v>77</v>
+      </c>
       <c r="DC46" s="1"/>
-      <c r="DD46" s="1"/>
+      <c r="DD46" t="s">
+        <v>77</v>
+      </c>
       <c r="DE46" s="1"/>
       <c r="DF46" s="1"/>
       <c r="DG46" s="1"/>
@@ -16569,7 +16956,7 @@
       <c r="FT46" s="1"/>
       <c r="FU46" s="1"/>
       <c r="FV46" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47">
@@ -16813,12 +17200,20 @@
       <c r="CX47" t="s">
         <v>77</v>
       </c>
-      <c r="CY47" s="1"/>
+      <c r="CY47" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ47" s="1"/>
-      <c r="DA47" s="1"/>
-      <c r="DB47" s="1"/>
+      <c r="DA47" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB47" t="s">
+        <v>77</v>
+      </c>
       <c r="DC47" s="1"/>
-      <c r="DD47" s="1"/>
+      <c r="DD47" t="s">
+        <v>77</v>
+      </c>
       <c r="DE47" s="1"/>
       <c r="DF47" s="1"/>
       <c r="DG47" s="1"/>
@@ -16889,7 +17284,7 @@
       <c r="FT47" s="1"/>
       <c r="FU47" s="1"/>
       <c r="FV47" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48">
@@ -17135,12 +17530,20 @@
       <c r="CX48" t="s">
         <v>77</v>
       </c>
-      <c r="CY48" s="1"/>
+      <c r="CY48" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ48" s="1"/>
-      <c r="DA48" s="1"/>
-      <c r="DB48" s="1"/>
+      <c r="DA48" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB48" t="s">
+        <v>77</v>
+      </c>
       <c r="DC48" s="1"/>
-      <c r="DD48" s="1"/>
+      <c r="DD48" t="s">
+        <v>77</v>
+      </c>
       <c r="DE48" s="1"/>
       <c r="DF48" s="1"/>
       <c r="DG48" s="1"/>
@@ -17211,7 +17614,7 @@
       <c r="FT48" s="1"/>
       <c r="FU48" s="1"/>
       <c r="FV48" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49">
@@ -17455,12 +17858,20 @@
       <c r="CX49" t="s">
         <v>77</v>
       </c>
-      <c r="CY49" s="1"/>
+      <c r="CY49" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ49" s="1"/>
-      <c r="DA49" s="1"/>
-      <c r="DB49" s="1"/>
+      <c r="DA49" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB49" t="s">
+        <v>77</v>
+      </c>
       <c r="DC49" s="1"/>
-      <c r="DD49" s="1"/>
+      <c r="DD49" t="s">
+        <v>77</v>
+      </c>
       <c r="DE49" s="1"/>
       <c r="DF49" s="1"/>
       <c r="DG49" s="1"/>
@@ -17531,7 +17942,7 @@
       <c r="FT49" s="1"/>
       <c r="FU49" s="1"/>
       <c r="FV49" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50">
@@ -17775,12 +18186,20 @@
       <c r="CX50" t="s">
         <v>77</v>
       </c>
-      <c r="CY50" s="1"/>
+      <c r="CY50" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ50" s="1"/>
-      <c r="DA50" s="1"/>
-      <c r="DB50" s="1"/>
+      <c r="DA50" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB50" t="s">
+        <v>77</v>
+      </c>
       <c r="DC50" s="1"/>
-      <c r="DD50" s="1"/>
+      <c r="DD50" t="s">
+        <v>77</v>
+      </c>
       <c r="DE50" s="1"/>
       <c r="DF50" s="1"/>
       <c r="DG50" s="1"/>
@@ -17851,7 +18270,7 @@
       <c r="FT50" s="1"/>
       <c r="FU50" s="1"/>
       <c r="FV50" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51">
@@ -18095,12 +18514,20 @@
       <c r="CX51" t="s">
         <v>77</v>
       </c>
-      <c r="CY51" s="1"/>
+      <c r="CY51" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ51" s="1"/>
-      <c r="DA51" s="1"/>
-      <c r="DB51" s="1"/>
+      <c r="DA51" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB51" t="s">
+        <v>77</v>
+      </c>
       <c r="DC51" s="1"/>
-      <c r="DD51" s="1"/>
+      <c r="DD51" t="s">
+        <v>77</v>
+      </c>
       <c r="DE51" s="1"/>
       <c r="DF51" s="1"/>
       <c r="DG51" s="1"/>
@@ -18171,7 +18598,7 @@
       <c r="FT51" s="1"/>
       <c r="FU51" s="1"/>
       <c r="FV51" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52">
@@ -18415,12 +18842,20 @@
       <c r="CX52" t="s">
         <v>77</v>
       </c>
-      <c r="CY52" s="1"/>
+      <c r="CY52" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ52" s="1"/>
-      <c r="DA52" s="1"/>
-      <c r="DB52" s="1"/>
+      <c r="DA52" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB52" t="s">
+        <v>77</v>
+      </c>
       <c r="DC52" s="1"/>
-      <c r="DD52" s="1"/>
+      <c r="DD52" t="s">
+        <v>77</v>
+      </c>
       <c r="DE52" s="1"/>
       <c r="DF52" s="1"/>
       <c r="DG52" s="1"/>
@@ -18491,7 +18926,7 @@
       <c r="FT52" s="1"/>
       <c r="FU52" s="1"/>
       <c r="FV52" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53">
@@ -18735,12 +19170,20 @@
       <c r="CX53" t="s">
         <v>77</v>
       </c>
-      <c r="CY53" s="1"/>
+      <c r="CY53" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ53" s="1"/>
-      <c r="DA53" s="1"/>
-      <c r="DB53" s="1"/>
+      <c r="DA53" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB53" t="s">
+        <v>77</v>
+      </c>
       <c r="DC53" s="1"/>
-      <c r="DD53" s="1"/>
+      <c r="DD53" t="s">
+        <v>77</v>
+      </c>
       <c r="DE53" s="1"/>
       <c r="DF53" s="1"/>
       <c r="DG53" s="1"/>
@@ -18811,7 +19254,7 @@
       <c r="FT53" s="1"/>
       <c r="FU53" s="1"/>
       <c r="FV53" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54">
@@ -19055,12 +19498,20 @@
       <c r="CX54" t="s">
         <v>77</v>
       </c>
-      <c r="CY54" s="1"/>
+      <c r="CY54" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ54" s="1"/>
-      <c r="DA54" s="1"/>
-      <c r="DB54" s="1"/>
+      <c r="DA54" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB54" t="s">
+        <v>77</v>
+      </c>
       <c r="DC54" s="1"/>
-      <c r="DD54" s="1"/>
+      <c r="DD54" t="s">
+        <v>77</v>
+      </c>
       <c r="DE54" s="1"/>
       <c r="DF54" s="1"/>
       <c r="DG54" s="1"/>
@@ -19131,7 +19582,7 @@
       <c r="FT54" s="1"/>
       <c r="FU54" s="1"/>
       <c r="FV54" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55">
@@ -19377,12 +19828,20 @@
       <c r="CX55" t="s">
         <v>77</v>
       </c>
-      <c r="CY55" s="1"/>
+      <c r="CY55" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ55" s="1"/>
-      <c r="DA55" s="1"/>
-      <c r="DB55" s="1"/>
+      <c r="DA55" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB55" t="s">
+        <v>77</v>
+      </c>
       <c r="DC55" s="1"/>
-      <c r="DD55" s="1"/>
+      <c r="DD55" t="s">
+        <v>77</v>
+      </c>
       <c r="DE55" s="1"/>
       <c r="DF55" s="1"/>
       <c r="DG55" s="1"/>
@@ -19453,7 +19912,7 @@
       <c r="FT55" s="1"/>
       <c r="FU55" s="1"/>
       <c r="FV55" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
@@ -19663,18 +20122,22 @@
       <c r="CH56" s="1"/>
       <c r="CI56" s="1"/>
       <c r="CJ56" t="s">
-        <v>77</v>
-      </c>
-      <c r="CK56" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="CK56" s="1">
+        <v>24</v>
+      </c>
       <c r="CL56" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CM56" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN56" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="CN56" s="1">
+        <v>43</v>
+      </c>
       <c r="CO56" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CP56" t="s">
         <v>77</v>
@@ -19697,12 +20160,20 @@
       <c r="CX56" t="s">
         <v>77</v>
       </c>
-      <c r="CY56" s="1"/>
+      <c r="CY56" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ56" s="1"/>
-      <c r="DA56" s="1"/>
-      <c r="DB56" s="1"/>
+      <c r="DA56" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB56" t="s">
+        <v>77</v>
+      </c>
       <c r="DC56" s="1"/>
-      <c r="DD56" s="1"/>
+      <c r="DD56" t="s">
+        <v>77</v>
+      </c>
       <c r="DE56" s="1"/>
       <c r="DF56" s="1"/>
       <c r="DG56" s="1"/>
@@ -19773,7 +20244,7 @@
       <c r="FT56" s="1"/>
       <c r="FU56" s="1"/>
       <c r="FV56" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57">
@@ -19983,18 +20454,22 @@
       <c r="CH57" s="1"/>
       <c r="CI57" s="1"/>
       <c r="CJ57" t="s">
-        <v>77</v>
-      </c>
-      <c r="CK57" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="CK57" s="1">
+        <v>6</v>
+      </c>
       <c r="CL57" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CM57" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN57" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="CN57" s="1">
+        <v>10</v>
+      </c>
       <c r="CO57" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="CP57" t="s">
         <v>77</v>
@@ -20017,12 +20492,20 @@
       <c r="CX57" t="s">
         <v>77</v>
       </c>
-      <c r="CY57" s="1"/>
+      <c r="CY57" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ57" s="1"/>
-      <c r="DA57" s="1"/>
-      <c r="DB57" s="1"/>
+      <c r="DA57" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB57" t="s">
+        <v>77</v>
+      </c>
       <c r="DC57" s="1"/>
-      <c r="DD57" s="1"/>
+      <c r="DD57" t="s">
+        <v>77</v>
+      </c>
       <c r="DE57" s="1"/>
       <c r="DF57" s="1"/>
       <c r="DG57" s="1"/>
@@ -20093,7 +20576,7 @@
       <c r="FT57" s="1"/>
       <c r="FU57" s="1"/>
       <c r="FV57" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
@@ -20243,17 +20726,19 @@
         <v>174</v>
       </c>
       <c r="BB58" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="BC58" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="BD58" t="s">
-        <v>77</v>
-      </c>
-      <c r="BE58" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="BE58" s="1">
+        <v>1</v>
+      </c>
       <c r="BF58" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="BG58" t="s">
         <v>77</v>
@@ -20267,13 +20752,13 @@
         <v>77</v>
       </c>
       <c r="BL58" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BM58" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BN58" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BO58" s="2">
         <v>45497</v>
@@ -20339,12 +20824,20 @@
       <c r="CX58" t="s">
         <v>77</v>
       </c>
-      <c r="CY58" s="1"/>
+      <c r="CY58" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ58" s="1"/>
-      <c r="DA58" s="1"/>
-      <c r="DB58" s="1"/>
+      <c r="DA58" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB58" t="s">
+        <v>77</v>
+      </c>
       <c r="DC58" s="1"/>
-      <c r="DD58" s="1"/>
+      <c r="DD58" t="s">
+        <v>77</v>
+      </c>
       <c r="DE58" s="1"/>
       <c r="DF58" s="1"/>
       <c r="DG58" s="1"/>
@@ -20565,17 +21058,19 @@
         <v>174</v>
       </c>
       <c r="BB59" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="BC59" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="BD59" t="s">
-        <v>77</v>
-      </c>
-      <c r="BE59" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="BE59" s="1">
+        <v>1</v>
+      </c>
       <c r="BF59" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="BG59" t="s">
         <v>77</v>
@@ -20589,13 +21084,13 @@
         <v>77</v>
       </c>
       <c r="BL59" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BM59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BN59" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BO59" s="2">
         <v>45497</v>
@@ -20661,12 +21156,20 @@
       <c r="CX59" t="s">
         <v>77</v>
       </c>
-      <c r="CY59" s="1"/>
+      <c r="CY59" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ59" s="1"/>
-      <c r="DA59" s="1"/>
-      <c r="DB59" s="1"/>
+      <c r="DA59" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB59" t="s">
+        <v>77</v>
+      </c>
       <c r="DC59" s="1"/>
-      <c r="DD59" s="1"/>
+      <c r="DD59" t="s">
+        <v>77</v>
+      </c>
       <c r="DE59" s="1"/>
       <c r="DF59" s="1"/>
       <c r="DG59" s="1"/>
@@ -20947,29 +21450,31 @@
       <c r="CH60" s="1"/>
       <c r="CI60" s="1"/>
       <c r="CJ60" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="CK60" s="1">
         <v>2</v>
       </c>
       <c r="CL60" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CM60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CN60" s="1">
         <v>24</v>
       </c>
       <c r="CO60" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CP60" t="s">
-        <v>77</v>
-      </c>
-      <c r="CQ60" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="CQ60" s="1">
+        <v>6</v>
+      </c>
       <c r="CR60" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="CS60" t="s">
         <v>77</v>
@@ -20985,12 +21490,20 @@
       <c r="CX60" t="s">
         <v>77</v>
       </c>
-      <c r="CY60" s="1"/>
+      <c r="CY60" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ60" s="1"/>
-      <c r="DA60" s="1"/>
-      <c r="DB60" s="1"/>
+      <c r="DA60" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB60" t="s">
+        <v>77</v>
+      </c>
       <c r="DC60" s="1"/>
-      <c r="DD60" s="1"/>
+      <c r="DD60" t="s">
+        <v>77</v>
+      </c>
       <c r="DE60" s="1"/>
       <c r="DF60" s="1"/>
       <c r="DG60" s="1"/>
@@ -21061,7 +21574,7 @@
       <c r="FT60" s="1"/>
       <c r="FU60" s="1"/>
       <c r="FV60" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61">
@@ -21271,29 +21784,31 @@
       <c r="CH61" s="1"/>
       <c r="CI61" s="1"/>
       <c r="CJ61" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="CK61" s="1">
         <v>4</v>
       </c>
       <c r="CL61" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CM61" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="CN61" s="1">
         <v>11</v>
       </c>
       <c r="CO61" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="CP61" t="s">
-        <v>77</v>
-      </c>
-      <c r="CQ61" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="CQ61" s="1">
+        <v>15</v>
+      </c>
       <c r="CR61" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="CS61" t="s">
         <v>77</v>
@@ -21309,12 +21824,20 @@
       <c r="CX61" t="s">
         <v>77</v>
       </c>
-      <c r="CY61" s="1"/>
+      <c r="CY61" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ61" s="1"/>
-      <c r="DA61" s="1"/>
-      <c r="DB61" s="1"/>
+      <c r="DA61" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB61" t="s">
+        <v>77</v>
+      </c>
       <c r="DC61" s="1"/>
-      <c r="DD61" s="1"/>
+      <c r="DD61" t="s">
+        <v>77</v>
+      </c>
       <c r="DE61" s="1"/>
       <c r="DF61" s="1"/>
       <c r="DG61" s="1"/>
@@ -21385,7 +21908,7 @@
       <c r="FT61" s="1"/>
       <c r="FU61" s="1"/>
       <c r="FV61" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62">
@@ -21629,12 +22152,20 @@
       <c r="CX62" t="s">
         <v>77</v>
       </c>
-      <c r="CY62" s="1"/>
+      <c r="CY62" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ62" s="1"/>
-      <c r="DA62" s="1"/>
-      <c r="DB62" s="1"/>
+      <c r="DA62" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB62" t="s">
+        <v>77</v>
+      </c>
       <c r="DC62" s="1"/>
-      <c r="DD62" s="1"/>
+      <c r="DD62" t="s">
+        <v>77</v>
+      </c>
       <c r="DE62" s="1"/>
       <c r="DF62" s="1"/>
       <c r="DG62" s="1"/>
@@ -21949,12 +22480,20 @@
       <c r="CX63" t="s">
         <v>77</v>
       </c>
-      <c r="CY63" s="1"/>
+      <c r="CY63" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ63" s="1"/>
-      <c r="DA63" s="1"/>
-      <c r="DB63" s="1"/>
+      <c r="DA63" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB63" t="s">
+        <v>77</v>
+      </c>
       <c r="DC63" s="1"/>
-      <c r="DD63" s="1"/>
+      <c r="DD63" t="s">
+        <v>77</v>
+      </c>
       <c r="DE63" s="1"/>
       <c r="DF63" s="1"/>
       <c r="DG63" s="1"/>
@@ -22269,12 +22808,20 @@
       <c r="CX64" t="s">
         <v>77</v>
       </c>
-      <c r="CY64" s="1"/>
+      <c r="CY64" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ64" s="1"/>
-      <c r="DA64" s="1"/>
-      <c r="DB64" s="1"/>
+      <c r="DA64" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB64" t="s">
+        <v>77</v>
+      </c>
       <c r="DC64" s="1"/>
-      <c r="DD64" s="1"/>
+      <c r="DD64" t="s">
+        <v>77</v>
+      </c>
       <c r="DE64" s="1"/>
       <c r="DF64" s="1"/>
       <c r="DG64" s="1"/>
@@ -22555,25 +23102,31 @@
       <c r="CH65" s="1"/>
       <c r="CI65" s="1"/>
       <c r="CJ65" t="s">
-        <v>77</v>
-      </c>
-      <c r="CK65" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="CK65" s="1">
+        <v>4</v>
+      </c>
       <c r="CL65" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="CM65" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN65" s="1"/>
+        <v>248</v>
+      </c>
+      <c r="CN65" s="1">
+        <v>4</v>
+      </c>
       <c r="CO65" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="CP65" t="s">
-        <v>77</v>
-      </c>
-      <c r="CQ65" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="CQ65" s="1">
+        <v>43</v>
+      </c>
       <c r="CR65" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="CS65" t="s">
         <v>77</v>
@@ -22589,12 +23142,20 @@
       <c r="CX65" t="s">
         <v>77</v>
       </c>
-      <c r="CY65" s="1"/>
+      <c r="CY65" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ65" s="1"/>
-      <c r="DA65" s="1"/>
-      <c r="DB65" s="1"/>
+      <c r="DA65" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB65" t="s">
+        <v>77</v>
+      </c>
       <c r="DC65" s="1"/>
-      <c r="DD65" s="1"/>
+      <c r="DD65" t="s">
+        <v>77</v>
+      </c>
       <c r="DE65" s="1"/>
       <c r="DF65" s="1"/>
       <c r="DG65" s="1"/>
@@ -22665,7 +23226,7 @@
       <c r="FT65" s="1"/>
       <c r="FU65" s="1"/>
       <c r="FV65" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66">
@@ -22909,12 +23470,20 @@
       <c r="CX66" t="s">
         <v>77</v>
       </c>
-      <c r="CY66" s="1"/>
+      <c r="CY66" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ66" s="1"/>
-      <c r="DA66" s="1"/>
-      <c r="DB66" s="1"/>
+      <c r="DA66" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB66" t="s">
+        <v>77</v>
+      </c>
       <c r="DC66" s="1"/>
-      <c r="DD66" s="1"/>
+      <c r="DD66" t="s">
+        <v>77</v>
+      </c>
       <c r="DE66" s="1"/>
       <c r="DF66" s="1"/>
       <c r="DG66" s="1"/>
@@ -22985,7 +23554,7 @@
       <c r="FT66" s="1"/>
       <c r="FU66" s="1"/>
       <c r="FV66" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67">
@@ -23229,12 +23798,20 @@
       <c r="CX67" t="s">
         <v>77</v>
       </c>
-      <c r="CY67" s="1"/>
+      <c r="CY67" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ67" s="1"/>
-      <c r="DA67" s="1"/>
-      <c r="DB67" s="1"/>
+      <c r="DA67" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB67" t="s">
+        <v>77</v>
+      </c>
       <c r="DC67" s="1"/>
-      <c r="DD67" s="1"/>
+      <c r="DD67" t="s">
+        <v>77</v>
+      </c>
       <c r="DE67" s="1"/>
       <c r="DF67" s="1"/>
       <c r="DG67" s="1"/>
@@ -23305,7 +23882,7 @@
       <c r="FT67" s="1"/>
       <c r="FU67" s="1"/>
       <c r="FV67" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68">
@@ -23549,12 +24126,20 @@
       <c r="CX68" t="s">
         <v>77</v>
       </c>
-      <c r="CY68" s="1"/>
+      <c r="CY68" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ68" s="1"/>
-      <c r="DA68" s="1"/>
-      <c r="DB68" s="1"/>
+      <c r="DA68" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB68" t="s">
+        <v>77</v>
+      </c>
       <c r="DC68" s="1"/>
-      <c r="DD68" s="1"/>
+      <c r="DD68" t="s">
+        <v>77</v>
+      </c>
       <c r="DE68" s="1"/>
       <c r="DF68" s="1"/>
       <c r="DG68" s="1"/>
@@ -23625,7 +24210,7 @@
       <c r="FT68" s="1"/>
       <c r="FU68" s="1"/>
       <c r="FV68" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69">
@@ -23869,12 +24454,20 @@
       <c r="CX69" t="s">
         <v>77</v>
       </c>
-      <c r="CY69" s="1"/>
+      <c r="CY69" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ69" s="1"/>
-      <c r="DA69" s="1"/>
-      <c r="DB69" s="1"/>
+      <c r="DA69" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB69" t="s">
+        <v>77</v>
+      </c>
       <c r="DC69" s="1"/>
-      <c r="DD69" s="1"/>
+      <c r="DD69" t="s">
+        <v>77</v>
+      </c>
       <c r="DE69" s="1"/>
       <c r="DF69" s="1"/>
       <c r="DG69" s="1"/>
@@ -23945,7 +24538,7 @@
       <c r="FT69" s="1"/>
       <c r="FU69" s="1"/>
       <c r="FV69" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70">
@@ -24189,12 +24782,20 @@
       <c r="CX70" t="s">
         <v>77</v>
       </c>
-      <c r="CY70" s="1"/>
+      <c r="CY70" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ70" s="1"/>
-      <c r="DA70" s="1"/>
-      <c r="DB70" s="1"/>
+      <c r="DA70" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB70" t="s">
+        <v>77</v>
+      </c>
       <c r="DC70" s="1"/>
-      <c r="DD70" s="1"/>
+      <c r="DD70" t="s">
+        <v>77</v>
+      </c>
       <c r="DE70" s="1"/>
       <c r="DF70" s="1"/>
       <c r="DG70" s="1"/>
@@ -24265,7 +24866,7 @@
       <c r="FT70" s="1"/>
       <c r="FU70" s="1"/>
       <c r="FV70" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71">
@@ -24509,12 +25110,20 @@
       <c r="CX71" t="s">
         <v>77</v>
       </c>
-      <c r="CY71" s="1"/>
+      <c r="CY71" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ71" s="1"/>
-      <c r="DA71" s="1"/>
-      <c r="DB71" s="1"/>
+      <c r="DA71" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB71" t="s">
+        <v>77</v>
+      </c>
       <c r="DC71" s="1"/>
-      <c r="DD71" s="1"/>
+      <c r="DD71" t="s">
+        <v>77</v>
+      </c>
       <c r="DE71" s="1"/>
       <c r="DF71" s="1"/>
       <c r="DG71" s="1"/>
@@ -24585,7 +25194,7 @@
       <c r="FT71" s="1"/>
       <c r="FU71" s="1"/>
       <c r="FV71" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72">
@@ -24831,12 +25440,20 @@
       <c r="CX72" t="s">
         <v>77</v>
       </c>
-      <c r="CY72" s="1"/>
+      <c r="CY72" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ72" s="1"/>
-      <c r="DA72" s="1"/>
-      <c r="DB72" s="1"/>
+      <c r="DA72" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB72" t="s">
+        <v>77</v>
+      </c>
       <c r="DC72" s="1"/>
-      <c r="DD72" s="1"/>
+      <c r="DD72" t="s">
+        <v>77</v>
+      </c>
       <c r="DE72" s="1"/>
       <c r="DF72" s="1"/>
       <c r="DG72" s="1"/>
@@ -25153,12 +25770,20 @@
       <c r="CX73" t="s">
         <v>77</v>
       </c>
-      <c r="CY73" s="1"/>
+      <c r="CY73" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ73" s="1"/>
-      <c r="DA73" s="1"/>
-      <c r="DB73" s="1"/>
+      <c r="DA73" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB73" t="s">
+        <v>77</v>
+      </c>
       <c r="DC73" s="1"/>
-      <c r="DD73" s="1"/>
+      <c r="DD73" t="s">
+        <v>77</v>
+      </c>
       <c r="DE73" s="1"/>
       <c r="DF73" s="1"/>
       <c r="DG73" s="1"/>
@@ -25475,12 +26100,20 @@
       <c r="CX74" t="s">
         <v>77</v>
       </c>
-      <c r="CY74" s="1"/>
+      <c r="CY74" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ74" s="1"/>
-      <c r="DA74" s="1"/>
-      <c r="DB74" s="1"/>
+      <c r="DA74" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB74" t="s">
+        <v>77</v>
+      </c>
       <c r="DC74" s="1"/>
-      <c r="DD74" s="1"/>
+      <c r="DD74" t="s">
+        <v>77</v>
+      </c>
       <c r="DE74" s="1"/>
       <c r="DF74" s="1"/>
       <c r="DG74" s="1"/>
@@ -25797,12 +26430,20 @@
       <c r="CX75" t="s">
         <v>77</v>
       </c>
-      <c r="CY75" s="1"/>
+      <c r="CY75" t="s">
+        <v>77</v>
+      </c>
       <c r="CZ75" s="1"/>
-      <c r="DA75" s="1"/>
-      <c r="DB75" s="1"/>
+      <c r="DA75" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB75" t="s">
+        <v>77</v>
+      </c>
       <c r="DC75" s="1"/>
-      <c r="DD75" s="1"/>
+      <c r="DD75" t="s">
+        <v>77</v>
+      </c>
       <c r="DE75" s="1"/>
       <c r="DF75" s="1"/>
       <c r="DG75" s="1"/>

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7435" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7583" uniqueCount="384">
   <si>
     <t>crop</t>
   </si>
@@ -946,6 +946,9 @@
   </si>
   <si>
     <t>harvest_date_12</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
   </si>
   <si>
     <t>harvest_amnt_12</t>
@@ -1595,175 +1598,175 @@
         <v>310</v>
       </c>
       <c r="DW1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="DX1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="DY1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="DZ1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="EA1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="EB1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="EC1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="ED1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="EE1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EF1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="EG1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="EH1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="EI1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="EJ1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="EK1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="EL1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="EM1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="EN1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="EO1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="EP1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="EQ1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="ER1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="ES1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="ET1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="EU1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="EV1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="EW1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="EX1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="EY1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="EZ1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="FA1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="FB1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="FC1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="FD1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="FE1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="FF1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="FG1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="FH1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="FI1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="FJ1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FK1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="FL1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="FM1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FN1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="FO1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="FP1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="FQ1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="FR1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="FS1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="FT1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="FU1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="FV1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="FW1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="FX1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="FY1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="FZ1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="GA1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
@@ -2119,9 +2122,13 @@
       <c r="EP2" t="s">
         <v>77</v>
       </c>
-      <c r="EQ2" s="1"/>
+      <c r="EQ2" t="s">
+        <v>77</v>
+      </c>
       <c r="ER2" s="1"/>
-      <c r="ES2" s="1"/>
+      <c r="ES2" t="s">
+        <v>77</v>
+      </c>
       <c r="ET2" s="1"/>
       <c r="EU2" s="1"/>
       <c r="EV2" s="1"/>
@@ -2526,9 +2533,13 @@
       <c r="EP3" t="s">
         <v>77</v>
       </c>
-      <c r="EQ3" s="1"/>
+      <c r="EQ3" t="s">
+        <v>77</v>
+      </c>
       <c r="ER3" s="1"/>
-      <c r="ES3" s="1"/>
+      <c r="ES3" t="s">
+        <v>77</v>
+      </c>
       <c r="ET3" s="1"/>
       <c r="EU3" s="1"/>
       <c r="EV3" s="1"/>
@@ -2923,9 +2934,13 @@
       <c r="EP4" t="s">
         <v>77</v>
       </c>
-      <c r="EQ4" s="1"/>
+      <c r="EQ4" t="s">
+        <v>77</v>
+      </c>
       <c r="ER4" s="1"/>
-      <c r="ES4" s="1"/>
+      <c r="ES4" t="s">
+        <v>77</v>
+      </c>
       <c r="ET4" s="1"/>
       <c r="EU4" s="1"/>
       <c r="EV4" s="1"/>
@@ -3326,9 +3341,13 @@
       <c r="EP5" t="s">
         <v>77</v>
       </c>
-      <c r="EQ5" s="1"/>
+      <c r="EQ5" t="s">
+        <v>77</v>
+      </c>
       <c r="ER5" s="1"/>
-      <c r="ES5" s="1"/>
+      <c r="ES5" t="s">
+        <v>77</v>
+      </c>
       <c r="ET5" s="1"/>
       <c r="EU5" s="1"/>
       <c r="EV5" s="1"/>
@@ -3729,9 +3748,13 @@
       <c r="EP6" t="s">
         <v>77</v>
       </c>
-      <c r="EQ6" s="1"/>
+      <c r="EQ6" t="s">
+        <v>77</v>
+      </c>
       <c r="ER6" s="1"/>
-      <c r="ES6" s="1"/>
+      <c r="ES6" t="s">
+        <v>77</v>
+      </c>
       <c r="ET6" s="1"/>
       <c r="EU6" s="1"/>
       <c r="EV6" s="1"/>
@@ -4132,9 +4155,13 @@
       <c r="EP7" t="s">
         <v>77</v>
       </c>
-      <c r="EQ7" s="1"/>
+      <c r="EQ7" t="s">
+        <v>77</v>
+      </c>
       <c r="ER7" s="1"/>
-      <c r="ES7" s="1"/>
+      <c r="ES7" t="s">
+        <v>77</v>
+      </c>
       <c r="ET7" s="1"/>
       <c r="EU7" s="1"/>
       <c r="EV7" s="1"/>
@@ -4535,9 +4562,13 @@
       <c r="EP8" t="s">
         <v>77</v>
       </c>
-      <c r="EQ8" s="1"/>
+      <c r="EQ8" t="s">
+        <v>77</v>
+      </c>
       <c r="ER8" s="1"/>
-      <c r="ES8" s="1"/>
+      <c r="ES8" t="s">
+        <v>77</v>
+      </c>
       <c r="ET8" s="1"/>
       <c r="EU8" s="1"/>
       <c r="EV8" s="1"/>
@@ -4964,9 +4995,13 @@
       <c r="EP9" t="s">
         <v>77</v>
       </c>
-      <c r="EQ9" s="1"/>
+      <c r="EQ9" t="s">
+        <v>77</v>
+      </c>
       <c r="ER9" s="1"/>
-      <c r="ES9" s="1"/>
+      <c r="ES9" t="s">
+        <v>77</v>
+      </c>
       <c r="ET9" s="1"/>
       <c r="EU9" s="1"/>
       <c r="EV9" s="1"/>
@@ -5001,7 +5036,7 @@
       <c r="FY9" s="1"/>
       <c r="FZ9" s="1"/>
       <c r="GA9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10">
@@ -5387,9 +5422,13 @@
       <c r="EP10" t="s">
         <v>77</v>
       </c>
-      <c r="EQ10" s="1"/>
+      <c r="EQ10" t="s">
+        <v>77</v>
+      </c>
       <c r="ER10" s="1"/>
-      <c r="ES10" s="1"/>
+      <c r="ES10" t="s">
+        <v>77</v>
+      </c>
       <c r="ET10" s="1"/>
       <c r="EU10" s="1"/>
       <c r="EV10" s="1"/>
@@ -5424,7 +5463,7 @@
       <c r="FY10" s="1"/>
       <c r="FZ10" s="1"/>
       <c r="GA10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
@@ -5794,9 +5833,13 @@
       <c r="EP11" t="s">
         <v>77</v>
       </c>
-      <c r="EQ11" s="1"/>
+      <c r="EQ11" t="s">
+        <v>77</v>
+      </c>
       <c r="ER11" s="1"/>
-      <c r="ES11" s="1"/>
+      <c r="ES11" t="s">
+        <v>77</v>
+      </c>
       <c r="ET11" s="1"/>
       <c r="EU11" s="1"/>
       <c r="EV11" s="1"/>
@@ -5831,7 +5874,7 @@
       <c r="FY11" s="1"/>
       <c r="FZ11" s="1"/>
       <c r="GA11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12">
@@ -6227,9 +6270,13 @@
       <c r="EP12" t="s">
         <v>77</v>
       </c>
-      <c r="EQ12" s="1"/>
+      <c r="EQ12" t="s">
+        <v>77</v>
+      </c>
       <c r="ER12" s="1"/>
-      <c r="ES12" s="1"/>
+      <c r="ES12" t="s">
+        <v>77</v>
+      </c>
       <c r="ET12" s="1"/>
       <c r="EU12" s="1"/>
       <c r="EV12" s="1"/>
@@ -6264,7 +6311,7 @@
       <c r="FY12" s="1"/>
       <c r="FZ12" s="1"/>
       <c r="GA12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13">
@@ -6662,9 +6709,13 @@
       <c r="EP13" t="s">
         <v>77</v>
       </c>
-      <c r="EQ13" s="1"/>
+      <c r="EQ13" t="s">
+        <v>77</v>
+      </c>
       <c r="ER13" s="1"/>
-      <c r="ES13" s="1"/>
+      <c r="ES13" t="s">
+        <v>77</v>
+      </c>
       <c r="ET13" s="1"/>
       <c r="EU13" s="1"/>
       <c r="EV13" s="1"/>
@@ -6699,7 +6750,7 @@
       <c r="FY13" s="1"/>
       <c r="FZ13" s="1"/>
       <c r="GA13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14">
@@ -7095,9 +7146,13 @@
       <c r="EP14" t="s">
         <v>77</v>
       </c>
-      <c r="EQ14" s="1"/>
+      <c r="EQ14" t="s">
+        <v>77</v>
+      </c>
       <c r="ER14" s="1"/>
-      <c r="ES14" s="1"/>
+      <c r="ES14" t="s">
+        <v>77</v>
+      </c>
       <c r="ET14" s="1"/>
       <c r="EU14" s="1"/>
       <c r="EV14" s="1"/>
@@ -7132,7 +7187,7 @@
       <c r="FY14" s="1"/>
       <c r="FZ14" s="1"/>
       <c r="GA14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15">
@@ -7518,9 +7573,13 @@
       <c r="EP15" t="s">
         <v>77</v>
       </c>
-      <c r="EQ15" s="1"/>
+      <c r="EQ15" t="s">
+        <v>77</v>
+      </c>
       <c r="ER15" s="1"/>
-      <c r="ES15" s="1"/>
+      <c r="ES15" t="s">
+        <v>77</v>
+      </c>
       <c r="ET15" s="1"/>
       <c r="EU15" s="1"/>
       <c r="EV15" s="1"/>
@@ -7555,7 +7614,7 @@
       <c r="FY15" s="1"/>
       <c r="FZ15" s="1"/>
       <c r="GA15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16">
@@ -7941,9 +8000,13 @@
       <c r="EP16" t="s">
         <v>77</v>
       </c>
-      <c r="EQ16" s="1"/>
+      <c r="EQ16" t="s">
+        <v>77</v>
+      </c>
       <c r="ER16" s="1"/>
-      <c r="ES16" s="1"/>
+      <c r="ES16" t="s">
+        <v>77</v>
+      </c>
       <c r="ET16" s="1"/>
       <c r="EU16" s="1"/>
       <c r="EV16" s="1"/>
@@ -7978,7 +8041,7 @@
       <c r="FY16" s="1"/>
       <c r="FZ16" s="1"/>
       <c r="GA16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17">
@@ -8350,9 +8413,13 @@
       <c r="EP17" t="s">
         <v>77</v>
       </c>
-      <c r="EQ17" s="1"/>
+      <c r="EQ17" t="s">
+        <v>77</v>
+      </c>
       <c r="ER17" s="1"/>
-      <c r="ES17" s="1"/>
+      <c r="ES17" t="s">
+        <v>77</v>
+      </c>
       <c r="ET17" s="1"/>
       <c r="EU17" s="1"/>
       <c r="EV17" s="1"/>
@@ -8387,7 +8454,7 @@
       <c r="FY17" s="1"/>
       <c r="FZ17" s="1"/>
       <c r="GA17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18">
@@ -8759,9 +8826,13 @@
       <c r="EP18" t="s">
         <v>77</v>
       </c>
-      <c r="EQ18" s="1"/>
+      <c r="EQ18" t="s">
+        <v>77</v>
+      </c>
       <c r="ER18" s="1"/>
-      <c r="ES18" s="1"/>
+      <c r="ES18" t="s">
+        <v>77</v>
+      </c>
       <c r="ET18" s="1"/>
       <c r="EU18" s="1"/>
       <c r="EV18" s="1"/>
@@ -8796,7 +8867,7 @@
       <c r="FY18" s="1"/>
       <c r="FZ18" s="1"/>
       <c r="GA18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19">
@@ -9168,9 +9239,13 @@
       <c r="EP19" t="s">
         <v>77</v>
       </c>
-      <c r="EQ19" s="1"/>
+      <c r="EQ19" t="s">
+        <v>77</v>
+      </c>
       <c r="ER19" s="1"/>
-      <c r="ES19" s="1"/>
+      <c r="ES19" t="s">
+        <v>77</v>
+      </c>
       <c r="ET19" s="1"/>
       <c r="EU19" s="1"/>
       <c r="EV19" s="1"/>
@@ -9205,7 +9280,7 @@
       <c r="FY19" s="1"/>
       <c r="FZ19" s="1"/>
       <c r="GA19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20">
@@ -9577,9 +9652,13 @@
       <c r="EP20" t="s">
         <v>77</v>
       </c>
-      <c r="EQ20" s="1"/>
+      <c r="EQ20" t="s">
+        <v>77</v>
+      </c>
       <c r="ER20" s="1"/>
-      <c r="ES20" s="1"/>
+      <c r="ES20" t="s">
+        <v>77</v>
+      </c>
       <c r="ET20" s="1"/>
       <c r="EU20" s="1"/>
       <c r="EV20" s="1"/>
@@ -9614,7 +9693,7 @@
       <c r="FY20" s="1"/>
       <c r="FZ20" s="1"/>
       <c r="GA20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21">
@@ -9972,11 +10051,13 @@
         <v>266</v>
       </c>
       <c r="DV21" t="s">
-        <v>77</v>
-      </c>
-      <c r="DW21" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="DW21" s="1">
+        <v>28</v>
+      </c>
       <c r="DX21" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="DY21" t="s">
         <v>77</v>
@@ -10020,9 +10101,13 @@
       <c r="EP21" t="s">
         <v>77</v>
       </c>
-      <c r="EQ21" s="1"/>
+      <c r="EQ21" t="s">
+        <v>77</v>
+      </c>
       <c r="ER21" s="1"/>
-      <c r="ES21" s="1"/>
+      <c r="ES21" t="s">
+        <v>77</v>
+      </c>
       <c r="ET21" s="1"/>
       <c r="EU21" s="1"/>
       <c r="EV21" s="1"/>
@@ -10469,9 +10554,15 @@
       <c r="EP22" t="s">
         <v>266</v>
       </c>
-      <c r="EQ22" s="1"/>
-      <c r="ER22" s="1"/>
-      <c r="ES22" s="1"/>
+      <c r="EQ22" t="s">
+        <v>311</v>
+      </c>
+      <c r="ER22" s="1">
+        <v>19</v>
+      </c>
+      <c r="ES22" t="s">
+        <v>266</v>
+      </c>
       <c r="ET22" s="1"/>
       <c r="EU22" s="1"/>
       <c r="EV22" s="1"/>
@@ -10910,9 +11001,13 @@
       <c r="EP23" t="s">
         <v>77</v>
       </c>
-      <c r="EQ23" s="1"/>
+      <c r="EQ23" t="s">
+        <v>77</v>
+      </c>
       <c r="ER23" s="1"/>
-      <c r="ES23" s="1"/>
+      <c r="ES23" t="s">
+        <v>77</v>
+      </c>
       <c r="ET23" s="1"/>
       <c r="EU23" s="1"/>
       <c r="EV23" s="1"/>
@@ -10947,7 +11042,7 @@
       <c r="FY23" s="1"/>
       <c r="FZ23" s="1"/>
       <c r="GA23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24">
@@ -11345,9 +11440,13 @@
       <c r="EP24" t="s">
         <v>77</v>
       </c>
-      <c r="EQ24" s="1"/>
+      <c r="EQ24" t="s">
+        <v>77</v>
+      </c>
       <c r="ER24" s="1"/>
-      <c r="ES24" s="1"/>
+      <c r="ES24" t="s">
+        <v>77</v>
+      </c>
       <c r="ET24" s="1"/>
       <c r="EU24" s="1"/>
       <c r="EV24" s="1"/>
@@ -11754,9 +11853,13 @@
       <c r="EP25" t="s">
         <v>77</v>
       </c>
-      <c r="EQ25" s="1"/>
+      <c r="EQ25" t="s">
+        <v>77</v>
+      </c>
       <c r="ER25" s="1"/>
-      <c r="ES25" s="1"/>
+      <c r="ES25" t="s">
+        <v>77</v>
+      </c>
       <c r="ET25" s="1"/>
       <c r="EU25" s="1"/>
       <c r="EV25" s="1"/>
@@ -12159,9 +12262,13 @@
       <c r="EP26" t="s">
         <v>77</v>
       </c>
-      <c r="EQ26" s="1"/>
+      <c r="EQ26" t="s">
+        <v>77</v>
+      </c>
       <c r="ER26" s="1"/>
-      <c r="ES26" s="1"/>
+      <c r="ES26" t="s">
+        <v>77</v>
+      </c>
       <c r="ET26" s="1"/>
       <c r="EU26" s="1"/>
       <c r="EV26" s="1"/>
@@ -12196,7 +12303,7 @@
       <c r="FY26" s="1"/>
       <c r="FZ26" s="1"/>
       <c r="GA26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27">
@@ -12560,9 +12667,13 @@
       <c r="EP27" t="s">
         <v>77</v>
       </c>
-      <c r="EQ27" s="1"/>
+      <c r="EQ27" t="s">
+        <v>77</v>
+      </c>
       <c r="ER27" s="1"/>
-      <c r="ES27" s="1"/>
+      <c r="ES27" t="s">
+        <v>77</v>
+      </c>
       <c r="ET27" s="1"/>
       <c r="EU27" s="1"/>
       <c r="EV27" s="1"/>
@@ -12961,9 +13072,13 @@
       <c r="EP28" t="s">
         <v>77</v>
       </c>
-      <c r="EQ28" s="1"/>
+      <c r="EQ28" t="s">
+        <v>77</v>
+      </c>
       <c r="ER28" s="1"/>
-      <c r="ES28" s="1"/>
+      <c r="ES28" t="s">
+        <v>77</v>
+      </c>
       <c r="ET28" s="1"/>
       <c r="EU28" s="1"/>
       <c r="EV28" s="1"/>
@@ -12998,7 +13113,7 @@
       <c r="FY28" s="1"/>
       <c r="FZ28" s="1"/>
       <c r="GA28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29">
@@ -13362,9 +13477,13 @@
       <c r="EP29" t="s">
         <v>77</v>
       </c>
-      <c r="EQ29" s="1"/>
+      <c r="EQ29" t="s">
+        <v>77</v>
+      </c>
       <c r="ER29" s="1"/>
-      <c r="ES29" s="1"/>
+      <c r="ES29" t="s">
+        <v>77</v>
+      </c>
       <c r="ET29" s="1"/>
       <c r="EU29" s="1"/>
       <c r="EV29" s="1"/>
@@ -13399,7 +13518,7 @@
       <c r="FY29" s="1"/>
       <c r="FZ29" s="1"/>
       <c r="GA29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30">
@@ -13767,9 +13886,13 @@
       <c r="EP30" t="s">
         <v>77</v>
       </c>
-      <c r="EQ30" s="1"/>
+      <c r="EQ30" t="s">
+        <v>77</v>
+      </c>
       <c r="ER30" s="1"/>
-      <c r="ES30" s="1"/>
+      <c r="ES30" t="s">
+        <v>77</v>
+      </c>
       <c r="ET30" s="1"/>
       <c r="EU30" s="1"/>
       <c r="EV30" s="1"/>
@@ -13804,7 +13927,7 @@
       <c r="FY30" s="1"/>
       <c r="FZ30" s="1"/>
       <c r="GA30" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31">
@@ -14172,9 +14295,13 @@
       <c r="EP31" t="s">
         <v>77</v>
       </c>
-      <c r="EQ31" s="1"/>
+      <c r="EQ31" t="s">
+        <v>77</v>
+      </c>
       <c r="ER31" s="1"/>
-      <c r="ES31" s="1"/>
+      <c r="ES31" t="s">
+        <v>77</v>
+      </c>
       <c r="ET31" s="1"/>
       <c r="EU31" s="1"/>
       <c r="EV31" s="1"/>
@@ -14209,7 +14336,7 @@
       <c r="FY31" s="1"/>
       <c r="FZ31" s="1"/>
       <c r="GA31" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32">
@@ -14577,9 +14704,13 @@
       <c r="EP32" t="s">
         <v>77</v>
       </c>
-      <c r="EQ32" s="1"/>
+      <c r="EQ32" t="s">
+        <v>77</v>
+      </c>
       <c r="ER32" s="1"/>
-      <c r="ES32" s="1"/>
+      <c r="ES32" t="s">
+        <v>77</v>
+      </c>
       <c r="ET32" s="1"/>
       <c r="EU32" s="1"/>
       <c r="EV32" s="1"/>
@@ -14614,7 +14745,7 @@
       <c r="FY32" s="1"/>
       <c r="FZ32" s="1"/>
       <c r="GA32" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33">
@@ -14982,9 +15113,13 @@
       <c r="EP33" t="s">
         <v>77</v>
       </c>
-      <c r="EQ33" s="1"/>
+      <c r="EQ33" t="s">
+        <v>77</v>
+      </c>
       <c r="ER33" s="1"/>
-      <c r="ES33" s="1"/>
+      <c r="ES33" t="s">
+        <v>77</v>
+      </c>
       <c r="ET33" s="1"/>
       <c r="EU33" s="1"/>
       <c r="EV33" s="1"/>
@@ -15019,7 +15154,7 @@
       <c r="FY33" s="1"/>
       <c r="FZ33" s="1"/>
       <c r="GA33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34">
@@ -15373,9 +15508,13 @@
       <c r="EP34" t="s">
         <v>77</v>
       </c>
-      <c r="EQ34" s="1"/>
+      <c r="EQ34" t="s">
+        <v>77</v>
+      </c>
       <c r="ER34" s="1"/>
-      <c r="ES34" s="1"/>
+      <c r="ES34" t="s">
+        <v>77</v>
+      </c>
       <c r="ET34" s="1"/>
       <c r="EU34" s="1"/>
       <c r="EV34" s="1"/>
@@ -15410,7 +15549,7 @@
       <c r="FY34" s="1"/>
       <c r="FZ34" s="1"/>
       <c r="GA34" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35">
@@ -15764,9 +15903,13 @@
       <c r="EP35" t="s">
         <v>77</v>
       </c>
-      <c r="EQ35" s="1"/>
+      <c r="EQ35" t="s">
+        <v>77</v>
+      </c>
       <c r="ER35" s="1"/>
-      <c r="ES35" s="1"/>
+      <c r="ES35" t="s">
+        <v>77</v>
+      </c>
       <c r="ET35" s="1"/>
       <c r="EU35" s="1"/>
       <c r="EV35" s="1"/>
@@ -15801,7 +15944,7 @@
       <c r="FY35" s="1"/>
       <c r="FZ35" s="1"/>
       <c r="GA35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36">
@@ -16155,9 +16298,13 @@
       <c r="EP36" t="s">
         <v>77</v>
       </c>
-      <c r="EQ36" s="1"/>
+      <c r="EQ36" t="s">
+        <v>77</v>
+      </c>
       <c r="ER36" s="1"/>
-      <c r="ES36" s="1"/>
+      <c r="ES36" t="s">
+        <v>77</v>
+      </c>
       <c r="ET36" s="1"/>
       <c r="EU36" s="1"/>
       <c r="EV36" s="1"/>
@@ -16192,7 +16339,7 @@
       <c r="FY36" s="1"/>
       <c r="FZ36" s="1"/>
       <c r="GA36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37">
@@ -16546,9 +16693,13 @@
       <c r="EP37" t="s">
         <v>77</v>
       </c>
-      <c r="EQ37" s="1"/>
+      <c r="EQ37" t="s">
+        <v>77</v>
+      </c>
       <c r="ER37" s="1"/>
-      <c r="ES37" s="1"/>
+      <c r="ES37" t="s">
+        <v>77</v>
+      </c>
       <c r="ET37" s="1"/>
       <c r="EU37" s="1"/>
       <c r="EV37" s="1"/>
@@ -16583,7 +16734,7 @@
       <c r="FY37" s="1"/>
       <c r="FZ37" s="1"/>
       <c r="GA37" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38">
@@ -16937,9 +17088,13 @@
       <c r="EP38" t="s">
         <v>77</v>
       </c>
-      <c r="EQ38" s="1"/>
+      <c r="EQ38" t="s">
+        <v>77</v>
+      </c>
       <c r="ER38" s="1"/>
-      <c r="ES38" s="1"/>
+      <c r="ES38" t="s">
+        <v>77</v>
+      </c>
       <c r="ET38" s="1"/>
       <c r="EU38" s="1"/>
       <c r="EV38" s="1"/>
@@ -16974,7 +17129,7 @@
       <c r="FY38" s="1"/>
       <c r="FZ38" s="1"/>
       <c r="GA38" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39">
@@ -17330,9 +17485,13 @@
       <c r="EP39" t="s">
         <v>77</v>
       </c>
-      <c r="EQ39" s="1"/>
+      <c r="EQ39" t="s">
+        <v>77</v>
+      </c>
       <c r="ER39" s="1"/>
-      <c r="ES39" s="1"/>
+      <c r="ES39" t="s">
+        <v>77</v>
+      </c>
       <c r="ET39" s="1"/>
       <c r="EU39" s="1"/>
       <c r="EV39" s="1"/>
@@ -17723,9 +17882,13 @@
       <c r="EP40" t="s">
         <v>77</v>
       </c>
-      <c r="EQ40" s="1"/>
+      <c r="EQ40" t="s">
+        <v>77</v>
+      </c>
       <c r="ER40" s="1"/>
-      <c r="ES40" s="1"/>
+      <c r="ES40" t="s">
+        <v>77</v>
+      </c>
       <c r="ET40" s="1"/>
       <c r="EU40" s="1"/>
       <c r="EV40" s="1"/>
@@ -18116,9 +18279,13 @@
       <c r="EP41" t="s">
         <v>77</v>
       </c>
-      <c r="EQ41" s="1"/>
+      <c r="EQ41" t="s">
+        <v>77</v>
+      </c>
       <c r="ER41" s="1"/>
-      <c r="ES41" s="1"/>
+      <c r="ES41" t="s">
+        <v>77</v>
+      </c>
       <c r="ET41" s="1"/>
       <c r="EU41" s="1"/>
       <c r="EV41" s="1"/>
@@ -18509,9 +18676,13 @@
       <c r="EP42" t="s">
         <v>77</v>
       </c>
-      <c r="EQ42" s="1"/>
+      <c r="EQ42" t="s">
+        <v>77</v>
+      </c>
       <c r="ER42" s="1"/>
-      <c r="ES42" s="1"/>
+      <c r="ES42" t="s">
+        <v>77</v>
+      </c>
       <c r="ET42" s="1"/>
       <c r="EU42" s="1"/>
       <c r="EV42" s="1"/>
@@ -18902,9 +19073,13 @@
       <c r="EP43" t="s">
         <v>77</v>
       </c>
-      <c r="EQ43" s="1"/>
+      <c r="EQ43" t="s">
+        <v>77</v>
+      </c>
       <c r="ER43" s="1"/>
-      <c r="ES43" s="1"/>
+      <c r="ES43" t="s">
+        <v>77</v>
+      </c>
       <c r="ET43" s="1"/>
       <c r="EU43" s="1"/>
       <c r="EV43" s="1"/>
@@ -19297,9 +19472,13 @@
       <c r="EP44" t="s">
         <v>77</v>
       </c>
-      <c r="EQ44" s="1"/>
+      <c r="EQ44" t="s">
+        <v>77</v>
+      </c>
       <c r="ER44" s="1"/>
-      <c r="ES44" s="1"/>
+      <c r="ES44" t="s">
+        <v>77</v>
+      </c>
       <c r="ET44" s="1"/>
       <c r="EU44" s="1"/>
       <c r="EV44" s="1"/>
@@ -19334,7 +19513,7 @@
       <c r="FY44" s="1"/>
       <c r="FZ44" s="1"/>
       <c r="GA44" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45">
@@ -19692,9 +19871,13 @@
       <c r="EP45" t="s">
         <v>77</v>
       </c>
-      <c r="EQ45" s="1"/>
+      <c r="EQ45" t="s">
+        <v>77</v>
+      </c>
       <c r="ER45" s="1"/>
-      <c r="ES45" s="1"/>
+      <c r="ES45" t="s">
+        <v>77</v>
+      </c>
       <c r="ET45" s="1"/>
       <c r="EU45" s="1"/>
       <c r="EV45" s="1"/>
@@ -19729,7 +19912,7 @@
       <c r="FY45" s="1"/>
       <c r="FZ45" s="1"/>
       <c r="GA45" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46">
@@ -20089,9 +20272,13 @@
       <c r="EP46" t="s">
         <v>77</v>
       </c>
-      <c r="EQ46" s="1"/>
+      <c r="EQ46" t="s">
+        <v>77</v>
+      </c>
       <c r="ER46" s="1"/>
-      <c r="ES46" s="1"/>
+      <c r="ES46" t="s">
+        <v>77</v>
+      </c>
       <c r="ET46" s="1"/>
       <c r="EU46" s="1"/>
       <c r="EV46" s="1"/>
@@ -20126,7 +20313,7 @@
       <c r="FY46" s="1"/>
       <c r="FZ46" s="1"/>
       <c r="GA46" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47">
@@ -20480,9 +20667,13 @@
       <c r="EP47" t="s">
         <v>77</v>
       </c>
-      <c r="EQ47" s="1"/>
+      <c r="EQ47" t="s">
+        <v>77</v>
+      </c>
       <c r="ER47" s="1"/>
-      <c r="ES47" s="1"/>
+      <c r="ES47" t="s">
+        <v>77</v>
+      </c>
       <c r="ET47" s="1"/>
       <c r="EU47" s="1"/>
       <c r="EV47" s="1"/>
@@ -20517,7 +20708,7 @@
       <c r="FY47" s="1"/>
       <c r="FZ47" s="1"/>
       <c r="GA47" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
@@ -20881,9 +21072,13 @@
       <c r="EP48" t="s">
         <v>77</v>
       </c>
-      <c r="EQ48" s="1"/>
+      <c r="EQ48" t="s">
+        <v>77</v>
+      </c>
       <c r="ER48" s="1"/>
-      <c r="ES48" s="1"/>
+      <c r="ES48" t="s">
+        <v>77</v>
+      </c>
       <c r="ET48" s="1"/>
       <c r="EU48" s="1"/>
       <c r="EV48" s="1"/>
@@ -20918,7 +21113,7 @@
       <c r="FY48" s="1"/>
       <c r="FZ48" s="1"/>
       <c r="GA48" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49">
@@ -21272,9 +21467,13 @@
       <c r="EP49" t="s">
         <v>77</v>
       </c>
-      <c r="EQ49" s="1"/>
+      <c r="EQ49" t="s">
+        <v>77</v>
+      </c>
       <c r="ER49" s="1"/>
-      <c r="ES49" s="1"/>
+      <c r="ES49" t="s">
+        <v>77</v>
+      </c>
       <c r="ET49" s="1"/>
       <c r="EU49" s="1"/>
       <c r="EV49" s="1"/>
@@ -21309,7 +21508,7 @@
       <c r="FY49" s="1"/>
       <c r="FZ49" s="1"/>
       <c r="GA49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50">
@@ -21663,9 +21862,13 @@
       <c r="EP50" t="s">
         <v>77</v>
       </c>
-      <c r="EQ50" s="1"/>
+      <c r="EQ50" t="s">
+        <v>77</v>
+      </c>
       <c r="ER50" s="1"/>
-      <c r="ES50" s="1"/>
+      <c r="ES50" t="s">
+        <v>77</v>
+      </c>
       <c r="ET50" s="1"/>
       <c r="EU50" s="1"/>
       <c r="EV50" s="1"/>
@@ -21700,7 +21903,7 @@
       <c r="FY50" s="1"/>
       <c r="FZ50" s="1"/>
       <c r="GA50" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51">
@@ -22054,9 +22257,13 @@
       <c r="EP51" t="s">
         <v>77</v>
       </c>
-      <c r="EQ51" s="1"/>
+      <c r="EQ51" t="s">
+        <v>77</v>
+      </c>
       <c r="ER51" s="1"/>
-      <c r="ES51" s="1"/>
+      <c r="ES51" t="s">
+        <v>77</v>
+      </c>
       <c r="ET51" s="1"/>
       <c r="EU51" s="1"/>
       <c r="EV51" s="1"/>
@@ -22091,7 +22298,7 @@
       <c r="FY51" s="1"/>
       <c r="FZ51" s="1"/>
       <c r="GA51" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52">
@@ -22445,9 +22652,13 @@
       <c r="EP52" t="s">
         <v>77</v>
       </c>
-      <c r="EQ52" s="1"/>
+      <c r="EQ52" t="s">
+        <v>77</v>
+      </c>
       <c r="ER52" s="1"/>
-      <c r="ES52" s="1"/>
+      <c r="ES52" t="s">
+        <v>77</v>
+      </c>
       <c r="ET52" s="1"/>
       <c r="EU52" s="1"/>
       <c r="EV52" s="1"/>
@@ -22482,7 +22693,7 @@
       <c r="FY52" s="1"/>
       <c r="FZ52" s="1"/>
       <c r="GA52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53">
@@ -22836,9 +23047,13 @@
       <c r="EP53" t="s">
         <v>77</v>
       </c>
-      <c r="EQ53" s="1"/>
+      <c r="EQ53" t="s">
+        <v>77</v>
+      </c>
       <c r="ER53" s="1"/>
-      <c r="ES53" s="1"/>
+      <c r="ES53" t="s">
+        <v>77</v>
+      </c>
       <c r="ET53" s="1"/>
       <c r="EU53" s="1"/>
       <c r="EV53" s="1"/>
@@ -22873,7 +23088,7 @@
       <c r="FY53" s="1"/>
       <c r="FZ53" s="1"/>
       <c r="GA53" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54">
@@ -23227,9 +23442,13 @@
       <c r="EP54" t="s">
         <v>77</v>
       </c>
-      <c r="EQ54" s="1"/>
+      <c r="EQ54" t="s">
+        <v>77</v>
+      </c>
       <c r="ER54" s="1"/>
-      <c r="ES54" s="1"/>
+      <c r="ES54" t="s">
+        <v>77</v>
+      </c>
       <c r="ET54" s="1"/>
       <c r="EU54" s="1"/>
       <c r="EV54" s="1"/>
@@ -23264,7 +23483,7 @@
       <c r="FY54" s="1"/>
       <c r="FZ54" s="1"/>
       <c r="GA54" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55">
@@ -23626,9 +23845,13 @@
       <c r="EP55" t="s">
         <v>77</v>
       </c>
-      <c r="EQ55" s="1"/>
+      <c r="EQ55" t="s">
+        <v>77</v>
+      </c>
       <c r="ER55" s="1"/>
-      <c r="ES55" s="1"/>
+      <c r="ES55" t="s">
+        <v>77</v>
+      </c>
       <c r="ET55" s="1"/>
       <c r="EU55" s="1"/>
       <c r="EV55" s="1"/>
@@ -23663,7 +23886,7 @@
       <c r="FY55" s="1"/>
       <c r="FZ55" s="1"/>
       <c r="GA55" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56">
@@ -24029,9 +24252,13 @@
       <c r="EP56" t="s">
         <v>77</v>
       </c>
-      <c r="EQ56" s="1"/>
+      <c r="EQ56" t="s">
+        <v>77</v>
+      </c>
       <c r="ER56" s="1"/>
-      <c r="ES56" s="1"/>
+      <c r="ES56" t="s">
+        <v>77</v>
+      </c>
       <c r="ET56" s="1"/>
       <c r="EU56" s="1"/>
       <c r="EV56" s="1"/>
@@ -24066,7 +24293,7 @@
       <c r="FY56" s="1"/>
       <c r="FZ56" s="1"/>
       <c r="GA56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57">
@@ -24432,9 +24659,13 @@
       <c r="EP57" t="s">
         <v>77</v>
       </c>
-      <c r="EQ57" s="1"/>
+      <c r="EQ57" t="s">
+        <v>77</v>
+      </c>
       <c r="ER57" s="1"/>
-      <c r="ES57" s="1"/>
+      <c r="ES57" t="s">
+        <v>77</v>
+      </c>
       <c r="ET57" s="1"/>
       <c r="EU57" s="1"/>
       <c r="EV57" s="1"/>
@@ -24469,7 +24700,7 @@
       <c r="FY57" s="1"/>
       <c r="FZ57" s="1"/>
       <c r="GA57" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58">
@@ -24831,9 +25062,13 @@
       <c r="EP58" t="s">
         <v>77</v>
       </c>
-      <c r="EQ58" s="1"/>
+      <c r="EQ58" t="s">
+        <v>77</v>
+      </c>
       <c r="ER58" s="1"/>
-      <c r="ES58" s="1"/>
+      <c r="ES58" t="s">
+        <v>77</v>
+      </c>
       <c r="ET58" s="1"/>
       <c r="EU58" s="1"/>
       <c r="EV58" s="1"/>
@@ -25230,9 +25465,13 @@
       <c r="EP59" t="s">
         <v>77</v>
       </c>
-      <c r="EQ59" s="1"/>
+      <c r="EQ59" t="s">
+        <v>77</v>
+      </c>
       <c r="ER59" s="1"/>
-      <c r="ES59" s="1"/>
+      <c r="ES59" t="s">
+        <v>77</v>
+      </c>
       <c r="ET59" s="1"/>
       <c r="EU59" s="1"/>
       <c r="EV59" s="1"/>
@@ -25631,9 +25870,13 @@
       <c r="EP60" t="s">
         <v>77</v>
       </c>
-      <c r="EQ60" s="1"/>
+      <c r="EQ60" t="s">
+        <v>77</v>
+      </c>
       <c r="ER60" s="1"/>
-      <c r="ES60" s="1"/>
+      <c r="ES60" t="s">
+        <v>77</v>
+      </c>
       <c r="ET60" s="1"/>
       <c r="EU60" s="1"/>
       <c r="EV60" s="1"/>
@@ -25668,7 +25911,7 @@
       <c r="FY60" s="1"/>
       <c r="FZ60" s="1"/>
       <c r="GA60" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61">
@@ -26032,9 +26275,13 @@
       <c r="EP61" t="s">
         <v>77</v>
       </c>
-      <c r="EQ61" s="1"/>
+      <c r="EQ61" t="s">
+        <v>77</v>
+      </c>
       <c r="ER61" s="1"/>
-      <c r="ES61" s="1"/>
+      <c r="ES61" t="s">
+        <v>77</v>
+      </c>
       <c r="ET61" s="1"/>
       <c r="EU61" s="1"/>
       <c r="EV61" s="1"/>
@@ -26069,7 +26316,7 @@
       <c r="FY61" s="1"/>
       <c r="FZ61" s="1"/>
       <c r="GA61" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62">
@@ -26423,9 +26670,13 @@
       <c r="EP62" t="s">
         <v>77</v>
       </c>
-      <c r="EQ62" s="1"/>
+      <c r="EQ62" t="s">
+        <v>77</v>
+      </c>
       <c r="ER62" s="1"/>
-      <c r="ES62" s="1"/>
+      <c r="ES62" t="s">
+        <v>77</v>
+      </c>
       <c r="ET62" s="1"/>
       <c r="EU62" s="1"/>
       <c r="EV62" s="1"/>
@@ -26814,9 +27065,13 @@
       <c r="EP63" t="s">
         <v>77</v>
       </c>
-      <c r="EQ63" s="1"/>
+      <c r="EQ63" t="s">
+        <v>77</v>
+      </c>
       <c r="ER63" s="1"/>
-      <c r="ES63" s="1"/>
+      <c r="ES63" t="s">
+        <v>77</v>
+      </c>
       <c r="ET63" s="1"/>
       <c r="EU63" s="1"/>
       <c r="EV63" s="1"/>
@@ -27205,9 +27460,13 @@
       <c r="EP64" t="s">
         <v>77</v>
       </c>
-      <c r="EQ64" s="1"/>
+      <c r="EQ64" t="s">
+        <v>77</v>
+      </c>
       <c r="ER64" s="1"/>
-      <c r="ES64" s="1"/>
+      <c r="ES64" t="s">
+        <v>77</v>
+      </c>
       <c r="ET64" s="1"/>
       <c r="EU64" s="1"/>
       <c r="EV64" s="1"/>
@@ -27600,9 +27859,13 @@
       <c r="EP65" t="s">
         <v>77</v>
       </c>
-      <c r="EQ65" s="1"/>
+      <c r="EQ65" t="s">
+        <v>77</v>
+      </c>
       <c r="ER65" s="1"/>
-      <c r="ES65" s="1"/>
+      <c r="ES65" t="s">
+        <v>77</v>
+      </c>
       <c r="ET65" s="1"/>
       <c r="EU65" s="1"/>
       <c r="EV65" s="1"/>
@@ -27637,7 +27900,7 @@
       <c r="FY65" s="1"/>
       <c r="FZ65" s="1"/>
       <c r="GA65" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66">
@@ -27991,9 +28254,13 @@
       <c r="EP66" t="s">
         <v>77</v>
       </c>
-      <c r="EQ66" s="1"/>
+      <c r="EQ66" t="s">
+        <v>77</v>
+      </c>
       <c r="ER66" s="1"/>
-      <c r="ES66" s="1"/>
+      <c r="ES66" t="s">
+        <v>77</v>
+      </c>
       <c r="ET66" s="1"/>
       <c r="EU66" s="1"/>
       <c r="EV66" s="1"/>
@@ -28028,7 +28295,7 @@
       <c r="FY66" s="1"/>
       <c r="FZ66" s="1"/>
       <c r="GA66" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67">
@@ -28392,9 +28659,13 @@
       <c r="EP67" t="s">
         <v>77</v>
       </c>
-      <c r="EQ67" s="1"/>
+      <c r="EQ67" t="s">
+        <v>77</v>
+      </c>
       <c r="ER67" s="1"/>
-      <c r="ES67" s="1"/>
+      <c r="ES67" t="s">
+        <v>77</v>
+      </c>
       <c r="ET67" s="1"/>
       <c r="EU67" s="1"/>
       <c r="EV67" s="1"/>
@@ -28429,7 +28700,7 @@
       <c r="FY67" s="1"/>
       <c r="FZ67" s="1"/>
       <c r="GA67" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68">
@@ -28791,9 +29062,13 @@
       <c r="EP68" t="s">
         <v>77</v>
       </c>
-      <c r="EQ68" s="1"/>
+      <c r="EQ68" t="s">
+        <v>77</v>
+      </c>
       <c r="ER68" s="1"/>
-      <c r="ES68" s="1"/>
+      <c r="ES68" t="s">
+        <v>77</v>
+      </c>
       <c r="ET68" s="1"/>
       <c r="EU68" s="1"/>
       <c r="EV68" s="1"/>
@@ -28828,7 +29103,7 @@
       <c r="FY68" s="1"/>
       <c r="FZ68" s="1"/>
       <c r="GA68" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69">
@@ -29190,9 +29465,13 @@
       <c r="EP69" t="s">
         <v>77</v>
       </c>
-      <c r="EQ69" s="1"/>
+      <c r="EQ69" t="s">
+        <v>77</v>
+      </c>
       <c r="ER69" s="1"/>
-      <c r="ES69" s="1"/>
+      <c r="ES69" t="s">
+        <v>77</v>
+      </c>
       <c r="ET69" s="1"/>
       <c r="EU69" s="1"/>
       <c r="EV69" s="1"/>
@@ -29227,7 +29506,7 @@
       <c r="FY69" s="1"/>
       <c r="FZ69" s="1"/>
       <c r="GA69" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70">
@@ -29587,9 +29866,13 @@
       <c r="EP70" t="s">
         <v>77</v>
       </c>
-      <c r="EQ70" s="1"/>
+      <c r="EQ70" t="s">
+        <v>77</v>
+      </c>
       <c r="ER70" s="1"/>
-      <c r="ES70" s="1"/>
+      <c r="ES70" t="s">
+        <v>77</v>
+      </c>
       <c r="ET70" s="1"/>
       <c r="EU70" s="1"/>
       <c r="EV70" s="1"/>
@@ -29624,7 +29907,7 @@
       <c r="FY70" s="1"/>
       <c r="FZ70" s="1"/>
       <c r="GA70" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71">
@@ -29984,9 +30267,13 @@
       <c r="EP71" t="s">
         <v>77</v>
       </c>
-      <c r="EQ71" s="1"/>
+      <c r="EQ71" t="s">
+        <v>77</v>
+      </c>
       <c r="ER71" s="1"/>
-      <c r="ES71" s="1"/>
+      <c r="ES71" t="s">
+        <v>77</v>
+      </c>
       <c r="ET71" s="1"/>
       <c r="EU71" s="1"/>
       <c r="EV71" s="1"/>
@@ -30021,7 +30308,7 @@
       <c r="FY71" s="1"/>
       <c r="FZ71" s="1"/>
       <c r="GA71" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72">
@@ -30381,9 +30668,13 @@
       <c r="EP72" t="s">
         <v>77</v>
       </c>
-      <c r="EQ72" s="1"/>
+      <c r="EQ72" t="s">
+        <v>77</v>
+      </c>
       <c r="ER72" s="1"/>
-      <c r="ES72" s="1"/>
+      <c r="ES72" t="s">
+        <v>77</v>
+      </c>
       <c r="ET72" s="1"/>
       <c r="EU72" s="1"/>
       <c r="EV72" s="1"/>
@@ -30778,9 +31069,13 @@
       <c r="EP73" t="s">
         <v>77</v>
       </c>
-      <c r="EQ73" s="1"/>
+      <c r="EQ73" t="s">
+        <v>77</v>
+      </c>
       <c r="ER73" s="1"/>
-      <c r="ES73" s="1"/>
+      <c r="ES73" t="s">
+        <v>77</v>
+      </c>
       <c r="ET73" s="1"/>
       <c r="EU73" s="1"/>
       <c r="EV73" s="1"/>
@@ -31171,9 +31466,13 @@
       <c r="EP74" t="s">
         <v>77</v>
       </c>
-      <c r="EQ74" s="1"/>
+      <c r="EQ74" t="s">
+        <v>77</v>
+      </c>
       <c r="ER74" s="1"/>
-      <c r="ES74" s="1"/>
+      <c r="ES74" t="s">
+        <v>77</v>
+      </c>
       <c r="ET74" s="1"/>
       <c r="EU74" s="1"/>
       <c r="EV74" s="1"/>
@@ -31564,9 +31863,13 @@
       <c r="EP75" t="s">
         <v>77</v>
       </c>
-      <c r="EQ75" s="1"/>
+      <c r="EQ75" t="s">
+        <v>77</v>
+      </c>
       <c r="ER75" s="1"/>
-      <c r="ES75" s="1"/>
+      <c r="ES75" t="s">
+        <v>77</v>
+      </c>
       <c r="ET75" s="1"/>
       <c r="EU75" s="1"/>
       <c r="EV75" s="1"/>

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7983" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7983" uniqueCount="376">
   <si>
     <t>crop</t>
   </si>
@@ -666,12 +666,6 @@
     <t>path_ipm_date_1_1</t>
   </si>
   <si>
-    <t>24jul2024</t>
-  </si>
-  <si>
-    <t>18aug2024</t>
-  </si>
-  <si>
     <t>path_ipm_type_1_2</t>
   </si>
   <si>
@@ -702,7 +696,7 @@
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>24aug2024</t>
+    <t>2024-08-24</t>
   </si>
   <si>
     <t>path_ipm_type_2_1</t>
@@ -781,9 +775,6 @@
   </si>
   <si>
     <t>2024-06-29</t>
-  </si>
-  <si>
-    <t>2024-08-24</t>
   </si>
   <si>
     <t>2024-08-02</t>
@@ -1421,337 +1412,337 @@
         <v>216</v>
       </c>
       <c r="BU1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BW1" t="s">
         <v>219</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>220</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>221</v>
       </c>
-      <c r="BX1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>223</v>
-      </c>
       <c r="BZ1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CA1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CC1" t="s">
         <v>230</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>231</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>232</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>233</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>234</v>
       </c>
-      <c r="CF1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>236</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>238</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>240</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CL1" t="s">
         <v>242</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>243</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>244</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>245</v>
       </c>
-      <c r="CN1" t="s">
-        <v>246</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>247</v>
-      </c>
       <c r="CP1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="CQ1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="CR1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="CS1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="CT1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="CU1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CV1" t="s">
         <v>271</v>
       </c>
-      <c r="CV1" t="s">
-        <v>274</v>
-      </c>
       <c r="CW1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>273</v>
+      </c>
+      <c r="CY1" t="s">
         <v>275</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>276</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
+        <v>277</v>
+      </c>
+      <c r="DB1" t="s">
         <v>278</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DC1" t="s">
         <v>279</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DD1" t="s">
         <v>280</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DE1" t="s">
         <v>281</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DF1" t="s">
         <v>282</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DG1" t="s">
         <v>283</v>
       </c>
-      <c r="DE1" t="s">
-        <v>284</v>
-      </c>
-      <c r="DF1" t="s">
+      <c r="DH1" t="s">
         <v>285</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" t="s">
         <v>286</v>
       </c>
-      <c r="DH1" t="s">
-        <v>288</v>
-      </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
+        <v>287</v>
+      </c>
+      <c r="DK1" t="s">
         <v>289</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" t="s">
         <v>290</v>
       </c>
-      <c r="DK1" t="s">
-        <v>292</v>
-      </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
+        <v>291</v>
+      </c>
+      <c r="DN1" t="s">
         <v>293</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DO1" t="s">
         <v>294</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DP1" t="s">
+        <v>295</v>
+      </c>
+      <c r="DQ1" t="s">
         <v>296</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DR1" t="s">
         <v>297</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DS1" t="s">
         <v>298</v>
       </c>
-      <c r="DQ1" t="s">
-        <v>299</v>
-      </c>
-      <c r="DR1" t="s">
+      <c r="DT1" t="s">
         <v>300</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DU1" t="s">
         <v>301</v>
       </c>
-      <c r="DT1" t="s">
-        <v>303</v>
-      </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
+        <v>302</v>
+      </c>
+      <c r="DW1" t="s">
         <v>304</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DX1" t="s">
         <v>305</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DY1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DZ1" t="s">
         <v>307</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="EA1" t="s">
         <v>308</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EB1" t="s">
         <v>309</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EC1" t="s">
         <v>310</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="ED1" t="s">
         <v>311</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EE1" t="s">
         <v>312</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EF1" t="s">
         <v>313</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EG1" t="s">
         <v>314</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EH1" t="s">
         <v>315</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EI1" t="s">
         <v>316</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EJ1" t="s">
         <v>317</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EK1" t="s">
         <v>318</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EL1" t="s">
         <v>319</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EM1" t="s">
         <v>320</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EN1" t="s">
         <v>321</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EO1" t="s">
         <v>322</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EP1" t="s">
         <v>323</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EQ1" t="s">
         <v>324</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="ER1" t="s">
         <v>325</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="ES1" t="s">
         <v>326</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ET1" t="s">
         <v>327</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="EU1" t="s">
         <v>328</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="EV1" t="s">
         <v>329</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EW1" t="s">
         <v>330</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EX1" t="s">
         <v>331</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EY1" t="s">
         <v>332</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EZ1" t="s">
         <v>333</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="FA1" t="s">
         <v>334</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FB1" t="s">
         <v>335</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FC1" t="s">
         <v>336</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FD1" t="s">
         <v>337</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FE1" t="s">
         <v>338</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FF1" t="s">
         <v>339</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FG1" t="s">
         <v>340</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FH1" t="s">
         <v>341</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FI1" t="s">
         <v>342</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FJ1" t="s">
         <v>343</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FK1" t="s">
         <v>344</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FL1" t="s">
         <v>345</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FM1" t="s">
         <v>346</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FN1" t="s">
         <v>347</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FO1" t="s">
         <v>348</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FP1" t="s">
         <v>349</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FQ1" t="s">
         <v>350</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FR1" t="s">
         <v>351</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FS1" t="s">
         <v>352</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FT1" t="s">
         <v>353</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FU1" t="s">
         <v>354</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FV1" t="s">
         <v>355</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FW1" t="s">
         <v>356</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FX1" t="s">
         <v>357</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FY1" t="s">
         <v>358</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FZ1" t="s">
         <v>359</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="GA1" t="s">
         <v>360</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>361</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>362</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2">
@@ -1992,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="CQ2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR2" t="s">
         <v>62</v>
@@ -2001,7 +1992,7 @@
         <v>29</v>
       </c>
       <c r="CT2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU2" t="s">
         <v>76</v>
@@ -4863,7 +4854,7 @@
       <c r="BW9" s="1"/>
       <c r="BX9" s="1"/>
       <c r="BY9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BZ9" t="s">
         <v>208</v>
@@ -4901,34 +4892,34 @@
         <v>5</v>
       </c>
       <c r="CQ9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="CS9" s="1">
         <v>5</v>
       </c>
       <c r="CT9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CV9" s="1">
         <v>6</v>
       </c>
       <c r="CW9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CY9" s="1">
         <v>10</v>
       </c>
       <c r="CZ9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DA9" t="s">
         <v>101</v>
@@ -4937,7 +4928,7 @@
         <v>7</v>
       </c>
       <c r="DC9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DD9" t="s">
         <v>101</v>
@@ -4946,16 +4937,16 @@
         <v>12</v>
       </c>
       <c r="DF9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DG9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="DH9" s="1">
         <v>6</v>
       </c>
       <c r="DI9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DJ9" t="s">
         <v>140</v>
@@ -4964,52 +4955,52 @@
         <v>14</v>
       </c>
       <c r="DL9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DM9" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="DN9" s="1">
         <v>13</v>
       </c>
       <c r="DO9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DP9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="DQ9" s="1">
         <v>5</v>
       </c>
       <c r="DR9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DS9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DT9" s="1">
         <v>9</v>
       </c>
       <c r="DU9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DV9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="DW9" s="1">
         <v>14</v>
       </c>
       <c r="DX9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DY9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="DZ9" s="1">
         <v>6</v>
       </c>
       <c r="EA9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="EB9" t="s">
         <v>76</v>
@@ -5087,7 +5078,7 @@
       <c r="FY9" s="1"/>
       <c r="FZ9" s="1"/>
       <c r="GA9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10">
@@ -5340,40 +5331,40 @@
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
       <c r="CO10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="CP10" s="1">
         <v>4</v>
       </c>
       <c r="CQ10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CS10" s="1">
         <v>2</v>
       </c>
       <c r="CT10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="CV10" s="1">
         <v>6</v>
       </c>
       <c r="CW10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CY10" s="1">
         <v>6</v>
       </c>
       <c r="CZ10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DA10" t="s">
         <v>140</v>
@@ -5382,43 +5373,43 @@
         <v>22</v>
       </c>
       <c r="DC10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DD10" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="DE10" s="1">
         <v>32</v>
       </c>
       <c r="DF10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DG10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="DH10" s="1">
         <v>20</v>
       </c>
       <c r="DI10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DJ10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DK10" s="1">
         <v>9</v>
       </c>
       <c r="DL10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DM10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="DN10" s="1">
         <v>23</v>
       </c>
       <c r="DO10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DP10" t="s">
         <v>76</v>
@@ -5524,7 +5515,7 @@
       <c r="FY10" s="1"/>
       <c r="FZ10" s="1"/>
       <c r="GA10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11">
@@ -5943,7 +5934,7 @@
       <c r="FY11" s="1"/>
       <c r="FZ11" s="1"/>
       <c r="GA11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12">
@@ -6196,13 +6187,13 @@
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
       <c r="CO12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CP12" s="1">
         <v>4</v>
       </c>
       <c r="CQ12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR12" t="s">
         <v>167</v>
@@ -6211,34 +6202,34 @@
         <v>4</v>
       </c>
       <c r="CT12" t="s">
+        <v>258</v>
+      </c>
+      <c r="CU12" t="s">
         <v>261</v>
-      </c>
-      <c r="CU12" t="s">
-        <v>264</v>
       </c>
       <c r="CV12" s="1">
         <v>7</v>
       </c>
       <c r="CW12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CX12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CY12" s="1">
         <v>6</v>
       </c>
       <c r="CZ12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DA12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="DB12" s="1">
         <v>15</v>
       </c>
       <c r="DC12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DD12" t="s">
         <v>101</v>
@@ -6247,25 +6238,25 @@
         <v>5</v>
       </c>
       <c r="DF12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DG12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DH12" s="1">
         <v>8</v>
       </c>
       <c r="DI12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DJ12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="DK12" s="1">
         <v>15</v>
       </c>
       <c r="DL12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DM12" t="s">
         <v>140</v>
@@ -6274,52 +6265,52 @@
         <v>10</v>
       </c>
       <c r="DO12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DP12" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="DQ12" s="1">
         <v>19</v>
       </c>
       <c r="DR12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DS12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="DT12" s="1">
         <v>11</v>
       </c>
       <c r="DU12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DV12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="DW12" s="1">
         <v>9</v>
       </c>
       <c r="DX12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DY12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DZ12" s="1">
         <v>15</v>
       </c>
       <c r="EA12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EB12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="EC12" s="1">
         <v>39</v>
       </c>
       <c r="ED12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EE12" t="s">
         <v>76</v>
@@ -6390,7 +6381,7 @@
       <c r="FY12" s="1"/>
       <c r="FZ12" s="1"/>
       <c r="GA12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
@@ -6643,13 +6634,13 @@
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
       <c r="CO13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CP13" s="1">
         <v>12</v>
       </c>
       <c r="CQ13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR13" t="s">
         <v>167</v>
@@ -6658,70 +6649,70 @@
         <v>8</v>
       </c>
       <c r="CT13" t="s">
+        <v>258</v>
+      </c>
+      <c r="CU13" t="s">
         <v>261</v>
-      </c>
-      <c r="CU13" t="s">
-        <v>264</v>
       </c>
       <c r="CV13" s="1">
         <v>20</v>
       </c>
       <c r="CW13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CX13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="CY13" s="1">
         <v>10</v>
       </c>
       <c r="CZ13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DA13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="DB13" s="1">
         <v>7</v>
       </c>
       <c r="DC13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DD13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="DE13" s="1">
         <v>77</v>
       </c>
       <c r="DF13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DG13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="DH13" s="1">
         <v>13</v>
       </c>
       <c r="DI13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DJ13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DK13" s="1">
         <v>6</v>
       </c>
       <c r="DL13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DM13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="DN13" s="1">
         <v>6.75</v>
       </c>
       <c r="DO13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DP13" t="s">
         <v>140</v>
@@ -6730,52 +6721,52 @@
         <v>99</v>
       </c>
       <c r="DR13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DS13" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="DT13" s="1">
         <v>99</v>
       </c>
       <c r="DU13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DV13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="DW13" s="1">
         <v>74</v>
       </c>
       <c r="DX13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DY13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="DZ13" s="1">
         <v>5</v>
       </c>
       <c r="EA13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="EB13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="EC13" s="1">
         <v>45</v>
       </c>
       <c r="ED13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EE13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="EF13" s="1">
         <v>50</v>
       </c>
       <c r="EG13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EH13" t="s">
         <v>76</v>
@@ -6839,7 +6830,7 @@
       <c r="FY13" s="1"/>
       <c r="FZ13" s="1"/>
       <c r="GA13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14">
@@ -7092,13 +7083,13 @@
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
       <c r="CO14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CP14" s="1">
         <v>1</v>
       </c>
       <c r="CQ14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="CR14" t="s">
         <v>167</v>
@@ -7107,34 +7098,34 @@
         <v>8</v>
       </c>
       <c r="CT14" t="s">
+        <v>258</v>
+      </c>
+      <c r="CU14" t="s">
         <v>261</v>
-      </c>
-      <c r="CU14" t="s">
-        <v>264</v>
       </c>
       <c r="CV14" s="1">
         <v>5</v>
       </c>
       <c r="CW14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CX14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CY14" s="1">
         <v>9</v>
       </c>
       <c r="CZ14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DA14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="DB14" s="1">
         <v>15</v>
       </c>
       <c r="DC14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DD14" t="s">
         <v>101</v>
@@ -7143,25 +7134,25 @@
         <v>12</v>
       </c>
       <c r="DF14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DG14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DH14" s="1">
         <v>25</v>
       </c>
       <c r="DI14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DJ14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="DK14" s="1">
         <v>17</v>
       </c>
       <c r="DL14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DM14" t="s">
         <v>140</v>
@@ -7170,52 +7161,52 @@
         <v>4</v>
       </c>
       <c r="DO14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DP14" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="DQ14" s="1">
         <v>25</v>
       </c>
       <c r="DR14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DS14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="DT14" s="1">
         <v>35</v>
       </c>
       <c r="DU14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DV14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="DW14" s="1">
         <v>16</v>
       </c>
       <c r="DX14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DY14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DZ14" s="1">
         <v>19</v>
       </c>
       <c r="EA14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EB14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="EC14" s="1">
         <v>24</v>
       </c>
       <c r="ED14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EE14" t="s">
         <v>76</v>
@@ -7286,7 +7277,7 @@
       <c r="FY14" s="1"/>
       <c r="FZ14" s="1"/>
       <c r="GA14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15">
@@ -7545,52 +7536,52 @@
         <v>2</v>
       </c>
       <c r="CQ15" t="s">
+        <v>258</v>
+      </c>
+      <c r="CR15" t="s">
         <v>261</v>
-      </c>
-      <c r="CR15" t="s">
-        <v>264</v>
       </c>
       <c r="CS15" s="1">
         <v>3</v>
       </c>
       <c r="CT15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CU15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CV15" s="1">
         <v>7</v>
       </c>
       <c r="CW15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CX15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="CY15" s="1">
         <v>3</v>
       </c>
       <c r="CZ15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DA15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="DB15" s="1">
         <v>13</v>
       </c>
       <c r="DC15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DD15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="DE15" s="1">
         <v>13</v>
       </c>
       <c r="DF15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DG15" t="s">
         <v>140</v>
@@ -7599,32 +7590,32 @@
         <v>15</v>
       </c>
       <c r="DI15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DJ15" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="DK15" s="1"/>
       <c r="DL15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DM15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DN15" s="1">
         <v>11</v>
       </c>
       <c r="DO15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DP15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="DQ15" s="1">
         <v>11</v>
       </c>
       <c r="DR15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DS15" t="s">
         <v>76</v>
@@ -7723,7 +7714,7 @@
       <c r="FY15" s="1"/>
       <c r="FZ15" s="1"/>
       <c r="GA15" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16">
@@ -7976,31 +7967,31 @@
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
       <c r="CO16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CP16" s="1">
         <v>9</v>
       </c>
       <c r="CQ16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CS16" s="1">
         <v>9</v>
       </c>
       <c r="CT16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CU16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CV16" s="1">
         <v>13</v>
       </c>
       <c r="CW16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CX16" t="s">
         <v>140</v>
@@ -8009,52 +8000,52 @@
         <v>13</v>
       </c>
       <c r="CZ16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DA16" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="DB16" s="1">
         <v>13</v>
       </c>
       <c r="DC16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DD16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="DE16" s="1">
         <v>8</v>
       </c>
       <c r="DF16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DG16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="DH16" s="1">
         <v>6</v>
       </c>
       <c r="DI16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DJ16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DK16" s="1">
         <v>15</v>
       </c>
       <c r="DL16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DM16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="DN16" s="1">
         <v>23</v>
       </c>
       <c r="DO16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DP16" t="s">
         <v>76</v>
@@ -8160,7 +8151,7 @@
       <c r="FY16" s="1"/>
       <c r="FZ16" s="1"/>
       <c r="GA16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17">
@@ -8413,13 +8404,13 @@
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
       <c r="CO17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CP17" s="1">
         <v>2</v>
       </c>
       <c r="CQ17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR17" t="s">
         <v>76</v>
@@ -8581,7 +8572,7 @@
       <c r="FY17" s="1"/>
       <c r="FZ17" s="1"/>
       <c r="GA17" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18">
@@ -8834,22 +8825,22 @@
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
       <c r="CO18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CP18" s="1">
         <v>14</v>
       </c>
       <c r="CQ18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="CS18" s="1">
         <v>36</v>
       </c>
       <c r="CT18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CU18" t="s">
         <v>76</v>
@@ -9004,7 +8995,7 @@
       <c r="FY18" s="1"/>
       <c r="FZ18" s="1"/>
       <c r="GA18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19">
@@ -9257,22 +9248,22 @@
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
       <c r="CO19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CP19" s="1">
         <v>1</v>
       </c>
       <c r="CQ19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="CS19" s="1">
         <v>17</v>
       </c>
       <c r="CT19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CU19" t="s">
         <v>76</v>
@@ -9427,7 +9418,7 @@
       <c r="FY19" s="1"/>
       <c r="FZ19" s="1"/>
       <c r="GA19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20">
@@ -9680,22 +9671,22 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
       <c r="CO20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CP20" s="1">
         <v>6</v>
       </c>
       <c r="CQ20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="CS20" s="1">
         <v>24</v>
       </c>
       <c r="CT20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CU20" t="s">
         <v>76</v>
@@ -9850,7 +9841,7 @@
       <c r="FY20" s="1"/>
       <c r="FZ20" s="1"/>
       <c r="GA20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21">
@@ -10077,29 +10068,29 @@
       <c r="BW21" s="1"/>
       <c r="BX21" s="1"/>
       <c r="BY21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BZ21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CA21" t="s">
         <v>212</v>
       </c>
       <c r="CB21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CC21" s="1"/>
       <c r="CD21" s="1"/>
       <c r="CE21" s="1"/>
       <c r="CF21" s="1"/>
       <c r="CG21" t="s">
+        <v>235</v>
+      </c>
+      <c r="CH21" t="s">
         <v>237</v>
       </c>
-      <c r="CH21" t="s">
+      <c r="CI21" t="s">
         <v>239</v>
-      </c>
-      <c r="CI21" t="s">
-        <v>241</v>
       </c>
       <c r="CJ21" t="s">
         <v>210</v>
@@ -10115,34 +10106,34 @@
         <v>8</v>
       </c>
       <c r="CQ21" t="s">
+        <v>258</v>
+      </c>
+      <c r="CR21" t="s">
         <v>261</v>
-      </c>
-      <c r="CR21" t="s">
-        <v>264</v>
       </c>
       <c r="CS21" s="1">
         <v>3</v>
       </c>
       <c r="CT21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="CU21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="CV21" s="1">
         <v>1</v>
       </c>
       <c r="CW21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="CX21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CY21" s="1">
         <v>5</v>
       </c>
       <c r="CZ21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DA21" t="s">
         <v>101</v>
@@ -10151,70 +10142,70 @@
         <v>13</v>
       </c>
       <c r="DC21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DD21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="DE21" s="1">
         <v>20</v>
       </c>
       <c r="DF21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DG21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="DH21" s="1">
         <v>74</v>
       </c>
       <c r="DI21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DJ21" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="DK21" s="1">
         <v>28</v>
       </c>
       <c r="DL21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DM21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DN21" s="1">
         <v>4</v>
       </c>
       <c r="DO21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DP21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="DQ21" s="1">
         <v>84</v>
       </c>
       <c r="DR21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DS21" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="DT21" s="1">
         <v>31</v>
       </c>
       <c r="DU21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DV21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="DW21" s="1">
         <v>28</v>
       </c>
       <c r="DX21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DY21" t="s">
         <v>76</v>
@@ -10558,13 +10549,13 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CP22" s="1">
         <v>7</v>
       </c>
       <c r="CQ22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR22" t="s">
         <v>167</v>
@@ -10573,43 +10564,43 @@
         <v>22</v>
       </c>
       <c r="CT22" t="s">
+        <v>258</v>
+      </c>
+      <c r="CU22" t="s">
         <v>261</v>
-      </c>
-      <c r="CU22" t="s">
-        <v>264</v>
       </c>
       <c r="CV22" s="1">
         <v>59</v>
       </c>
       <c r="CW22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CX22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="CY22" s="1">
         <v>26</v>
       </c>
       <c r="CZ22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DA22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="DB22" s="1">
         <v>28</v>
       </c>
       <c r="DC22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DD22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="DE22" s="1">
         <v>51</v>
       </c>
       <c r="DF22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DG22" t="s">
         <v>88</v>
@@ -10618,7 +10609,7 @@
         <v>15</v>
       </c>
       <c r="DI22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DJ22" t="s">
         <v>101</v>
@@ -10627,106 +10618,106 @@
         <v>1</v>
       </c>
       <c r="DL22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DM22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="DN22" s="1">
         <v>10</v>
       </c>
       <c r="DO22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DP22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DQ22" s="1">
         <v>18</v>
       </c>
       <c r="DR22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DS22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="DT22" s="1">
         <v>46</v>
       </c>
       <c r="DU22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DV22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="DW22" s="1">
         <v>24</v>
       </c>
       <c r="DX22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DY22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="DZ22" s="1">
         <v>18</v>
       </c>
       <c r="EA22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EB22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="EC22" s="1">
         <v>36</v>
       </c>
       <c r="ED22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EE22" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="EF22" s="1">
         <v>23</v>
       </c>
       <c r="EG22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EH22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="EI22" s="1">
         <v>10</v>
       </c>
       <c r="EJ22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EK22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="EL22" s="1">
         <v>19</v>
       </c>
       <c r="EM22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EN22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="EO22" s="1">
         <v>23</v>
       </c>
       <c r="EP22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EQ22" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="ER22" s="1">
         <v>19</v>
       </c>
       <c r="ES22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="ET22" s="1"/>
       <c r="EU22" s="1"/>
@@ -11017,22 +11008,22 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="CP23" s="1">
         <v>8</v>
       </c>
       <c r="CQ23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="CS23" s="1">
         <v>38</v>
       </c>
       <c r="CT23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CU23" t="s">
         <v>88</v>
@@ -11041,25 +11032,25 @@
         <v>55</v>
       </c>
       <c r="CW23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CX23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CY23" s="1">
         <v>3</v>
       </c>
       <c r="CZ23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DA23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="DB23" s="1">
         <v>4</v>
       </c>
       <c r="DC23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DD23" t="s">
         <v>101</v>
@@ -11068,25 +11059,25 @@
         <v>9</v>
       </c>
       <c r="DF23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DG23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DH23" s="1">
         <v>19</v>
       </c>
       <c r="DI23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DJ23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="DK23" s="1">
         <v>15</v>
       </c>
       <c r="DL23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DM23" t="s">
         <v>140</v>
@@ -11095,61 +11086,61 @@
         <v>141</v>
       </c>
       <c r="DO23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DP23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="DQ23" s="1">
         <v>12</v>
       </c>
       <c r="DR23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DS23" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="DT23" s="1">
         <v>215</v>
       </c>
       <c r="DU23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DV23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="DW23" s="1">
         <v>260</v>
       </c>
       <c r="DX23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DY23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="DZ23" s="1">
         <v>21</v>
       </c>
       <c r="EA23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="EB23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="EC23" s="1">
         <v>100</v>
       </c>
       <c r="ED23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EE23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="EF23" s="1">
         <v>4.5</v>
       </c>
       <c r="EG23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="EH23" t="s">
         <v>76</v>
@@ -11159,13 +11150,13 @@
         <v>76</v>
       </c>
       <c r="EK23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="EL23" s="1">
         <v>75</v>
       </c>
       <c r="EM23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EN23" t="s">
         <v>76</v>
@@ -11215,7 +11206,7 @@
       <c r="FY23" s="1"/>
       <c r="FZ23" s="1"/>
       <c r="GA23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24">
@@ -11476,25 +11467,25 @@
         <v>104</v>
       </c>
       <c r="CQ24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CS24" s="1">
         <v>9</v>
       </c>
       <c r="CT24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="CU24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CV24" s="1">
         <v>20</v>
       </c>
       <c r="CW24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="CX24" t="s">
         <v>101</v>
@@ -11503,7 +11494,7 @@
         <v>13</v>
       </c>
       <c r="CZ24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DA24" t="s">
         <v>101</v>
@@ -11512,25 +11503,25 @@
         <v>12</v>
       </c>
       <c r="DC24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DD24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DE24" s="1">
         <v>13.5</v>
       </c>
       <c r="DF24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DG24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="DH24" s="1">
         <v>16.75</v>
       </c>
       <c r="DI24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DJ24" t="s">
         <v>140</v>
@@ -11539,52 +11530,52 @@
         <v>141</v>
       </c>
       <c r="DL24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DM24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="DN24" s="1">
         <v>15.5</v>
       </c>
       <c r="DO24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DP24" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="DQ24" s="1">
         <v>100</v>
       </c>
       <c r="DR24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DS24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="DT24" s="1">
         <v>254</v>
       </c>
       <c r="DU24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DV24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="DW24" s="1">
         <v>8</v>
       </c>
       <c r="DX24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DY24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DZ24" s="1">
         <v>68</v>
       </c>
       <c r="EA24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="EB24" t="s">
         <v>76</v>
@@ -12500,7 +12491,7 @@
       <c r="FY26" s="1"/>
       <c r="FZ26" s="1"/>
       <c r="GA26" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27">
@@ -13326,7 +13317,7 @@
       <c r="FY28" s="1"/>
       <c r="FZ28" s="1"/>
       <c r="GA28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29">
@@ -13739,7 +13730,7 @@
       <c r="FY29" s="1"/>
       <c r="FZ29" s="1"/>
       <c r="GA29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30">
@@ -14156,7 +14147,7 @@
       <c r="FY30" s="1"/>
       <c r="FZ30" s="1"/>
       <c r="GA30" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31">
@@ -14573,7 +14564,7 @@
       <c r="FY31" s="1"/>
       <c r="FZ31" s="1"/>
       <c r="GA31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32">
@@ -14990,7 +14981,7 @@
       <c r="FY32" s="1"/>
       <c r="FZ32" s="1"/>
       <c r="GA32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33">
@@ -15407,7 +15398,7 @@
       <c r="FY33" s="1"/>
       <c r="FZ33" s="1"/>
       <c r="GA33" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34">
@@ -15810,7 +15801,7 @@
       <c r="FY34" s="1"/>
       <c r="FZ34" s="1"/>
       <c r="GA34" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35">
@@ -16213,7 +16204,7 @@
       <c r="FY35" s="1"/>
       <c r="FZ35" s="1"/>
       <c r="GA35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36">
@@ -16616,7 +16607,7 @@
       <c r="FY36" s="1"/>
       <c r="FZ36" s="1"/>
       <c r="GA36" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37">
@@ -17019,7 +17010,7 @@
       <c r="FY37" s="1"/>
       <c r="FZ37" s="1"/>
       <c r="GA37" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38">
@@ -17422,7 +17413,7 @@
       <c r="FY38" s="1"/>
       <c r="FZ38" s="1"/>
       <c r="GA38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39">
@@ -19684,20 +19675,20 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="CP44" s="1">
         <v>12</v>
       </c>
       <c r="CQ44" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CS44" s="1"/>
       <c r="CT44" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU44" t="s">
         <v>168</v>
@@ -19706,7 +19697,7 @@
         <v>9</v>
       </c>
       <c r="CW44" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX44" t="s">
         <v>76</v>
@@ -19854,7 +19845,7 @@
       <c r="FY44" s="1"/>
       <c r="FZ44" s="1"/>
       <c r="GA44" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45">
@@ -20091,20 +20082,20 @@
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
       <c r="CO45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="CP45" s="1">
         <v>26</v>
       </c>
       <c r="CQ45" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CS45" s="1"/>
       <c r="CT45" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU45" t="s">
         <v>168</v>
@@ -20113,7 +20104,7 @@
         <v>26</v>
       </c>
       <c r="CW45" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX45" t="s">
         <v>76</v>
@@ -20261,7 +20252,7 @@
       <c r="FY45" s="1"/>
       <c r="FZ45" s="1"/>
       <c r="GA45" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46">
@@ -20498,31 +20489,31 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="CP46" s="1">
         <v>6</v>
       </c>
       <c r="CQ46" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="CS46" s="1">
         <v>17</v>
       </c>
       <c r="CT46" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU46" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="CV46" s="1">
         <v>12</v>
       </c>
       <c r="CW46" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX46" t="s">
         <v>76</v>
@@ -20670,7 +20661,7 @@
       <c r="FY46" s="1"/>
       <c r="FZ46" s="1"/>
       <c r="GA46" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47">
@@ -21073,7 +21064,7 @@
       <c r="FY47" s="1"/>
       <c r="FZ47" s="1"/>
       <c r="GA47" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48">
@@ -21312,40 +21303,40 @@
       <c r="CM48" s="1"/>
       <c r="CN48" s="1"/>
       <c r="CO48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="CP48" s="1">
         <v>4</v>
       </c>
       <c r="CQ48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CS48" s="1">
         <v>4</v>
       </c>
       <c r="CT48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="CV48" s="1">
         <v>43</v>
       </c>
       <c r="CW48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CY48" s="1">
         <v>15</v>
       </c>
       <c r="CZ48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DA48" t="s">
         <v>76</v>
@@ -21486,7 +21477,7 @@
       <c r="FY48" s="1"/>
       <c r="FZ48" s="1"/>
       <c r="GA48" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49">
@@ -21889,7 +21880,7 @@
       <c r="FY49" s="1"/>
       <c r="FZ49" s="1"/>
       <c r="GA49" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50">
@@ -22292,7 +22283,7 @@
       <c r="FY50" s="1"/>
       <c r="FZ50" s="1"/>
       <c r="GA50" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51">
@@ -22695,7 +22686,7 @@
       <c r="FY51" s="1"/>
       <c r="FZ51" s="1"/>
       <c r="GA51" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52">
@@ -23098,7 +23089,7 @@
       <c r="FY52" s="1"/>
       <c r="FZ52" s="1"/>
       <c r="GA52" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53">
@@ -23501,7 +23492,7 @@
       <c r="FY53" s="1"/>
       <c r="FZ53" s="1"/>
       <c r="GA53" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54">
@@ -23904,7 +23895,7 @@
       <c r="FY54" s="1"/>
       <c r="FZ54" s="1"/>
       <c r="GA54" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55">
@@ -24149,25 +24140,25 @@
         <v>20</v>
       </c>
       <c r="CQ55" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR55" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="CS55" s="1">
         <v>8</v>
       </c>
       <c r="CT55" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU55" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="CV55" s="1">
         <v>30</v>
       </c>
       <c r="CW55" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX55" t="s">
         <v>76</v>
@@ -24315,7 +24306,7 @@
       <c r="FY55" s="1"/>
       <c r="FZ55" s="1"/>
       <c r="GA55" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56">
@@ -24552,13 +24543,13 @@
       <c r="CM56" s="1"/>
       <c r="CN56" s="1"/>
       <c r="CO56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="CP56" s="1">
         <v>24</v>
       </c>
       <c r="CQ56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR56" t="s">
         <v>88</v>
@@ -24567,25 +24558,25 @@
         <v>43</v>
       </c>
       <c r="CT56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CU56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CV56" s="1">
         <v>37</v>
       </c>
       <c r="CW56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CX56" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CY56" s="1">
         <v>59</v>
       </c>
       <c r="CZ56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DA56" t="s">
         <v>101</v>
@@ -24594,16 +24585,16 @@
         <v>62</v>
       </c>
       <c r="DC56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DD56" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DE56" s="1">
         <v>43</v>
       </c>
       <c r="DF56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DG56" t="s">
         <v>76</v>
@@ -24730,7 +24721,7 @@
       <c r="FY56" s="1"/>
       <c r="FZ56" s="1"/>
       <c r="GA56" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57">
@@ -24967,13 +24958,13 @@
       <c r="CM57" s="1"/>
       <c r="CN57" s="1"/>
       <c r="CO57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="CP57" s="1">
         <v>6</v>
       </c>
       <c r="CQ57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR57" t="s">
         <v>88</v>
@@ -24982,25 +24973,25 @@
         <v>10</v>
       </c>
       <c r="CT57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CU57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CV57" s="1">
         <v>25</v>
       </c>
       <c r="CW57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CX57" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CY57" s="1">
         <v>11</v>
       </c>
       <c r="CZ57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DA57" t="s">
         <v>101</v>
@@ -25009,16 +25000,16 @@
         <v>15</v>
       </c>
       <c r="DC57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DD57" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DE57" s="1">
         <v>13</v>
       </c>
       <c r="DF57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="DG57" t="s">
         <v>76</v>
@@ -25145,7 +25136,7 @@
       <c r="FY57" s="1"/>
       <c r="FZ57" s="1"/>
       <c r="GA57" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58">
@@ -25343,7 +25334,7 @@
         <v>214</v>
       </c>
       <c r="BT58" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="BU58" t="s">
         <v>214</v>
@@ -25352,10 +25343,10 @@
       <c r="BW58" s="1"/>
       <c r="BX58" s="1"/>
       <c r="BY58" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BZ58" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="CA58" t="s">
         <v>212</v>
@@ -25384,22 +25375,22 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="CP58" s="1">
         <v>2</v>
       </c>
       <c r="CQ58" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR58" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="CS58" s="1">
         <v>4</v>
       </c>
       <c r="CT58" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU58" t="s">
         <v>76</v>
@@ -25752,7 +25743,7 @@
         <v>214</v>
       </c>
       <c r="BT59" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="BU59" t="s">
         <v>214</v>
@@ -25761,10 +25752,10 @@
       <c r="BW59" s="1"/>
       <c r="BX59" s="1"/>
       <c r="BY59" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BZ59" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="CA59" t="s">
         <v>212</v>
@@ -25793,22 +25784,22 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="CP59" s="1">
         <v>5</v>
       </c>
       <c r="CQ59" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR59" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="CS59" s="1">
         <v>7</v>
       </c>
       <c r="CT59" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU59" t="s">
         <v>76</v>
@@ -26200,49 +26191,49 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
       <c r="CO60" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="CP60" s="1">
         <v>2</v>
       </c>
       <c r="CQ60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR60" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CS60" s="1">
         <v>24</v>
       </c>
       <c r="CT60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="CV60" s="1">
         <v>6</v>
       </c>
       <c r="CW60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX60" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CY60" s="1">
         <v>20</v>
       </c>
       <c r="CZ60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DA60" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DB60" s="1">
         <v>18</v>
       </c>
       <c r="DC60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DD60" t="s">
         <v>76</v>
@@ -26376,7 +26367,7 @@
       <c r="FY60" s="1"/>
       <c r="FZ60" s="1"/>
       <c r="GA60" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61">
@@ -26613,49 +26604,49 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="CP61" s="1">
         <v>4</v>
       </c>
       <c r="CQ61" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR61" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CS61" s="1">
         <v>11</v>
       </c>
       <c r="CT61" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="CV61" s="1">
         <v>15</v>
       </c>
       <c r="CW61" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX61" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CY61" s="1">
         <v>11</v>
       </c>
       <c r="CZ61" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DA61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DB61" s="1">
         <v>22</v>
       </c>
       <c r="DC61" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DD61" t="s">
         <v>76</v>
@@ -26789,7 +26780,7 @@
       <c r="FY61" s="1"/>
       <c r="FZ61" s="1"/>
       <c r="GA61" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62">
@@ -28194,7 +28185,7 @@
         <v>215</v>
       </c>
       <c r="BT65" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="BU65" t="s">
         <v>76</v>
@@ -28235,13 +28226,13 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="CP65" s="1">
         <v>24</v>
       </c>
       <c r="CQ65" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR65" t="s">
         <v>76</v>
@@ -28403,7 +28394,7 @@
       <c r="FY65" s="1"/>
       <c r="FZ65" s="1"/>
       <c r="GA65" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66">
@@ -28806,7 +28797,7 @@
       <c r="FY66" s="1"/>
       <c r="FZ66" s="1"/>
       <c r="GA66" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67">
@@ -29043,22 +29034,22 @@
       <c r="CM67" s="1"/>
       <c r="CN67" s="1"/>
       <c r="CO67" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CP67" s="1">
         <v>10</v>
       </c>
       <c r="CQ67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR67" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="CS67" s="1">
         <v>31</v>
       </c>
       <c r="CT67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU67" t="s">
         <v>140</v>
@@ -29067,25 +29058,25 @@
         <v>35</v>
       </c>
       <c r="CW67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX67" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="CY67" s="1">
         <v>21</v>
       </c>
       <c r="CZ67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DA67" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DB67" s="1">
         <v>5</v>
       </c>
       <c r="DC67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DD67" t="s">
         <v>76</v>
@@ -29219,7 +29210,7 @@
       <c r="FY67" s="1"/>
       <c r="FZ67" s="1"/>
       <c r="GA67" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68">
@@ -29462,34 +29453,34 @@
         <v>35</v>
       </c>
       <c r="CQ68" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR68" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="CS68" s="1">
         <v>25</v>
       </c>
       <c r="CT68" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU68" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CV68" s="1">
         <v>20</v>
       </c>
       <c r="CW68" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="CY68" s="1">
         <v>17</v>
       </c>
       <c r="CZ68" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DA68" t="s">
         <v>76</v>
@@ -29630,7 +29621,7 @@
       <c r="FY68" s="1"/>
       <c r="FZ68" s="1"/>
       <c r="GA68" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69">
@@ -29873,34 +29864,34 @@
         <v>20</v>
       </c>
       <c r="CQ69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CR69" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="CS69" s="1">
         <v>35</v>
       </c>
       <c r="CT69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CU69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CV69" s="1">
         <v>6</v>
       </c>
       <c r="CW69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="CX69" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="CY69" s="1">
         <v>14</v>
       </c>
       <c r="CZ69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="DA69" t="s">
         <v>76</v>
@@ -30041,7 +30032,7 @@
       <c r="FY69" s="1"/>
       <c r="FZ69" s="1"/>
       <c r="GA69" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70">
@@ -30278,13 +30269,13 @@
       <c r="CM70" s="1"/>
       <c r="CN70" s="1"/>
       <c r="CO70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CP70" s="1">
         <v>24</v>
       </c>
       <c r="CQ70" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR70" t="s">
         <v>140</v>
@@ -30293,16 +30284,16 @@
         <v>15</v>
       </c>
       <c r="CT70" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CU70" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="CV70" s="1">
         <v>21</v>
       </c>
       <c r="CW70" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CX70" t="s">
         <v>76</v>
@@ -30450,7 +30441,7 @@
       <c r="FY70" s="1"/>
       <c r="FZ70" s="1"/>
       <c r="GA70" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71">
@@ -30687,13 +30678,13 @@
       <c r="CM71" s="1"/>
       <c r="CN71" s="1"/>
       <c r="CO71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CP71" s="1">
         <v>28</v>
       </c>
       <c r="CQ71" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CR71" t="s">
         <v>140</v>
@@ -30702,16 +30693,16 @@
         <v>20</v>
       </c>
       <c r="CT71" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CU71" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="CV71" s="1">
         <v>11</v>
       </c>
       <c r="CW71" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CX71" t="s">
         <v>76</v>
@@ -30859,7 +30850,7 @@
       <c r="FY71" s="1"/>
       <c r="FZ71" s="1"/>
       <c r="GA71" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72">

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7983" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8058" uniqueCount="375">
   <si>
     <t>crop</t>
   </si>
@@ -612,6 +612,9 @@
     <t>fert_date_4</t>
   </si>
   <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
     <t>fert_amnt_per_4</t>
   </si>
   <si>
@@ -772,9 +775,6 @@
   </si>
   <si>
     <t>2024-06-29</t>
-  </si>
-  <si>
-    <t>2024-08-02</t>
   </si>
   <si>
     <t>harvest_amnt_1</t>
@@ -1158,7 +1158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1167,15 +1167,13 @@
       <diagonal/>
     </border>
     <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1391,85 +1389,85 @@
         <v>198</v>
       </c>
       <c r="BO1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BP1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BQ1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BR1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BS1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BT1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BU1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BV1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BW1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BX1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BY1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BZ1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="CA1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="CB1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CC1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CD1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CE1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CF1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CG1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CI1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CJ1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CK1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CL1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CM1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CN1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CO1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CP1" t="s">
         <v>254</v>
@@ -1918,7 +1916,9 @@
       <c r="BM2" t="s">
         <v>76</v>
       </c>
-      <c r="BN2" s="2"/>
+      <c r="BN2" t="s">
+        <v>76</v>
+      </c>
       <c r="BO2" s="1"/>
       <c r="BP2" t="s">
         <v>76</v>
@@ -2341,7 +2341,9 @@
       <c r="BM3" t="s">
         <v>76</v>
       </c>
-      <c r="BN3" s="2"/>
+      <c r="BN3" t="s">
+        <v>76</v>
+      </c>
       <c r="BO3" s="1"/>
       <c r="BP3" t="s">
         <v>76</v>
@@ -2750,7 +2752,9 @@
       <c r="BM4" t="s">
         <v>76</v>
       </c>
-      <c r="BN4" s="2"/>
+      <c r="BN4" t="s">
+        <v>76</v>
+      </c>
       <c r="BO4" s="1"/>
       <c r="BP4" t="s">
         <v>76</v>
@@ -3165,7 +3169,9 @@
       <c r="BM5" t="s">
         <v>76</v>
       </c>
-      <c r="BN5" s="2"/>
+      <c r="BN5" t="s">
+        <v>76</v>
+      </c>
       <c r="BO5" s="1"/>
       <c r="BP5" t="s">
         <v>76</v>
@@ -3580,7 +3586,9 @@
       <c r="BM6" t="s">
         <v>76</v>
       </c>
-      <c r="BN6" s="2"/>
+      <c r="BN6" t="s">
+        <v>76</v>
+      </c>
       <c r="BO6" s="1"/>
       <c r="BP6" t="s">
         <v>76</v>
@@ -3995,7 +4003,9 @@
       <c r="BM7" t="s">
         <v>76</v>
       </c>
-      <c r="BN7" s="2"/>
+      <c r="BN7" t="s">
+        <v>76</v>
+      </c>
       <c r="BO7" s="1"/>
       <c r="BP7" t="s">
         <v>76</v>
@@ -4410,7 +4420,9 @@
       <c r="BM8" t="s">
         <v>76</v>
       </c>
-      <c r="BN8" s="2"/>
+      <c r="BN8" t="s">
+        <v>76</v>
+      </c>
       <c r="BO8" s="1"/>
       <c r="BP8" t="s">
         <v>76</v>
@@ -4827,19 +4839,21 @@
       <c r="BM9" t="s">
         <v>76</v>
       </c>
-      <c r="BN9" s="2"/>
+      <c r="BN9" t="s">
+        <v>76</v>
+      </c>
       <c r="BO9" s="1"/>
       <c r="BP9" t="s">
         <v>76</v>
       </c>
       <c r="BQ9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BR9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BS9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BT9" t="s">
         <v>76</v>
@@ -4851,13 +4865,13 @@
       <c r="BW9" s="1"/>
       <c r="BX9" s="1"/>
       <c r="BY9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BZ9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CA9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CB9" t="s">
         <v>76</v>
@@ -4892,7 +4906,7 @@
         <v>256</v>
       </c>
       <c r="CR9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CS9" s="1">
         <v>5</v>
@@ -4901,7 +4915,7 @@
         <v>256</v>
       </c>
       <c r="CU9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CV9" s="1">
         <v>6</v>
@@ -4910,7 +4924,7 @@
         <v>256</v>
       </c>
       <c r="CX9" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="CY9" s="1">
         <v>10</v>
@@ -4937,7 +4951,7 @@
         <v>256</v>
       </c>
       <c r="DG9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DH9" s="1">
         <v>6</v>
@@ -4955,7 +4969,7 @@
         <v>256</v>
       </c>
       <c r="DM9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DN9" s="1">
         <v>13</v>
@@ -5272,7 +5286,9 @@
       <c r="BM10" t="s">
         <v>76</v>
       </c>
-      <c r="BN10" s="2"/>
+      <c r="BN10" t="s">
+        <v>76</v>
+      </c>
       <c r="BO10" s="1"/>
       <c r="BP10" t="s">
         <v>76</v>
@@ -5328,7 +5344,7 @@
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
       <c r="CO10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CP10" s="1">
         <v>4</v>
@@ -5337,7 +5353,7 @@
         <v>256</v>
       </c>
       <c r="CR10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CS10" s="1">
         <v>2</v>
@@ -5355,7 +5371,7 @@
         <v>256</v>
       </c>
       <c r="CX10" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="CY10" s="1">
         <v>6</v>
@@ -5373,7 +5389,7 @@
         <v>256</v>
       </c>
       <c r="DD10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DE10" s="1">
         <v>32</v>
@@ -5709,7 +5725,9 @@
       <c r="BM11" t="s">
         <v>76</v>
       </c>
-      <c r="BN11" s="2"/>
+      <c r="BN11" t="s">
+        <v>76</v>
+      </c>
       <c r="BO11" s="1"/>
       <c r="BP11" t="s">
         <v>76</v>
@@ -6128,7 +6146,9 @@
       <c r="BM12" t="s">
         <v>76</v>
       </c>
-      <c r="BN12" s="2"/>
+      <c r="BN12" t="s">
+        <v>76</v>
+      </c>
       <c r="BO12" s="1"/>
       <c r="BP12" t="s">
         <v>76</v>
@@ -6184,7 +6204,7 @@
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
       <c r="CO12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CP12" s="1">
         <v>4</v>
@@ -6211,7 +6231,7 @@
         <v>257</v>
       </c>
       <c r="CX12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CY12" s="1">
         <v>6</v>
@@ -6220,7 +6240,7 @@
         <v>257</v>
       </c>
       <c r="DA12" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="DB12" s="1">
         <v>15</v>
@@ -6247,7 +6267,7 @@
         <v>257</v>
       </c>
       <c r="DJ12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DK12" s="1">
         <v>15</v>
@@ -6265,7 +6285,7 @@
         <v>257</v>
       </c>
       <c r="DP12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DQ12" s="1">
         <v>19</v>
@@ -6575,7 +6595,9 @@
       <c r="BM13" t="s">
         <v>76</v>
       </c>
-      <c r="BN13" s="2"/>
+      <c r="BN13" t="s">
+        <v>76</v>
+      </c>
       <c r="BO13" s="1"/>
       <c r="BP13" t="s">
         <v>76</v>
@@ -6631,7 +6653,7 @@
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
       <c r="CO13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CP13" s="1">
         <v>12</v>
@@ -6658,7 +6680,7 @@
         <v>257</v>
       </c>
       <c r="CX13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CY13" s="1">
         <v>10</v>
@@ -6667,7 +6689,7 @@
         <v>257</v>
       </c>
       <c r="DA13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="DB13" s="1">
         <v>7</v>
@@ -6676,7 +6698,7 @@
         <v>257</v>
       </c>
       <c r="DD13" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="DE13" s="1">
         <v>77</v>
@@ -6703,7 +6725,7 @@
         <v>258</v>
       </c>
       <c r="DM13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DN13" s="1">
         <v>6.75</v>
@@ -6721,7 +6743,7 @@
         <v>257</v>
       </c>
       <c r="DS13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DT13" s="1">
         <v>99</v>
@@ -7024,7 +7046,9 @@
       <c r="BM14" t="s">
         <v>76</v>
       </c>
-      <c r="BN14" s="2"/>
+      <c r="BN14" t="s">
+        <v>76</v>
+      </c>
       <c r="BO14" s="1"/>
       <c r="BP14" t="s">
         <v>76</v>
@@ -7080,7 +7104,7 @@
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
       <c r="CO14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CP14" s="1">
         <v>1</v>
@@ -7107,7 +7131,7 @@
         <v>257</v>
       </c>
       <c r="CX14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CY14" s="1">
         <v>9</v>
@@ -7116,7 +7140,7 @@
         <v>257</v>
       </c>
       <c r="DA14" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="DB14" s="1">
         <v>15</v>
@@ -7143,7 +7167,7 @@
         <v>257</v>
       </c>
       <c r="DJ14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DK14" s="1">
         <v>17</v>
@@ -7161,7 +7185,7 @@
         <v>257</v>
       </c>
       <c r="DP14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DQ14" s="1">
         <v>25</v>
@@ -7471,7 +7495,9 @@
       <c r="BM15" t="s">
         <v>76</v>
       </c>
-      <c r="BN15" s="2"/>
+      <c r="BN15" t="s">
+        <v>76</v>
+      </c>
       <c r="BO15" s="1"/>
       <c r="BP15" t="s">
         <v>76</v>
@@ -7545,7 +7571,7 @@
         <v>257</v>
       </c>
       <c r="CU15" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="CV15" s="1">
         <v>7</v>
@@ -7563,7 +7589,7 @@
         <v>257</v>
       </c>
       <c r="DA15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DB15" s="1">
         <v>13</v>
@@ -7572,7 +7598,7 @@
         <v>257</v>
       </c>
       <c r="DD15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DE15" s="1">
         <v>13</v>
@@ -7590,7 +7616,7 @@
         <v>257</v>
       </c>
       <c r="DJ15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DK15" s="1"/>
       <c r="DL15" t="s">
@@ -7908,7 +7934,9 @@
       <c r="BM16" t="s">
         <v>76</v>
       </c>
-      <c r="BN16" s="2"/>
+      <c r="BN16" t="s">
+        <v>76</v>
+      </c>
       <c r="BO16" s="1"/>
       <c r="BP16" t="s">
         <v>76</v>
@@ -7964,7 +7992,7 @@
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
       <c r="CO16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CP16" s="1">
         <v>9</v>
@@ -7973,7 +8001,7 @@
         <v>257</v>
       </c>
       <c r="CR16" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="CS16" s="1">
         <v>9</v>
@@ -7982,7 +8010,7 @@
         <v>257</v>
       </c>
       <c r="CU16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CV16" s="1">
         <v>13</v>
@@ -8000,7 +8028,7 @@
         <v>257</v>
       </c>
       <c r="DA16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DB16" s="1">
         <v>13</v>
@@ -8345,7 +8373,9 @@
       <c r="BM17" t="s">
         <v>76</v>
       </c>
-      <c r="BN17" s="2"/>
+      <c r="BN17" t="s">
+        <v>76</v>
+      </c>
       <c r="BO17" s="1"/>
       <c r="BP17" t="s">
         <v>76</v>
@@ -8401,7 +8431,7 @@
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
       <c r="CO17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CP17" s="1">
         <v>2</v>
@@ -8766,7 +8796,9 @@
       <c r="BM18" t="s">
         <v>76</v>
       </c>
-      <c r="BN18" s="2"/>
+      <c r="BN18" t="s">
+        <v>76</v>
+      </c>
       <c r="BO18" s="1"/>
       <c r="BP18" t="s">
         <v>76</v>
@@ -8822,7 +8854,7 @@
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
       <c r="CO18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CP18" s="1">
         <v>14</v>
@@ -9189,7 +9221,9 @@
       <c r="BM19" t="s">
         <v>76</v>
       </c>
-      <c r="BN19" s="2"/>
+      <c r="BN19" t="s">
+        <v>76</v>
+      </c>
       <c r="BO19" s="1"/>
       <c r="BP19" t="s">
         <v>76</v>
@@ -9245,7 +9279,7 @@
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
       <c r="CO19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CP19" s="1">
         <v>1</v>
@@ -9612,7 +9646,9 @@
       <c r="BM20" t="s">
         <v>76</v>
       </c>
-      <c r="BN20" s="2"/>
+      <c r="BN20" t="s">
+        <v>76</v>
+      </c>
       <c r="BO20" s="1"/>
       <c r="BP20" t="s">
         <v>76</v>
@@ -9668,7 +9704,7 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
       <c r="CO20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CP20" s="1">
         <v>6</v>
@@ -10037,8 +10073,8 @@
       <c r="BM21" t="s">
         <v>182</v>
       </c>
-      <c r="BN21" s="2">
-        <v>45506</v>
+      <c r="BN21" t="s">
+        <v>199</v>
       </c>
       <c r="BO21" s="1">
         <v>0.5</v>
@@ -10047,13 +10083,13 @@
         <v>174</v>
       </c>
       <c r="BQ21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BR21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BS21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BT21" t="s">
         <v>164</v>
@@ -10065,32 +10101,32 @@
       <c r="BW21" s="1"/>
       <c r="BX21" s="1"/>
       <c r="BY21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BZ21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CA21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CB21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CC21" s="1"/>
       <c r="CD21" s="1"/>
       <c r="CE21" s="1"/>
       <c r="CF21" s="1"/>
       <c r="CG21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="CH21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CI21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CJ21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CK21" s="1"/>
       <c r="CL21" s="1"/>
@@ -10115,7 +10151,7 @@
         <v>258</v>
       </c>
       <c r="CU21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CV21" s="1">
         <v>1</v>
@@ -10124,7 +10160,7 @@
         <v>258</v>
       </c>
       <c r="CX21" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="CY21" s="1">
         <v>5</v>
@@ -10486,8 +10522,8 @@
       <c r="BM22" t="s">
         <v>182</v>
       </c>
-      <c r="BN22" s="2">
-        <v>45506</v>
+      <c r="BN22" t="s">
+        <v>199</v>
       </c>
       <c r="BO22" s="1">
         <v>0.5</v>
@@ -10546,7 +10582,7 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CP22" s="1">
         <v>7</v>
@@ -10573,7 +10609,7 @@
         <v>257</v>
       </c>
       <c r="CX22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CY22" s="1">
         <v>26</v>
@@ -10582,7 +10618,7 @@
         <v>257</v>
       </c>
       <c r="DA22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DB22" s="1">
         <v>28</v>
@@ -10591,7 +10627,7 @@
         <v>257</v>
       </c>
       <c r="DD22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="DE22" s="1">
         <v>51</v>
@@ -10636,7 +10672,7 @@
         <v>257</v>
       </c>
       <c r="DS22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DT22" s="1">
         <v>46</v>
@@ -10645,7 +10681,7 @@
         <v>257</v>
       </c>
       <c r="DV22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DW22" s="1">
         <v>24</v>
@@ -10949,7 +10985,9 @@
       <c r="BM23" t="s">
         <v>76</v>
       </c>
-      <c r="BN23" s="2"/>
+      <c r="BN23" t="s">
+        <v>76</v>
+      </c>
       <c r="BO23" s="1"/>
       <c r="BP23" t="s">
         <v>76</v>
@@ -11005,7 +11043,7 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CP23" s="1">
         <v>8</v>
@@ -11014,7 +11052,7 @@
         <v>257</v>
       </c>
       <c r="CR23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CS23" s="1">
         <v>38</v>
@@ -11032,7 +11070,7 @@
         <v>257</v>
       </c>
       <c r="CX23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CY23" s="1">
         <v>3</v>
@@ -11041,7 +11079,7 @@
         <v>258</v>
       </c>
       <c r="DA23" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="DB23" s="1">
         <v>4</v>
@@ -11068,7 +11106,7 @@
         <v>258</v>
       </c>
       <c r="DJ23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DK23" s="1">
         <v>15</v>
@@ -11086,7 +11124,7 @@
         <v>257</v>
       </c>
       <c r="DP23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="DQ23" s="1">
         <v>12</v>
@@ -11095,7 +11133,7 @@
         <v>258</v>
       </c>
       <c r="DS23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DT23" s="1">
         <v>215</v>
@@ -11402,7 +11440,9 @@
       <c r="BM24" t="s">
         <v>76</v>
       </c>
-      <c r="BN24" s="2"/>
+      <c r="BN24" t="s">
+        <v>76</v>
+      </c>
       <c r="BO24" s="1"/>
       <c r="BP24" t="s">
         <v>76</v>
@@ -11467,7 +11507,7 @@
         <v>257</v>
       </c>
       <c r="CR24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CS24" s="1">
         <v>9</v>
@@ -11476,7 +11516,7 @@
         <v>258</v>
       </c>
       <c r="CU24" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="CV24" s="1">
         <v>20</v>
@@ -11512,7 +11552,7 @@
         <v>258</v>
       </c>
       <c r="DG24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DH24" s="1">
         <v>16.75</v>
@@ -11530,7 +11570,7 @@
         <v>257</v>
       </c>
       <c r="DM24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="DN24" s="1">
         <v>15.5</v>
@@ -11539,7 +11579,7 @@
         <v>258</v>
       </c>
       <c r="DP24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DQ24" s="1">
         <v>100</v>
@@ -11849,7 +11889,9 @@
       <c r="BM25" t="s">
         <v>76</v>
       </c>
-      <c r="BN25" s="2"/>
+      <c r="BN25" t="s">
+        <v>76</v>
+      </c>
       <c r="BO25" s="1"/>
       <c r="BP25" t="s">
         <v>76</v>
@@ -12266,7 +12308,9 @@
       <c r="BM26" t="s">
         <v>76</v>
       </c>
-      <c r="BN26" s="2"/>
+      <c r="BN26" t="s">
+        <v>76</v>
+      </c>
       <c r="BO26" s="1"/>
       <c r="BP26" t="s">
         <v>76</v>
@@ -12679,7 +12723,9 @@
       <c r="BM27" t="s">
         <v>76</v>
       </c>
-      <c r="BN27" s="2"/>
+      <c r="BN27" t="s">
+        <v>76</v>
+      </c>
       <c r="BO27" s="1"/>
       <c r="BP27" t="s">
         <v>76</v>
@@ -13092,7 +13138,9 @@
       <c r="BM28" t="s">
         <v>76</v>
       </c>
-      <c r="BN28" s="2"/>
+      <c r="BN28" t="s">
+        <v>76</v>
+      </c>
       <c r="BO28" s="1"/>
       <c r="BP28" t="s">
         <v>76</v>
@@ -13505,7 +13553,9 @@
       <c r="BM29" t="s">
         <v>76</v>
       </c>
-      <c r="BN29" s="2"/>
+      <c r="BN29" t="s">
+        <v>76</v>
+      </c>
       <c r="BO29" s="1"/>
       <c r="BP29" t="s">
         <v>76</v>
@@ -13922,7 +13972,9 @@
       <c r="BM30" t="s">
         <v>76</v>
       </c>
-      <c r="BN30" s="2"/>
+      <c r="BN30" t="s">
+        <v>76</v>
+      </c>
       <c r="BO30" s="1"/>
       <c r="BP30" t="s">
         <v>76</v>
@@ -14339,7 +14391,9 @@
       <c r="BM31" t="s">
         <v>76</v>
       </c>
-      <c r="BN31" s="2"/>
+      <c r="BN31" t="s">
+        <v>76</v>
+      </c>
       <c r="BO31" s="1"/>
       <c r="BP31" t="s">
         <v>76</v>
@@ -14756,7 +14810,9 @@
       <c r="BM32" t="s">
         <v>76</v>
       </c>
-      <c r="BN32" s="2"/>
+      <c r="BN32" t="s">
+        <v>76</v>
+      </c>
       <c r="BO32" s="1"/>
       <c r="BP32" t="s">
         <v>76</v>
@@ -15173,7 +15229,9 @@
       <c r="BM33" t="s">
         <v>76</v>
       </c>
-      <c r="BN33" s="2"/>
+      <c r="BN33" t="s">
+        <v>76</v>
+      </c>
       <c r="BO33" s="1"/>
       <c r="BP33" t="s">
         <v>76</v>
@@ -15576,7 +15634,9 @@
       <c r="BM34" t="s">
         <v>76</v>
       </c>
-      <c r="BN34" s="2"/>
+      <c r="BN34" t="s">
+        <v>76</v>
+      </c>
       <c r="BO34" s="1"/>
       <c r="BP34" t="s">
         <v>76</v>
@@ -15979,7 +16039,9 @@
       <c r="BM35" t="s">
         <v>76</v>
       </c>
-      <c r="BN35" s="2"/>
+      <c r="BN35" t="s">
+        <v>76</v>
+      </c>
       <c r="BO35" s="1"/>
       <c r="BP35" t="s">
         <v>76</v>
@@ -16382,7 +16444,9 @@
       <c r="BM36" t="s">
         <v>76</v>
       </c>
-      <c r="BN36" s="2"/>
+      <c r="BN36" t="s">
+        <v>76</v>
+      </c>
       <c r="BO36" s="1"/>
       <c r="BP36" t="s">
         <v>76</v>
@@ -16785,7 +16849,9 @@
       <c r="BM37" t="s">
         <v>76</v>
       </c>
-      <c r="BN37" s="2"/>
+      <c r="BN37" t="s">
+        <v>76</v>
+      </c>
       <c r="BO37" s="1"/>
       <c r="BP37" t="s">
         <v>76</v>
@@ -17188,7 +17254,9 @@
       <c r="BM38" t="s">
         <v>76</v>
       </c>
-      <c r="BN38" s="2"/>
+      <c r="BN38" t="s">
+        <v>76</v>
+      </c>
       <c r="BO38" s="1"/>
       <c r="BP38" t="s">
         <v>76</v>
@@ -17593,7 +17661,9 @@
       <c r="BM39" t="s">
         <v>76</v>
       </c>
-      <c r="BN39" s="2"/>
+      <c r="BN39" t="s">
+        <v>76</v>
+      </c>
       <c r="BO39" s="1"/>
       <c r="BP39" t="s">
         <v>76</v>
@@ -17998,7 +18068,9 @@
       <c r="BM40" t="s">
         <v>76</v>
       </c>
-      <c r="BN40" s="2"/>
+      <c r="BN40" t="s">
+        <v>76</v>
+      </c>
       <c r="BO40" s="1"/>
       <c r="BP40" t="s">
         <v>76</v>
@@ -18403,7 +18475,9 @@
       <c r="BM41" t="s">
         <v>76</v>
       </c>
-      <c r="BN41" s="2"/>
+      <c r="BN41" t="s">
+        <v>76</v>
+      </c>
       <c r="BO41" s="1"/>
       <c r="BP41" t="s">
         <v>76</v>
@@ -18808,7 +18882,9 @@
       <c r="BM42" t="s">
         <v>76</v>
       </c>
-      <c r="BN42" s="2"/>
+      <c r="BN42" t="s">
+        <v>76</v>
+      </c>
       <c r="BO42" s="1"/>
       <c r="BP42" t="s">
         <v>76</v>
@@ -19213,7 +19289,9 @@
       <c r="BM43" t="s">
         <v>76</v>
       </c>
-      <c r="BN43" s="2"/>
+      <c r="BN43" t="s">
+        <v>76</v>
+      </c>
       <c r="BO43" s="1"/>
       <c r="BP43" t="s">
         <v>76</v>
@@ -19616,7 +19694,9 @@
       <c r="BM44" t="s">
         <v>76</v>
       </c>
-      <c r="BN44" s="2"/>
+      <c r="BN44" t="s">
+        <v>76</v>
+      </c>
       <c r="BO44" s="1"/>
       <c r="BP44" t="s">
         <v>76</v>
@@ -19672,7 +19752,7 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CP44" s="1">
         <v>12</v>
@@ -19681,7 +19761,7 @@
         <v>256</v>
       </c>
       <c r="CR44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CS44" s="1"/>
       <c r="CT44" t="s">
@@ -20023,7 +20103,9 @@
       <c r="BM45" t="s">
         <v>76</v>
       </c>
-      <c r="BN45" s="2"/>
+      <c r="BN45" t="s">
+        <v>76</v>
+      </c>
       <c r="BO45" s="1"/>
       <c r="BP45" t="s">
         <v>76</v>
@@ -20079,7 +20161,7 @@
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
       <c r="CO45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CP45" s="1">
         <v>26</v>
@@ -20088,7 +20170,7 @@
         <v>256</v>
       </c>
       <c r="CR45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CS45" s="1"/>
       <c r="CT45" t="s">
@@ -20430,7 +20512,9 @@
       <c r="BM46" t="s">
         <v>76</v>
       </c>
-      <c r="BN46" s="2"/>
+      <c r="BN46" t="s">
+        <v>76</v>
+      </c>
       <c r="BO46" s="1"/>
       <c r="BP46" t="s">
         <v>76</v>
@@ -20486,7 +20570,7 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CP46" s="1">
         <v>6</v>
@@ -20504,7 +20588,7 @@
         <v>256</v>
       </c>
       <c r="CU46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CV46" s="1">
         <v>12</v>
@@ -20839,7 +20923,9 @@
       <c r="BM47" t="s">
         <v>76</v>
       </c>
-      <c r="BN47" s="2"/>
+      <c r="BN47" t="s">
+        <v>76</v>
+      </c>
       <c r="BO47" s="1"/>
       <c r="BP47" t="s">
         <v>76</v>
@@ -21244,7 +21330,9 @@
       <c r="BM48" t="s">
         <v>76</v>
       </c>
-      <c r="BN48" s="2"/>
+      <c r="BN48" t="s">
+        <v>76</v>
+      </c>
       <c r="BO48" s="1"/>
       <c r="BP48" t="s">
         <v>76</v>
@@ -21300,7 +21388,7 @@
       <c r="CM48" s="1"/>
       <c r="CN48" s="1"/>
       <c r="CO48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CP48" s="1">
         <v>4</v>
@@ -21309,7 +21397,7 @@
         <v>256</v>
       </c>
       <c r="CR48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CS48" s="1">
         <v>4</v>
@@ -21318,7 +21406,7 @@
         <v>256</v>
       </c>
       <c r="CU48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CV48" s="1">
         <v>43</v>
@@ -21327,7 +21415,7 @@
         <v>256</v>
       </c>
       <c r="CX48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CY48" s="1">
         <v>15</v>
@@ -21655,7 +21743,9 @@
       <c r="BM49" t="s">
         <v>76</v>
       </c>
-      <c r="BN49" s="2"/>
+      <c r="BN49" t="s">
+        <v>76</v>
+      </c>
       <c r="BO49" s="1"/>
       <c r="BP49" t="s">
         <v>76</v>
@@ -22058,7 +22148,9 @@
       <c r="BM50" t="s">
         <v>76</v>
       </c>
-      <c r="BN50" s="2"/>
+      <c r="BN50" t="s">
+        <v>76</v>
+      </c>
       <c r="BO50" s="1"/>
       <c r="BP50" t="s">
         <v>76</v>
@@ -22461,7 +22553,9 @@
       <c r="BM51" t="s">
         <v>76</v>
       </c>
-      <c r="BN51" s="2"/>
+      <c r="BN51" t="s">
+        <v>76</v>
+      </c>
       <c r="BO51" s="1"/>
       <c r="BP51" t="s">
         <v>76</v>
@@ -22864,7 +22958,9 @@
       <c r="BM52" t="s">
         <v>76</v>
       </c>
-      <c r="BN52" s="2"/>
+      <c r="BN52" t="s">
+        <v>76</v>
+      </c>
       <c r="BO52" s="1"/>
       <c r="BP52" t="s">
         <v>76</v>
@@ -23267,7 +23363,9 @@
       <c r="BM53" t="s">
         <v>76</v>
       </c>
-      <c r="BN53" s="2"/>
+      <c r="BN53" t="s">
+        <v>76</v>
+      </c>
       <c r="BO53" s="1"/>
       <c r="BP53" t="s">
         <v>76</v>
@@ -23670,7 +23768,9 @@
       <c r="BM54" t="s">
         <v>76</v>
       </c>
-      <c r="BN54" s="2"/>
+      <c r="BN54" t="s">
+        <v>76</v>
+      </c>
       <c r="BO54" s="1"/>
       <c r="BP54" t="s">
         <v>76</v>
@@ -24075,7 +24175,9 @@
       <c r="BM55" t="s">
         <v>76</v>
       </c>
-      <c r="BN55" s="2"/>
+      <c r="BN55" t="s">
+        <v>76</v>
+      </c>
       <c r="BO55" s="1"/>
       <c r="BP55" t="s">
         <v>76</v>
@@ -24140,7 +24242,7 @@
         <v>256</v>
       </c>
       <c r="CR55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CS55" s="1">
         <v>8</v>
@@ -24484,7 +24586,9 @@
       <c r="BM56" t="s">
         <v>76</v>
       </c>
-      <c r="BN56" s="2"/>
+      <c r="BN56" t="s">
+        <v>76</v>
+      </c>
       <c r="BO56" s="1"/>
       <c r="BP56" t="s">
         <v>76</v>
@@ -24540,7 +24644,7 @@
       <c r="CM56" s="1"/>
       <c r="CN56" s="1"/>
       <c r="CO56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CP56" s="1">
         <v>24</v>
@@ -24558,7 +24662,7 @@
         <v>257</v>
       </c>
       <c r="CU56" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CV56" s="1">
         <v>37</v>
@@ -24567,7 +24671,7 @@
         <v>257</v>
       </c>
       <c r="CX56" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="CY56" s="1">
         <v>59</v>
@@ -24899,7 +25003,9 @@
       <c r="BM57" t="s">
         <v>76</v>
       </c>
-      <c r="BN57" s="2"/>
+      <c r="BN57" t="s">
+        <v>76</v>
+      </c>
       <c r="BO57" s="1"/>
       <c r="BP57" t="s">
         <v>76</v>
@@ -24955,7 +25061,7 @@
       <c r="CM57" s="1"/>
       <c r="CN57" s="1"/>
       <c r="CO57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CP57" s="1">
         <v>6</v>
@@ -24973,7 +25079,7 @@
         <v>257</v>
       </c>
       <c r="CU57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CV57" s="1">
         <v>25</v>
@@ -24982,7 +25088,7 @@
         <v>257</v>
       </c>
       <c r="CX57" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="CY57" s="1">
         <v>11</v>
@@ -25316,37 +25422,39 @@
       <c r="BM58" t="s">
         <v>76</v>
       </c>
-      <c r="BN58" s="2"/>
+      <c r="BN58" t="s">
+        <v>76</v>
+      </c>
       <c r="BO58" s="1"/>
       <c r="BP58" t="s">
         <v>76</v>
       </c>
       <c r="BQ58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BR58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BS58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BT58" t="s">
         <v>185</v>
       </c>
       <c r="BU58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BV58" s="1"/>
       <c r="BW58" s="1"/>
       <c r="BX58" s="1"/>
       <c r="BY58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BZ58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CA58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CB58" t="s">
         <v>76</v>
@@ -25372,7 +25480,7 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CP58" s="1">
         <v>2</v>
@@ -25725,37 +25833,39 @@
       <c r="BM59" t="s">
         <v>76</v>
       </c>
-      <c r="BN59" s="2"/>
+      <c r="BN59" t="s">
+        <v>76</v>
+      </c>
       <c r="BO59" s="1"/>
       <c r="BP59" t="s">
         <v>76</v>
       </c>
       <c r="BQ59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BR59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BS59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BT59" t="s">
         <v>185</v>
       </c>
       <c r="BU59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BV59" s="1"/>
       <c r="BW59" s="1"/>
       <c r="BX59" s="1"/>
       <c r="BY59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BZ59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CA59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CB59" t="s">
         <v>76</v>
@@ -25781,7 +25891,7 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CP59" s="1">
         <v>5</v>
@@ -26132,7 +26242,9 @@
       <c r="BM60" t="s">
         <v>76</v>
       </c>
-      <c r="BN60" s="2"/>
+      <c r="BN60" t="s">
+        <v>76</v>
+      </c>
       <c r="BO60" s="1"/>
       <c r="BP60" t="s">
         <v>76</v>
@@ -26188,7 +26300,7 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
       <c r="CO60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CP60" s="1">
         <v>2</v>
@@ -26197,7 +26309,7 @@
         <v>256</v>
       </c>
       <c r="CR60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CS60" s="1">
         <v>24</v>
@@ -26206,7 +26318,7 @@
         <v>256</v>
       </c>
       <c r="CU60" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CV60" s="1">
         <v>6</v>
@@ -26215,7 +26327,7 @@
         <v>256</v>
       </c>
       <c r="CX60" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="CY60" s="1">
         <v>20</v>
@@ -26545,7 +26657,9 @@
       <c r="BM61" t="s">
         <v>76</v>
       </c>
-      <c r="BN61" s="2"/>
+      <c r="BN61" t="s">
+        <v>76</v>
+      </c>
       <c r="BO61" s="1"/>
       <c r="BP61" t="s">
         <v>76</v>
@@ -26601,7 +26715,7 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CP61" s="1">
         <v>4</v>
@@ -26610,7 +26724,7 @@
         <v>256</v>
       </c>
       <c r="CR61" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CS61" s="1">
         <v>11</v>
@@ -26619,7 +26733,7 @@
         <v>256</v>
       </c>
       <c r="CU61" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CV61" s="1">
         <v>15</v>
@@ -26628,7 +26742,7 @@
         <v>256</v>
       </c>
       <c r="CX61" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="CY61" s="1">
         <v>11</v>
@@ -26958,7 +27072,9 @@
       <c r="BM62" t="s">
         <v>76</v>
       </c>
-      <c r="BN62" s="2"/>
+      <c r="BN62" t="s">
+        <v>76</v>
+      </c>
       <c r="BO62" s="1"/>
       <c r="BP62" t="s">
         <v>76</v>
@@ -27361,7 +27477,9 @@
       <c r="BM63" t="s">
         <v>76</v>
       </c>
-      <c r="BN63" s="2"/>
+      <c r="BN63" t="s">
+        <v>76</v>
+      </c>
       <c r="BO63" s="1"/>
       <c r="BP63" t="s">
         <v>76</v>
@@ -27764,7 +27882,9 @@
       <c r="BM64" t="s">
         <v>76</v>
       </c>
-      <c r="BN64" s="2"/>
+      <c r="BN64" t="s">
+        <v>76</v>
+      </c>
       <c r="BO64" s="1"/>
       <c r="BP64" t="s">
         <v>76</v>
@@ -28167,22 +28287,24 @@
       <c r="BM65" t="s">
         <v>76</v>
       </c>
-      <c r="BN65" s="2"/>
+      <c r="BN65" t="s">
+        <v>76</v>
+      </c>
       <c r="BO65" s="1"/>
       <c r="BP65" t="s">
         <v>76</v>
       </c>
       <c r="BQ65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BR65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BS65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BT65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BU65" t="s">
         <v>76</v>
@@ -28223,7 +28345,7 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CP65" s="1">
         <v>24</v>
@@ -28572,7 +28694,9 @@
       <c r="BM66" t="s">
         <v>76</v>
       </c>
-      <c r="BN66" s="2"/>
+      <c r="BN66" t="s">
+        <v>76</v>
+      </c>
       <c r="BO66" s="1"/>
       <c r="BP66" t="s">
         <v>76</v>
@@ -28975,7 +29099,9 @@
       <c r="BM67" t="s">
         <v>76</v>
       </c>
-      <c r="BN67" s="2"/>
+      <c r="BN67" t="s">
+        <v>76</v>
+      </c>
       <c r="BO67" s="1"/>
       <c r="BP67" t="s">
         <v>76</v>
@@ -29031,7 +29157,7 @@
       <c r="CM67" s="1"/>
       <c r="CN67" s="1"/>
       <c r="CO67" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="CP67" s="1">
         <v>10</v>
@@ -29058,7 +29184,7 @@
         <v>256</v>
       </c>
       <c r="CX67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CY67" s="1">
         <v>21</v>
@@ -29388,7 +29514,9 @@
       <c r="BM68" t="s">
         <v>76</v>
       </c>
-      <c r="BN68" s="2"/>
+      <c r="BN68" t="s">
+        <v>76</v>
+      </c>
       <c r="BO68" s="1"/>
       <c r="BP68" t="s">
         <v>76</v>
@@ -29453,7 +29581,7 @@
         <v>256</v>
       </c>
       <c r="CR68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CS68" s="1">
         <v>25</v>
@@ -29799,7 +29927,9 @@
       <c r="BM69" t="s">
         <v>76</v>
       </c>
-      <c r="BN69" s="2"/>
+      <c r="BN69" t="s">
+        <v>76</v>
+      </c>
       <c r="BO69" s="1"/>
       <c r="BP69" t="s">
         <v>76</v>
@@ -29864,7 +29994,7 @@
         <v>256</v>
       </c>
       <c r="CR69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CS69" s="1">
         <v>35</v>
@@ -30210,7 +30340,9 @@
       <c r="BM70" t="s">
         <v>76</v>
       </c>
-      <c r="BN70" s="2"/>
+      <c r="BN70" t="s">
+        <v>76</v>
+      </c>
       <c r="BO70" s="1"/>
       <c r="BP70" t="s">
         <v>76</v>
@@ -30266,7 +30398,7 @@
       <c r="CM70" s="1"/>
       <c r="CN70" s="1"/>
       <c r="CO70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CP70" s="1">
         <v>24</v>
@@ -30284,7 +30416,7 @@
         <v>257</v>
       </c>
       <c r="CU70" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CV70" s="1">
         <v>21</v>
@@ -30619,7 +30751,9 @@
       <c r="BM71" t="s">
         <v>76</v>
       </c>
-      <c r="BN71" s="2"/>
+      <c r="BN71" t="s">
+        <v>76</v>
+      </c>
       <c r="BO71" s="1"/>
       <c r="BP71" t="s">
         <v>76</v>
@@ -30675,7 +30809,7 @@
       <c r="CM71" s="1"/>
       <c r="CN71" s="1"/>
       <c r="CO71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CP71" s="1">
         <v>28</v>
@@ -31034,7 +31168,9 @@
       <c r="BM72" t="s">
         <v>76</v>
       </c>
-      <c r="BN72" s="2"/>
+      <c r="BN72" t="s">
+        <v>76</v>
+      </c>
       <c r="BO72" s="1"/>
       <c r="BP72" t="s">
         <v>76</v>
@@ -31443,7 +31579,9 @@
       <c r="BM73" t="s">
         <v>76</v>
       </c>
-      <c r="BN73" s="2"/>
+      <c r="BN73" t="s">
+        <v>76</v>
+      </c>
       <c r="BO73" s="1"/>
       <c r="BP73" t="s">
         <v>76</v>
@@ -31848,7 +31986,9 @@
       <c r="BM74" t="s">
         <v>76</v>
       </c>
-      <c r="BN74" s="2"/>
+      <c r="BN74" t="s">
+        <v>76</v>
+      </c>
       <c r="BO74" s="1"/>
       <c r="BP74" t="s">
         <v>76</v>
@@ -32253,7 +32393,9 @@
       <c r="BM75" t="s">
         <v>76</v>
       </c>
-      <c r="BN75" s="2"/>
+      <c r="BN75" t="s">
+        <v>76</v>
+      </c>
       <c r="BO75" s="1"/>
       <c r="BP75" t="s">
         <v>76</v>
@@ -32650,7 +32792,9 @@
       <c r="BM76" t="s">
         <v>76</v>
       </c>
-      <c r="BN76" s="2"/>
+      <c r="BN76" t="s">
+        <v>76</v>
+      </c>
       <c r="BO76" s="1"/>
       <c r="BP76" t="s">
         <v>76</v>

--- a/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_data_2024_raw.xlsx
@@ -21165,7 +21165,7 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
         <v>50</v>
@@ -24010,7 +24010,7 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1">
         <v>50</v>
@@ -24423,7 +24423,7 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
         <v>75</v>
@@ -24840,7 +24840,7 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
         <v>75</v>
@@ -28124,7 +28124,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1">
         <v>50</v>
@@ -28531,7 +28531,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="1">
         <v>46</v>
@@ -30177,7 +30177,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="1">
         <v>40</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" s="1">
         <v>40</v>
